--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:N306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0d029067&amp;x-expires=1758898800&amp;x-signature=97EGRGlirn4OeA%2FsD7By%2BbX1KCM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf2ede4e&amp;x-expires=1758978000&amp;x-signature=1OyqOLviQ6GHqVCJvz10yF%2FZtuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce10e023&amp;x-expires=1758898800&amp;x-signature=pv2YNr%2BB3Qh5eA44PuKWPPGWd5s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb97406b&amp;x-expires=1758978000&amp;x-signature=2MEit6bHexTnysJcdNeOspqg0sk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ec4042d&amp;x-expires=1758898800&amp;x-signature=MiekNumxhzUUY7%2F84W8%2F5u8QarY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e1a7c43&amp;x-expires=1758978000&amp;x-signature=j6YweD2oPw9RPy%2FtfWNcF0vvHmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00ca2ddc&amp;x-expires=1758898800&amp;x-signature=H67wLhiAs4Jm3eB8nApgus9v2iI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=aea636ac&amp;x-expires=1758978000&amp;x-signature=b6JqUYAPsWcQyBYCqLwMZhctsLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9986a85&amp;x-expires=1758898800&amp;x-signature=0zdMhCp5%2F9cR4P42oksDwuX6kYY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ba524873&amp;x-expires=1758978000&amp;x-signature=8f44Q2NG8yuG%2Bomu3V2nVWqz%2Bu8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4ef0babc&amp;x-expires=1758898800&amp;x-signature=mm3IxQt%2B9MkyHaOEe2ToEA3ITKA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=139bcce3&amp;x-expires=1758978000&amp;x-signature=qC0NOMCi3l4m8wl4v0zvMOx7Ibw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a51a939f&amp;x-expires=1758898800&amp;x-signature=NNXidIkT1suTXoByakVQiMOz%2FRU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75143f4e&amp;x-expires=1758978000&amp;x-signature=V6KUTz1miLcgKNIYFDY5CJUl7ig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e21f34da&amp;x-expires=1758898800&amp;x-signature=8wiGQUiZmlMRLoW2%2FiQuumIe3kA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5766d22b&amp;x-expires=1758978000&amp;x-signature=ZXfQ2Yg0ojLiX4lSqm2oUR9zIn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a322aec3&amp;x-expires=1758898800&amp;x-signature=HZEkKxcHDGQMdAoveDHcMc0jwAM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=931969c2&amp;x-expires=1758978000&amp;x-signature=n%2BfdTQRf%2BXzwRx9MB8vXJdjwrQY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,18 +1039,18 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Amo la arena boyacence 🤤🤤🤤</t>
+          <t>si panela con sal</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45914.81377314815</v>
+        <v>45906.07712962963</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45914</v>
+        <v>45906</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19:31:50</t>
+          <t>01:51:04</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0cae9729&amp;x-expires=1758898800&amp;x-signature=1di9tq3LLCwCQzBzuxScEVv46Vc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba44616f&amp;x-expires=1758978000&amp;x-signature=eDNVnLy2F7UKEbAX8tMXZ62%2BnW0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,18 +1095,18 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>la arepa de maíz pelado asada en laja de piedra una delicia</t>
+          <t>Amo la arena boyacence 🤤🤤🤤</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45908.6434375</v>
+        <v>45914.81377314815</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45908</v>
+        <v>45914</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:26:33</t>
+          <t>19:31:50</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21aef5ce&amp;x-expires=1758898800&amp;x-signature=RVa%2F50FUCutSrp3QGktDW27okqU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99750ff9&amp;x-expires=1758978000&amp;x-signature=OyViArtQSRGbuFsOlIi97kSkK88%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,18 +1151,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>si panela con sal</t>
+          <t>la arepa de maíz pelado asada en laja de piedra una delicia</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45906.07712962963</v>
+        <v>45908.6434375</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>01:51:04</t>
+          <t>15:26:33</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=454eed4e&amp;x-expires=1758898800&amp;x-signature=r0XLvAdubtZxLP8ZctZ7VVoQsb4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f711dbc6&amp;x-expires=1758978000&amp;x-signature=wqdLLeHw09OV1UwF8DPDB7%2BqJjw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02FoUvdesQQL6My5UxjjadnNMQJLErPd98gjyr5nE4aE5DbGVGTcfqvo7c92ibXzGtl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwHodfK6&amp;_nc_oc=AdlpUO3s_K62AbtlZ5PzayrYFooARLia2WTcQIudC7MuNaBTYx-sMF8905fbpFAPWw8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfbbLeJDLc5uyAb7D7jrROIJGUUpmRMchrcUK8VgIIubDg&amp;oe=68FCC87A', 'profileId': 'pfbid02FoUvdesQQL6My5UxjjadnNMQJLErPd98gjyr5nE4aE5DbGVGTcfqvo7c92ibXzGtl', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l/', 'profilePicture': 'https://scontent.fwbw1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEzJtyO&amp;_nc_oc=AdnYjp2Vo74Be6sXdiiyVDox_-Ede_vLnb4SbzB7x4wnGyOD20UjCODchy_cEtz7TFo&amp;_nc_zt=24&amp;_nc_ht=scontent.fwbw1-1.fna&amp;oh=00_AfaKyvYPAmL64AAdbnRnDJzS7nysrhGiVWvQD9_xTDCwBA&amp;oe=68FE19FA', 'profileId': 'pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwFWCj63&amp;_nc_oc=AdnfSIpG9-DNXFOe-FuIlGX70G34kh4e67w7Dqam6FVScym6pCre6VKEkkuYzpaj_MxWIEp4U9uefOC8r43fypg9&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;oh=00_Afbv7jg8H4Q7xMIo74O1ZqkFaYwK6PRoKQSxznwPJnMm6g&amp;oe=68FCC87A', 'profileId': 'pfbid0224ggFkgdBG74co8W347fTYjXskicN6JLp4qP687SP2y4BVvLeKC4Vw6KRobQ9Ujsl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHvbyGv&amp;_nc_oc=Admj4e_XT0j5tJAH5CnlpfcmmHwzIa52ZkZLVWm9Bvx76Wamc6g2OkOQR-TH3Ft2O_4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afbkgzk_pis36UL7AHb5BZueQFZ5DvBG2Rru_U4kowfYow&amp;oe=68FE19FA', 'profileId': 'pfbid035v8PSRcT2cx7DTQW5TfhyjyGME9NDR2s8qAVDYConCm8jxBr731AjxSqw3eoEyVrl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sOMWA50oPckQ7kNvwEkSXI-&amp;_nc_oc=AdnS4SpuBmsHyHr0CRPcqavmEER4bwPc3UZ_-01A4G--Y_I2MuQL6AWfOqLw-cYiW1SgFs5ov0W7easWX7gbR8qs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=w3cbS8l3exr4xtn39QiNJg&amp;oh=00_AfaFoE6Lf3irFHSW9s1pOrPKK9OoRJuVCw2SOA1CQm8Nyg&amp;oe=68DB1947', 'profileId': 'pfbid02GbTbMjyRQVgzircnPS78Rn28w9SsJG1DgijfCdthcrTJmAqYYYhLtNYLQ7TJn3ryl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwF8pswq&amp;_nc_oc=AdlV3B1jnLmQyiyj_XHjLnFSaO1d3X-uwaMGd-SIuEGcs9m0FHOJSHsbPSMyiq14IMw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfaujyCyLES8d0RECig698HtyH7ep89ICU-kO7xTrt1djg&amp;oe=68DC6AC7', 'profileId': 'pfbid0D3pQSaM4ZFzZJV57H11MnPpkxB5rxiHihvCLSPpk8wRR1F882woS6gioYXVDFMHEl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwEP27hg&amp;_nc_oc=Adnp2NHJIpaiVrJPrUfG9kxK-ggAlaLGCtlooJCb4DzxIqOg9iTpJ0pLAt-ZQHGCyHL7Eo7I_21MUoQ2zU7MhGlq&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w3cbS8l3exr4xtn39QiNJg&amp;oh=00_AfYnx5_STYFPKyUhpp_x6zXS2cLDA-r5gSSe8wMMXSnptQ&amp;oe=68DB1B53', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwHyJYZ8&amp;_nc_oc=AdncNTjEjEGG38FPl-OY4MYm7gvAHEjiAfSoyzvf27CJcIYqeTBNvhPVhbdZz0EuKc3u6SKdEA2hrc0XGu2ybKDL&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=w3cbS8l3exr4xtn39QiNJg&amp;oh=00_Afbua9CkqKGl0h2jN_3JaKcTtsekxXltP32AmV5JE8HVgQ&amp;oe=68DB2662', 'profileId': 'pfbid0YgmcGxqYgckCirqre6vrs3HqNEAxqUHzWMBD1ssP3Ab7NeHBQiUgCd4Kj2T4NM6wl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwFeOrj6&amp;_nc_oc=Adm9XMpOc25TbqeWBWyLrVOo3isGOLLL3qh_xNt6M4GKGXvNYyD5wtMG5P5zmnJUqvU&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfYXUOPRswTUpzDhVLvl1ADmgqPc6ETyJde5FcKd-EsbGg&amp;oe=68DC6CD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwFmvG01&amp;_nc_oc=AdksazDh9jRRdpb8PdR5TG_Kfd5W6HNns47tFXz_ncTsGqvVOM9066TuWS8T6BP0p8E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_Afa4XkU9Q9fKUihxhzhQEn_ksG6uPOgpSDaJ2W1cDZ-reg&amp;oe=68DC77E2', 'profileId': 'pfbid02c4FntzCAiHqpfhS9TU7GYbQLFiQmFJJWm7FEhKa51mM9APQvrGyEfRyUU8WTFT15l', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwH7hZ04&amp;_nc_oc=Adm1HYEG0TOz4jtwVRWD91RxZaCJRpdOLmkXw09745kG7enLnuVOVqPJuEMRA6nN_8ub9EtGBjkP9ry2UXLQ8qU0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w3cbS8l3exr4xtn39QiNJg&amp;oh=00_AfaEu7X02mScv2ZVghbzYAMy-e1B13_-SqoUG-AQwMekJA&amp;oe=68DB4499', 'profileId': 'pfbid02Zwq7uKrcL9D87AK84pDqzXtArha4vMWjXUzXkfPMYohjPwm4iVyo6aqNeJkcFkdRl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwGMUJFK&amp;_nc_oc=Adkcu_PyCoP6Mgk26NyEgpMUxdd_KHSl4aUWVGPuwjwU3J_MRtiNL3bD3vaK_Au2HFY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfbU0zdeTJTdThNyaYYePLJpzQO6lwqwoXZMem-guWDE3Q&amp;oe=68DC5DD9', 'profileId': 'pfbid0WQBvzAEFV3BaZRbHKfeDckNfKsYT4pHS9iGKsYhhZ2S9WtssHckSh8Mc3Ksp8mFJl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwHBMvhU&amp;_nc_oc=AdnXmuj_tc3teL0OJK69sOLC9__C0OdyZJhHv-E8bXaaIF9n2HanfnIIoIttWhWYOTc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfZq1UdIBMhBfbqjrkyrGIrek5Fp0W1GzQ8AhO4WNCT8dw&amp;oe=68DB3C5B', 'profileId': 'pfbid02Wjr2RRBXA2rpHU7BLn3cLnQHhAqqPKAj8menZeU4Sms44mzd5iHBkgSXss1L5UPxl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwEwuYBz&amp;_nc_oc=AdmEdhIunz7H32a8M778oYJGv-E5dQ_2RE-22-wsCvilj8eM6JkSyOdcr7mTyIX8Ttw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYoqQxZu80bMsqewl1KCU_sz15LfshThwBewLENeSf27w&amp;oe=68DC559B', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwHvl60C&amp;_nc_oc=AdkXZJz1-r94yxaw0zr1ZbLvBucdGxtnKuF2UnRAobO-2VrmI4hHi9BetvbLGMMIrlY&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfZFY5dWfbOz5j6EqeplSEFuvGeniDi0o23ktdmCxKyR_g&amp;oe=68DB211B', 'profileId': 'pfbid02urWUJ8fjysphEfxEdt8Z1xDGror1xupiYwVLkubNCndZha43y5mX2CxLWmqRMEQCl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwGsMuyf&amp;_nc_oc=Adni9Sm_-mGkGW24kdbU2ICqGbLbtV8C96iY1hyJiUxHy3lzFvNZUfnjBTmp-zq0gL8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfbwliBwACcv08URL_kiMEjTVHPrjaquKpmaDbi9Edt4GQ&amp;oe=68DC729B', 'profileId': 'pfbid0qpukpKUBK18cvHDHwsDGh4qZGTZduCVmkWBYctxP66fjrMX2FDhmKsS7NsGTRGhkl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwFxNm9_&amp;_nc_oc=Admi2WBolEVdvQhASHWzV7AC6nglhqt6qofkczlE9pg6EgmbItI_kbWE1lzWvpXLmI8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_Afb3BkoObo9YVoL5sy2Ryokk1BrWsakqitC7Kgrc3y0vkQ&amp;oe=68DB3E8A', 'profileId': 'pfbid0bjaf35kfiQ6gFrLsreadqPWRNwG7JJfi9vHeehPK1Wv5qyBdvxJ84ANczG2hMLmGl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwG7p-Vj&amp;_nc_oc=Adlc4Ix-Of-IjXFCWQHf_3KSmjWNdDMSqN-3FR65ZNCAX-o1pBOxIwpOg-gWlbt4pnA&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_Afbr1IscvlZ6kkPIN_bvNrDg-2FMr2-3bBDMVVZx9Or6yg&amp;oe=68DC57CA', 'profileId': 'pfbid02fb2NDkgVZgMKGik1BDkxWxM4Xkfbfsd1e5KgTVe3LYBi9LftVGgNpyUTJUFZ3QXNl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwEkfVi8&amp;_nc_oc=AdkfZq0KxSA2Ggn7RcTv1KkcqyK3tAUGII7pcbcfq2shuf7iRt4aZlGUIij-V8remgQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_Afb304sk65XCT-F-mziPXLB1CJTdnLU9akOSXdEla4Ck-w&amp;oe=68DB4B7C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwHeHuyJ&amp;_nc_oc=Adm6gDbUNd-CCiNTEk9JR5wxcqqGe4FayatlbwVRKNeQPZ2nFKdeGSiSOCxfNU1_PzE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_Afay5Ou8m6wpN4QckwOe0yqeEyNd07-ETQq7OzJ11HyNNg&amp;oe=68DC64BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yzM9OZs9ImIQ7kNvwHSTq8A&amp;_nc_oc=AdlJlGqsl-wwNwfg6wvWcYWCpq0fzLQVrUrhWE-mlFu7cvOVNonu7Su0L0x-9GjDfO0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfZ3HXAenwwEUfWo3lUsQTkl57KeinqK7RmlSZJTonaoVg&amp;oe=68DB341B', 'profileId': 'pfbid0H2gsh1rd8YTVv4QzMU7sY8CEv9YZj7kUifEzdtPFbMwDFQ7EKBprDqFrMCfTkbtfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwHoWvSJ&amp;_nc_oc=Adl2GmhseGVtj1tM6LgHT-bEmC1hu4N5r4p6xuJ_kFitV3gugxUuwE71U_fJv1OGn3o&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZJjt17DEuVvCVLDKYnyon2BFlL1C5oc8ewrGKBCPDR1g&amp;oe=68DC859B', 'profileId': 'pfbid02Lt8asgnSyxKjTkMqPCdY9SP7S6GgXpgtW3CP3hFM9agjhNtczesXsaQj1Y2Ue2zXl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gibbUsXHhaYQ7kNvwEpXMFf&amp;_nc_oc=Adn4waJ1EVG2ssrz1q7kafpRngSQf3HNTWdesSVG-hJ--mBetivVLhjI4juCxZa9W1I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfamaSnlhmktO_isuH156A7OBT3Dwj7eeMkix7-tcdREbA&amp;oe=68DB295F', 'profileId': 'pfbid028Fz9gXm9Wn7g9c86fEiZ8113PBzmdrYt5MCZSEiHBBt37W4nc1VNN3h5tXaK2fntl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwGuCXjQ&amp;_nc_oc=AdnJI9p2dnZPVe_61tLor6VwyhoM4s2Kpxrym5HLKvzQGgScxK-vgG_HUJmtfM7ywd0&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYZ2jufbipj4cwAvvzXf8XDUsRJSPHTZXxxErjfrkL3WA&amp;oe=68DC7ADF', 'profileId': 'pfbid04iLxmN8nfRBVaxCvs8M1nQbNuvnAPDyDrLurA3mzW2cQnyZV1yJrzpmhxcKAiEhjl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uEMClqC9qUEQ7kNvwE687Ta&amp;_nc_oc=Adn27yITAtIZdu2HAopG2nMIrqFJW20vnsh8TcTQkC3DArRciXIGrjouo6PPriWwT5g&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfZkW70ccdvoYDef5TA6HYwAsKXtAm476FyRpU1cmbiNrA&amp;oe=68DB41CB', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwGf3byP&amp;_nc_oc=AdnTQT2SLITgZv-7WQT7nfrm8r2t1ZeXOEqRaSD52vluWBehGH-OJ9_Jf3Hy5XjcAEc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYzfGuvArxJ6eHlkhw-52siWxAMWjpeGE-SxsJ7w6-gNg&amp;oe=68DC5B0B', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OFRA52BYfe4Q7kNvwEVEsYq&amp;_nc_oc=Adltvg3gPj6P4Jn-4VCgSHQfkXXXqn-BGAssrcUf40HsLrhHw-mDLXUp5UbmE3sNjHk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfbTv11Q2zruDmmhiWnOnGrPD86XfmYx176KK-zManv7LA&amp;oe=68FCC807', 'profileId': 'pfbid028HmMfVMFH4AsjhCGFW5GLnEB1uBg3jCA5tQkqLjsdFUNx7SiD21D1CcoPcFqsf3l', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwFd1vcQ&amp;_nc_oc=Adkatm-oMykDFPc7CNttgUQBqb_pR7kfo5KqK5AIG9TScb-Td4pT8U_qXadN6TVdgB4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZrFcl-XFgOFcT-lUYxPAfO2YLloiSowv9qc4V0U__nxg&amp;oe=68FE1987', 'profileId': 'pfbid025yjUYLRB6ezaU4rzcUkh8kfA6e63UDbrbnVuY4BmGVnth2fnxtWEbvZuyzmv7iThl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwGUR9-6&amp;_nc_oc=AdldSVyS4mRLOudqekqDgyjYyAVhcRyYzPJi5IkjcucFJhx1Tnnc3KAjd8Q_4i_M36A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfbjA-TZjJ6qCT4E3kRL4UK_ef5wyuj4Y-fHSOOuBeQ6Vg&amp;oe=68DB1F37', 'profileId': 'pfbid0P7Yc6bmLrKjRr9cfPEiYgq74zWogt84itXZFFvcLnRt97ac4hW85tUK4MkPVCHM8l', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwErt4-G&amp;_nc_oc=Adm6o1Hv9x2oaag8x8ejMOH0up00cQz4p_xS0InmtdNDnqwui6BEEHjTCXntw6yKA2Y&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYVez771qXZ4VEKBIOuG1G0C3xvGjBOqdY-0iBfX27XKg&amp;oe=68DC70B7', 'profileId': 'pfbid02SV2nid7xt7HM79z7yzYABHahvUBPbvMBCAUN4CcrzZrTYFAH2C3EGmUE5JASdf8sl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_5jqvtP7aRIQ7kNvwFfxM5e&amp;_nc_oc=Adl3gcLMrSwcw82PffjCSfdZSiauEAoJouUAXpHsuthpi8HDZAxXGEGSxmzUEtzcXNY&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_KHenGym4VmXJRUoD5gK8g&amp;oh=00_AfYyNorG3y09y9gKD8G-QZlhPAUUKIkggi6oLRiQtbrPAw&amp;oe=68FCC170', 'profileId': 'pfbid09jpt33tAeDwL64uJvVPqz5i142y1hE38vAZY3CZJgU2mPSHmZi2hG5dgHZXqN2Uhl', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_5jqvtP7aRIQ7kNvwFYlg8A&amp;_nc_oc=AdnUN-DCWshTfrGiKtU9plsaDPtsjri3eBz_1IfGjlKUQojBk4oq7VOKHKcXKVL25Fk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZTaZm3-qZG2SmCATUg1aBk92Buj46N5vp0bAQo3GmB8w&amp;oe=68FE12F0', 'profileId': 'pfbid02DbGbDiozVmVopXJt8b712FHopiMpFao8pir54cK38QjTiTVYVWdRbbh5XPNf72bol', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8AivFll0hEoQ7kNvwFUG4-u&amp;_nc_oc=AdnbkDNF1B1rsC30invhd5uCD6eWHVEAkq5pParXla-ndN4joKjjfrTYsWcoLA9dbnY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=VEXTiQMCXq_a0DW2bA2rfw&amp;oh=00_Afb36Ivvmi6C355w-Ow2cgVq-wktSDiQXik7n8v5DGJeqw&amp;oe=68FCE98A', 'profileId': 'pfbid02wVXDLTHffUSFr6HdLGYfrjB78cLQHfHrLnUPmVLuwbYPpa1zuwVEkx199Q6SaGYfl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwFtmlvG&amp;_nc_oc=AdkdB-ecls2Z6wZp8rtdL7QHGGLcqwFF-tynKuXG5CYhVjUlxPKjqg9oiclL1Vr6U7E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=qnaSBIX_byBANyHV9xK_Ew&amp;oh=00_AfaC3hpAgxFRT6ipCQuiBun1JpZb9WtvQfzhwByueDn_QQ&amp;oe=68FE02CA', 'profileId': 'pfbid0swt2RHfJpN1FTK7XBasR7J1Z85YiuWgPrAYpXpJdZe957VzTo2zeQvViYnwcF7qAl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kV0-ys-X1NsQ7kNvwGmSyKJ&amp;_nc_oc=AdlQRRl8mrbPUlYWoWEgC7b-gxlm_2FK22LW5sY5I1hX2a_x7xCi8C8OMH9zjpWeEgk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=VEXTiQMCXq_a0DW2bA2rfw&amp;oh=00_AfZ6dP3gnj7YiR3R8nYKQ9Giavjy8ZRT_uChS2lGts9lcg&amp;oe=68DB2CAC', 'profileId': 'pfbid0F39HFMhy5Mr8yzX39G4kNDndZeoBR3qxwTyQ8qFxdAV2XsU58usuLCZMGURZFNZNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwFyhkbG&amp;_nc_oc=Adk2oIoW9YQ1dI4ioWmpn8eDsAdnOqNcQ1V5VSa_kAxWoEb043Ff3caMZyZT08oiRrs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=qnaSBIX_byBANyHV9xK_Ew&amp;oh=00_AfadLBGaLirv71HISQLB2WdLfV76HYKMDKMDIl7L9p2Efw&amp;oe=68DC7E2C', 'profileId': 'pfbid02JtazS2dnvndbpxEXGakrYV7ES7eiM8rDnu7KqNpF659gFUqRGfLdVpDZSKAHBgrNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwFBiuLh&amp;_nc_oc=AdmwNBcauGPH_xe654KulwdmolvorD_7MxGm5bRGHSUc7N5yWM4urK_UyDQEGlbi--k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_AfbBruWJd-8mqRqEwURTJYbddoyLGNqa41YsUOKupCWEuA&amp;oe=68DB46E0', 'profileId': 'pfbid0o16Rjr635S6gSGRjv84yrNBgMgjSWuCSUTd78GdqHW5Ken7MhgPqjT7Bsb3DK5Lfl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwFW1K48&amp;_nc_oc=AdnbgPkBpXOG8hIpy47pjxXVBS4i2XTKMlqg9Iau1B4Vc5zuM3_kN_AjcsQHcMkZ-pk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaCvyracW8ifKdiLhzUjVmPO5K63ihwZkG9VE9qL2XcCA&amp;oe=68DC6020', 'profileId': 'pfbid02rrY8vX1rvo6ZGTNfa3RyFEaps1EEemEFFXxMdQRZWZ7hii1D8FhbvYo7kV4UYJzTl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwGBBB4l&amp;_nc_oc=Adkn53TBK0kF2mBJo1pvMjNrWhYuJ4t280CLYiVltgIA0g7hfuR_hbadOrIIJQfMLQY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_AfYlxU_fujFFINametL5Y-xkEOGDvljlb_C6qTrODnWwZw&amp;oe=68DB2311', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwHpGFu-&amp;_nc_oc=AdnDEUmDWqMghsl2omLzSDZjd37Dk_KvQzupXGUhdvSCPe8LeqWUpVn3fu7bVX_aKok&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaH_Mr8SqC7jKcRNBqU9aveYhAgVZx398OtakC9fCrbLQ&amp;oe=68DC7491', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwERtR7y&amp;_nc_oc=AdksJOCsjvrc03T0eQnsloe6t51QR_u1KNLvRhLrARHZdxYMmyQh_Nb55rBO8qYFDJI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_Afb6uCOHb8okxSoVAleCtUBMCY5oD4k8ph8a41MTj_-F1Q&amp;oe=68DB26E0', 'profileId': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a_WQoPl_arMQ7kNvwFHSlES&amp;_nc_oc=Adl94EeHmiWkepsxdat_CMJ2yfmmXauSKEL__YMp4Wid3vDVT7OSg_1P4zgPpWxeLRY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_AfZ46YOaxJan7EzZ9pTuygNnHysVXfvPM2Va8t4Q5FC9ag&amp;oe=68FCB455', 'profileId': 'pfbid0LNyPhZXghWBtjrHnU2vyoNarmqu9QbngnAxhyaeKMjSLdvG5mC8UjQfwN1aewdPpl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwF-sD7D&amp;_nc_oc=Adm6UlAJ5iy2V0MgSZrGh4w9Wp7EWno5lPYl_qr5MSjAJp4QsYI7ZlyI1TWRJchXQW8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfYTVMkAzUSeNjEw4h2d-Nm-XuQv2CV-38gMPjW7Vpm8mw&amp;oe=68DC7860', 'profileId': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwEo8IeZ&amp;_nc_oc=AdkFXoopGW2ZH7rXwXsDIrYbZZXw18OUf1Ud0x5OkKl5lW0jdrw8VQk00z5lF6L1ees&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfbLz7C0busTrYJXdvp5hGdGDuKtr5_eIyrwL-Nn3dJ8ag&amp;oe=68FE05D5', 'profileId': 'pfbid02QER6tETWYw5BLHR5JVG3sXE3DgKwJiSZ1BmLKqRUhzWYYswPck73349r6dWxT75Gl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0m6aELkJ7ZqnWR1fQgTPD9uLQpzuk9dSz8skWRc6CsXnMn2YpoT8z9rFJTnc19jBHl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwHIQsmY&amp;_nc_oc=AdmstYLN1Kiq_es4-oInPm6MlmLr6S8GAf9BOymiR2D_6Ywp5ixQByHzKwpFXCNgm0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_AfaVuby3yWlwhgINdnrLIobIfnqkKRwWG8gTbVTI6jZGxQ&amp;oe=68DB35E7', 'profileId': 'pfbid0m6aELkJ7ZqnWR1fQgTPD9uLQpzuk9dSz8skWRc6CsXnMn2YpoT8z9rFJTnc19jBHl', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwFh24bb&amp;_nc_oc=AdmxKO_gfqmq_pQFW_x9msNuLzI7fiPUe1DyGwD0eoTg8FbIAVsTPttnlz_hZZ4aa50&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaMyjPO4Jd93W2hK0O8dUzO9lA5Z3cDqYfwbyvZ_jFpGQ&amp;oe=68DC8767', 'profileId': 'pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWed62-m1fEQ7kNvwHvyUVP&amp;_nc_oc=AdmFkXpnpgQWhz0dDM233jZs5zJrBJmPBQQm_H5JQzMkyWtEKV2TJ6fyrtbwegf3LOs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Xc3CrNK-cSkeiBdbS4bEZw&amp;oh=00_AfazijCOJvNg-1deR58edhoXqu_IOAx8CShnXCe0WNy4lw&amp;oe=68DB4BAD', 'profileId': 'pfbid0fbu5KMykayRFakT1Lr5K313xn6MshKSRodhtfepFf1XaV4EqwhtXUMx5jZYb1LSSl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwF7_lOs&amp;_nc_oc=AdmLohBDMOm63MjxY3Q-exks7-hvToveMpEHpq98BQ54fvfH5fHPJNcbeXibYggHmtc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfZWx9fbxFyOqqi9s3TmzfxoN_ZQ-_S4NKUv2Z9wWi4wuA&amp;oe=68DC64ED', 'profileId': 'pfbid02jTLnW2uaSKqZXmmRpLmbCyLkS4vY22QsYmaR1VNtdDrrtSA44GdJ62S2ykx4KXMKl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026g96k62gkdEa8Htze2KVhy4jQ81ju82KzM5xVe1eaQx7LEevFtoAjaHLGcbXYXbsl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwEheFaI&amp;_nc_oc=AdnKDvKHZtoo-j2qg1_g203oNnqpAvSVDqJE1BJ4GyZLCqX_taosgW5uSfhOJRHxK1c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_Afad9G5QYLqp86Y7qISxK-9lCLj8MOwACwf1_CDWbpLFwQ&amp;oe=68DB4DA6', 'profileId': 'pfbid026g96k62gkdEa8Htze2KVhy4jQ81ju82KzM5xVe1eaQx7LEevFtoAjaHLGcbXYXbsl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl/', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwEzWlvD&amp;_nc_oc=AdlYJStON5yZF5BXE9b3j8NoDnjtRKvdVtsAtMGmUbIaRVGzzKxPVZakJ9InSO1YJF8&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYPbfsHjUFH0DgJ_8ZQ5OoxRqwpkzVHCrUt-AbkW3SHlw&amp;oe=68DC66E6', 'profileId': 'pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwHIam9H&amp;_nc_oc=AdlfeTCwwd5Y8SWzu4EEScLeQqFyLTHQ8avip2yY_KGXfIHxe6RNvo0s907-CN4aV2o&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfazYQ-apn3o1ppfz9rSi40QJZW_a7pA46V7vwcBWr95cw&amp;oe=68DB478D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwGd-2tv&amp;_nc_oc=AdmC21DdwikACa3dC0uD6qGVkMlWj_ETQBB16WAtL2zGb-ty55GyM1RfZTLLy4OeiYE&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_Afa5IqoNvYMrmuLP5Q8ht1n13BobAqW5x7laQOkp3N2EkA&amp;oe=68DC60CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwGLX8f1&amp;_nc_oc=AdlE6A-CZoi8QowkyHrYr9OQ7CRKnFYwx6QuZTZGBiTtQvuAJ1ZrBRSlJ8xH2p9-xRA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_Afb6pn5K7sSGZcF9XNTtVbHVo0VgXd_iNaoxCPNSE5YfQg&amp;oe=68DB4909', 'profileId': 'pfbid038Nkowsf1e3axg2PoymZFskMaNZZTiLztsEDdCvwuwWqJHFwSMQU2NP7AyNnPh743l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwFWkX31&amp;_nc_oc=Adl6BkcBJtZBpg2D9jF4rhhLcryMqmUWVCt_T5LfKFEZfwJ18qIVu4I7szsi-zR1dGw&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZozhhHojP4HWjSLU0n73XyIoem-Mo4Umqq9ygCsuMTEg&amp;oe=68DC6249', 'profileId': 'pfbid024MA6U4TSyCr9PJ8Yw4o4TGiMXaddjARkm7UEJsWVitgkGccxnmZVfGxiw9fK1Lk5l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZL3vCxiHrxkQ7kNvwEeuHLh&amp;_nc_oc=AdkHboMP6wmyonfQRJAWSFjUBT9p94gi3nQzd1xf-JXALopmKN2frPdYoeB-sO3bMSE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfZLvHXT937iONFpZOJ1kTqhNOA5-Ah2vKSL_plJ9-CPog&amp;oe=68DB4566', 'profileId': 'pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent.fhio2-1.fna.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwH8Z3Ja&amp;_nc_oc=AdlJHRIEndJIA7WU2G8urUIqXxgcCN8luJS9eeTAKp8tyO97h3Ug8Z1FqsC1AaJIOak&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-1.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZCqp73l-3BkHpJhfgu0D_0Lkp1eVYbqhA75uljNKJT7Q&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwGVJPW5&amp;_nc_oc=Adkin4cPZa-G9NXQZ08YKQLFk-yHOAhnqdIrsyAZ-je3ChsENuiFAj-VABuBRwdh4fM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfZakj1aMMgfuCOgmTRN-7v_lUF_CLLnAPJcPKf2762uOQ&amp;oe=68DB2333', 'profileId': 'pfbid02XKbHi3Pt2JHy99ZS9tsSMm8MvZ9XjdzSW4fYYW6nSTEKLYL9Janv19L3toB7y7Ghl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwF2fYgB&amp;_nc_oc=AdmEUuS6yU0-f7o3IGAsXRzlw2LGS-ZRGu6Wvil1wUhcRg2T7Fx6MoHZh0XNXbf7o-o&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYB5zoq7dQSKL8k-PS8iNH-WCEN8nLkYeoCWkp_Uuyfwg&amp;oe=68DC74B3', 'profileId': 'pfbid0Tmx6nsmXBAXo1SsA8Vptv86Sx9HLRV5PwjLspANU9KRk6CZnHkt8PYMHUzyMaEGel', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nhPY1RB6SbYQ7kNvwHe8Ehb&amp;_nc_oc=AdklcOKylEgt1BxvTnGe5ns7AEy2dBE8NY2LVrfnmIm3zeZ1APSXanf3HX1ZiDa42d4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfaFLt6XA12CqStg056dY2aAQMIMv9DogVG76jn1Qvcscg&amp;oe=68DB48FC', 'profileId': 'pfbid0f5sCUs4q888jTVsxD9yBr7oXJwQX6DTMS5ySszQUqUPYbDm2PTcSqDVhEVcBtcdFl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwH_seHG&amp;_nc_oc=AdkZbBIMyjbhLOxn7jQLHHHj8a0DeMf8GGpuEryAwHBLKD2Yk2FHxjNKgHSyn4b-nJA&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZB7eA6Y-HO-7VAyKqrCMkfzZUiXLBbzQPgceZzyrGYig&amp;oe=68DC623C', 'profileId': 'pfbid02iwJufXzeyUJqJsT7qQ4BKRTWhymaW5VJAZufgHCoDgMRdqqtSkYS2E9avQ5UBHJLl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwGzGLnO&amp;_nc_oc=Adkc_ai6ujX87RzBs6cHcMIvuVA9X-6kesynoIHx_wcDSxL9VnJlV4X2ou5MkxHM5do&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfbJUK21paqCSOTRFuzp8YyQXiM9lRrFm2bEH1LDTnOvYA&amp;oe=68DB2FC7', 'profileId': 'pfbid02J6cGqUFaF6CdVXs1M8Zo4LkGydMgMV4GWNhi825fdYtoXPwyFzDJr76cTmNZhJu3l', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwFtkT86&amp;_nc_oc=AdmXsso1-KDhgLb-ceYdcGEj12b5oE31WajiFlygq2mPAhM-yMeY135TMn5mkAQNDrM&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfaxaQKcGuC1y7ExORV3eCbpl6kCPlvx9EyXbIs2QzB3mw&amp;oe=68DC8147', 'profileId': 'pfbid0E51ZMf41a9BFD4z6tjMRq4WSez8yRLVsTVJisfcgNzrERbzAnU1GFgcfiAs91prNl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwEeaXZ-&amp;_nc_oc=AdlZkon1F3nZu886piUyVld6ZgN_0evRhQzNyJzV8AuFFpVHezWmfc783ZBYchgiFnA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfZWx92uY92_cEipMJYIcKUkmffzDCVCK5JI4_n-UQVToQ&amp;oe=68DB19FD', 'profileId': 'pfbid0wYudfxaqsi4vNSZRCaf6kYgWPXWCFDQXTjAt1P2snfMLrPPBrN5t8LncfoMHouR1l', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwGI_f_4&amp;_nc_oc=Adn5UdSCDAtZguJBLFsieTex8q2Z8Yn_r2hyrLVpePTTNp3R62QEDYrTgpTbMYlLHoE&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfbxO8t6y3bajt8QHxr-wDUaLasQvNd_ExJ4ybPCs-aKfA&amp;oe=68DC6B7D', 'profileId': 'pfbid031QMLrdWfj8Tr6pkNntktuUww3qMYvqBy8z7qZbXwuFEHcjECfgmXdf5bzLi1abLpl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwERIePl&amp;_nc_oc=AdmWRY0_f4z-eN82aQ8zBKa9J-XM2YKfrfw_zeWVupuL2l0-qbISfKllPFM3fEg_DGw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_AfZImkNkrevxhsLeTSwIk_-m-dfaecoHPPgd9u16nVHigQ&amp;oe=68DB497B', 'profileId': 'pfbid0d9bdXHZQvDe1rqGZfvYAuVtKBqtypbA4KHTC1jrFJmDS3vxNWWsuNAq9RnfD5G1wl', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwG72yFH&amp;_nc_oc=Adlchv_n2Xbyd7TE_k08U5e-kzeqmZ7Z-jg6-tzn7FW4imTEcBLY1OiJfDm3vCc4tcM&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYzzRwH0eEoiXHbdTYVQun7uxjOmEOMWJBv_LWBS5b3TA&amp;oe=68DC62BB', 'profileId': 'pfbid02gX5p9Jv2wyxgo5VNidfY5eNzipigpP8JzoF7KJibKVH1fh6oSHwk4AokXjnuxi3Al', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AmsbANdP4lQQ7kNvwHXEzUP&amp;_nc_oc=Adk9lFITd64tPIxWh3Ac5imts6oguZ6TErFqtWmqwKMLshkv1KzNRahiQDCy6lMEIO4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=OZtvSa5Qmj-UD-78a9AveQ&amp;oh=00_Afak3UmqpUVAxctKyShOXSHwuw_xOvUDhfIpPo9rRGNUow&amp;oe=68DB2F95', 'profileId': 'pfbid0snhvq2d8zcD9P9x1n8ZjK8Rd92Xra6tnr1KNwaSbfXUbRFxqwNFX4qUEvaHrHqX1l', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent.fhio2-1.fna.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwHc_x_X&amp;_nc_oc=AdmVuRMi97AkKvuMsdW3AMHhdAasBwYH-kmiAUSBnjmWzBLzfz2-TVnIBCUJ7GaNy28&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-1.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZ2YlqWWJgopmyW6-KBfkeIVWrqReZN902RMGCMc1qR4g&amp;oe=68DC8115', 'profileId': 'pfbid02we9e1hYxquzjfqZkDGkDZRaT9viU4qrrJsYm8sc9vQ8kmXECDeRyMq4vsuCmg6PPl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oDypsmtP2oRsy4tBxLetK49tKfcSLWnR8hbPqrzBj6MzTzb2F61fuE7XDG7t7f4tl/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a5Lg_WtFUj8Q7kNvwENgUqa&amp;_nc_oc=AdnF5BqFBY55QKOQBvkJrh2rSwHJuJk9kjzF1CT5i0__Q24wtbgdrCYS4jo7ExVSPQA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfaSrxO8bAIA_0z0ZnSypf3OW4H6uErXGJqJ7rWUoBSY5g&amp;oe=68DB204E', 'profileId': 'pfbid02oDypsmtP2oRsy4tBxLetK49tKfcSLWnR8hbPqrzBj6MzTzb2F61fuE7XDG7t7f4tl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwFNqexH&amp;_nc_oc=AdnX26cI3GC_YZMGviG9sDsNwTixMfBqzCCEbeUzYAGo8umLirF7v8cEG3wNleEEDr4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afb8ZauUr1pnBHZwXfg531qzl1g7ZMKAi4Yv4aBIltoEuQ&amp;oe=68DC71CE', 'profileId': 'pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwFg4R43&amp;_nc_oc=AdmsRhEiSrF-T7kibHCloVnRM4UGIq9_2jSaDCuDyf-PSKAiUcnfNS-r30PKopnx93o&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_Afb18yKy-HqmXCXWWPYZEZDMARf2hFUeIoVmBgGzsuVGXA&amp;oe=68DB3CB7', 'profileId': 'pfbid0AMeVbXSF9cBWjcGgpMfxzgxncU4dXTrRcrcHnYfavzsLFBriixZhYNxQm8mVDkq3l', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwHof25n&amp;_nc_oc=AdlGuURIMb-fyhV6SMWwOh61FUVzSZAJ7129KAgcXaMLgKaKeDTMtw45EXmZkwqA9_U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfaHLG_27bgo5jA-iobx5p7aQXHuIVsvV8wgxJQ4bEZvrQ&amp;oe=68DC55F7', 'profileId': 'pfbid02ED6CnCN511KpjFnsCk3tjyDApj58vB5QTYCYCD1mnporZrhjhpw7G9whhT1DtKRpl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0V1oyEzk8CkcBXoWRprW5au2swE55MvYbAgsmmQ6L9kxUQ7nKiV5gQ5oQ2JK3oDBbl/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwE5qqnW&amp;_nc_oc=Admhv46o5boBS1pLvtlb9wVFVVx5NttVnpmV_QSHwubbTfX6IgAcFsKErw2zcM5kbfg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfYoo_HFLmrHcSWUyuQMPnG4L1tvSCZ0ERaIg_RQPGeXdQ&amp;oe=68DB277D', 'profileId': 'pfbid0V1oyEzk8CkcBXoWRprW5au2swE55MvYbAgsmmQ6L9kxUQ7nKiV5gQ5oQ2JK3oDBbl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwHpDW-E&amp;_nc_oc=Adn6b2Um7ilc38KmGV1zr-S6gTeUGF8j4I9jtppyHScS2A8twQMpp4Om_9aQ-4Y7-D8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfYfpCHBw2YwVRKciEVVtU25aIB4c_NO_sCcrkXf25a9_A&amp;oe=68DC78FD', 'profileId': 'pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwGS5fX4&amp;_nc_oc=AdkCufq1w5vE9W-WxHxQkRQSZXZkdrT50014kxiX4sG7isPKmohUwGq0gfqlzDnRSqA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfagTg-8o_4uPyoCdNQ5EZfcVMvF-4VknVVJs1EBWPq88A&amp;oe=68DB27E3', 'profileId': 'pfbid0Mw555XYemJTpyfnsv6Qb1inWnKebkytr3cWvMqEksYDGRkmUfrbjFgQvyrQ9oSvcl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwFYu7Wx&amp;_nc_oc=AdmKIDTGxOf4g4VSgbBy9xNApWGE2ynGs4_K34rh6TrK11pVE8wB3vN27zNf2ok5LBw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfZfkSrjSre4xhnDUkNRM4lG8MJ3BvRxbE31JmhUA870hg&amp;oe=68DC7963', 'profileId': 'pfbid02RnWnGCUUcoTG8AqJFxpz8PuGu55RZ5WtjK99MKPLiHSJ4duVW8wCEKYmWjgjvXydl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwGfrKAR&amp;_nc_oc=AdmCU-xKL7nlcgYwsWo0OGtxFlsEfjYBhrpRcu9n5mx8kFEQrlVlBCOikMhOF-G10e8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_Afah69exKrDL7Q9_CkEkpfm7HAHBUbQGe_eyLWg6EQidbA&amp;oe=68DB191B', 'profileId': 'pfbid029PjL8Y7UPeFKvN1RKfofDZ8xCSv9Jhc1eF3v2xHvCoVdTmb8XKpg4UvdP98hJncGl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwH84vkZ&amp;_nc_oc=AdnaabmDOYk3V9E8D7sIgQ32ssMBY29tKTa0wcx3DagjG3S3ZvoaoUNSLZ0aYcNxAOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afa5xkv_6YojFPiMO4cC3syuQbjyBXAVfB5XAgYkUX-HeQ&amp;oe=68DC6A9B', 'profileId': 'pfbid05N8ceiuuieCQv8UUe6iVaXGE3eremYoFjE5XDWfpdojFxjHsrhn8GcsxnbHjym7ol', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwHSW_55&amp;_nc_oc=Adkn83CHJVPx29cB-vXs0FYvAf6TKbVESsp9m360VVkRVmKPsso82WvNImt9_tmzP7c&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfaTIVrJDCPo82RunWG7oY1CG6WgHlcZSDIqYoTYx0rAIg&amp;oe=68DB162A', 'profileId': 'pfbid02hrd34jVpQsPF1exadiwojeP9y536aRwXrvLvYVqfadJ8pHQZFvQWduaSgMLCQXD7l', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwGAo2xw&amp;_nc_oc=Adku9XG5WxTrRUB3hue8g_4n7XdxmvGrw6qYYEC_5v1XQW4ijmUFx_S9sLNiyzJ6aL4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afal68Me1isSaYYi1ycs4l4rV49UBKyvLRB6Jtw7Gi3lCw&amp;oe=68DC67AA', 'profileId': 'pfbid0eJyr9ZsTZeY1gxvjAdXt3GNsYcoY7cKhYwWcw8wr3idB2XEEP8a8szajMxCq6mNol', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dL4uKROp8pgQ7kNvwER_U0E&amp;_nc_oc=Admwl6lUi5ChqH31gQkDJ9FdtAcXE_wfMjgVOkDFyKzox6mas2uvKgMIJSOUnX51uLQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfauDMrEMX5QJF-DO2YRCToAvsyTLls6kwg4AS_8WY7elw&amp;oe=68DB3A51', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwG-9oJt&amp;_nc_oc=AdktLZhfpjDtRh8ATUeCrZCKGTIkpDjKDmjUE1OyB9-85kjIfQv6kUdrWCookwKkjHQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afb9J7MDjwaCIN109PRYE1GWUPumgAffG_14FGzbgklfTw&amp;oe=68DC5391', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwGx9fJH&amp;_nc_oc=AdmhPWcYhdxFT30ftB7l0dNcz2bKjsJRFzAdYp0oPYbLHWGGbN-njVYzzFLRmlLd-no&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfZeC3CGCiLClZY-IJ23kkyEbKYOPb_YVT66saKwy3WvPQ&amp;oe=68DB19B3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwE6zGXf&amp;_nc_oc=AdlGWzZJ3d2ou6LVgtt3cPx8hWy5W_NxAM7vZk7b7mOk_j1ZOPbqG4iLhEASvBp3ptg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfYxVLBnM7Sw5-jziIfyGNM2fHWctHEKVciZiEQfS730yg&amp;oe=68DC6B33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwFUkj93&amp;_nc_oc=Admjt7YTT0fkYKH4vSJLJBw1QTs6DU_bq2Bwh3pR0-if853HP6fZLk1gQeeQm_i-2Gw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_AfY2kdV4cz4BFVgFM37WZDv_SlP6jTH0fa9Ahfv-k-9cuw&amp;oe=68DB231B', 'profileId': 'pfbid02VTukpyazp4kNbqxhEoWXfkLDsQ4kXW8kNXzwQxRmFBBc84MuqWBTuDbKJBtpedZAl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwEzU3lL&amp;_nc_oc=AdkwCZfHdsF0zR3SUz-nMq6bBMjv3XdsezxrjQW5iSWxa2WK0PhBuZo311q9bZSHgLA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfZaEARH0clwVTlqW1cL3R3SFq7X0kk8Nn7gNaeZXLY9nw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02eqtLaTvR23cZ8LWebCewh9Ymt7Y89ShFyNeAC9Eaf64zEFW35Tnx7XuYzkJJESCel/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KaQeo2cYHfwQ7kNvwE5Uq_8&amp;_nc_oc=AdmDssrhDDehUF4Z_ZQfpck_TaUAirGFSQlfcwTPMNYIDzU6VKUs13CPFWSyDLfZ9ZU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=odWCLFEl6LYt3SIlkahvzg&amp;oh=00_Afbl4GG8nZiMWbL8vmeCOTHzVCP14ZoPV_VsAKUiO9bmvA&amp;oe=68DB4A77', 'profileId': 'pfbid02eqtLaTvR23cZ8LWebCewh9Ymt7Y89ShFyNeAC9Eaf64zEFW35Tnx7XuYzkJJESCel', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwEDNFOa&amp;_nc_oc=AdmdWqXXHnfoCy6FjoYfILlcNoqoL1miSZD5speQaltVIFymQTFrj4l3ooSVW21m7JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afbd7-Rwr0SJHDj5Ap9m2BVf8yvnlhaVatnp3fg98Net6w&amp;oe=68DC63B7', 'profileId': 'pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwHQwCE6&amp;_nc_oc=AdmcbjBi7HNqxs21BgXQG98fAMgiaffFjqORR79xLjg63YYFrSEtzVwmb2cF1Ez3prE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfY03gPiuOfMWLXXWmO-k-ddzhkTOEKHIFa4ZOgH32C_ew&amp;oe=68DB303D', 'profileId': 'pfbid0aPVjmQkumc9fa2mgAnJZeDUPDKyf9uaHeva8maYJbM4EJjSoCCVFLzQoz2dY8o9ol', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwHesOgF&amp;_nc_oc=AdknBr_4GKGePiJ-yTVlEAk2rc33ttBCqpsP_LjMaDZqYG4m86khbRLFD6QVM30Ive0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb0XciGbZuMRm7h7Hq6vSCmzYKswRINVXbeXnR8OdOCwg&amp;oe=68DC81BD', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZL3vCxiHrxkQ7kNvwHm_cwA&amp;_nc_oc=Adl-LfzklzRNpL6N07U43RvvgqfPMCAgn1P5XoDQJtuywyWe4GPEjNiXjMeyz_XgUzE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_Afbmbi-Hq65dubsGDcytFtOjWEQNeU1g7mSFrW0VpARTKg&amp;oe=68DB4566', 'profileId': 'pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGFXmwF&amp;_nc_oc=Adn8bR6NxAl9AHBXXnTQOPzvFSBCErAKiBGfEbJ6aXPWfLedueEbxpXIM2cEYj65X5k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfaxfXHmGrvlhKXXlcZcH02ut5trRm4iChLHNFVXscVN3g&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwEkv2Ht&amp;_nc_oc=AdkxkOPjRqR7FiofTf_Qo_l9xhHtfkk-bh02o9A8xKpsSEoxpjQE1tIdKrk1-WMitOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfZrOFxWAQSGuOe3dIwat23yt5zxMYvlOx555ThcG7ERCw&amp;oe=68DB3BEE', 'profileId': 'pfbid0hAm7oyvEzPSoUeJJEHPqU2pS8eFW6Y5TMQNvbwYNpdfUMCYbLfLxpPpz74vmB8aGl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwHuNyn5&amp;_nc_oc=Adlgn6iv8K5CCUB5uxDxYc2xZKcgJetNF0QN4QB3EoTERQWofnaeKfn6qkYZpEDMxGc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZn63tw_su13z0s1-EpxMZjIw9mXQvmlhsDuDDY7o2wPA&amp;oe=68DC552E', 'profileId': 'pfbid02m2Cpzer4qiekwXcwEgy2n9DnuqSUqK7SqGVdHqUtbC3zkCYgA1WgqY3PoMwb8Mn5l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwE9cvhq&amp;_nc_oc=AdkeXQsrkKqu7s4BG6gSxCGQImd8liu1NuXz_sMOPjZWOkj650p8CcUg_LOlQrm2Azc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfbNKJ1tDH0UjxmSWagq8_1LI4b0tLzNk0RiE-kNAW5AqQ&amp;oe=68DB231B', 'profileId': 'pfbid02VTukpyazp4kNbqxhEoWXfkLDsQ4kXW8kNXzwQxRmFBBc84MuqWBTuDbKJBtpedZAl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwELRPJ-&amp;_nc_oc=Admr-y2ddBk8_nUISOB3zj2tg0iYOGnkmHxglBzESLgOOpLbU35LfqDt02afpJ3MyQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afbs6O1o57Wplu7VBLDrJmnmCBiG9XxT6DCzBtolWYD3Ag&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwGgz5rR&amp;_nc_oc=Adk4EjqpJdWG7It_n3IhUivohk3aMpfvpCLjb1opYrzkxSrxyn1VnLR-u3E4r80Lxgc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfbXXwZ8YEL0pYDJq7BNyf06aEzRBsivQfzxI7Z_XZsy_w&amp;oe=68DB3C6C', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwEqrkqV&amp;_nc_oc=AdkWCy7-z___0DZZ6cpfq3g47uKGsKf_GLBDsPh7tHKncrUaCGpcXvT8VW3YqtnZI4U&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfYpxeV7iG6FfOcs4_5niiwy2k-XKHiTthNxkhlgtgxYbQ&amp;oe=68DC55AC', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SsLCyWwFCOMQ7kNvwF2s5Te&amp;_nc_oc=AdmXeKOJEWiY4yHBDXFJ1rMzmpzm4GxOADdkUddvPD9nD4pg1S0QgsGh1shSnflahic&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfYYh72PV9AYh0GNym6c9D2iFywjJvntc0tpx7wNDq1gfw&amp;oe=68DB4254', 'profileId': 'pfbid022LCA3mVir1V9twrVFxWNTgN7voXc6CjdiD2to5Gnpk8oHt1AUkc2U3hNQbqGD63ml', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwGMdKGc&amp;_nc_oc=AdlTYkQe4PL2UEP2LyuUZoHrS3SeOa-tWRdoAwUStLo6ZjQqfHgU_wLDXbo7RXdFD7g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZrt0XVnUM5cnwXLvwwwkeT_8mJJjpJJeT8Iellp7KopQ&amp;oe=68DC5B94', 'profileId': 'pfbid036BdsESRYhPViNQczE2GDZwDAUXJj631HV2DnFmJomaLvgp2DD9CpWvyJ8kMiGJVvl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwEn6Zkv&amp;_nc_oc=Admvb8koVW2-9xoVzwahmYcCdBDVj-q4YfT36oo49Mt2XdbcZ8mQY4tZwdPcSSTxFIo&amp;_nc_zt=26&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfZOJ682FW8cLnokROrxPi7KNIb8fyNJn0Rum0sAqr3Iew&amp;oe=68DB20C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFtWxRU&amp;_nc_oc=AdmDhyJLVhuoZfZlL5B4PFF_I-sO6BIrhyEydfWvpNqR_2Zh4zTd6unpI1LGcAsUNGs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfbOm5MIxR0vHOkjhafo2YKkF5EkieRjkH_G7dke8NSCvw&amp;oe=68DB224C', 'profileId': 'pfbid0iVRjyVP8YSpdLdLFPUZkNHx7u56k6nasyHecHvfBhjxrJhEMHfUcYK9oiP6xPnWdl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwGExpLw&amp;_nc_oc=AdnhauAqHxOOKQS7y9rPUcGLAFyvaRuW7pdNDS4yaQSi2BRGsY2zMrQQPIot6y78Wo4&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfatujtePR1HwsmOsrh2xsaAk9pg3b41oWxYU93FvLY1Qw&amp;oe=68DC7249', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFe8EwE&amp;_nc_oc=AdnZ7w362uW-RVkrMetlX7L1IUp0H-yQGIGoTR9NbQctbFRqfRvuW_pIAqA9omdkIKk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb7WGXN4pAvuTrUyhAbHFbEfgbShsgkBAl0FDUxcOndRg&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwHSMiEW&amp;_nc_oc=AdmqHx4_1UZoxJ519fUb9s1K25f8t63xJwLLCfCi7R4_BbWNSt9pQ0sv6qzag_Qc-eY&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_Afa1GTUPKCKjRoZCmRiBVOKUyyu96I92jz_OTlxfMI6NKA&amp;oe=68DB24B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFtWxRU&amp;_nc_oc=AdmDhyJLVhuoZfZlL5B4PFF_I-sO6BIrhyEydfWvpNqR_2Zh4zTd6unpI1LGcAsUNGs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfbOm5MIxR0vHOkjhafo2YKkF5EkieRjkH_G7dke8NSCvw&amp;oe=68DB224C', 'profileId': 'pfbid0iVRjyVP8YSpdLdLFPUZkNHx7u56k6nasyHecHvfBhjxrJhEMHfUcYK9oiP6xPnWdl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwEV_uKk&amp;_nc_oc=AdkZePQYVtsuI7JHq_O25L607NVM-GNn8PlrHmKS6l5Ohshuxvfh_CwGGcWqFpp_mHs&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfarvSo6ZZ82FylNH4YFnSDRvCAdmAuuY55MyM3f5PHQDA&amp;oe=68DC7632', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFe8EwE&amp;_nc_oc=AdnZ7w362uW-RVkrMetlX7L1IUp0H-yQGIGoTR9NbQctbFRqfRvuW_pIAqA9omdkIKk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb7WGXN4pAvuTrUyhAbHFbEfgbShsgkBAl0FDUxcOndRg&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwHbIrIb&amp;_nc_oc=AdkYneYgiAJ6tulqsU-vBSVNdi2yfl5DENm6oXDMgAvpq0u2EoxerYfIB-fcqZ-3pg4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_AfaNbdRbKFILtaWfPBBk8ZWI4TF83gLNevSXyYdjgBqd8A&amp;oe=68FCC87A', 'profileId': 'pfbid0GXCeLJ5UUGy2KzZHXjubP747LzWKEL6GMUZ7tPAGUoqwyshqVAKBy5wweviHgF2wl', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEQdvlt&amp;_nc_oc=AdmGSCRWxgUi4hm_xtw5gfS7nemsw9M74tin_WecDKruyIQmPQGS18UFqS8D8hCk9VQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaBN4BotMVkpR2EUq4lfB9a6w0LN7HI9LfdRf0oUZRv3A&amp;oe=68FE19FA', 'profileId': 'pfbid02LNeMWy1JKggmXCyydTAjSg3HR9QYw4uzTViop8cqMCt9tHjuFHaXnWjmWaY9Wc8El', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwFWjxK0&amp;_nc_oc=AdkMA2llMyhCnnSS4HX8l5NWj0wBmUw8lvaW1MbuUWYBoBK4TbDwEf-eh08IK03TNQI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=JXuGJti2fSy1tbszEFWafA&amp;oh=00_AfYH95F2Gn30vENEe1M77v-mdv_p_Lc660tv6EQErmNXTg&amp;oe=68DB21A9', 'profileId': 'pfbid0BLscBiv9caQdLv7W7CfwrRZkBF3d7RjrQpvuXtChtpRZUSBUnQSnF3sEQVobFK9Dl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwGXdTjs&amp;_nc_oc=AdnHp1mHmPCaxypr6-TcQbo6WldTOvO-e5tqd3WVXwwiXiPCo1TgMuQAaULrFEUkO30&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZxdGU1AlZ11BO89wdctUH4D2jDr1R2dHUW4xgnW8GXRg&amp;oe=68DC7329', 'profileId': 'pfbid02FCKKNPqyU3GFDkd2DQT7PBooVggKda4cK9x3GBhYTUZCwKhjSvx62ho7TRXCN9cZl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwGjMbJ9&amp;_nc_oc=AdmSJ6xeLh6egJu68lPvpYPdiJ9vPCtbcX9-StaI1QTheTJlLZPto6JJLVP0AmUHBGc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfbI8TpuNE94SeWV0klmmjHgDwzKxZSt8ey4p7a_r6xnIg&amp;oe=68DB353F', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwFPYSla&amp;_nc_oc=AdkL4PpPSXn5bILVYGo9_vJw4C6xNuMnOaPXLXMcQIwTj1TQZeqM0hSnypHSeuzlnM8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbvUV2P3LFQeCdiQpqr8FG2lwutxxZaq8Vow61EcuNMXQ&amp;oe=68DC86BF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwFjyIdO&amp;_nc_oc=Adnlo04wFufqnDR184BdXoP23qBA7gWhg0beqpmKDGWrYVqwA2AAcWLKNfOvtg6wXug&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfZgd4rskee1LNgzEtdbsTVGh6TG7oxTctDq_uxHweyMoA&amp;oe=68DB282A', 'profileId': 'pfbid02KmhN9eDDZnED1xgVDdH4rEJdZ9SjPWcYSsPQQrJ7fecofUf5AoVpftqssLd9JZ4Dl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwG5gk-M&amp;_nc_oc=AdlrGLkIxsViXioo10HvXheOu-NKYST-hY9Com5GqQhpTgeTtNxxJ3dS__8EKciOT5Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfZwp-Kl8Do6SOKW26GEQdc-VRzMUDvF5QvWzdObHXrjng&amp;oe=68DC79AA', 'profileId': 'pfbid0GE4BEUariaT4oXiMowrixDaPDYxqGyfq9mx2GMmLa8fjKAETkANPv1SUt4y6whxgl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=7Uoj2wSfxzUQ7kNvwFRqPZx&amp;_nc_oc=AdnSRM8SZrROScCQo5iHvmXWAx6ATS-S_ZIwvrSdljAZWRsOxeYB5dqTlu5Xjar1pC4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_Afbi6ppseHMTaQP-BMSJYwmpwRRaHkhU4GdyhvDIGuxe1g&amp;oe=68DB2BEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=7Uoj2wSfxzUQ7kNvwFRqPZx&amp;_nc_oc=AdnSRM8SZrROScCQo5iHvmXWAx6ATS-S_ZIwvrSdljAZWRsOxeYB5dqTlu5Xjar1pC4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfY5pWxyqFpnQNpXDvA6v72sHz4TviBsMdZ_l1pVgkg_QQ&amp;oe=68DB2BEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZU6KhjPyNgQ7kNvwGNS1Kw&amp;_nc_oc=AdnAWr3pZ3kZhvqeVd_W3-qJvWRJ-3Sa-Dl1M-KzXR23P_TLmjfaAAsJTL81adJdWXE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfYHNGQmmpVm3Tagse_63e-2e6n_9grUffhAuMKj7qc2Zg&amp;oe=68DB1CE9', 'profileId': 'pfbid0q3b25jyWMrXzZYPd8C8NZtxb3WhYHTTTcte92BgHZEJdP3b547ZNC8PVHMthMfwjl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFOWx9F&amp;_nc_oc=Adm9Dm5sX4u_kUZMHxXk05EOn31_vXasoandHtWBUuLpUzZBPvGlOXtYWblPZMb69O0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfYXpfGPoL6wZIBePJouf6bcAO5sL1mmYOS2aYXARIZggg&amp;oe=68DC7D6E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFOWx9F&amp;_nc_oc=Adm9Dm5sX4u_kUZMHxXk05EOn31_vXasoandHtWBUuLpUzZBPvGlOXtYWblPZMb69O0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfYn-pHN86MPCMoNteKIQd0xIcZV9oDLbvVOkcoF3-X8Ug&amp;oe=68DC7D6E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHdc-js&amp;_nc_oc=Admko8eUnaILG21zS5QsWUhlke-d2v7vyqsUnIO98GhZqos7SbQf5CgHfQWyVdLGjKg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbXv4VtWJuAvgJCEVxAjMhSD4yclslG-qdtaTspf7ZPZw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHSLDC9&amp;_nc_oc=AdmKiEbm0sWgON-3MqWNijllOMUCtbu4mXgYklpMyuyOPPXdOxY4pEJrW-qZO_Tb2NM&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfaMyoah7Tqp91-qb0f-YDOntm5Lh9Y5y9F2gqLToPVAMA&amp;oe=68DB43D7'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHSLDC9&amp;_nc_oc=AdmKiEbm0sWgON-3MqWNijllOMUCtbu4mXgYklpMyuyOPPXdOxY4pEJrW-qZO_Tb2NM&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfZuh0ss8oHyiyadnRN7m5qYaA20aCdV-vGjTGYU9l_gJg&amp;oe=68DB43D7', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZU6KhjPyNgQ7kNvwGNS1Kw&amp;_nc_oc=AdnAWr3pZ3kZhvqeVd_W3-qJvWRJ-3Sa-Dl1M-KzXR23P_TLmjfaAAsJTL81adJdWXE&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfYHNGQmmpVm3Tagse_63e-2e6n_9grUffhAuMKj7qc2Zg&amp;oe=68DB1CE9', 'profileId': 'pfbid0q3b25jyWMrXzZYPd8C8NZtxb3WhYHTTTcte92BgHZEJdP3b547ZNC8PVHMthMfwjl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHdBmI7&amp;_nc_oc=Adn06I3VZiCmNv2hJtmEDent0VnWNwag3DhkCgm_UbfzV7ZvLdbF4P_JdK3Sq-WOJbA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfZgGHnyJFuyTK6d56qzAOq4APNl1diopTgpfXJcjzk9Wg&amp;oe=68DC5D17'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHdBmI7&amp;_nc_oc=Adn06I3VZiCmNv2hJtmEDent0VnWNwag3DhkCgm_UbfzV7ZvLdbF4P_JdK3Sq-WOJbA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbVPcRkf_zJn8iJWaOTPqEJ0krCV8-Ywu5DKZQKg5Cm_g&amp;oe=68DC5D17', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHdc-js&amp;_nc_oc=Admko8eUnaILG21zS5QsWUhlke-d2v7vyqsUnIO98GhZqos7SbQf5CgHfQWyVdLGjKg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbXv4VtWJuAvgJCEVxAjMhSD4yclslG-qdtaTspf7ZPZw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=axwYJ7FqYS8Q7kNvwHyXbOn&amp;_nc_oc=AdlObEsJ_1P6VNbJ_XTbZYb54RwHZi-zyZZFd1d4n4FN4S0evmVpN4ypC2zwNJlZh0g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_Afa2oQnXybIGkrGvvHIdd5MeNyojRz_zR_8R5EiW_oM49w&amp;oe=68DB29F2', 'profileId': 'pfbid0TAZmtjxLhrZDyH9ji7ngLDA4htbR2oY9cJXfgThNSX94RJqtkpM6zEu96TU9oagPl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEtZhEg&amp;_nc_oc=AdlS9YR6yAjCE0g1_iLMemvVEZoA3-0CPQ_sm19gMksvuqGRsVmLreE86SMVHnpO4vY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_Afb3cU1LDOEP3GTuA68yRDE-dWsdng-Wdx5TaYDbJeaOkg&amp;oe=68DC7B72', 'profileId': 'pfbid02X21V5QtAZBTnFXcn1xXUyUobDC69LyvoEM4z88imY3S44GiZA4NiNtQ6gVLWeXp9l', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HdtP5xvH9fgQ7kNvwETBRD5&amp;_nc_oc=AdlJsTy1XsHL-kA7X7G-G39c5uQ-MydGOaHgbKCBXAU7D2Wx3NanyGT01inqFoByr_k&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZMabd8bj81WxfStt-Uvcbg&amp;oh=00_AfYO9PWUKTHSqGOf80ZHYo6Fz1OJmGFKqSCM6221xQflXg&amp;oe=68DB29C5', 'profileId': 'pfbid0DdnLVc4yH6AFvYD83PedtFv1zCXcTwVoH1AnvmTjYE4v8fXDLYndF2YLZaBcUfBVl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwFMgSRv&amp;_nc_oc=AdnAFIoVEqzn_xNkB4BgtZWJRn16KqXtalQTVh0su5vRgZ1SEg-YA-E8rw9wKzWqbxQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_Afaml5TCPRbPqH60ym0E9Hi7cTta0cEXp_S2BCmmc62duA&amp;oe=68DC7B45', 'profileId': 'pfbid02HVE3gGzo8VPnuGfqDLK8MNsYaNN6Ka8494qXu5kBy5QhjGW8ARDVZwJM4SpkoRxQl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IfZgMkK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IfZgMkK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5xrgAWJ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5xrgAWJ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5uTgKUO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5uTgKUO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5PLADHq/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5PLADHq/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5cEAAcQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5cEAAcQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5ejgFaV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5ejgFaV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1Iv0ABvo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1Iv0ABvo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5sBAAWP/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5sBAAWP/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IvXAI4e/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IvXAI4e/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I3bACvH/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I3bACvH/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5fiALE9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5fiALE9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5rdAPK6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5rdAPK6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I-ngOqh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I-ngOqh/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5iDAIdy/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5iDAIdy/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2bpgKSF/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2bpgKSF/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy589gPp1/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy589gPp1/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5iQANz7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5iQANz7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy50FgF6j/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy50FgF6j/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I-8AJtl/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I-8AJtl/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5q3AKsY/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5q3AKsY/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2MUgE8f/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2MUgE8f/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I3AAM4q/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I3AAM4q/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5a4AEX0/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5a4AEX0/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2mAACPq/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2mAACPq/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1KKDANI7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1KKDANI7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy51xAIei/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy51xAIei/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJh3vLgPqb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJh3vLgPqb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5eYAHJn/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5eYAHJn/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy6OrACfT/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy6OrACfT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1HuCgM5g/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1HuCgM5g/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5fJAIr4/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5fJAIr4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5dDAGfg/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5dDAGfg/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk25pgKiT/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk25pgKiT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026g96k62gkdEa8Htze2KVhy4jQ81ju82KzM5xVe1eaQx7LEevFtoAjaHLGcbXYXbsl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwG-K4_3&amp;_nc_oc=AdnYQkC96NAgDitlBE3xj8sRBh2JW8trT6wWUerswcTrmJDoKAcP_k1vX5As4X8I2ps&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfbrkRSmJdWncBvo7v6VexkvXMZVFJWP3-pWmgwsrynb7w&amp;oe=68DB4DA6', 'profileId': 'pfbid026g96k62gkdEa8Htze2KVhy4jQ81ju82KzM5xVe1eaQx7LEevFtoAjaHLGcbXYXbsl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwHU02sV&amp;_nc_oc=Adl7Tu_qvgOs1WIiFT7Di7YdDc5iSn3tqTkTP9muURF8AYoFt8ehOdcSR5VWahssNmY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afbb4D4f_-VRG_VzTUFkFodcAa4ZiXlPzYh7g6bspGJ9Nw&amp;oe=68DC66E6', 'profileId': 'pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwEQhYGy&amp;_nc_oc=AdlCftAnvNBhwm12_eSkUOhcPGRMq26SCYpIYe9jOI34zoFzEH4Wbz_uJIcn9DS4JVI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfZ6rPfpLTebtQpEOyDqO6DXJrb3xpGkgJC-OmJxzH8q4g&amp;oe=68DB478D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwEk4dZ4&amp;_nc_oc=AdlthKK2F3sxbRLrJdgxARdZNdBzyIpo0JDUBc_yi7i_Knb-MLUC8sFjs9lB70Pp8-c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYdX7KdbOZ1PYWFNEbvuLiNvWjdq5q3LTds4FUeVRI4bw&amp;oe=68DC60CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwG9BM3s&amp;_nc_oc=AdnXhDR6SQCWPuZv4NkMYqdHyCI9iyISV4Y3UCEI8yb5L_iCBBAUgCRaBfZ03Wz-TS0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfaCYXciTdNi_vdPcURvAPJuYyY0YWBEplzSAPf158bJuA&amp;oe=68DB4909', 'profileId': 'pfbid038Nkowsf1e3axg2PoymZFskMaNZZTiLztsEDdCvwuwWqJHFwSMQU2NP7AyNnPh743l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwE6i8Zd&amp;_nc_oc=AdkhIjLoPoyJiwgGcgVPmOIK3eXpuSbMyXZsi9UccLmEVC8aEaxiiZTftjjLMw0D5W4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYUX4IRJDdfUOa6RGBOH7jsW02fHYxaXENvPxdt4APa2w&amp;oe=68DC6249', 'profileId': 'pfbid024MA6U4TSyCr9PJ8Yw4o4TGiMXaddjARkm7UEJsWVitgkGccxnmZVfGxiw9fK1Lk5l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZL3vCxiHrxkQ7kNvwFNpzwf&amp;_nc_oc=Adllkxggykp11aW-R3ehEjYNQmYjhRB_0Zd0FjjDM8OYKV6DTAXJejio_n0S2EQXvtU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfZwGc0kAyhFMRuGv5I9Nq75LUMG59NgcV3b1VCxETUcJg&amp;oe=68DB4566', 'profileId': 'pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGgYPub&amp;_nc_oc=AdkJI0yINBOUS8chJErtxf3SNGS4dv9LnlgiiNl2QBv5UTD-CRIOPio5Ks0vriUYy1U&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfaNEHye0xEnWF4vQkk6nf_OAT8Nh_kVj4bCX9AkGUAiRQ&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwFDrxzo&amp;_nc_oc=AdmdyhUZ7FQ-nzGy5hfN2_DA774SS3P77CCdYQi9OFvBn1bSOzEJ11gDsuiIwcPNzSM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfYc3TFIZfKQuXhclx4Ve_zQvC6xuviiqTQLutXKZj_RUw&amp;oe=68DB2333', 'profileId': 'pfbid02XKbHi3Pt2JHy99ZS9tsSMm8MvZ9XjdzSW4fYYW6nSTEKLYL9Janv19L3toB7y7Ghl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwH-siiQ&amp;_nc_oc=AdkcJWpmLSK4O1CJqDPWXNb3rfJsNfGIqhtp4h5-aAhDec3DCp17iC1PEw8speOpms4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYDQ_N7PAtBZlKNd21HI66slcpyO_21rXfosaXOBVUoNg&amp;oe=68DC74B3', 'profileId': 'pfbid0Tmx6nsmXBAXo1SsA8Vptv86Sx9HLRV5PwjLspANU9KRk6CZnHkt8PYMHUzyMaEGel', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nhPY1RB6SbYQ7kNvwG139kg&amp;_nc_oc=Admr49xj8TzWrstiY9i6vyF-kq6Qd0LAnnGbCqafdH2oTursHHmMKcDS2nc5kUdltio&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfbIxfEBKImII6ICjbukpKx8mqhArvN8R6o9psKC49fRGA&amp;oe=68DB48FC', 'profileId': 'pfbid0f5sCUs4q888jTVsxD9yBr7oXJwQX6DTMS5ySszQUqUPYbDm2PTcSqDVhEVcBtcdFl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwG7hZXE&amp;_nc_oc=AdmpR7xShwiiBOZFsMoXNaL1J8u9Tnio58A5RXJZMZxYaPLlc_3s6nUR0zUVlwK9dho&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfY4fY-AZVWjzfOYRzTEyBdusvXmc8G7fQ8rAZsiiOQ9mw&amp;oe=68DC623C', 'profileId': 'pfbid02iwJufXzeyUJqJsT7qQ4BKRTWhymaW5VJAZufgHCoDgMRdqqtSkYS2E9avQ5UBHJLl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwESE25p&amp;_nc_oc=AdkJJHgjSEEuWYJLGRaobWA1W2G5eSEEt7kTxgg3DFn_ddJUU_0xSmETpDiZTuAeBDI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfY_TCr-T47sQPRDsEG43YrxNdVHpuUziPHCqLNnGDo1SQ&amp;oe=68DB2FC7', 'profileId': 'pfbid02J6cGqUFaF6CdVXs1M8Zo4LkGydMgMV4GWNhi825fdYtoXPwyFzDJr76cTmNZhJu3l', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwHdM2wb&amp;_nc_oc=AdmQCGEIPvRVuo5D0etCQuqsK2cAz9UBn2fEyhETy1XJr1UbETXYglojLQl9JkeJNrk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfZi1TIGmPx6DW3m9ymapUg8ZzEORtYyoKcgrakFtrrYRg&amp;oe=68DC8147', 'profileId': 'pfbid0E51ZMf41a9BFD4z6tjMRq4WSez8yRLVsTVJisfcgNzrERbzAnU1GFgcfiAs91prNl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwF8BHbZ&amp;_nc_oc=Adkx3G_ZuJrVxqQAMPy6EAIMs1o5OY6LTmJ-UG3HIjNH3Gob-JNEUUWO3MDvV5K2UeA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfaxH8s3r-nciQqSnfSqZCdSkcMKNb-LovR93it3EtT4-g&amp;oe=68DB523D', 'profileId': 'pfbid0wYudfxaqsi4vNSZRCaf6kYgWPXWCFDQXTjAt1P2snfMLrPPBrN5t8LncfoMHouR1l', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwH3XGx2&amp;_nc_oc=AdnBbsaP-bywQF9BwIuPcvZJmX_C2M8QVUNohjDoFqgryhsgViu6l4EKhxi_LJO3ccA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afa35VbVUcq0LPjpsZOR0NfFVUHDSNGptTg_ohEXj9rB9Q&amp;oe=68DC6B7D', 'profileId': 'pfbid031QMLrdWfj8Tr6pkNntktuUww3qMYvqBy8z7qZbXwuFEHcjECfgmXdf5bzLi1abLpl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwGdr9UX&amp;_nc_oc=AdnWm7PWEGFRNXNbTSs88nvq_FZZnz2-4PGkGOM88z9AmPqyQA4RLbbw4vxiX99V020&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfbeKKnUx0J7PzWQ0sv3N4Q7kewo-mi2q8Uqe0K4GPEZwg&amp;oe=68DB497B', 'profileId': 'pfbid0d9bdXHZQvDe1rqGZfvYAuVtKBqtypbA4KHTC1jrFJmDS3vxNWWsuNAq9RnfD5G1wl', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwHnEghO&amp;_nc_oc=AdkvXB3T7TXW5F3R8ZdTHYKHB32WBqzgRQgmEsAGwu2OtgzAq6sj7Wl8m7BQng7_d7o&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfZB7nGHremT0qmVI4DWseIABe4E65zSSlMV6awYkDL3rA&amp;oe=68DC62BB', 'profileId': 'pfbid02gX5p9Jv2wyxgo5VNidfY5eNzipigpP8JzoF7KJibKVH1fh6oSHwk4AokXjnuxi3Al', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AmsbANdP4lQQ7kNvwH5AWPI&amp;_nc_oc=AdnR9QzErD8G2EaKHegWNclh-xi38nl52Ng9EpAckxViCKI7zr9aQxR0XMKLxAfMabE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SDXAjVwJUZcWxSMhAwzpAg&amp;oh=00_AfaKVaPKFrLq5XKA2Bf14BYABb5YvUm5jBDcNHKZslT2KQ&amp;oe=68DB2F95', 'profileId': 'pfbid0snhvq2d8zcD9P9x1n8ZjK8Rd92Xra6tnr1KNwaSbfXUbRFxqwNFX4qUEvaHrHqX1l', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwGyeHqr&amp;_nc_oc=Adk3BqrQbV6PFMyIXUFitl018BAiKIvP_EgHt7VVwnk87N7C-HdxCsoIJj9YknqZSLs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afbe--wNS4wmebhf73DayGYo7t42bJiGf8F1EX5TsCS6ZA&amp;oe=68DC8115', 'profileId': 'pfbid02we9e1hYxquzjfqZkDGkDZRaT9viU4qrrJsYm8sc9vQ8kmXECDeRyMq4vsuCmg6PPl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oDypsmtP2oRsy4tBxLetK49tKfcSLWnR8hbPqrzBj6MzTzb2F61fuE7XDG7t7f4tl/', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a5Lg_WtFUj8Q7kNvwE7b9uB&amp;_nc_oc=Adlp7O3I5drPczd0ebE4G0v4jCAejmJ4kwfmRXa_OH6A15UqpQsfWM8sL6hBzWidyuyail2Hvq_uqyy4MDovjRJT&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfYzY-G1L8Vn-AfMGyyOoiNT0jopIwnMsB2cwATkGKdI_w&amp;oe=68DB204E', 'profileId': 'pfbid02oDypsmtP2oRsy4tBxLetK49tKfcSLWnR8hbPqrzBj6MzTzb2F61fuE7XDG7t7f4tl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwFubFFp&amp;_nc_oc=AdmVZfcaOBCaOMORnA2KRztALXxGZh2sWwOFQ4wlKV8mKJ_HumnQVVLkfbtO12lxzPdm1MBWncGvEK7ViFooXhld&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfahxQ0fhGJrLzVCuaO0v9hrKoFiIu3yzdvz4I2ZWzjzng&amp;oe=68DC71CE', 'profileId': 'pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwFiG9nD&amp;_nc_oc=AdkYPj3-E1u3FzD4DCkTrFhhba_OCDJJb9YtMEZbvr4U5VT7BosjciWIbVlEmEre-UpW74nvSrRrZIKt7h47U-0q&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfbuMYy2D1nUrJmU07fCeNJa2OxyKf-ySKMl0mTaUzUGiA&amp;oe=68DB3CB7', 'profileId': 'pfbid0AMeVbXSF9cBWjcGgpMfxzgxncU4dXTrRcrcHnYfavzsLFBriixZhYNxQm8mVDkq3l', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwFOhFIZ&amp;_nc_oc=AdmArY1S1Eb6-gyEVEaCSNY5heTMFtpsdvKlJKnp1ZKUUPbWC7sfa2lDJy7evKuL4pZvvi2ImxMpyUQ_7OpJmjTg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfZN9q0B4Bfar4ckf5uheQAdBTbYfs8csBf-kzmMHfBH0g&amp;oe=68DC8E37', 'profileId': 'pfbid02ED6CnCN511KpjFnsCk3tjyDApj58vB5QTYCYCD1mnporZrhjhpw7G9whhT1DtKRpl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0V1oyEzk8CkcBXoWRprW5au2swE55MvYbAgsmmQ6L9kxUQ7nKiV5gQ5oQ2JK3oDBbl/', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwHDfbO8&amp;_nc_oc=Adkaj15GB55VSLdDWB0JUkKXtYInmYJa4ehewx5LhP1FCErmsV7ErpyJN-5muVvG6PPleTdFW5BYuistKJV-YoS4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfYftV-4atiKI5f7JV_W3F9Flmdpcqhhrza2Fcxhb7virQ&amp;oe=68DB277D', 'profileId': 'pfbid0V1oyEzk8CkcBXoWRprW5au2swE55MvYbAgsmmQ6L9kxUQ7nKiV5gQ5oQ2JK3oDBbl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwE6PEFs&amp;_nc_oc=AdlpzYOqER-TXqUGB-KKiJSxul8hAn2XvhAH9ndwPvn6QzXckRTwh5Mp3jHjqvmR7TZuQ--pBOYcz2ZwMs_tR7sH&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfbjMMkL7uRVPcBZxC7bOt9WBvCF54klCbQ5ok72-maOlg&amp;oe=68DC78FD', 'profileId': 'pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwGRUUc3&amp;_nc_oc=AdnDwO-ruYgXhT2mXdfwSKZSYNuH7DwT3OpXwLirKbBGkkRt9vu-LlKjmn-Ob6gcOCm2lx3tSNLMmN0Fpbd6loqR&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfYbEG8CD-7DXUMqng7Xzk7m09yg_bSr8F0M4uxO80HejA&amp;oe=68DB27E3', 'profileId': 'pfbid0Mw555XYemJTpyfnsv6Qb1inWnKebkytr3cWvMqEksYDGRkmUfrbjFgQvyrQ9oSvcl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwGT3Qcl&amp;_nc_oc=AdkNFXc1QPNuMLX8CQjPIo8WDKhVddvEW-sSBsVYqJda-TcZ5A1tPwHkwEjs8GPF8vPkSoxMmazzfPs8xW2014On&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfbhCScS6Lrz6dwEfRGZauB6IgbSgLRcuFiLDIygIaQFzA&amp;oe=68DC7963', 'profileId': 'pfbid02RnWnGCUUcoTG8AqJFxpz8PuGu55RZ5WtjK99MKPLiHSJ4duVW8wCEKYmWjgjvXydl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwFRnZVN&amp;_nc_oc=Adn1qmHtgOA7qLaRgRLSjUo0dyiZ0Un5slLCwWsEQ_qwLeebxIpxn3huF4FAtezjB9w_7VIZo-t2azC-ZalB95KR&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfbOAGJFwnuU-JAgfTmtBbGvDO9ihbx9TYYM8uTmnrzhZA&amp;oe=68DB515B', 'profileId': 'pfbid029PjL8Y7UPeFKvN1RKfofDZ8xCSv9Jhc1eF3v2xHvCoVdTmb8XKpg4UvdP98hJncGl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwGEANUx&amp;_nc_oc=AdmgCEtRWD77_YstMT6akdAI5i04cjo3fg3Vz8yY5ZtJo9PuDbAj-0FAGUU-hMO_fvlE6V6O8vYsvIk5ymXM3PzP&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afb6cZK5P_hEFbgI-TKuwOwnTsjdouo8Q2PMA2sAPINjLA&amp;oe=68DC6A9B', 'profileId': 'pfbid05N8ceiuuieCQv8UUe6iVaXGE3eremYoFjE5XDWfpdojFxjHsrhn8GcsxnbHjym7ol', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwEdTQDX&amp;_nc_oc=AdmS7tZivSaep_9ZXaVl7Xlw_5TSTzcRtRIHnx56qupb1piCvDOcmcmunSwMrKUXJcpo1LJJy1Ei9jY_XBRKTRaU&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfbQqaYdsjBN2024dgrBw-ISpP0Aag0YgzOFxmllvSSffg&amp;oe=68DB4E6A', 'profileId': 'pfbid0eJyr9ZsTZeY1gxvjAdXt3GNsYcoY7cKhYwWcw8wr3idB2XEEP8a8szajMxCq6mNol', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwFg6XfN&amp;_nc_oc=AdmX2NnFUOAi0dqPOb6s1xaqFYhx29JmDt4neeby6jtJ-Ew6umCVEHg_SLd7TApVx4hAujOknl1P-VIVu6Gih1L9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfZUX-3QqdK4Io4mvHxZJc4utyk5qJ31pzc_pj2LJlCeZw&amp;oe=68DC67AA', 'profileId': 'pfbid0eJyr9ZsTZeY1gxvjAdXt3GNsYcoY7cKhYwWcw8wr3idB2XEEP8a8szajMxCq6mNol', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dL4uKROp8pgQ7kNvwGDRcOT&amp;_nc_oc=AdkkQMXmP9Ne77EQzwGfnzJ5vE_bEZ7AUHPasKakd2lHF4yN8vuAfdUNL23vWE15BZiTpOPswyZmUwlvp3CooCg0&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfY1hj8dW_2hhvUYyE2vprBLIMsrohDbwLgg1CpNRKcrxg&amp;oe=68DB3A51', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwFauk-R&amp;_nc_oc=Adk132NufVdKXszdBuYHnzVMeIUdf4lU4ZfXatTdgt6JjlIj8LeLub67zhtIUzTymupxY4_hsMmpAIRJdJdawhSb&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfYhHFyNWdQtAx493OP_NGBLQSmAV8J3akKh_lLDL8FDww&amp;oe=68DC8BD1', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwGLxk56&amp;_nc_oc=AdlRJyIkmqt5sDgRKZx4dFP0R7N-3xfaTeR_9IAV6G7nHiodGYreUYJd1C-NspREPrmqD7rx70eJkcd_OJ9UNoOy&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfZ-6ANFO2E8RZMJxy6TEiskRzR_C0g03oBsNGMq-0ffFA&amp;oe=68DB51F3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwFNDotm&amp;_nc_oc=AdnjWocXyOQDg10KBjPvZbIhRQ8uoJBGiqtWM2eJJkeIq7WMfCakPOrHXiuZLe8I0DY_r_DChnxDEeDJifzdS5L7&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afa-CpXQcLlCVvnQ6_CTaZ55RdG9m-lvwHrLZcW1Y9gjKQ&amp;oe=68DC6B33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwGaixkF&amp;_nc_oc=Adm709vBN7EtphT1jIOQJcDE4D5a8ldUrG2AWm0o8eJGtP1QDUhzzHbAJijq97Yhn5h3RBj6ZQDTdiG2XqwhQ7t-&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_AfYviGiq3eN2pdQXrDT_mSJXI4djSBJoPSGQ7cUUbzgKfA&amp;oe=68DB231B', 'profileId': 'pfbid02VTukpyazp4kNbqxhEoWXfkLDsQ4kXW8kNXzwQxRmFBBc84MuqWBTuDbKJBtpedZAl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwFDdXln&amp;_nc_oc=AdnTSv5ewScOSK2umss6-RajNK_5rX2-mBuDE2ucVYTZEegOVVjyrPNcGZu3_jnNFqnxVyU4qzVAaXVARNHS2XrI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afbn7uKb9rE7Bpd4XZGJO4aHhjCKH4izddqV8Qbane-gmw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02eqtLaTvR23cZ8LWebCewh9Ymt7Y89ShFyNeAC9Eaf64zEFW35Tnx7XuYzkJJESCel/', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KaQeo2cYHfwQ7kNvwG2P_q1&amp;_nc_oc=AdmjfjDBLyB_a3ULOl48Oaqlf4oN5CP3v-Eou-sa841BiaVcBjsmmtM6ej6kbFQDSwLjisAI3A6befRWsoTvXU6a&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=gOO5Fx1-8WSiXG3BgDVVPg&amp;oh=00_Afbv6pYwD0coiulwSxt4QwGa0kB2OUArycsVs8JNdSNd5g&amp;oe=68DB4A77', 'profileId': 'pfbid02eqtLaTvR23cZ8LWebCewh9Ymt7Y89ShFyNeAC9Eaf64zEFW35Tnx7XuYzkJJESCel', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwEORtE9&amp;_nc_oc=AdnVb7yV7ESt1ey4K7U2seeQvsdIyNgAXcQv2qzQlb6kbUy-BV6r_a9bIVR-H6PeCoguAI2FaOohOCtkRcLRZmyr&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfYxow5ZKY0euWlOKWrEq5JUfuyrQOQ4FlLQB4zR4NdjLA&amp;oe=68DC63B7', 'profileId': 'pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwH1EzHp&amp;_nc_oc=AdknvEgbXG9rPQMvsOJEsC1sU8FsFZt1xELtomwbwQ9kxIVY_0rocbl4ney-5kl9SvQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfZz7F3hBoYStP3IG2PyiNzAzU7CPZQ9_jAwaEjgpKkz3A&amp;oe=68DB303D', 'profileId': 'pfbid0aPVjmQkumc9fa2mgAnJZeDUPDKyf9uaHeva8maYJbM4EJjSoCCVFLzQoz2dY8o9ol', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwE1VIwK&amp;_nc_oc=Adl7M0mmUGwjw67I7F-mPF4uV50GcOvlS6GEhnIhEKoXfOHICJxXBinnGZScY_BKU78&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfaqEP5K3Nz0UcvPcJtFzQr8ZvABjOJWh_HgfpLOsyr_Jw&amp;oe=68DC81BD', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZL3vCxiHrxkQ7kNvwGVudRU&amp;_nc_oc=Adn5quYV_ZaQem65YgeRdv1BigdlBhT5kRY5pUDgmJWdXwmebSFIbHsT1aRgfu5Xvz0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfberRH5-G_EwXOA_tOf5ei8QplGvcNeYTZjWzCZfvoKnw&amp;oe=68DB4566', 'profileId': 'pfbid0c2qTX714Pyuy9YBLA3pDssd5Y7t88XLuJrzvk3mBREzDs6SA2a14tG6rqAaBq2DZl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwHRc7Rb&amp;_nc_oc=AdleCQZLDe06Joi9w7Wm4qFeLUEP0uLKeRMJaHGFNk4Zx5G-5RKGKAWHcq4qXwyZ7kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbTXtlqY90vFAwsixLI0iR7wGWXLIkUI0sexCka_79Lxg&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwEUA1tC&amp;_nc_oc=AdkL57l9wlByokUCg-4X1VvZDLy_ZSZGP6-7ZSCIlo-6jvoMA-EXsBoZ588b7a3dTGM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfZFXiDxCiMHPNZGY1JGz0SVaV1g6ftnYsbgw-HEr-kCVA&amp;oe=68DB3BEE', 'profileId': 'pfbid0hAm7oyvEzPSoUeJJEHPqU2pS8eFW6Y5TMQNvbwYNpdfUMCYbLfLxpPpz74vmB8aGl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwEkCjfE&amp;_nc_oc=AdnwMGpU01ZO7AY4_UT279n0fj943Or1RJns4y-6dwHpdqLiX1hoB-xB4sJZ06HxZY8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfYz22dzyDEIQm4TIsGZOV_z6TBuP_Ton9QVkXV5AyA9Bw&amp;oe=68DC8D6E', 'profileId': 'pfbid02m2Cpzer4qiekwXcwEgy2n9DnuqSUqK7SqGVdHqUtbC3zkCYgA1WgqY3PoMwb8Mn5l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwE8WoBo&amp;_nc_oc=Adm4tQE0ZwkPoIbmGPVdsn-7czV8DdfQu1kFpL8XuEgIdBbCh8wcmXMUNRbmADYdpT8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfaKyD4EnPpakZtXQUNncGCr32G0RrCX_fAAJEZPE9Q1aw&amp;oe=68DB231B', 'profileId': 'pfbid02VTukpyazp4kNbqxhEoWXfkLDsQ4kXW8kNXzwQxRmFBBc84MuqWBTuDbKJBtpedZAl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwGiH_l8&amp;_nc_oc=AdkQeaqXr7SqU21Dgh1xaPmBjwEc2WUtuth_lUD7XkanBbW9SGeqYLAGko0EjEpEFPs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZ3T_h9TrXZvMMIAlq6q6u-UncSvwSa9lYuyFZeLEPzbw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwE2T-Q_&amp;_nc_oc=Adk_UoBsLyDKnlxlq1H73XNXa01MJHUaR-05h0C8558CUt1HxPvpZf8DoZkQCKT2jSs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfbUdGOt4P7MLHjwfY-J1qWS6QiaCpHZAsizciG-_-A64Q&amp;oe=68DB3C6C', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwHPOnjJ&amp;_nc_oc=Admr8qTGH-Qd-JL8v7nhjcnuKIA2HRB7ArBpZCGeFayPih6TgIpEW8rISrWqVKMCwZs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfY-gg4cfZLnmm7nPAbxr8LijPPrcbLQfdE8isJlePxjaA&amp;oe=68DC8DEC', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SsLCyWwFCOMQ7kNvwES4tG-&amp;_nc_oc=AdlamNRxHd--RUZOBxs0DY0MoOZI4-RPvrMyF1qR11RUFMGD4FClL2gMfAMQ8WidrGA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_Afap3qXtE5eBvugLLIS_4hNUw5b5068ESAdNZLCAq3F5HA&amp;oe=68DB4254', 'profileId': 'pfbid022LCA3mVir1V9twrVFxWNTgN7voXc6CjdiD2to5Gnpk8oHt1AUkc2U3hNQbqGD63ml', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwHq4wnM&amp;_nc_oc=AdkAbwIjKXGtWtPqbzicsHmZgf2pNIwWm4UwMsCmFUOJw9ZNutR8M6GKP_4fFbyWW48&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbW-tJA8MImmzkYxd-Jl1Cx7TTWqPwMzm9SI0Wo8pZD7Q&amp;oe=68DC5B94', 'profileId': 'pfbid036BdsESRYhPViNQczE2GDZwDAUXJj631HV2DnFmJomaLvgp2DD9CpWvyJ8kMiGJVvl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwFvyiTB&amp;_nc_oc=Adn8-lItHEbjOKqdJ4CPyxUNsDoV56jig61qKeYd14Fe4QGz8JeXKBG_tIHYDAnkZqw&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfaWq8roxumStGAEUrJE_fJJU2eupfnc5ENJ314aF8JiXA&amp;oe=68DB20C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwGbtij3&amp;_nc_oc=AdmJkL4H6NtGY86-7_sydq8MbVe33uN0HE1Zf0jILbfBf2T5_V6Lo271hBxoFWW9tvU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfZeJiC1hoZmakaLuvALqxrSdWafqpVLf2nxTvT--X8v5w&amp;oe=68DB224C', 'profileId': 'pfbid0iVRjyVP8YSpdLdLFPUZkNHx7u56k6nasyHecHvfBhjxrJhEMHfUcYK9oiP6xPnWdl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwH4bwj-&amp;_nc_oc=Adk_e0qRrO_0zqJBCaF6Qxel7bzVP4gxyXh5wLkRIoiJgyUJUi17ZsT6n3KjBbvj6Lg&amp;_nc_zt=26&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbmFKBfwKPL9gLdoTDeh2rH4ml2KcFWdz478UzDFZIDew&amp;oe=68DC7249', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFrWkWo&amp;_nc_oc=AdkfOUGveJHmHGscbzjjGWs6HzqY_oHzIO7Zzo599C819uJ79iAL3jp5KUskuYPE7Rk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZnrIoAar1dnSOaRbcpOZr2raPPAX1aIQNluvslfwf23w&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwEyFNe1&amp;_nc_oc=Adk-QXOScJWyVyc9ybM1EZNjGUmCylS50ipUcU0aQbQ_Z5GSLVucvmYU7mqZ5TQNqgE&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfZL5LiTaXEOtggEoNjBReCmbJa3kkGric2ZfzufLEy88g&amp;oe=68DB24B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwGbtij3&amp;_nc_oc=AdmJkL4H6NtGY86-7_sydq8MbVe33uN0HE1Zf0jILbfBf2T5_V6Lo271hBxoFWW9tvU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_AfZeJiC1hoZmakaLuvALqxrSdWafqpVLf2nxTvT--X8v5w&amp;oe=68DB224C', 'profileId': 'pfbid0iVRjyVP8YSpdLdLFPUZkNHx7u56k6nasyHecHvfBhjxrJhEMHfUcYK9oiP6xPnWdl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwGsipcF&amp;_nc_oc=Admd32KsFxkqZ6HQYdi-dKhOlJ-Hl0HWQHY3l87ryDhZPEpnJz-61I-U7dwbXw4a330&amp;_nc_zt=26&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfYDm4pb0zkpJLNKmRC_9YXVULmWR_YWny3NKNcLupa1hw&amp;oe=68DC7632', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFrWkWo&amp;_nc_oc=AdkfOUGveJHmHGscbzjjGWs6HzqY_oHzIO7Zzo599C819uJ79iAL3jp5KUskuYPE7Rk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZnrIoAar1dnSOaRbcpOZr2raPPAX1aIQNluvslfwf23w&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwFGiieB&amp;_nc_oc=Adk2EOi-gbdChZkdpJzhOx9Ma6bziXDvbfv0yha53t9NNCNqDWPFIXIQl2GcgPMZNbk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfacHrsN4KlSea2FbTYK8xreM2M4wbhviNFv2D5cuFCOnQ&amp;oe=68FCC87A', 'profileId': 'pfbid0GXCeLJ5UUGy2KzZHXjubP747LzWKEL6GMUZ7tPAGUoqwyshqVAKBy5wweviHgF2wl', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHu8ASz&amp;_nc_oc=AdnZrCY6-SYR60aNxNwifqi4JXXpaQmi5zr6vwZ3nHgpFgtPgQumk3VTLZV0F9Frj8A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_AfZpcckCDVHMRyhwLZa8wNoFmiekh0mTNBAo5X44EU3LEw&amp;oe=68FE19FA', 'profileId': 'pfbid02LNeMWy1JKggmXCyydTAjSg3HR9QYw4uzTViop8cqMCt9tHjuFHaXnWjmWaY9Wc8El', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwGzRZVj&amp;_nc_oc=AdnzYc0LcyvTw1Ge8AzUixsgJlmh2-OtEgXNJ3rsKMtfXlm-XStBlww8fMWnHDpMlB0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=RYQkwTsEiN-jU2qbHnivqw&amp;oh=00_Afbe-CmrQCb-jy8lxIVJgXmvQ4WNzP7XwuOZPfJar27FCA&amp;oe=68DB21A9', 'profileId': 'pfbid0BLscBiv9caQdLv7W7CfwrRZkBF3d7RjrQpvuXtChtpRZUSBUnQSnF3sEQVobFK9Dl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwHwCPEF&amp;_nc_oc=AdnxDmFJE7bUN_OsDKARTl0t4bf8Yss43rFBtUfQcAEGD08v-iv9x2rIt75Qu4gTDYs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbVffrTe8nyQMNmgtjwULnIZxNFg50eijHLn_vOcstWyg&amp;oe=68DC7329', 'profileId': 'pfbid02FCKKNPqyU3GFDkd2DQT7PBooVggKda4cK9x3GBhYTUZCwKhjSvx62ho7TRXCN9cZl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwHazgU8&amp;_nc_oc=Adl3Z5WJX15UVuJUgTVg5z9xLxJwe0rZQ_QCk0_NOOmfOy85VyK6VMTAAXaIAXiYAlw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfaEuXJgoZH0FOx7KQjjDQSqq_zumDj7LWff9H6PFiiuLA&amp;oe=68DB353F', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwGiWz6h&amp;_nc_oc=AdmLpTKJDleIFKvbbaENS9Ttw9WEPm5alG9-1IUcX9Ktv1VP5pUQrKS_TdaJSv9C9RU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_Afac_3aUW_4EGHwVXYMCgh8NCyxVNSM5bGrJI_HbflRk-A&amp;oe=68DC86BF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwHRf8NP&amp;_nc_oc=Adm3UE352IBGySafHZAU-7Kdh9MWab2miL9u-VQoOIMfPTyfFrRPFdvmtl06Ia5C7M0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfY3v5zEzC0HEyFy7YClIzsDpIYEQ7UlElyQY5Vt9PgpRw&amp;oe=68DB282A', 'profileId': 'pfbid02KmhN9eDDZnED1xgVDdH4rEJdZ9SjPWcYSsPQQrJ7fecofUf5AoVpftqssLd9JZ4Dl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwHbSIYr&amp;_nc_oc=Adnl-DsyJM-47fdhB3e79HQ76XSLjlPJoPirZ9ohLpRvHZLYF6hYe0Up9QU96etF8nE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_Afa8i-8gasAm7Uja_xYre2vGn7dwJ9zs46h__J1hXL-hxw&amp;oe=68DC79AA', 'profileId': 'pfbid0GE4BEUariaT4oXiMowrixDaPDYxqGyfq9mx2GMmLa8fjKAETkANPv1SUt4y6whxgl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=7Uoj2wSfxzUQ7kNvwFklO1l&amp;_nc_oc=AdnwzFYP2S80Dfem2mUXsjXJ8AUMyrT6YrSFcGK7CW5Uzjxi_75LqBMneQI-6Zl8X8k&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfYq1dzkVVb4demZOx4shmJ-PPSe5TxqLnFHmb8WVcD1rg&amp;oe=68DB2BEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=7Uoj2wSfxzUQ7kNvwFklO1l&amp;_nc_oc=AdnwzFYP2S80Dfem2mUXsjXJ8AUMyrT6YrSFcGK7CW5Uzjxi_75LqBMneQI-6Zl8X8k&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfY-Ej8E6bV71-7t-QcnSdofOJ5h1wNvCCV3FE9Bk1nogA&amp;oe=68DB2BEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZU6KhjPyNgQ7kNvwE3h4G9&amp;_nc_oc=AdnMjKh8iUt24K1ODyUePKcO_0faib1UBO8jV7TM2BmbBY9h4-rkf81734zqW6jxAj4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfbpkkLtLWeaweoCDv-hAeaxRCPdlXZbDJOC9gp7VHn8Iw&amp;oe=68DB5529', 'profileId': 'pfbid0q3b25jyWMrXzZYPd8C8NZtxb3WhYHTTTcte92BgHZEJdP3b547ZNC8PVHMthMfwjl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFScEE8&amp;_nc_oc=Adm2hLC9wSTqv-Ww6KavXodzDygZ2Gm5c0DxaFOzlvRtfDcnuaHXOLP6MqJxx6u_URQ&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaZROuSQOAr4dpwi3WJGVAIgEL46XSLwpJ3btzs3EJwmg&amp;oe=68DC7D6E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFScEE8&amp;_nc_oc=Adm2hLC9wSTqv-Ww6KavXodzDygZ2Gm5c0DxaFOzlvRtfDcnuaHXOLP6MqJxx6u_URQ&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaN72yWjWlh1TYF7FOQDjh4YjxLEpyaf_oILB2Vq_YG4w&amp;oe=68DC7D6E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwG1Lv5h&amp;_nc_oc=Adna9mO0ioOxYWMnJ9WTaPYr_Tkn9Idh8auu4uX__Gal2pUy3GasS_sc0-WAegOgLEU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfatVwzj73Lj4suK2LFua2Dsv2hpKC4K3tGYpA9gCeFzdw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHNV2KB&amp;_nc_oc=Adls1_DHTPtGdNDlOsI2hX1R1vDslV-w43gquR9sAxW35ybV5vv0moWV8BpVnyvG4V0&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfZJsMqDCHYVZnSHCzxkdhB80mB7ZT1C1lDmuHf0_jr-0A&amp;oe=68DB43D7'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHNV2KB&amp;_nc_oc=Adls1_DHTPtGdNDlOsI2hX1R1vDslV-w43gquR9sAxW35ybV5vv0moWV8BpVnyvG4V0&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfYFf6-cocXRCcyhThs_d5vIgkp0KFKFLI15b7YulNjUSg&amp;oe=68DB43D7', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2ZU6KhjPyNgQ7kNvwE3h4G9&amp;_nc_oc=AdnMjKh8iUt24K1ODyUePKcO_0faib1UBO8jV7TM2BmbBY9h4-rkf81734zqW6jxAj4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfbpkkLtLWeaweoCDv-hAeaxRCPdlXZbDJOC9gp7VHn8Iw&amp;oe=68DB5529', 'profileId': 'pfbid0q3b25jyWMrXzZYPd8C8NZtxb3WhYHTTTcte92BgHZEJdP3b547ZNC8PVHMthMfwjl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwGZn54r&amp;_nc_oc=Adl04nDdeigHKm7IzOKGga93SToDeDgs5qPmWeWkUUcUtDbcecsgkJXGvOmihYgtxpU&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfbLBNdMEhjihuA6M89Qe2f66EP_Fvw83cpJlza_DHUuSA&amp;oe=68DC5D17'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwGZn54r&amp;_nc_oc=Adl04nDdeigHKm7IzOKGga93SToDeDgs5qPmWeWkUUcUtDbcecsgkJXGvOmihYgtxpU&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfZzccCdl725ElkOWEB-12RXWwLxXLUavuIlgUAzgi3w1g&amp;oe=68DC5D17', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwG1Lv5h&amp;_nc_oc=Adna9mO0ioOxYWMnJ9WTaPYr_Tkn9Idh8auu4uX__Gal2pUy3GasS_sc0-WAegOgLEU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfatVwzj73Lj4suK2LFua2Dsv2hpKC4K3tGYpA9gCeFzdw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=axwYJ7FqYS8Q7kNvwG0yliX&amp;_nc_oc=AdnSY5pyZmNqYrjaiRkCCfratOtwULKYE4k5qvhM6ENCQk1CiP5AfVBtNEG48Lcr2dI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfZTfpPhpU7YHqUoV0XVyifMON_foh51Dr42K_pHFZKSwA&amp;oe=68DB29F2', 'profileId': 'pfbid0TAZmtjxLhrZDyH9ji7ngLDA4htbR2oY9cJXfgThNSX94RJqtkpM6zEu96TU9oagPl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwFFJllR&amp;_nc_oc=AdlTGbzKIrw2R7tXowxg4bS0vDPeX1-ZXLsvjNYQjOTN_9E8qekxBkkh7ptPRC2ayzY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaeFtWo-U2VH1N289f9skECQtgBh3_cPGwTZqr3Y9LqFA&amp;oe=68DC7B72', 'profileId': 'pfbid02X21V5QtAZBTnFXcn1xXUyUobDC69LyvoEM4z88imY3S44GiZA4NiNtQ6gVLWeXp9l', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HdtP5xvH9fgQ7kNvwHdkb-6&amp;_nc_oc=AdkY8PyqDW7GYyEzeh5CvHdjY0lA2VmV99Ry-RAEHJM5jxLgeN1AENOQoXIB-PN20XY&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=QLHE3znzUD-GpXAywINdgw&amp;oh=00_AfbEN5irQq9dU1A6bMn35VdNYVOWKjCEsy4ghYUgjTUJqw&amp;oe=68DB29C5', 'profileId': 'pfbid0DdnLVc4yH6AFvYD83PedtFv1zCXcTwVoH1AnvmTjYE4v8fXDLYndF2YLZaBcUfBVl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwF9e_Jx&amp;_nc_oc=Admikv4J1y-jVLIKMjk7oDXmmR02rjOsUa_yFfPF-SLNeqtl8pr2BPQXQzmHJ_B-_h0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfZPG0pLGJMiWqJso2v70_aomokGkUJM4j3CbMjzTFKxLw&amp;oe=68DC7B45', 'profileId': 'pfbid02HVE3gGzo8VPnuGfqDLK8MNsYaNN6Ka8494qXu5kBy5QhjGW8ARDVZwJM4SpkoRxQl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwG49wc-&amp;_nc_oc=AdkGWv46E9oJrkr8EB_p6cQJWL7MLZVJTuqQRaLpeyQVauIlYlF3JHCljnIj9793Kn3qe7iVFViFT5GmPcKEzDWF&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfaOUWNA51KevMA09n64NItm5LmSplQc-PKgJ8pv3pctDQ&amp;oe=68DB3C5B', 'profileId': 'pfbid02Wjr2RRBXA2rpHU7BLn3cLnQHhAqqPKAj8menZeU4Sms44mzd5iHBkgSXss1L5UPxl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwGCLKPc&amp;_nc_oc=AdkD8djMJEC_itQoLsFq_gwmsIceHJyQQRDsaJYPZ3QFLP1eC_Amxvgcw5_l1taT2P88UyplelbAxo98269LP9Bx&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfYJn-_CxRi6Qa5LQHQQ4z49cdiCCZiJNGScNAlckLL1cw&amp;oe=68DC8DDB', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwF5Zh3_&amp;_nc_oc=AdlvA9ON8gtwhGgw4rfVhloIkoGmIAUyk2pAxne2NA18zkUGOghWQI19p5Luv0McUbBjrDFwBuT_copg0WuPUitT&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfZZT3MefkqbPsHOgivCwO5iU0TWoQQCpgEe2YudrCvEhA&amp;oe=68DB211B', 'profileId': 'pfbid02urWUJ8fjysphEfxEdt8Z1xDGror1xupiYwVLkubNCndZha43y5mX2CxLWmqRMEQCl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwFJxmH2&amp;_nc_oc=AdmyN9Wsl68TqSObvXxaPQSbSrnxPGd3HBgpARh1DxWq25C-5V-r6GudPXZlGHPcYhVvz_jvc0ToIbRKP3s041o_&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_Afbg25sgb2RbAdATgzH5pOnDapdiBQLAPsT8v-FMXST2uQ&amp;oe=68DC729B', 'profileId': 'pfbid0qpukpKUBK18cvHDHwsDGh4qZGTZduCVmkWBYctxP66fjrMX2FDhmKsS7NsGTRGhkl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwEJHQQc&amp;_nc_oc=AdlYRSxt1bV1YBGr8uJh7m15MJ8qXddKMcjUU8UD_xULVvlzpbQT1SQiMGWyOqilFBGurlaEdV8lNPmDrfK2vMz6&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfZNL1ERWWMOpfOeingotY0pKeXEmz2sBKrd0FIOCMxsjw&amp;oe=68DB3E8A', 'profileId': 'pfbid02fb2NDkgVZgMKGik1BDkxWxM4Xkfbfsd1e5KgTVe3LYBi9LftVGgNpyUTJUFZ3QXNl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwEbGa5q&amp;_nc_oc=AdkfvPH91uLmMMCTDIJ3_utgTCRNLCkX2f-fwIeqT_WWBE3loR9OY9-i-6E72cNUVIA7CMi5itjrSONqCL3d2tFr&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfZyNuPN7vRL9eyI9mkYpJpfVxR_zmv-KnSPUZo9wlcgfg&amp;oe=68DC900A', 'profileId': 'pfbid02fb2NDkgVZgMKGik1BDkxWxM4Xkfbfsd1e5KgTVe3LYBi9LftVGgNpyUTJUFZ3QXNl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwFJLXaE&amp;_nc_oc=Adl_LUJ6nOEKMYXJGFT7ruScCH7e5WDAUKXdIFh0hzZZ_Wk6AcfloEZ1_Dmoi_PQexqV0FKtSwhM8ex8D1fyVnaX&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfasE-bKAvS-kVtuKQVrlXe5mvCLJT0f3RBYMLeiOgvONA&amp;oe=68DB4B7C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwEP6suw&amp;_nc_oc=AdnBrg6oJ-Zcbxia-PIf5E8LsikoInkhe-YFgHvSxRl67kAfZwwt25cRRtR7-jbveJYg8tVtS3UbciQ-XkslCuCo&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfaJkheyjsuiqyW8hHKDNmqCbV7-Ne0ex6yY1Re2COdJvA&amp;oe=68DC64BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yzM9OZs9ImIQ7kNvwF1lzX4&amp;_nc_oc=AdnKxDO9QOjlPT9z4jT8aii9XPEGvnDsiD-2NIzcx802jpNDEIBGlPNW94538hkh30VlwBiUaQnCD8ZmWLRBPXPg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfZOrXeNzS6K9dWxQJ8GFpdV1ytopWwvAN5mcN-adsnvJw&amp;oe=68DB341B', 'profileId': 'pfbid0H2gsh1rd8YTVv4QzMU7sY8CEv9YZj7kUifEzdtPFbMwDFQ7EKBprDqFrMCfTkbtfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwEtznB0&amp;_nc_oc=AdmLrRwjw091aei4UgvpJtv5oRvbc4HbDuZMWNlvTnS_0q0E7tbeRU9-YajAwL_ZDq8c7XAaqc8YitHcBSrNKhmK&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfY521_t04bAJT66cAyurLpOJXW1sa2WJ-PY-cbf59lzdw&amp;oe=68DC859B', 'profileId': 'pfbid02Lt8asgnSyxKjTkMqPCdY9SP7S6GgXpgtW3CP3hFM9agjhNtczesXsaQj1Y2Ue2zXl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gibbUsXHhaYQ7kNvwG4FiGu&amp;_nc_oc=AdlIyHLcC_RW_gI6TTkousY2Z9bk-tI4qvmiAuj8GVFbdoe35eUnyRrKFfHP7ESpDA4YeIDqCqP8EyXfH0L4OCWc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfbUVk5E5GPgUcbnacD7uFXySXyCJbwb3m9mY9OPpmP6HA&amp;oe=68DB295F', 'profileId': 'pfbid028Fz9gXm9Wn7g9c86fEiZ8113PBzmdrYt5MCZSEiHBBt37W4nc1VNN3h5tXaK2fntl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwEnFB9U&amp;_nc_oc=AdkgJhZW79FPaIXFn-m7eRJ-kQIQKoPB9bbzaqGq18NDJgunnLyUhs8F4LSmrzq2tg19ppEJmugYVxAdph_skF89&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfabxXeqYmdb16QR5hApBP7GfD8RgAVQq0NukLGAMq6IxA&amp;oe=68DC7ADF', 'profileId': 'pfbid04iLxmN8nfRBVaxCvs8M1nQbNuvnAPDyDrLurA3mzW2cQnyZV1yJrzpmhxcKAiEhjl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uEMClqC9qUEQ7kNvwE_uTmx&amp;_nc_oc=Adlqy1wTme1Fvtdnhn9-UjOgawYeZtJQBedCd1d14cOhk28LhQELi0izzMCJJEAun_AUcCYefwEjL8GCy9az5Zdb&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfbNWSjI6ywuUBDC4NONNved-2AXQQ_OH7qW9FTxQIQ_pQ&amp;oe=68DB41CB', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwFDe0tm&amp;_nc_oc=AdkOTo29HK8rAbsQ9I1mMwSKbLWUxauAUapdHqaXSKisNQrtThSbhwOWgmrPAtxaS-TnKIKInty5dDnh61TDHlVh&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfZ-6WbcEa2dozJEN9Q2L48DroOLkXLoLWiAD0WuY4d-7A&amp;oe=68DC5B0B', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OFRA52BYfe4Q7kNvwH4GE-_&amp;_nc_oc=AdnHJmmdM0ZaIG_EB22rxgF4QAKBLZ7DY8Z_GXimb9iN4_cVmxohMYcX_BXx6HVnjZWECkQV7FoKSJus4cEI-uar&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfboAs0Fm_cooWkS3w72J6Sg8h82c77PQXibywSxsezW9A&amp;oe=68FCC807', 'profileId': 'pfbid028HmMfVMFH4AsjhCGFW5GLnEB1uBg3jCA5tQkqLjsdFUNx7SiD21D1CcoPcFqsf3l', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwGfIxsD&amp;_nc_oc=Adm60vhhZ_yrA6v19njgp0_Jast1IVCsfPPHyJNjmLoIGXf5n-4j4AjDA0S7t6TNaNESOKwlnVnUy0DFAzoXZXxC&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfbVWQxmeYwlJNPNwkM1EafsCkZrUM1byFp4XTYOwy5h6Q&amp;oe=68FE1987', 'profileId': 'pfbid025yjUYLRB6ezaU4rzcUkh8kfA6e63UDbrbnVuY4BmGVnth2fnxtWEbvZuyzmv7iThl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwHh6ee9&amp;_nc_oc=AdleI2d67Khq99BD1emCCy_AWHB9lsDc3e20wNX4P_zG5lcnqDRsGjYb-B9s65oe1hEE_uKo__FUadExitMgwkXC&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_AfaKuNc11W6l8IjGdpDsvlTKfvmB0rh1hg8mJ2sbuQ9pjQ&amp;oe=68DB5777', 'profileId': 'pfbid0P7Yc6bmLrKjRr9cfPEiYgq74zWogt84itXZFFvcLnRt97ac4hW85tUK4MkPVCHM8l', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwGjK4r8&amp;_nc_oc=AdkgvsvjWZhjZH6zj3JN_kCKNTsx2L2nP8CJYE9mz7OZ1duxlC2ZIrjIgcW8Y1gK6WtfRYVFyduUJDXna0RO_v0m&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfaH8j-2ZSLVdXLbnIp8QK68buFSkLHUG_sS0BCAmIA-QA&amp;oe=68DC70B7', 'profileId': 'pfbid02SV2nid7xt7HM79z7yzYABHahvUBPbvMBCAUN4CcrzZrTYFAH2C3EGmUE5JASdf8sl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_5jqvtP7aRIQ7kNvwFPShkS&amp;_nc_oc=AdlVpB9nliMbxd2gZBE-v8B7s4qyr2j4MRcBjxPCzJM4qi6skwXLhQonaSxHNaezOuM4tLalFjheldMX-EAfiD7i&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ZYWmccBN_kU0FNO7yMXYhg&amp;oh=00_Afa4KoYImJuncG1ByU4AU-tdNt1hTuuxm8Pm1nJf0_lHGw&amp;oe=68FCC170', 'profileId': 'pfbid09jpt33tAeDwL64uJvVPqz5i142y1hE38vAZY3CZJgU2mPSHmZi2hG5dgHZXqN2Uhl', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwFtru7q&amp;_nc_oc=AdkVrDzjEQiPc93FtyCcKv_g6G7fxmWHWQt1mrZhgcSKZZLNB61DgyPuTohxpNzreWzfTG_5KBQH2DNSBRxnwm-V&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfagWspqWGPtbFetJVXsb98Ioew-HGrgRI41YK___ECo5A&amp;oe=68FE12F0', 'profileId': 'pfbid02DbGbDiozVmVopXJt8b712FHopiMpFao8pir54cK38QjTiTVYVWdRbbh5XPNf72bol', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8AivFll0hEoQ7kNvwEzqV83&amp;_nc_oc=AdlZGtiGT1QRM1GaPfHpRfvEMUpEorUia6hgoFqcRfn7A34C2wPc0FZY0W_9NmgbMw8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zSkAVQPlvfv1IRgKX4j1sg&amp;oh=00_AfYVmTDrlofoMMqsB3nJNDULcXZqWnSkjvfWzABYcpAphQ&amp;oe=68FCE98A', 'profileId': 'pfbid02wVXDLTHffUSFr6HdLGYfrjB78cLQHfHrLnUPmVLuwbYPpa1zuwVEkx199Q6SaGYfl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwGPPI97&amp;_nc_oc=AdmWSPNZHmp8udNXxkZS4r_4LWT6sqMvnuuSjlGlFjvGAZvUxD9bwR6gtaucVXHCK6nsz8RT7gSwXE9uRcStYrUm&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=63-IYeIUEmUkfBcRFX7p4w&amp;oh=00_AfbJn1J-_2rp7qfYjjOpwF93l1GDqA-kQlbIa6M6bonJCg&amp;oe=68FE02CA', 'profileId': 'pfbid0swt2RHfJpN1FTK7XBasR7J1Z85YiuWgPrAYpXpJdZe957VzTo2zeQvViYnwcF7qAl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kV0-ys-X1NsQ7kNvwELblcO&amp;_nc_oc=AdlCckQWoCmI8oYLSYeYcCpap0XCj8erfC7pIWeat3eo4rcoOzDnNx8SBPy-eHBL_Y8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=zSkAVQPlvfv1IRgKX4j1sg&amp;oh=00_AfZGIWYGyv96CxxBJx4uR8obFpKqq_RF8Xn45jLjPT8TgA&amp;oe=68DB2CAC', 'profileId': 'pfbid0F39HFMhy5Mr8yzX39G4kNDndZeoBR3qxwTyQ8qFxdAV2XsU58usuLCZMGURZFNZNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwFAu3Nl&amp;_nc_oc=Adk2sMXx5P7D6S9nk00g5ZUlUof8mL6b1NvoL4MbywFc3x9H4UicLUejAOp5u7UVXYJo3QH5KwoozjDFjSYpi4dE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=63-IYeIUEmUkfBcRFX7p4w&amp;oh=00_AfaU9jd-2eVW-2YvzZznT8PZdy4gLpAhalopC-osjo7RiQ&amp;oe=68DC7E2C', 'profileId': 'pfbid02JtazS2dnvndbpxEXGakrYV7ES7eiM8rDnu7KqNpF659gFUqRGfLdVpDZSKAHBgrNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=axvWypj9384Q7kNvwEwoj3v&amp;_nc_oc=Adkclfy-c0MP04pU6W7glQi5i_MCFKJvV-M5c3Ns6ncVOOn8Cctak0xq17fxVhSTF5Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=FeiH09II2AAWkXHeB_-vSg&amp;oh=00_AfaSq7YDZ41b-Q_2vrRAYIcC4UyK1OImagwzNKQLDmztXQ&amp;oe=68DB2E7C', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=axvWypj9384Q7kNvwHvJOCk&amp;_nc_oc=AdkVYOZI9ytD2WuexywY04RvFxJU6R56ChgEdw9NPVvlFC4v6Ft-tBanafrQUYwWNoo&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=VBxaimvcwUtkKRdx9_65OQ&amp;oh=00_AfbEBqWzeQkld2FQfXaYFC_B13SNTWMZRKUl6C_VW87ECA&amp;oe=68DC7FFC', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RR1ybwrh4TIQ7kNvwGco8OI&amp;_nc_oc=Adk3pelab2pyq3yeiagnsK4bcMaGk2NupipjXwe2-zHG6SQPz_J3BrQXTWd30idLX20&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=FeiH09II2AAWkXHeB_-vSg&amp;oh=00_AfaSNW9Tjm8puyaI4DBZU2yXKtdvn2kufyN04EyvH9VKXg&amp;oe=68DB4EFD', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D_fFm2h4g5gQ7kNvwGC12Q5&amp;_nc_oc=AdlOUI07KZlTK_aFl9fHOWGyKLkXF3cDsdXq5qMHDnklOyW25Z4hMLeumBMG6UIk5qQ&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=VBxaimvcwUtkKRdx9_65OQ&amp;oh=00_AfYbuI9xIqes-xA27LXd1i7NuAVKFIVhCVdl33pbaIZtnA&amp;oe=68DC683D', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwFk_Sax&amp;_nc_oc=AdkjygZC6hmPvePvt52VQyv2srYnSAz-MxbFgt5PNhdOU-CydURqrcrmWkvg8syBTTaoxOAcwETT1PN4E4rfFiAk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_AfZG4_Z0pXWn4OhJidczzTeEJRaLTJawvJPobNmKq8nQgw&amp;oe=68DB46E0', 'profileId': 'pfbid0o16Rjr635S6gSGRjv84yrNBgMgjSWuCSUTd78GdqHW5Ken7MhgPqjT7Bsb3DK5Lfl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwHlOYsA&amp;_nc_oc=AdkZn_3HMjv5Qb1oV9voUPahRtvjkZUeDLgStxlNYwMh8zTS-tcZu0mSxGpS6esFOEc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfYFxuN2gPrE06f28i6o_xzKo2JkOAuZ1aPttyRn4iNEqQ&amp;oe=68DC6020', 'profileId': 'pfbid02rrY8vX1rvo6ZGTNfa3RyFEaps1EEemEFFXxMdQRZWZ7hii1D8FhbvYo7kV4UYJzTl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwGagr9_&amp;_nc_oc=Adlhzjerfp73qTiGJAyaACsRnzZ0m8PVnF5zgwUv0qLiJSgC4GcxDSguCM5G3Up1Z6A1gAXm1SVRSP46O0VymDW9&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_AfYXDGWNb6DlCXiblN2TkD-DZBrAlmFraOy0dwiRwQUO4Q&amp;oe=68DB2311', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwEaytNh&amp;_nc_oc=AdlGQNw0rXhjIQu5wid5GyFZy3wgAvXmfjW4UP7_McbQS7RG2gddKFaOdSerFENFEsU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_Afa-PkOKq788FT3qae5q1xGyqjIkO5kgKSI0-tRNY99agg&amp;oe=68DC7491', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwE2IKtx&amp;_nc_oc=Adn8v-n3qfD5giEVUOnmmoZT0mjgl3iKHGRJ4ojOYgb1NeIESKJ3wKUdKIcLGRKuaptTJNxyuT_Lp-dzThceWdWn&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_AfaLOEERdHIbmbL31uJQ9k5Yo4zQNEhJUEC0XIC-7mxinQ&amp;oe=68DB26E0', 'profileId': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=a_WQoPl_arMQ7kNvwFCOlOC&amp;_nc_oc=AdnpVRMAqZhKsESUx0gzJoOVDj4qSie40Pb7rvFoNsV3iHVMtiKjJmgyTBr-nXORu9bs8l9UoYi0HCiXU8XC4gy1&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_Afaf601jaZhdNoR5zV7LJgzMtErCcZ_Gzy8Sdte2Rvb_yA&amp;oe=68FCEC95', 'profileId': 'pfbid0LNyPhZXghWBtjrHnU2vyoNarmqu9QbngnAxhyaeKMjSLdvG5mC8UjQfwN1aewdPpl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023Ggv4u7G6u6YwsByx4PeyrQwyUKqhTFJtif4RNjDKnWAf4iojLSwjpV3N4iAYJ2ol'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwGTVG8p&amp;_nc_oc=AdlXN0lFNwlzHNEnLrnugG1m2oB1k_8S0AxHYNXKjGZJBo6rYzxITzoBhW3YWrml8GU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfYRQ1eXj6ukXTIsPBmCtQI12ndboVRke9bWFE_TAQC66w&amp;oe=68DC7860', 'profileId': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwG_aCpG&amp;_nc_oc=AdnhW7ND5lJStxlgBX0BGO7-bwdRrCsraxX9_HoiriqUB5eWmZeuP1MAbaDjWOnH8FU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfY23uQuXrRHK_r05nO8Bmq5FXdhKGE_O9ceLDwH593h0A&amp;oe=68FE05D5', 'profileId': 'pfbid02QER6tETWYw5BLHR5JVG3sXE3DgKwJiSZ1BmLKqRUhzWYYswPck73349r6dWxT75Gl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0m6aELkJ7ZqnWR1fQgTPD9uLQpzuk9dSz8skWRc6CsXnMn2YpoT8z9rFJTnc19jBHl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwEXCLto&amp;_nc_oc=Adn2XMZ94d-byQ3TjN4U-u95o11efkso2k7txAU90M0XN5ZE1S7fFJWoKfbKBiFFerWnhF31sSrdErho88bqcRUp&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_AfakgDhFFfSioszJMrLWEfvYeBaInEvk6fM504qBLYrgIQ&amp;oe=68DB35E7', 'profileId': 'pfbid0m6aELkJ7ZqnWR1fQgTPD9uLQpzuk9dSz8skWRc6CsXnMn2YpoT8z9rFJTnc19jBHl', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwEWUDIB&amp;_nc_oc=AdlbLN9vd11EY6GvRtElpm-w0v12kHuV_OhC_hRe1CuEwVsJTiTrFCVs_OwEEtOxs0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfaBp0ywmsXcWrgp257KF5FhpRL9Qior4MPV7pOp8aXBzw&amp;oe=68DC8767', 'profileId': 'pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWed62-m1fEQ7kNvwH9Dopf&amp;_nc_oc=AdmMbgKpbjMoZDQLM8yVDDtPVWH0A4JSMK2VAVRKkLygugj-ui0OUNbER6rSSwgCUuzfYVgEiI0WomSjczzICCVh&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=nzBw7YlE23iuT8Q9DRNgbQ&amp;oh=00_Afafph97-aq2OfCdMja_9Aj5n4G_IwSjxVOFoQtExUyXVg&amp;oe=68DB4BAD', 'profileId': 'pfbid02jTLnW2uaSKqZXmmRpLmbCyLkS4vY22QsYmaR1VNtdDrrtSA44GdJ62S2ykx4KXMKl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwEAimlO&amp;_nc_oc=AdlqORKBis5-L5qNHcdBybU_YitvvxUGDkFZoiZ-mTo-oVeop8awU-BHJ6_dDo0XA3A&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfZtoGy7ZHYBdhImmFOGKRUbS2CdO_ng1jSBv7sBixZq4Q&amp;oe=68DC64ED', 'profileId': 'pfbid02jTLnW2uaSKqZXmmRpLmbCyLkS4vY22QsYmaR1VNtdDrrtSA44GdJ62S2ykx4KXMKl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent.fbtr1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwFbzJ_3&amp;_nc_oc=Adk55fejH0X7DPdTfsVJoYriE2f_p_fuKugX6E0qmeIDGXmMXT1Fs1IC5pCmeYHUUZ8&amp;_nc_zt=24&amp;_nc_ht=scontent.fbtr1-1.fna&amp;oh=00_AfbcITRj-itMEI78B99I1OzytQbmO6HlJ54UQAyRjV76dA&amp;oe=68FCC87A', 'profileId': 'pfbid0224ggFkgdBG74co8W347fTYjXskicN6JLp4qP687SP2y4BVvLeKC4Vw6KRobQ9Ujsl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFYMbK5&amp;_nc_oc=Adlb5mtJhs4nJaQakDGNTtSHY7jWCCq5NGMQht4-E_STMvuBF9U1kLsvi5OpOqR9I00&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfaPetmEY0KKTDxspDB5WI2QHHoObDqpjbaiDYeGegj7-A&amp;oe=68FE19FA', 'profileId': 'pfbid035v8PSRcT2cx7DTQW5TfhyjyGME9NDR2s8qAVDYConCm8jxBr731AjxSqw3eoEyVrl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent.fbtr1-1.fna.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sOMWA50oPckQ7kNvwGysGA4&amp;_nc_oc=Adlt9YoNuGPducMDGQ22su4ynkWgcLkGHIHxxFaUaLjoC1osJN_EmxJHWH6fev4ZN58&amp;_nc_zt=24&amp;_nc_ht=scontent.fbtr1-1.fna&amp;_nc_gid=SAhTIuvgQZtGzCxqtyt_9w&amp;oh=00_AfYOugoxMCw6lkQWxnjTcEOrurJzI5uWX9l5guVWKu906A&amp;oe=68DB5187', 'profileId': 'pfbid02GbTbMjyRQVgzircnPS78Rn28w9SsJG1DgijfCdthcrTJmAqYYYhLtNYLQ7TJn3ryl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwGY4Qxf&amp;_nc_oc=AdlrlylhV_d0so7tBXl9hnjCCPa-kDnsLDzcnhPyNBrOHl-2YgEviChd-6hIU71veW8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfYKzz7yZ0VRd4BQipdAiGryoBxOBFkeX768KysnfRh2sQ&amp;oe=68DC6AC7', 'profileId': 'pfbid0D3pQSaM4ZFzZJV57H11MnPpkxB5rxiHihvCLSPpk8wRR1F882woS6gioYXVDFMHEl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fbtr1-1.fna.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwGLJd8b&amp;_nc_oc=AdnGSP22B2VYALmF3wOAR23Vy-FOuoWnh1Z6Yja1yQEJdXGc9x7-PbjbE7XTWd6a4yc&amp;_nc_zt=26&amp;_nc_ht=scontent.fbtr1-1.fna&amp;_nc_gid=SAhTIuvgQZtGzCxqtyt_9w&amp;oh=00_Afa5OUYxV1ADez7r4GN4wBv0jZ0THLaRErQ-2781XR8C6w&amp;oe=68DB5393', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent.fbtr1-1.fna.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwHCuBnd&amp;_nc_oc=Admg2EDLvXHi9Q5UWt857mTtdmhUI7Vb-0nCW7OnFaNBpRDdbf7X7VXQsaQ10Y7Y0rY&amp;_nc_zt=24&amp;_nc_ht=scontent.fbtr1-1.fna&amp;_nc_gid=SAhTIuvgQZtGzCxqtyt_9w&amp;oh=00_AfZALjtx8BLI3ufFamtaY_nI845dz8Em9xQX-Zanu9HoNQ&amp;oe=68DB2662', 'profileId': 'pfbid0YgmcGxqYgckCirqre6vrs3HqNEAxqUHzWMBD1ssP3Ab7NeHBQiUgCd4Kj2T4NM6wl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwHKI3Pr&amp;_nc_oc=AdkBkIhDEKMrK2hHE9aG6hzNa20Dtj3X6bbwXXEtDpd--YO8CyyIz9fgJeqTLrXkORs&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfbscNzGChCwnAWU5gtX4awHH28ck2MJoBL01Ezwun2VXw&amp;oe=68DC6CD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEYtTVv&amp;_nc_oc=AdkzVgnqdFhnnDzBxyDFWLydZodmgbIxqOUXxpm7C0EW_okdHKFDMiac5EI22ISqX0U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_Afb_fcH2nvTv8DkJDOYuP5TTNrcO-6Lc0qlQarSpl3uC0A&amp;oe=68DC77E2', 'profileId': 'pfbid02c4FntzCAiHqpfhS9TU7GYbQLFiQmFJJWm7FEhKa51mM9APQvrGyEfRyUU8WTFT15l', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent.fbtr1-1.fna.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwGvaAYN&amp;_nc_oc=AdnbEyoa25neGgh-wC2a3JmVndQTuAeCN0pSeJcPrWYctApTWhgHnz8lF2b2-NV6fqA&amp;_nc_zt=24&amp;_nc_ht=scontent.fbtr1-1.fna&amp;_nc_gid=SAhTIuvgQZtGzCxqtyt_9w&amp;oh=00_AfZCUdK73YLWFpcEaE32otsVVI5NtMA3qK5KkVE97dS1sQ&amp;oe=68DB4499', 'profileId': 'pfbid02Zwq7uKrcL9D87AK84pDqzXtArha4vMWjXUzXkfPMYohjPwm4iVyo6aqNeJkcFkdRl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwHbg-px&amp;_nc_oc=AdmYU6gxfsaWkmmaYUzOmYtb9BH5hOXgJSlpG_gsI73GHsqix5XWRXyBchyGn4BX85w&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfYa-uug4dLB6m8o8Yrfo2Js8LMC09cP4m-ATDE4-W6XPg&amp;oe=68DC5DD9', 'profileId': 'pfbid0WQBvzAEFV3BaZRbHKfeDckNfKsYT4pHS9iGKsYhhZ2S9WtssHckSh8Mc3Ksp8mFJl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02FoUvdesQQL6My5UxjjadnNMQJLErPd98gjyr5nE4aE5DbGVGTcfqvo7c92ibXzGtl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwHa6O3V&amp;_nc_oc=AdlzAnAyxjnDyZTVN8OJINQrDHgPCdkvXzWJvrXQ5brP8fG-HHVwH9nb0GPBFt7nX8c&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AfaLohlW_h9aKtM7KcsikoLTW7KZej_mnER97RyWF4aZjg&amp;oe=68FCC87A', 'profileId': 'pfbid02FoUvdesQQL6My5UxjjadnNMQJLErPd98gjyr5nE4aE5DbGVGTcfqvo7c92ibXzGtl', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFoTQwp&amp;_nc_oc=Adkt5QL3U85G4H03oNJ7lDkrua0ckF1xDNdnDDJxMinIsPqcZvBO4mdvUepkc17ZONM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_AfYFX_tGOLSgfuVU8sX27Y3SHn92niw9BfN6oRBwFXVoZA&amp;oe=68FE19FA', 'profileId': 'pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwFMt5mg&amp;_nc_oc=Adldurdoz14D-vnKfNgDoh4rdD4khK1h4TZ7Nd3aWu1qRX8ZHv7M1_Pe5Vl4OAAMLDM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfanWZlp8OdLjCoNmyEw2S9yVR8UwW_QhANXWugnc-zp1A&amp;oe=68DB3C5B', 'profileId': 'pfbid02Wjr2RRBXA2rpHU7BLn3cLnQHhAqqPKAj8menZeU4Sms44mzd5iHBkgSXss1L5UPxl', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwF9BF85&amp;_nc_oc=AdmIPOskwWtdeHPgWOhJKoncPsnL4OCOmh1BmEmfQd_aHDesMbM0KnyqaFv-Z4nwd4w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfYLFLTsbMsPbdzXOBhk79QZfyazEk8nXZ0m3Jo8Q6Eqhg&amp;oe=68DC8DDB', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K180" t="n">
@@ -9685,7 +9685,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CsgBsmrglUUQ7kNvwFfwD6r&amp;_nc_oc=Adk4pkGVKDeHA-RQgZtMjCwuyhb6n9XzG-24de63hhYayuwg_-Od-rHEniqsMPDa22k&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfZ-UjkCtH2nIZ2O4AbSTmrcercNYx2MBwOChHq32dnXJw&amp;oe=68DB25EB', 'profileId': 'pfbid02cDDArNSazrhxBK9cgs9KhCehYNJTWLcpFQ2ywQj6mpLuLNaoFAcmLsVyNi3QJKXCl', 'profileName': 'Luz Artunduaga', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NrAhZBS5OGMQ7kNvwGtVIRf&amp;_nc_oc=AdnK7w596BlqtYadXyTNB2kMV8hM0tfvrpbS1-rx26A6NRjHLDKvpI7PEl3LmvNchOI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZCoDlSNdvJZ4WLXLxq6Vf2P9d41QXslVf91TN9KZ_pig&amp;oe=68DC776B', 'profileId': 'pfbid02cDDArNSazrhxBK9cgs9KhCehYNJTWLcpFQ2ywQj6mpLuLNaoFAcmLsVyNi3QJKXCl', 'profileName': 'Luz Artunduaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid026miAhfAHwRMZtkWJTZmwwSH9KkgVhEAd8Nyb6TkahfkdXAT2djq6nXPQRdVvMqTUl/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K_0_FOKICcwQ7kNvwFxQTj_&amp;_nc_oc=Adm-2gsM5vjlhDZUR4JR-Wq6NY20k3iLBAPAV8oiZY_BGPlQJ910Inm4cPOUSUkNZh8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfY0hQLYIeK-S0maIpZvZGqaZXHHP2dVKPUWT_QV7S5_rg&amp;oe=68DB40A6', 'profileId': 'pfbid026miAhfAHwRMZtkWJTZmwwSH9KkgVhEAd8Nyb6TkahfkdXAT2djq6nXPQRdVvMqTUl', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid03E4ynVXw6M68fCAMfnKqZUPkAKhZYeVeK3atu9cRRwhk9JdC91bZ2yzt4XBVQ6QGl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K_0_FOKICcwQ7kNvwE2zv_z&amp;_nc_oc=AdlqVoPE9dxrrbM3MXovXErbCRTT7tNIrh6qaQDbxjqn_HVsFmctnZJ2SQTHz4Gunyw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZOPkejtO9TJQ_OstsmHjnWfH-N8c9dqfoflt_KroxBVw&amp;oe=68DC9226', 'profileId': 'pfbid03E4ynVXw6M68fCAMfnKqZUPkAKhZYeVeK3atu9cRRwhk9JdC91bZ2yzt4XBVQ6QGl', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9793,7 +9793,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid033h9iM5GcdGSkwdS7gy9VD9VuoRaQFWWpUCPvVJ1ujZFxg9Qt8BvMP6JUwQV5hsHal/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-x0nseZNdIQ7kNvwEDivSW&amp;_nc_oc=AdnCvFUkQrSxfzTTdJxUua0oxCfQEesh8ClRvRE9sz-Tt5jDQBooNICQam808OMlBh0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfYsSLSysIsRc88UVqHek6TMxtXNRQfBnmlPb2IrdF838g&amp;oe=68DB28BA', 'profileId': 'pfbid033h9iM5GcdGSkwdS7gy9VD9VuoRaQFWWpUCPvVJ1ujZFxg9Qt8BvMP6JUwQV5hsHal', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid0z9WXRueFn3RwKemttsR8RBuhYwA8db1T9VoKcomxtJJ3RGDzr8KtFZSMyw1oqhXFl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-x0nseZNdIQ7kNvwEKIfk_&amp;_nc_oc=AdmwAoiaWLMRQcaGKG8UWyZVINemb6sb09dWmEUg1nkNcu3cl9S7ZKpcRA-yExGQRR0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfbYBcdh9alho6VPXdmf0SK3Ef_y7r9z98O1-OdrBv4oyA&amp;oe=68DC7A3A', 'profileId': 'pfbid0z9WXRueFn3RwKemttsR8RBuhYwA8db1T9VoKcomxtJJ3RGDzr8KtFZSMyw1oqhXFl', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0HEbGysUxUskCdHzPbNWTWkszuQ3Zai2hqur8LEtWeGby6qDb5aEg82wziSjYiusyl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwFmhaxr&amp;_nc_oc=AdkjAOVvp6U60OZ5akFxNEUgstGI5dQNZFE4F-nVspJOqmSEv_-EzQegiN3J9DCRyw8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfaaEq_u6RjGdyx8qPHKXITRXnX_Du4V_xzO8R5bX1fajw&amp;oe=68DB2F64', 'profileId': 'pfbid0HEbGysUxUskCdHzPbNWTWkszuQ3Zai2hqur8LEtWeGby6qDb5aEg82wziSjYiusyl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwHd7kn9&amp;_nc_oc=AdkJ8zl28pERIJmU_6Ih7d8y4sepr6z_4n5dwLeCyxUx4CySOEmzFeZns4Tuh4p_lVU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZZYdC2BUwbEQ39QtSbds9bVcyexgg8elm9OGyzM48R4A&amp;oe=68DC80E4', 'profileId': 'pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EJlb9Q-NBIoQ7kNvwHAQ4IA&amp;_nc_oc=AdnGBgwXnGKrZRJ1wOxJFyaB4vpc46kCyi_6jgrlsMuY-u572zLxhyADITDkJYFD91g&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfZPNZiP9LLEjE7gzSUs85DkkCp4zpLOLX_Fomb-4hkuug&amp;oe=68DB3261', 'profileId': 'pfbid0ReekjbPmNCkiFt6LAJAHEnC5FydaGpT78D3EFiTu2gdBYNoFhAfkLafNnvTny7sWl', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hz3wc2_dzx0Q7kNvwGJh7p9&amp;_nc_oc=AdlkTFMvqLzY7KpvGbjur99dTJJam7NeDBsV9hPxbpmiscHav40IjkDZrweSetPB2vY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfahbwEcDDM7tqVREgVpRqn12znuSWP-DM0PAwxbFUPb2A&amp;oe=68DC83E1', 'profileId': 'pfbid02VW6TvGKbDaKBUBtVDTpGZ66G6LbNMwQbft8XaBucwoBqGXEaHiNwyeaxsrW2aX2al', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid0mdG8uhNnSQRM4AacPacjUqLRDNK3XdCubEcumkMEndSxjfEcA7H9knJyFTsFA1D1l/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h3y0GEDp1zEQ7kNvwG-N8WC&amp;_nc_oc=AdndRIP_5iXbJ1iDFOnFOuU4ry39YoQ89_qKlg14u1S_s5aP7wj8Ye-Cia6Iffg_PdY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfZuDIbypjpkZQW4X1FpYv9_I8yYHJ1WHHDEK5_8Im-WKw&amp;oe=68DB46C6', 'profileId': 'pfbid0mdG8uhNnSQRM4AacPacjUqLRDNK3XdCubEcumkMEndSxjfEcA7H9knJyFTsFA1D1l', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid02qUhr6NJcHuTovLZGQcPYdAFAQUuaoXEr2SBaC3QNpTsjMd8gLPYqrJEPyxEYtSu7l/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cUuhIKu9gwMQ7kNvwGNhdFc&amp;_nc_oc=AdkoDxIsSA8mVJ48l6WFCX4kkFNqOvD-ty9YP1FaB-l8jAFIDs-L_eJSHO4F7SV9eco&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZcO_c0zmBX2UbM6ESyoGcJqpYAqv59sQdmrFv2vayc9Q&amp;oe=68DC6006', 'profileId': 'pfbid02qUhr6NJcHuTovLZGQcPYdAFAQUuaoXEr2SBaC3QNpTsjMd8gLPYqrJEPyxEYtSu7l', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4xprlaNpUCoQ7kNvwFGFzdw&amp;_nc_oc=AdnutsXevnpBkiX_euz9bDoYvGpbqemqOaMWt4Wxp2jbToekkJKr4XUnaqOx_pnkjCg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_AfaH1l5fj_TWHbTbaMFDBaOOXwesodh6VAidn1o5KPcuIQ&amp;oe=68FCF2B0', 'profileId': 'pfbid0ggavUvqVJsxUCJgFqbRWh957w45aXkQ178LMGidSA5xyuaPauxQrFTwKhekafG3Tl', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4xprlaNpUCoQ7kNvwEmjiMF&amp;_nc_oc=AdnhMyk74DWFX5MozhWhQyLo8wx7magVGA5jC_tD99doA_RzAdY-M-tc9XfbtwvInso&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZns32T-_zP60nUVkWUOjiOg5yVlRtCUDQWhaBXwK0a7Q&amp;oe=68FE0BF0', 'profileId': 'pfbid02kY2dfbmKALL6X4mcMGAohkxQDLAGe7py5YFUJn9AipmH592Efnch3viMiF7JryLpl', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid02TDWjkzS6LettZ31AWzfrDFuN7uwk7tNNmgW1Ud2iXBpbUDxF9YcJnnYs6iAmFdZal/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwH8toR4&amp;_nc_oc=Adm7UwbzGIwhswBOUpfbOr3MKIjiYfs7zurU_15QcxRg1fxvbNY9sqCHZceUX4fdURk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfbWuZWcMjElq3Ts5SVAlDStrlurzV-ojQoaD7MJV3flpg&amp;oe=68FCC87A', 'profileId': 'pfbid02TDWjkzS6LettZ31AWzfrDFuN7uwk7tNNmgW1Ud2iXBpbUDxF9YcJnnYs6iAmFdZal', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid0PBv2HBEXfZZfx7YMg1rJtfJK1tWtcVT4pzrYMUqEnMw2JX4szWXYfqTzPKus14Yxl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEA0aBv&amp;_nc_oc=Adm4I_ia9d9cPuNtZCX1AsAflKp8or56dH6ade2MGtvswaExAZHs3MOwfKStGAOesn0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaGSQbmZ06PfXjGa9mGs3jRbCfK7Y2VnNOp1Z23iYN5bw&amp;oe=68FE19FA', 'profileId': 'pfbid0PBv2HBEXfZZfx7YMg1rJtfJK1tWtcVT4pzrYMUqEnMw2JX4szWXYfqTzPKus14Yxl', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid02PD7b9iMgmaLB85gkbiAKmsVx9QdfiUKF7DreJDkfG34PCyX2eABgyecszqYwA9ejl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=amqVlVumdpsQ7kNvwHjQYfs&amp;_nc_oc=AdnwOTJgJMwzJMiWKT_Djfc8--eJhLkBcepVJaUQkI4RgjsCyb-_RtohP68oZcLn8VM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=5tnu3wLtu1i5GZZrEwaEmQ&amp;oh=00_Afa3ug5Xn4gGKlRo1JNKlxtDXlmAWlfi-BJolnxfoAwDeQ&amp;oe=68DB57ED', 'profileId': 'pfbid02PD7b9iMgmaLB85gkbiAKmsVx9QdfiUKF7DreJDkfG34PCyX2eABgyecszqYwA9ejl', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid0KfUQEYjKvGXp6zMsmwDWiE13MsrTXChihRb5xxGLqM3VQhDMhqtaSzoRHcxwKe2dl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=amqVlVumdpsQ7kNvwGCR2eX&amp;_nc_oc=AdlE-RCnpuxnDU2flJN3qGstclGQc2_1nSSdby2lRT7U2cufjgOAvbR1CypxC2Z_vsw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZRkJgJpYwa1H8ZfrBgyGRz4qojVjrHJnPIeNxufEuuJQ&amp;oe=68DC712D', 'profileId': 'pfbid0KfUQEYjKvGXp6zMsmwDWiE13MsrTXChihRb5xxGLqM3VQhDMhqtaSzoRHcxwKe2dl', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid02KFE9nLHCPW2F3GVuu9KdJY7EZVh6tZvZ6g6T5Th4GX5mju8UYWsSxhrjJmnkR2L8l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwHeUoAr&amp;_nc_oc=AdlE1-ZuZGnjH-4edn_qGAysvnrTWYRsDX9YiTFH4fYh4oLGXUthFIrINtTVPHkHVXc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfZ-M_P_byyUFXwBKNZtJgqhAmk-kcCFfXaBZGw0tjNPlQ&amp;oe=68FCC87A', 'profileId': 'pfbid02KFE9nLHCPW2F3GVuu9KdJY7EZVh6tZvZ6g6T5Th4GX5mju8UYWsSxhrjJmnkR2L8l', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid0FhaxsAeqYMTEib4RdWs9GnPjTw4qu1FGx2gnX2EGRnvQAtFUTMSMDiTnvf7c99uxl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHfKf0b&amp;_nc_oc=AdkQS6Im1Ow_FvKcA0V5-o-yhwcL3xiwsVKrCMjB7OsEVsvR_pDWznHUpxMB7GY_SWg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfZ8yfNS8GAlS_1bSqpPZZw9l901FIMvqMTOotvZyNvErA&amp;oe=68FE19FA', 'profileId': 'pfbid0FhaxsAeqYMTEib4RdWs9GnPjTw4qu1FGx2gnX2EGRnvQAtFUTMSMDiTnvf7c99uxl', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10197,18 +10197,18 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Q delicia gracias x compartir</t>
+          <t>Que deliciosa reseta.</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>45925.00795138889</v>
+        <v>45925.97263888889</v>
       </c>
       <c r="H190" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>23:20:36</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10225,7 +10225,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YkxRaO-KOCYQ7kNvwGF0TL9&amp;_nc_oc=AdnRSP0QfGeNzZ7Ap_ikgESWLf4I2z2ARHqF_JOFc-fKxYOllxM1Ub_1kED5FoziN74&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfadrX3tV5FjAQlmxWJB1nSD97FmVh8lMIwCO1XuBYL0Dw&amp;oe=68DB48BA', 'profileId': 'pfbid0JUfqddcDD44HGdn6324vzbqKfqN6VxxtCW87oKrTS57rLSpyYhsCoNwggQyKmC6Rl', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1516380633045485', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1MTYzODA2MzMwNDU0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTE2MzgwNjMzMDQ1NDg1', 'date': '2025-09-25T23:20:36.000Z', 'text': 'Que deliciosa reseta.', 'profileUrl': 'https://www.facebook.com/liliana.porras.728521', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/406886152_372916905138379_1079989097024052189_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AEk5blnsmfEQ7kNvwEegNU-&amp;_nc_oc=AdnlJIf6kYibMGwKZZQDRrboxfAEgrndzRFrH-eQt6KNZzxWx6FtEO3susYblnxvdtI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afa4VK2veMLlVHagTTF_x15jV3NRXJyxvqm41mud4R7RTg&amp;oe=68DC5C59', 'profileId': 'pfbid02jwdN5m2JirvoBXJ87z6wCEPcuiAkNGJojkHhBT4HkmgdrkuocBJBxcJNZpRHc7CLl', 'profileName': 'Liliana Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10251,18 +10251,18 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Delicioso gracias por compartir tu conocimiento 😘🙏😘</t>
+          <t>Q delicia gracias x compartir</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>45912.83972222222</v>
+        <v>45925.00795138889</v>
       </c>
       <c r="H191" s="3" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>20:09:12</t>
+          <t>00:11:27</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10279,7 +10279,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Vrv0oECae1oQ7kNvwFUjpaT&amp;_nc_oc=AdnR4jYnkSlY1aV1Vs2gfGKHuUPeqUn_Keum8rJTCpT5wMUglzl1jLsZXFMgcGyVo4E&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfYN4-hpJwJmmNj2Eg3wk5El7ledUemYQrKowRqjka4KaQ&amp;oe=68FCCD7C', 'profileId': 'pfbid035KwmBkjtcM3rvaJgyzNdFGw7ji6khRUmn28nGK24vnuY8TqEm4E58rytQoRbcU1el', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Re8bYDXiJRcQ7kNvwEgDhqo&amp;_nc_oc=AdlBSKUORfc6ukI9uvoq2mK-F6kwARC1QAZ9wE0XvIrzV1oYIeNXIDNZ-m2JRWp7BdU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfaaNAFR33nSdcBC2mwRYx39clmpfi6ufVo6dmdN_7lXhw&amp;oe=68DC61FA', 'profileId': 'pfbid02NL7YpJY34SP6gFUt3EJskayLhFMpkrsPEpwADZRKP3Lt7WQQQECpF2zub5vYMQCNl', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10305,18 +10305,18 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Delicioso</t>
+          <t>Delicioso gracias por compartir tu conocimiento 😘🙏😘</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>45906.13795138889</v>
+        <v>45912.83972222222</v>
       </c>
       <c r="H192" s="3" t="n">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>03:18:39</t>
+          <t>20:09:12</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10333,7 +10333,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwGqOM88&amp;_nc_oc=AdlKJ4oev0SEEiUc_22T8y7br8sw0vssimmWR0kR8TgHngR4TkTv0mToaIAmLisM6Bk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfYrwTzAWr1OGdPO5QZ5wiKHq4K0NQQyMorhhq4L1ymS7g&amp;oe=68DB398D', 'profileId': 'pfbid02oj2ihgeRyhaTuVuRX4fZe4YCh2VhX7Jb8knWfmwfnqU5FnmkD4iJSms8BYCxd3Ral', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RJ-F5y_BIcAQ7kNvwFq0L95&amp;_nc_oc=Adkteo2X0gimo2IawW58tQijpDDsQOCUpXQux0nFPLGR6t4lYsC5ZIGcLDvJ4jF4rDg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afb5p2RcCZVv9FoiJCkLmdJqwIThcwQbN4smv6qLx-l2nw&amp;oe=68FE1EFC', 'profileId': 'pfbid021nJaGb7Xm9dDjsPBYxoP7fp3XS2bzoWskKeLJrbPWEMKrWC5iqqtyYcmHajCLWe4l', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10359,18 +10359,18 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gracias por compartir.</t>
+          <t>Delicioso</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>45904.96579861111</v>
+        <v>45906.13795138889</v>
       </c>
       <c r="H193" s="3" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>23:10:45</t>
+          <t>03:18:39</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10387,7 +10387,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ALXgodUNDWgQ7kNvwHqghqk&amp;_nc_oc=AdljlMDQ3jHVgz_aiA6BGON78NGkj0qIJ2pduznuqvXRn1OlMayut0SoQ6i21x1LILA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfZBJFqtj3jGwqGD2tvjCh1cxb1PBZY9zE7ywXIX7qV4Gw&amp;oe=68FCF566', 'profileId': 'pfbid0weogLuLg1HmXbRFF5JyULays5Ymr9dFoAfr5c8vMKzKtHjEfAG7SQhqWvAgWoZDTl', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwFtsRUO&amp;_nc_oc=AdmbRu0Jeyf0TjyCTODwbPndYmT5lZJAmpg-ScyHdw7nHF7J57HcnzHYDSmkQhVGFCo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfbyxazJqla4zEQRaGvBDktqstByPqa8OJxiA2qCCsBYaQ&amp;oe=68DC8B0D', 'profileId': 'pfbid0kBPXnX258XQ2aZazegsj22L7Grm3rZy3wxUN5sKSwexTzAwHdG9d5zjFL2yYYMwZl', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10413,18 +10413,18 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Deli deli 😋</t>
+          <t>Gracias por compartir.</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45917.71725694444</v>
+        <v>45904.96579861111</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>17:12:51</t>
+          <t>23:10:45</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lobYoZovPxMQ7kNvwF8AGtd&amp;_nc_oc=Adknnim2kjihJzA-nxih5YrufXlZEf_KXAWKvX8Z-IZKDUj7c5WkTTrHIsuSj6FK0P8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfbEGa9rvogROLM6hIJq27eIWtcNHMdenTSIXI5bwKF9RQ&amp;oe=68DB34DC', 'profileId': 'pfbid0Y2mLVfq5T3uYtgd5uhJZKYoHTKBCXQxDDydUuovRtmpALqHrtE7bqbvs78GzfbwFl', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Xmr1ltupWX0Q7kNvwF5nAqV&amp;_nc_oc=AdkT2xaJsBLc7Ht31TGVdiCXzd7hOBguEIQy8j04bHfAn1-cQM2iF54zL-j4pE4R5bU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfanPcylviuPwWouyWxuVhHbGunv2blA0SVCl0t2ff5CDQ&amp;oe=68FE0EA6', 'profileId': 'pfbid031WFPXaGVru2rcARUiAb6eHdv8N4TkGcdQ7bTZ2mie8aLNCGnxNpSkSjC53XN8Nnzl', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10467,18 +10467,18 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
+          <t>Deli deli 😋</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45912.0812037037</v>
+        <v>45917.71725694444</v>
       </c>
       <c r="H195" s="3" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>01:56:56</t>
+          <t>17:12:51</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10495,7 +10495,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0HEbGysUxUskCdHzPbNWTWkszuQ3Zai2hqur8LEtWeGby6qDb5aEg82wziSjYiusyl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwFdyeg3&amp;_nc_oc=Adl_8-AP-ADJZEpGlQKo_KYhHLVVZJm2HCbCfKPDOAhmFncMW-HI85d0ZH4w4Tv4Sew&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfahOtk8Hb6C5-FnGmrJyjb7AwZAsVLx1yB0m39o13Ui9w&amp;oe=68DB2F64', 'profileId': 'pfbid0HEbGysUxUskCdHzPbNWTWkszuQ3Zai2hqur8LEtWeGby6qDb5aEg82wziSjYiusyl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwwKdYU-gEEQ7kNvwEGtUgZ&amp;_nc_oc=AdkWQikIoAzC6YOjFxedmTbxgcBzlNJpPLQopHYEsNw0fb_P-JijRDzgt9ehpUolkQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afabm54RIgCA4lzNEWxfM1iL5KapD8jxcIH9sCxH7lIiHQ&amp;oe=68DC865C', 'profileId': 'pfbid0Y2mLVfq5T3uYtgd5uhJZKYoHTKBCXQxDDydUuovRtmpALqHrtE7bqbvs78GzfbwFl', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10521,18 +10521,18 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Que ricura</t>
+          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45917.82965277778</v>
+        <v>45912.0812037037</v>
       </c>
       <c r="H196" s="3" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>19:54:42</t>
+          <t>01:56:56</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10549,7 +10549,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D9d_76y01ZMQ7kNvwH2Nkbw&amp;_nc_oc=AdlI6dvRuxqMVuXJOJ7MlIgLEoXHpWhof811kJcucYaWMa6nD_31ABYUqI6M4AodW60&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_AfanEobYMPK0tdhkBKj1qaB_vfwQQOMgBZwYN2BV8MnuxA&amp;oe=68DB4A41', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwGbrtOI&amp;_nc_oc=AdnwCEt2X08oircRTbcZ5g8ZphMoSHlgw9NuSB47HhfzOmgJHLsFjWoV86js_CZLljE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfbIQC7TF3XncRModG4mMIt-jrKlfkEYeAZkg52QdMl1TA&amp;oe=68DC80E4', 'profileId': 'pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10575,18 +10575,18 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ese cucho cocina bueno</t>
+          <t>Se ve Deli 👌</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45923.72631944445</v>
+        <v>45926.01299768518</v>
       </c>
       <c r="H197" s="3" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>17:25:54</t>
+          <t>00:18:43</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10603,7 +10603,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z3uA8mDoYbIQ7kNvwHB13yF&amp;_nc_oc=AdlSdH4QYc6ol7wiKCXFhVO4Tkh7GHlObH-6IwRpEEWEvNvQwK0A2_LDzYb5F8rA2bk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_Afaq0Rnzvf0gQ7NSsz6XKwNYbsi3VY-e-PGVbkIo0_VTXA&amp;oe=68DB3305', 'profileId': 'pfbid034mcqsmLbp6mvzfs2wKBb236W5BZ1Ef49DrfDC5F9XZWQS5oUuCcJqwUCArtECqfGl', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2210500276094450', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyMTA1MDAyNzYwOTQ0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjEwNTAwMjc2MDk0NDUw', 'date': '2025-09-26T00:18:43.000Z', 'text': 'Se ve Deli 👌', 'profileUrl': 'https://www.facebook.com/gloriapatricia.torresmejia.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/32741996_1156586584482993_6833877341186293760_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SrviBe1kNegQ7kNvwG7SNGK&amp;_nc_oc=AdmdmhV5uHrelzlHYLCY2GGcoMNawVxX7aysOV-XjCV-uOp5PBwpm1JxcsTZ1lNDGck&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afat7vyNzevJ9pWbnyOKl0FtaSprQTA_V9fj9Td7PfMWAQ&amp;oe=68FE20EE', 'profileId': 'pfbid0pihEHv3bbGu7ZeMxUvTDduH4QrkZRsqyMdTMHjGYsUnP16Vqfe5beHx2qP2Ys6pKl', 'profileName': 'Gloria Patricia Torres Mejia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10629,18 +10629,18 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
+          <t>Queso, queso, queso, y más queso....gracias...yo paso</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45915.93363425926</v>
+        <v>45925.89454861111</v>
       </c>
       <c r="H198" s="3" t="n">
-        <v>45915</v>
+        <v>45925</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>22:24:26</t>
+          <t>21:28:09</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10657,7 +10657,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rHvdwhcCLFEQ7kNvwG-NUZh&amp;_nc_oc=AdloxISK0gyBkW30u9hl7awOeYjASL1Ma039vGQA8rfsbJblB4zXtOUT_DGd2Dgbfdc&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=_cA08uR1GqL_mgm4-p969g&amp;oh=00_Afbct78k9EAq2JhIK_dU72YIMCycStemm65Je2g0FmcHsQ&amp;oe=68DB56ED', 'profileId': 'pfbid02YGk42PY4rJodhsp69TTHfyeqhmdcFbjFYyxcZGDDA7ELKifA2d3JfJAoA9A7ZEyVl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24883620281246745', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0ODgzNjIwMjgxMjQ2NzQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDg4MzYyMDI4MTI0Njc0NQ==', 'date': '2025-09-25T21:28:09.000Z', 'text': 'Queso, queso, queso, y más queso....gracias...yo paso', 'profileUrl': 'https://www.facebook.com/adrian.herrera.3402', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHfKf0b&amp;_nc_oc=AdkQS6Im1Ow_FvKcA0V5-o-yhwcL3xiwsVKrCMjB7OsEVsvR_pDWznHUpxMB7GY_SWg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfZ8yfNS8GAlS_1bSqpPZZw9l901FIMvqMTOotvZyNvErA&amp;oe=68FE19FA', 'profileId': 'pfbid02sP7i7GLkscsJnZJHeqiM27qnCKDZgGB7k8CeJiHHvVGhtSS3x7jSWNBRPg83UdnRl', 'profileName': 'Adrián Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10683,18 +10683,18 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mucho queso</t>
+          <t>Que ricura</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45916.98717592593</v>
+        <v>45917.82965277778</v>
       </c>
       <c r="H199" s="3" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>23:41:32</t>
+          <t>19:54:42</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10711,7 +10711,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l_hycE0C_BcQ7kNvwHudECP&amp;_nc_oc=AdmydeItgAggUqmBtjhDku-8hcy8sHbYtFFiZFsAbiB5St0QHjKhLDuDV1OXvLr9tk4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfYgOZGBqdYEDCJlOilLa7XBnIXXon2H65mkCZgO0-ccZw&amp;oe=68DB3BC6', 'profileId': 'pfbid03872iFvcZnx3ysTfquVtDaTCoYNcsuRb8k9agB92eFuaMDLfH42d8u7EtRn2L1cqJl', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D9d_76y01ZMQ7kNvwFFVho_&amp;_nc_oc=Adkn7nW4AyX2FUCj63MRnpwHo6SbXw9HV4AQG9xOhjpLr2EJFXBiG7sCKKAbf3e9N2M&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZfJd0qNBii0AFlo9T-v29JOOEAGE-sKDHZ9urf1jKgKg&amp;oe=68DC6381', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10737,18 +10737,18 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Que deli</t>
+          <t>Ese cucho cocina bueno</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45923.67105324074</v>
+        <v>45923.72631944445</v>
       </c>
       <c r="H200" s="3" t="n">
         <v>45923</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>16:06:19</t>
+          <t>17:25:54</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10765,7 +10765,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MQCVpMikDlMQ7kNvwEyhd-i&amp;_nc_oc=AdmXgiMF0iigAggLj5a5EDgMmLgF54n0NwsWWjCaMmIDaaH4XCX7YtERov3GGGt7d4E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfZQqsdCvkVVx4vmDEskgbQPWtQidf20tceBsydfG3yrcQ&amp;oe=68DB4339', 'profileId': 'pfbid0HGSxVKK8GFoV29dVSGSMdyhRhhPb3CYCUoKZRSN8PkkQABJeo8cmW7pmnHMcGv2Kl', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z3uA8mDoYbIQ7kNvwF-LzF-&amp;_nc_oc=AdlQNbc9yrqbWB9kmmvUU3hHW4yOMsAXHAdrD7HILtljgNmBsCQ8PILc_QqEMIH8RUU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYSLGIGf5Ptcbko3C4v-SEejVMXleMY-LHwBatdgmDu5A&amp;oe=68DC8485', 'profileId': 'pfbid021DyexbiExpdqxddBAdziwmM99SzZKZ4ABn6UrGxRA8AEPddGn6cBC2gGNCGYTPw9l', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10791,18 +10791,18 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Q rico</t>
+          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45917.98428240741</v>
+        <v>45915.93363425926</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>23:37:22</t>
+          <t>22:24:26</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10819,7 +10819,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Psb6AVpncewQ7kNvwF-UO0M&amp;_nc_oc=AdlHj2FEgMS5jYKbOkPZ2McUWyqiN_dmlXwU8Y76t_gt3NGrtI8PrZ_ODBKQ2BdzzrQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfZd8tCONgR0Yk_xYrFXJLJL6oFnuzpq1ozIpiM_JFRfFQ&amp;oe=68DB5680', 'profileId': 'pfbid021QniRRnq2sPwNppWvUs6nomraNmMoesBHUvx3KKDFX4EX3ZAb6QTF3u19sSqbPSEl', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SE-hJZnDB5IQ7kNvwFz6NHA&amp;_nc_oc=AdnoMum_u4ZnqhrYCFbYbfuI_7E_OjrZ8CRCSCCjTUiyUQr00arrVOgGn6BznJjvHGA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZ2-yMvHM246QK9fSOSl2mE0AWVX1C_umzfk80EUZdOYg&amp;oe=68DC702D', 'profileId': 'pfbid0Uj6s7Duhzzs1depP5reyjLVh5sFPXiXVJeqA3Ji2nDToAdV2ZcJpJkFGAGgtiPitl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10845,18 +10845,18 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
+          <t>Mucho queso</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45914.97866898148</v>
+        <v>45916.98717592593</v>
       </c>
       <c r="H202" s="3" t="n">
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>23:29:17</t>
+          <t>23:41:32</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10873,7 +10873,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfDvRnp6PEkQ7kNvwEToxmu&amp;_nc_oc=Adnk0CeHN6cg0jlNcOB-MCmBZY3SBgKC8nOWlJMwQlpKsA9SaF9e_vhK5dlvJ_C1J10&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfYIu50OT_TxbUMTGhiBNRp2C9rgs7t8r7zH3BiDmmpVTQ&amp;oe=68DB5376', 'profileId': 'pfbid0nvWR6a2bvZzyvfTJKWsiG1YhMMMj7pDZjg4Zc9vCB4uRnGMGuMwVRKxXThPVzk9Yl', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l_hycE0C_BcQ7kNvwFazMUd&amp;_nc_oc=Adl0p9-W0OINc9WeHphuKfIN1D6Dar3XoCi3yVPSiV4WyRzJ7sb3eb3IEAsUSJWcCO0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYgzXAjn0pG4t3-M8zvByspVb6P6Bm-6SaRHjwg-p3QJg&amp;oe=68DC8D46', 'profileId': 'pfbid03872iFvcZnx3ysTfquVtDaTCoYNcsuRb8k9agB92eFuaMDLfH42d8u7EtRn2L1cqJl', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10899,18 +10899,18 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Que receta tan costosa</t>
+          <t>Que deli</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45922.76958333333</v>
+        <v>45923.67105324074</v>
       </c>
       <c r="H203" s="3" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>18:28:12</t>
+          <t>16:06:19</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10927,7 +10927,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pvwZ0X8l9UgQ7kNvwE3QZPc&amp;_nc_oc=AdnGIx8hjny2s8Z7icv50aCR0so52-S95-R4hOrQb5pDFztCSbM35GEBmh4ZVBWRhQw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_Afb1tVlFV6w_erKQMQ0gS06OllTXlyv2rMrYOBEOsMZBFQ&amp;oe=68FCF5BC', 'profileId': 'pfbid0u1Fp7xBYinQjL18nF5rreRVY7wn7RK6ASyRGHHTxi4Fewjs9aq3C2bzt7vnsuyxal', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MQCVpMikDlMQ7kNvwHbubgX&amp;_nc_oc=AdnWTNEOiDSGSOpi0JMHaPfZ95dSXZpvu0ayr8VHJ930UYtTH7x5TG-EijPt7xNgBGQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZLQcDmu8aDR0JjT5Ly--GYANVxpdmAZ0au2Jsucq9Oxg&amp;oe=68DC5C79', 'profileId': 'pfbid02Ldw97LfkHwzbEmPYar9WGf25roq3e3AS6CyUeqL5eyPbkHnCr2MJb1WdCMiLSFc2l', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10953,23 +10953,23 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Otilia Gamboa Cristancho</t>
+          <t>Q rico</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45912.71965277778</v>
+        <v>45917.98428240741</v>
       </c>
       <c r="H204" s="3" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>17:16:18</t>
+          <t>23:37:22</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K204" t="n">
@@ -10981,7 +10981,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzawOjNzeqsQ7kNvwF6-RL4&amp;_nc_oc=Adn9OhF1Rd_X_FMQYB7DUmDNxgQHyJxYRJAyLHQTi8LUH_7-z_xY0xvcgeQJEQedqXU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_Afb2V4kRAOlbz4ld8dpahzMM_6vfHkTByL0gwIq4SjrM6g&amp;oe=68DB2F1A', 'profileId': 'pfbid02L63WTh1MXqpsFCawd127K83vEiz55CoWqXUXoVhtkEv1yaqLnZmHcjGD1SSrJgTul', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Psb6AVpncewQ7kNvwHXAVv6&amp;_nc_oc=AdlJ2offYQiytObpvuKSVPImWT-qXDcgm1B-lxHUmJ_IvePOLbokcFdFuXYd52GAomg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYgY1SewuwhNBQMYm5dUKF0m2yBhpXH6qC-zO4Z0Vffrg&amp;oe=68DC6FC0', 'profileId': 'pfbid035GERc6ietDmrwykaZBXJFvRwEUji1rtPqPXykdM6v5UY56f93KLyd9b7DGwGGMFBl', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11007,18 +11007,18 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
+          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45924.06525462963</v>
+        <v>45914.97866898148</v>
       </c>
       <c r="H205" s="3" t="n">
-        <v>45924</v>
+        <v>45914</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>01:33:58</t>
+          <t>23:29:17</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11035,7 +11035,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vrF-Nr3-CigQ7kNvwGsvVZ8&amp;_nc_oc=Adk5VjDnU-ivonBYQNLg7gN36oADjbqFhhO7PoUkMlO-KLYTrPmSk9eV2727kDBil5Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfbwYnjLUAziqf3KMB0JTNw69TNa_5c1ti8jHhssO2q8WQ&amp;oe=68DB403B', 'profileId': 'pfbid031pNs5DZ5yAVzuW4X8einmKKKTFksrUrus1cTgCFGZr6Vtap1GRS9K6Appxg7UNfml', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfDvRnp6PEkQ7kNvwEtKwFJ&amp;_nc_oc=AdnN1P5lFcfPJwureWBgzOAlrSmEiV2yMJKD34YhlJ6V3yMKk_XULMuvlxZglK_Zu2w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfbCyQsFxWg8jANzJ1-pVt2TDFYP1hlJJr57-KcJMMmZuw&amp;oe=68DC6CB6', 'profileId': 'pfbid02rmx8HExRn329havS23w5eGfivPZyqLubdkb6YqrjruJ7WSnUNPJvQvyePi4dnPtdl', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11061,18 +11061,18 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>El maíz es crudo?</t>
+          <t>Que receta tan costosa</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45916.72425925926</v>
+        <v>45922.76958333333</v>
       </c>
       <c r="H206" s="3" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>17:22:56</t>
+          <t>18:28:12</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11089,7 +11089,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A8-TxuQWIEAQ7kNvwEPgPf8&amp;_nc_oc=AdmCiLygBknFLrFZLH1LpRODkKyKmi_uMjgDsYKPLh14oKIqgP2nmrmZCVleZiCL-pk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_Afb28KBFXJ01o1n9MfNn4IGx6euLenF_2az0YyjAP0FrOQ&amp;oe=68DB2DEF', 'profileId': 'pfbid0UYj4sVvv8K7kCCive2wcjDhRBknD3gFfoLUd93D8Di2Q78KGhKkdnqDBoekbq9kPl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FeBlcYoQP3EQ7kNvwFtenQ-&amp;_nc_oc=Adlg_c2sIMwmerDvHenHWOUNd78_SOGz7hurTf0WabjL4HlrR1Yl7UxAVtBSyJZb5Ps&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfbvBe4bXskkZ9WXHHTAlGtZUI3IRGR_z8o5qKk4Y7xqGw&amp;oe=68FE0EFC', 'profileId': 'pfbid02xNjzjyYAkUzzbijXSjAkCHNiX3B7QULe2cNHW5SDLAWtVBPr1Kna5KGK4bP6zTY1l', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11115,23 +11115,23 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Puro queso y disque mazorcada</t>
+          <t>Otilia Gamboa Cristancho</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45909.09671296296</v>
+        <v>45912.71965277778</v>
       </c>
       <c r="H207" s="3" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>02:19:16</t>
+          <t>17:16:18</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K207" t="n">
@@ -11143,7 +11143,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kJJIv2-QO8AQ7kNvwGvk8VQ&amp;_nc_oc=Adk4SJfwx7s4UxLG7uCTVK8vvjaDVjlT3Lpf408zD7Oy1DmU_9ktpIoJSJGHhlZhySc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=1K65OMDWQyNnyph4J-W_Mw&amp;oh=00_AfY9VhAlzT8NfikAbkrO9n2q-RPyWBZQnMEHZgI6ntwbFg&amp;oe=68DB4DEB', 'profileId': 'pfbid0RQTJyFH4gDgoE17RB9NJknsxJgonxkBrL8YbpvBXow4n4fq7N12tPDNjGAPH5XQol', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzawOjNzeqsQ7kNvwGDVuXS&amp;_nc_oc=AdmR_qe6-3Jvh6AneDQ97ScR8wk-wTCCNqQ_V8p6oDdyrGpmlE4_HNnDUx001WEUDiE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfY8S3cwDSRQrrOdPMIdOHOeijMj3J6NKu2tUfmqmFU_8g&amp;oe=68DC809A', 'profileId': 'pfbid0G4SnysonrpUT3GBsgMQnzt169bWLr1DazkX4cp9Jn4owqUUxrBNGhFeDVL11bGLzl', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11169,18 +11169,18 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>No había otro queso por ahi para agregar?</t>
+          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45919.65423611111</v>
+        <v>45924.06525462963</v>
       </c>
       <c r="H208" s="3" t="n">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>15:42:06</t>
+          <t>01:33:58</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwEzWvvo&amp;_nc_oc=Adm1m_WnvK4aLbTx9QiSNkrtr6Qj9yoRa7mfauNDjYDqZ_hy-7UA7dxsyynb-w1oOr8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;oh=00_AfYw44xW5_wwS2lJlTfHWYWV83AaAWNDDZ7eO1JOBz4XGA&amp;oe=68FCC87A', 'profileId': 'pfbid0j3CxwENSruNnFgkfccgy3Bx6BTMJLVsHuoS221UaNkBJoNP64umP17ckAAjUEx5jl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ow93DvipsccQ7kNvwEtIr3Y&amp;_nc_oc=Adm9G7XU59_zsotnu0UEv0lkQDq8SWIkUU8jSQWo3fmMHBLgnbH6iv0J33VoO1XIyx4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfaNZGAXY15AUm27GLMyA2Kum9uKX5VjrXxf6XY96-JGug&amp;oe=68DC91BB', 'profileId': 'pfbid031pNs5DZ5yAVzuW4X8einmKKKTFksrUrus1cTgCFGZr6Vtap1GRS9K6Appxg7UNfml', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11223,18 +11223,18 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>No me gustó</t>
+          <t>El maíz es crudo?</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45923.95258101852</v>
+        <v>45916.72425925926</v>
       </c>
       <c r="H209" s="3" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>22:51:43</t>
+          <t>17:22:56</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -11251,7 +11251,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lhWtsTcvAy8Q7kNvwE7wQ7M&amp;_nc_oc=Adl0sdKWY5qETO_rs2myRXrQ-peoUY5-3KRQcycXaggsEjnIECP_0aL0VjclBCfWEzs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_Afa4DNx62ui2BRNXza-pGO2mw9uBdWAvCB582g7ILkzgWg&amp;oe=68DB4537', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A8-TxuQWIEAQ7kNvwE3SWxq&amp;_nc_oc=AdkwTb3FRHBQOWPkcYhwXLu4A5LGNaQN--7dZgRVg93KlS3f_lpYIWstSA3CRIHAEbo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfYHmSv9ZXa89Inprb6wsK09KoV7YhFonWPbuywTUS1tvw&amp;oe=68DC7F6F', 'profileId': 'pfbid02YQAn4ArjyjG5onNV9gJt3mzqkeGfWbfm61ZQaqwc3EYeqcyz2QwiCfEqUEKDiwdyl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11277,23 +11277,23 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+          <t>Puro queso y disque mazorcada</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45914.56732638889</v>
+        <v>45909.09671296296</v>
       </c>
       <c r="H210" s="3" t="n">
-        <v>45914</v>
+        <v>45909</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>13:36:57</t>
+          <t>02:19:16</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K210" t="n">
@@ -11305,7 +11305,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N3BKCZrn20QQ7kNvwF2ymEp&amp;_nc_oc=AdlHBD9BNc9ZVIq4QzOxXfvSX0nKNpiouur2sTluKaYR8QO-t57XUIxJsLEbXZW4wbQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfbnNviKQtbCq_LeDXQbVKXUwTgMTNPzX2Gha25-vAXpew&amp;oe=68DB5800', 'profileId': 'pfbid02NZmKfdss72VQ8QUAMf7y1KVs5JN63fPC5prbFG9Bcn81sp9VghZKN6TF841y85SCl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kJJIv2-QO8AQ7kNvwGVd-NM&amp;_nc_oc=AdkkQcrsl23FeWKGXb844vvF3uD2oQblqWcB35hNxNt4rZzdemlRAayKJY3wtnOFdmU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfahPrW__5vn1L5MQqWDoR42x3mxRDgrkiRhE077nbV1Eg&amp;oe=68DC672B', 'profileId': 'pfbid02VFu29vCtXfCLQgQJEt1x4mfQtq91uC3Wyxp21yxPAVUxsm7Yt3ucUGaRyPzSxT1il', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11329,16 +11329,20 @@
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>No había otro queso por ahi para agregar?</t>
+        </is>
+      </c>
       <c r="G211" s="2" t="n">
-        <v>45918.07300925926</v>
+        <v>45919.65423611111</v>
       </c>
       <c r="H211" s="3" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>01:45:08</t>
+          <t>15:42:06</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11355,7 +11359,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=xlSUYJr_ZCcQ7kNvwHYqY3z&amp;_nc_oc=AdmnqM2eV4q5TcfO-Ec4XgcVuFxe4HRFcCPdpEui699FjDp8PPiL8GyJ_Nf7VwWDRF8&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfYmAKU9u_ppuaD5YPT32eXR9rErnXy5DOPQnSg1X5tGmg&amp;oe=68DB4900', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dj72F0m7c3gQ7kNvwGdCVFY&amp;_nc_oc=Adknmy1wwtdvHF7Fp5hUFBXdQXB-Nr_T1N3Ip-RlMtNNTVoIXXxIwBOjDtA6R4Fv6uc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfaU7hoaDilv8rMM-zdLSiLmwGtAV7kIJdAsqNgx9ybxYw&amp;oe=68DB369F', 'profileId': 'pfbid02rZHK1G8NQXZUQd2pgrLUBLs6CbbeFG5LRRCaKLer6hUjCQBwi7iJbokTkNbLKdgal', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEiegUn&amp;_nc_oc=Adm3ReRb5HbSbJCOZPAonP9WzpYjUDCbdJeTQzSzhLz5DRcdkqQDps_7FjFZK29lMJ0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_Afaz3p2dFLrEuLInd_Ri7O_msQ2uPDFq38r8pjcE0Xk8AA&amp;oe=68FE19FA', 'profileId': 'pfbid02nteg7uJGiBKaNc4ybeVviRePqH5iriG6HLVLwb75CG8Gr5UDwwQcFJPVqLXNSLmHl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11379,16 +11383,20 @@
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>No me gustó</t>
+        </is>
+      </c>
       <c r="G212" s="2" t="n">
-        <v>45915.08302083334</v>
+        <v>45923.95258101852</v>
       </c>
       <c r="H212" s="3" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>01:59:33</t>
+          <t>22:51:43</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11405,7 +11413,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=g5lB0QLm1oAQ7kNvwEfCOrI&amp;_nc_oc=Adn_frdK5QFJ9zv7cnJkSyJpIbRtKT6AZzX4Gv-z4GPBIqtaBrRjlqOdyt_KOhwGGro&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_Afb_SND558bJV0jNO6JCFMSnVUwrwyGfo6naaIlhhO5H-w&amp;oe=68DB47A9', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EZ5MbzjPXjcQ7kNvwGtY6to&amp;_nc_oc=Adly8NDuowuU1ksaP1qCBXaX97SFQ1zjKa22fqWmWqYPwqG-MdbSZwVeCYd0vTb3c1M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfZozmAhuvK3-m6q1j5k9PwGz2pq_PzaH1-1RWZYuMDeLQ&amp;oe=68DB2426', 'profileId': 'pfbid02BdULuJjjJ5rTJ9EsWBYtZkuRmrUEtAzEPSFBeenh9t8ASwJGUbPEnWwwE7z8HcrUl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lhWtsTcvAy8Q7kNvwH9APPw&amp;_nc_oc=Adk0jRfiooFGqsILG_U44fmEt6Cngt7Ki572dl2yPHoqv0F3whVSzgMaSq8UxPIB2no&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbv1FJBFqlqmbg2W_P7sfnlFF0ZmyCkqguUUzmoSB-89g&amp;oe=68DC5E77', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11429,16 +11437,20 @@
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+        </is>
+      </c>
       <c r="G213" s="2" t="n">
-        <v>45915.08300925926</v>
+        <v>45914.56732638889</v>
       </c>
       <c r="H213" s="3" t="n">
-        <v>45915</v>
+        <v>45914</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>01:59:32</t>
+          <t>13:36:57</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11455,13 +11467,13 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=cCgCamhyQCoQ7kNvwHUUKrv&amp;_nc_oc=AdmQl_9rMbvONroxoXoIU5wyyYfJePAcwYVrua8sLq5a-B51HpC2JwWYBJgGXMzs0Ec&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfbkpLjz1kfUmM17fHZdePYoUSUKjvDevizLBYPmBApoRQ&amp;oe=68DB41F3', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EZ5MbzjPXjcQ7kNvwGtY6to&amp;_nc_oc=Adly8NDuowuU1ksaP1qCBXaX97SFQ1zjKa22fqWmWqYPwqG-MdbSZwVeCYd0vTb3c1M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=JjyfOD2RaYl0zRFFgiNKew&amp;oh=00_AfZozmAhuvK3-m6q1j5k9PwGz2pq_PzaH1-1RWZYuMDeLQ&amp;oe=68DB2426', 'profileId': 'pfbid02BdULuJjjJ5rTJ9EsWBYtZkuRmrUEtAzEPSFBeenh9t8ASwJGUbPEnWwwE7z8HcrUl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tiWtr0JTTsQ7kNvwGL6WTh&amp;_nc_oc=Adk3yEYb7m5Me2D4aXq2IDGOpiamXtO3DyCX9xNa1lazNr_vCQlFLLNVhekwCl5ocuE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfZgaRfcXupQTGW4biHqz2po8VpqeZtqeQuxhfIHPtt9EQ&amp;oe=68DC7140', 'profileId': 'pfbid0K288kUFWFtRXsbSXwYfjPhKqu4DFJ185YDorTGDKckGS4bPsCGJd4zXMDAbABPAQl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -11475,29 +11487,25 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Super rica Muchas gracias</t>
-        </is>
-      </c>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" s="2" t="n">
-        <v>45905.11831018519</v>
+        <v>45918.07300925926</v>
       </c>
       <c r="H214" s="3" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>02:50:22</t>
+          <t>01:45:08</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K214" t="n">
@@ -11509,13 +11517,13 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwFgupI2&amp;_nc_oc=Adn1X5EVovhbXqey48S461UlZXtxdzyq9b-6j2BO1UEcOeIg3h8ppIsSWeFHXxj8W_U&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;oh=00_AfZWCOn53nsZnWqPSz9sJ-7VRl7HF4EJZX2lAljXa5fUaA&amp;oe=68FCC87A', 'profileId': 'pfbid032YrqYpWKGECX7k4YWsSxjXnKryvJph94sGugzwpKm2NpSitNZ392hkRYo9yTgyPxl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pS-K45ZiXr0Q7kNvwEPJOYS&amp;_nc_oc=AdlJg_03J5aY4w95bT7_MaGiYNQCpZgnIQm2kNqrJlSNnXXZ0UGInRRXHHiKRlU6Pr8&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfY23spm6xy-4ti-f0kauRd0anwCB63iM2HPDAdLeBog1A&amp;oe=68DC6240', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dj72F0m7c3gQ7kNvwHaFHIw&amp;_nc_oc=AdnLBAy4oASG7901ACrfUNPhatrflD9DDMc3-sAfiGuO4aHSFWlOTcjLyizBRzzXf0I&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfYmqVXdIwVa75u0035m5ImSRGu2EUGJqgkY5iLf6t_reQ&amp;oe=68DC881F', 'profileId': 'pfbid0o1e866W1ZNMWHarmxFFZxs7kytAG7gcAXemaEbs2z7YkXr5ogcn6eTM4ftgjcVj6l', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -11529,29 +11537,25 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Súper se ve exelente gracias por explicar</t>
-        </is>
-      </c>
+      <c r="F215" t="inlineStr"/>
       <c r="G215" s="2" t="n">
-        <v>45904.72891203704</v>
+        <v>45915.08302083334</v>
       </c>
       <c r="H215" s="3" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>17:29:38</t>
+          <t>01:59:33</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K215" t="n">
@@ -11563,13 +11567,13 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VA5n7lkTa0IQ7kNvwFk12nY&amp;_nc_oc=AdmLcl6b-CLguNERoQFWPOZJcWwCt6sVrpmF_ruG5lsVkou34v8v-5D2uKGdoqkUUC4&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=gTy_TzOPARTd5B8tikxi9g&amp;oh=00_Afapb5RtRknPj4hS9cBx0yJHrn4SMaTEQ_ULK02m-3A-6A&amp;oe=68FCEA81', 'profileId': 'pfbid0rLWJ81N14Ut9i8viVk5JKhVoiJ1paFzvCGJuAV8rLbZr8Q8dAg1ac5b7MBtNDNful', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=g5lB0QLm1oAQ7kNvwHS9e9k&amp;_nc_oc=AdnLFTjhUUan3HiDtXT8AQmgbgcO3WFNMXTjDaCJl7GaNRbX2SnOg2sw8o6ssNI77Ew&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afaz4VFp05hqf-Cg80kaFUzlzjaj8sYGG4Dkbjlg1TXYfQ&amp;oe=68DC60E9', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwEApf6f&amp;_nc_oc=AdlB5-G24hOauYYv6xGycC9Dfkmt7esf4slpnPm6Hgqdmbf6iWkUWp5lJY9bFx13hPc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbq7i8HKUJhIVYhV1bhtTksDDVvlija9YG5gH07BSDKPg&amp;oe=68DC75A6', 'profileId': 'pfbid085q9z97NSsAXF4hSU4U5fDDRpbH8ZZoSkgQ7Q8i8T7n4vzved9aQE8m8kGzD8pbyl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -11583,24 +11587,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
-        </is>
-      </c>
+      <c r="F216" t="inlineStr"/>
       <c r="G216" s="2" t="n">
-        <v>45906.03012731481</v>
+        <v>45915.08300925926</v>
       </c>
       <c r="H216" s="3" t="n">
-        <v>45906</v>
+        <v>45915</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>00:43:23</t>
+          <t>01:59:32</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11617,13 +11617,13 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RNBUJB4Aeu0Q7kNvwFvyXMO&amp;_nc_oc=Adm_1We6R-C_qbHFBQxelh1VD8f_i55chQ8MvXECjy1c-14t244_tGnX-1cb90aTMxA&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=gTy_TzOPARTd5B8tikxi9g&amp;oh=00_Afaf-wA77Auz-S79yWJR9gFVHb2AYdaDMjPDqLcuoeYd7Q&amp;oe=68DB5220', 'profileId': 'pfbid02hPDBR6hVEGzY4zF9AYPe7Sadqjz7xTpDH3BRLJ8ioTfiEniJo3AJiKKtCmm7u5cvl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=cCgCamhyQCoQ7kNvwExKqoQ&amp;_nc_oc=AdliefyidTgwCFD-BiTzfJGc8It69wYsf2Zi2qXgnj1oHxZgWeEz3_bNroUTJJukChw&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfaUCKU7QkvOE5C4TyNg1jDhtDEBdaMuimfnQviNgYbPiQ&amp;oe=68DC9373', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwEApf6f&amp;_nc_oc=AdlB5-G24hOauYYv6xGycC9Dfkmt7esf4slpnPm6Hgqdmbf6iWkUWp5lJY9bFx13hPc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbq7i8HKUJhIVYhV1bhtTksDDVvlija9YG5gH07BSDKPg&amp;oe=68DC75A6', 'profileId': 'pfbid085q9z97NSsAXF4hSU4U5fDDRpbH8ZZoSkgQ7Q8i8T7n4vzved9aQE8m8kGzD8pbyl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -11637,29 +11637,29 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Se ve deliciosa</t>
+          <t>Super rica Muchas gracias</t>
         </is>
       </c>
       <c r="G217" s="2" t="n">
-        <v>45904.76834490741</v>
+        <v>45905.11831018519</v>
       </c>
       <c r="H217" s="3" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>18:26:25</t>
+          <t>02:50:22</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K217" t="n">
@@ -11671,13 +11671,13 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uT0jimImMrYQ7kNvwEpteuv&amp;_nc_oc=Admz6gy18IYBrGO3kugBX-ABy9bIwar84JAyFg4QZRW29tSxJGRJdiPJZzW3e9Mxzno&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=JYGAamML34cYzPdW6QAhAQ&amp;oh=00_AfY0MIlweaGYfTbCTYVNrIOk0JP8ngAUimpufdnIjrMfSg&amp;oe=68FCEFC0', 'profileId': 'pfbid0Mr3iuSU7u74x91EQ2fyurYYwYX4TECU78UYe2b1U6iCD3prX4QJzAUfmLvJ3noMHl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFkcY5w&amp;_nc_oc=Adk7WPszAvV9ClWeGrZZS8W7twWHWY71pOajgXzTnwOW3hUvP9jfMA9tL7T6pEBx-ws&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_Afa6p3F9F0mc1Q_tX369Ntf8Pha3-U2FKiibmcRh4qPbkA&amp;oe=68FE19FA', 'profileId': 'pfbid0xXG851JkbQhChWNfohoDBJXVQgGhVekRNxKvPgKnAFzwY1A3gWogCL1YFVzJtApYl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -11691,29 +11691,29 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Q delicia 😋</t>
+          <t>Súper se ve exelente gracias por explicar</t>
         </is>
       </c>
       <c r="G218" s="2" t="n">
-        <v>45919.22232638889</v>
+        <v>45904.72891203704</v>
       </c>
       <c r="H218" s="3" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>05:20:09</t>
+          <t>17:29:38</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K218" t="n">
@@ -11725,13 +11725,13 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t95rTK-evXkQ7kNvwEEHXlx&amp;_nc_oc=AdnR4OvtC5_8v48zzXuhMKZFCvEPte4JClWVjVNEAglJwNEAHP-8MhNpu9vhtXTWxAQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_AfZAgKnpFDy4Z2r4vlAKrlfONk9v4QEoiIOQzNyZiTgPzQ&amp;oe=68FCC111', 'profileId': 'pfbid02tfbbkFRxBTVbTba4dFaadcWSxrK9pfgyfhK1hHTXnV5owtddiMWEZVCrd5QW8FPbl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9QTVxfq8KSUQ7kNvwEFXjB0&amp;_nc_oc=Adn871y0zUZFEbaLbI0BUqv6eJrFs77pXLhCJT9xmLJ0V5030JMNv4fjz9cXLvz4MJ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=9AyAtcbaiCguyJkiIAQ8gw&amp;oh=00_AfaN9i6SSsdQ36Fb1yQ7QUsolMQVYJj6Q3-fLgy4mE09nA&amp;oe=68FE03C1', 'profileId': 'pfbid0rLWJ81N14Ut9i8viVk5JKhVoiJ1paFzvCGJuAV8rLbZr8Q8dAg1ac5b7MBtNDNful', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -11745,24 +11745,24 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Gracias</t>
+          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
-        <v>45908.03875</v>
+        <v>45906.03012731481</v>
       </c>
       <c r="H219" s="3" t="n">
-        <v>45908</v>
+        <v>45906</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>00:55:48</t>
+          <t>00:43:23</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11779,13 +11779,13 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MskbYWd7ErsQ7kNvwHm6Kga&amp;_nc_oc=AdnGjnvb4ghl4jYC-rIob2eF2UvOLnU43tgqRwR47cb2CqNh0frKB4vIUav17hSAXSg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_AfarUmyuoOIvECupj6poJWCzaqTpu_ThRNB_UkCfThGC7w&amp;oe=68FCD900', 'profileId': 'pfbid0tBCo81jp5Lfy3fpSRyh9SFpFeN4PrYdVVsDvC77AhGKGNiEefKC5pUFg53KdnBKDl', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RNBUJB4Aeu0Q7kNvwHW3qUD&amp;_nc_oc=Adma_e2TqP3r03ajGEYzM-3rFTVnI_TRZPXnMG9NkWYr-vyXg5RZe0e05p8D2YFF03Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=9AyAtcbaiCguyJkiIAQ8gw&amp;oh=00_AfY8MNVxcBsbJ-g0PlSktepdpPt39zqH6Y7VIa8lhqoZkw&amp;oe=68DC6B60', 'profileId': 'pfbid0dqZzVw58P4gE1JSAEY8u95QUpeAiByUKeMYuDUKzmdWcrp2JUcXDrfTA5ZVQFnCsl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11799,24 +11799,24 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Grac8as por su receta,quedan deliciosas</t>
+          <t>Se ve deliciosa</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
-        <v>45904.89225694445</v>
+        <v>45904.76834490741</v>
       </c>
       <c r="H220" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>21:24:51</t>
+          <t>18:26:25</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11833,7 +11833,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_CZ9VNoynZIQ7kNvwGE2wvc&amp;_nc_oc=Adlo_gG9duxYgGFSxvmECSdhLRw7sZL3L1XabFq1-R-dBe1YK9pCcr6z55euFNM1sIc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_AfYfCHyTEVS_fHbCoEg142uDQDlgozKuN33YJMDM9SuG4Q&amp;oe=68DB4583', 'profileId': 'pfbid0sHL4HkEs6t1kRbWDGfDzYkjabrE8kJ64Q5mrV6ydPbiRMwnETCc8EgiVryA2rcEVl', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent.fftk1-1.fna.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BYWMw7Zp7f4Q7kNvwGrrzE-&amp;_nc_oc=AdkhCEzCusQWd2j-dzpVW36EUwoHwfSZvsqypaQJTGCxTr77wXUB4fYHhKofkkQ1P1c&amp;_nc_zt=24&amp;_nc_ht=scontent.fftk1-1.fna&amp;_nc_gid=EPYy0Og4TrjamlY78R2Iug&amp;oh=00_AfYvmnmDXRe7_L06fIfM0rjDCqyQiBq-ZBU-dYIn3UOPGQ&amp;oe=68FE0900', 'profileId': 'pfbid02RhVS67PwkbguBa6QLYNnLeHij79wBiEhraf2Cf2yBP2noiS4XZZ4Dx5FLfU1otgzl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
         </is>
       </c>
     </row>
@@ -11859,18 +11859,18 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Excelente preparación.  Muchas gracias</t>
+          <t>Q delicia 😋</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
-        <v>45908.82081018519</v>
+        <v>45919.22232638889</v>
       </c>
       <c r="H221" s="3" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>19:41:58</t>
+          <t>05:20:09</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11887,7 +11887,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8pqQ3aS0MhIQ7kNvwHh9NRF&amp;_nc_oc=AdnMH5SyU404MjqMufdsx9QgFztJNTmNgay_WH0Jl_Egg5ErXjiLut0sa1u1uT-_8CY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_AfY6hlYauLBwGex_LgMpIK1Mkd38egLTXb2c1l8Eh8W7gQ&amp;oe=68DB4DD9', 'profileId': 'pfbid021MJ3cBH9ARfqvYZS8orD6T8XdjxnTYywmxbuKAmEEqC5jNawhSsXw59HYbu9eYPvl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t95rTK-evXkQ7kNvwFMz8uk&amp;_nc_oc=AdlpmOHN9WXLwUIFB7vv4Zjfg9OfKwbFGERsPjriiITsepe8dq5j4Zj4KQB6VPgr2U2SyhxXuOLCDFqUKsuphJL7&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfbHBT5jenqQ1laItUZtUMJKoySm52ydQtRZPnhiBcSfHw&amp;oe=68FE1291', 'profileId': 'pfbid0q7xQq5obLB9FeWfFcmQqrS5iBzazjFgpWbLcEkG2Fd26fLQZMC3atSjYneAgCrxWl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -11913,18 +11913,18 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Q delicia Gracias 🙏😘</t>
+          <t>Gracias</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45906.83768518519</v>
+        <v>45908.03875</v>
       </c>
       <c r="H222" s="3" t="n">
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>20:06:16</t>
+          <t>00:55:48</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11941,7 +11941,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oYd7HfaFhW8Q7kNvwFVPT0O&amp;_nc_oc=Adm6OeLqfQTIa9okTjOLQp3Xvf7UL64NHHzmdSshR_BdmeJPPzz5eCdV_jzdu8zaty8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_AfaEuTJnK1BV6aZhBtZofNt-k1Ken_MoXJNKi8PMlBZpOw&amp;oe=68DB283E', 'profileId': 'pfbid0WYveB8y7uoyTwLkSS8VaHER6WnmfdNxLKaxf5DtMZP5Jq2y9U5ULbzzMATAAkWEGl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MskbYWd7ErsQ7kNvwEwbxJ1&amp;_nc_oc=Adk-AY28htwePAhhiDmKVEkKL-fKk1rkprZ8aMQMD5TCgVM3oHL_DGaasS_fQ-QfZLPYUrLv_gIwhvFvBtBXPt7k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_Afa9wMj2y-06ybkFarUOQn3wGn92rwP9zwHafHt_2nFP-w&amp;oe=68FE2A80', 'profileId': 'pfbid02x2eWJgfdvtZQUaQEtUpKq4ywejrCWk5juxBoVwkyquWHhSLeh6mYwnnM452f1p9al', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -11967,18 +11967,18 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Uff q rico</t>
+          <t>Grac8as por su receta,quedan deliciosas</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
-        <v>45908.07615740741</v>
+        <v>45904.89225694445</v>
       </c>
       <c r="H223" s="3" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>01:49:40</t>
+          <t>21:24:51</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11995,13 +11995,13 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wvFGh-5lAioQ7kNvwGDOOIY&amp;_nc_oc=AdnadfUTJK-kdQVG9jAaAA8WG7CrlVCK3g3rE4upg1ja-T6g8N4vaPo1WvKGLryhkaQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=eIJZZmof0IQJEySVHR6nXQ&amp;oh=00_Afbj4F24xe05PTB1wTn2T9SZ4StAYdeBsarQqs8S_3Atyg&amp;oe=68DB2BB9', 'profileId': 'pfbid0rqSrZiNH5R7Uyka1eAwjNnoyASQceKQ9bF9jUg3ZtjeWueeMp5ousTHMetgmmxVZl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=py6ngu7yDtoQ7kNvwELZT8N&amp;_nc_oc=Adm599BFijfIhzYep-NSkCHRmIBOQATo5HMW8RgiibihcpZzFY_SJ_L-79kP9ywxvUKoD_ahpIOd6SwM-NondJXP&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfZom_z1vH0Zg3CVi0U7GUzAPIhX1ym0IRRM_hL677rMMw&amp;oe=68DC5EC3', 'profileId': 'pfbid02w8mmURAgxBF14FsqwhgJTGqMQgSHAWEHwScNd8kDtrsXSPX7qhVzVWyAaqxhYYd4l', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -12015,16 +12015,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0</v>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Excelente preparación.  Muchas gracias</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>45908.82081018519</v>
+      </c>
+      <c r="H224" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>19:41:58</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -12035,13 +12049,13 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ipaWqJoYDPEQ7kNvwHmqGgo&amp;_nc_oc=AdnDCspKmDGJ-aRLye0Jwpz0kLilt6aATn7twnxaIAaA4-li8PJ3EIm580TodgYtIBhBNYc_nCLE77hPRQkffaMY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfbpXzmju_GO3nd6zvCnQZsCRptAVXs2aJbzHtrv07iOGQ&amp;oe=68DC6719', 'profileId': 'pfbid035CjknrCy22ir1QrFDXK1fZuyPArn7UzkWdNLf29udpocSfP1N2rJQCPeTFiTG3dFl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -12055,16 +12069,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0</v>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Q delicia Gracias 🙏😘</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>45906.83768518519</v>
+      </c>
+      <c r="H225" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>20:06:16</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -12075,13 +12103,13 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dy_mj1UV4lwQ7kNvwE15QK0&amp;_nc_oc=Adn5byAGVjIUwmXfAlWFyYtRQZquf5NDLzbfZHObrt2LOTHkdKYUyA8a0RYxTR0iqXZG6aWchh6sQNK20N1wqgHC&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfaH1SiGvlHlAOc2Nd6t9qoGQigckYG7eDOm49Vs3rfNmA&amp;oe=68DC79BE', 'profileId': 'pfbid02aQNMMotwmCWs1whnPe1K9xehtrgLiTsF35PeS8YLqmyFkU8fF8jqz8w4gMiTaNpYl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -12095,16 +12123,30 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0</v>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Uff q rico</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>45908.07615740741</v>
+      </c>
+      <c r="H226" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>01:49:40</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -12115,13 +12157,13 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nBJu0L-67DYQ7kNvwH3q4xt&amp;_nc_oc=AdkoEwA6gDtsxsDR7duBVfC69aIwqJ-8eADGEKonPcN7pRNoemibzFATEGBg8e4L4RsqNdi_jHKp4SOQoDhYlZFl&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_Afa0Ykm9jTO1QI07rzBpOkJ5Be3eSvHpSke-7blsvS6ORQ&amp;oe=68DC7D39', 'profileId': 'pfbid0rqSrZiNH5R7Uyka1eAwjNnoyASQceKQ9bF9jUg3ZtjeWueeMp5ousTHMetgmmxVZl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -12135,7 +12177,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
+          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -12155,13 +12197,13 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -12175,7 +12217,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
+          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -12195,13 +12237,13 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -12215,30 +12257,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
+          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="n">
-        <v>45904.49738425926</v>
-      </c>
-      <c r="H229" s="3" t="n">
-        <v>45904</v>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>11:56:14</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -12249,13 +12277,13 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent.fric1-2.fna.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=97YniGpISUgQ7kNvwF_xAJs&amp;_nc_oc=AdkiutrQXCtfDlk7x33MIJk9otZXR1UCUrZ7brl48eAy1seXkbqBUokek5bvCT6WSY0&amp;_nc_zt=24&amp;_nc_ht=scontent.fric1-2.fna&amp;_nc_gid=A2lHz9lbvSFDK9k6FWznpw&amp;oh=00_AfZn3im8u79MyZxdb3O0PpYy3QSu8TX5Li__NHRSIyDPlQ&amp;oe=68FCD288', 'profileId': 'pfbid02iz3EoNDvM11a9gLTwH4r5UGBcHLsFaRJdkNGdxC6PCJZmftm9GMqJNgkCGaSsbCKl', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12269,7 +12297,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
+          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -12289,13 +12317,13 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12309,30 +12337,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Umm que delicia.... BENDICIONES</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="n">
-        <v>45905.03835648148</v>
-      </c>
-      <c r="H231" s="3" t="n">
-        <v>45905</v>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>00:55:14</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -12343,13 +12357,13 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S-Z8sYgdZUUQ7kNvwHNfpUH&amp;_nc_oc=Adm2uwxsEbqHHl7lGRgM0V8EZF7MVAjTMu7WecvFFeO2YNc3QlAVb9eEmDrOsDc4U1A8TfkLYEYpKcBhNKhzDqEz&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=sVOXK9BDyQUO264SvuhB8Q&amp;oh=00_AfbrXoxDV2LGf3NE6y3wEsZ4RCwuoe4-XAzzyFkiQelSyw&amp;oe=68DB26A8', 'profileId': 'pfbid02i9SW1wj7Nxpo8WP5ug7dZw6NES7evgU1aiHJnpV53scaiarjJNxHTg7vir61ioHkl', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12363,24 +12377,24 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Con agua 😲</t>
+          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
         </is>
       </c>
       <c r="G232" s="2" t="n">
-        <v>45904.83614583333</v>
+        <v>45904.49738425926</v>
       </c>
       <c r="H232" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>20:04:03</t>
+          <t>11:56:14</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12397,13 +12411,13 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/537806890_2151822881969954_7030349860004953967_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=074ZfnCRIosQ7kNvwEvaBrs&amp;_nc_oc=Adl5migeZTx9s59_bu6qepJIHYGNHWh83uVb3kEH-rTGWfupDYot--30obuzZNJfs3HmJAiJtACtMLxmckiGQCIY&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=sVOXK9BDyQUO264SvuhB8Q&amp;oh=00_AfZbOzdSonEWf55-SgTVhDu_pemO25AspdWXcGQ5OIGzAg&amp;oe=68DB4B59', 'profileId': 'pfbid0dGb3TVW6B1UmckQT8EVAFtiPRxD3eiASNmcywaXbYoqzvh6Eyer35roNjanvuwxol', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=97YniGpISUgQ7kNvwH8oF2v&amp;_nc_oc=Admg6XataHmC5oya2HetsP5ZbYbDVuYc5cyjg4EzQfUJGish5cY5GcxgLZ_Yf7tzaKmkAtzskgVcnbDseJLsSlyS&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=8DQun0bTMT9Cwt_C1k0YWg&amp;oh=00_AfYtxOYjrr470bKIgxpPkfGLfUFxgZ6YMOl-MyDP_3J7tg&amp;oe=68FE2408', 'profileId': 'pfbid02iz3EoNDvM11a9gLTwH4r5UGBcHLsFaRJdkNGdxC6PCJZmftm9GMqJNgkCGaSsbCKl', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12417,7 +12431,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
+          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -12437,13 +12451,13 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -12457,16 +12471,30 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>0</v>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Umm que delicia.... BENDICIONES</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>45905.03835648148</v>
+      </c>
+      <c r="H234" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>00:55:14</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -12477,13 +12505,13 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S-Z8sYgdZUUQ7kNvwGWa6Vd&amp;_nc_oc=AdnjumYoqCyoC8agUz6okugFKrEqLbiHcwJWtrvFBE6kblN253kKpY-bCDI3qwmd_a2Fb3cysUuMagZc55VUECpr&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=Humm-b1cYNg5dStdpzgQ7g&amp;oh=00_AfaHmXZV-UtbZ8_EJF6ErmycY-n1I2amwlWc2xDQcudSug&amp;oe=68DC7828', 'profileId': 'pfbid0e7qnY8XYi88xAopNEJKaPTE81ofJC6hz8vVK17wCsfGyFuBs9BHBqgNjFLpAyfnpl', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -12497,16 +12525,30 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>0</v>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Con agua 😲</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>45904.83614583333</v>
+      </c>
+      <c r="H235" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>20:04:03</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -12517,13 +12559,13 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/537806890_2151822881969954_7030349860004953967_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xv8y5gTKIoQ7kNvwFsFY5Q&amp;_nc_oc=AdnqC0HU2mY8UjWBZ21FAAfDhoRisK9YbkFr4oXYLeQwoXe1qyF62jJEd1XEUFU2JfKEzh0jKVpXrrhamXsdY4e7&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=Humm-b1cYNg5dStdpzgQ7g&amp;oh=00_AfZIH7VfqpSM4QKi8DxV0paIanwAY1DzdnxRJAoUUyFgLg&amp;oe=68DC6499', 'profileId': 'pfbid02h82keARv2XEMuoUPXd47mgu7vZ8mbgpvjZGWJRpg2nZSTqgrKgrw7JVY4n7UyeZyl', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -12537,7 +12579,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
+          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -12557,13 +12599,13 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -12577,7 +12619,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
+          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -12597,13 +12639,13 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -12617,7 +12659,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
+          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -12637,13 +12679,13 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -12657,7 +12699,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
+          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -12677,13 +12719,13 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -12697,7 +12739,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
+          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -12717,13 +12759,13 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -12737,30 +12779,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Gracias</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="n">
-        <v>45916.97883101852</v>
-      </c>
-      <c r="H241" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>23:29:31</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -12771,13 +12799,13 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-CyWm8n8cycQ7kNvwEXUb0B&amp;_nc_oc=AdlnlTnmr6jwztmSZpE9lG3vkdXDxtSfGV8n7O_Y00jh_-XWS6mZIdOtFfi8Q9dPvlUtEf_WhCDo3ax67TFP-RGJ&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=kt-KYu5v4NJLdzPW01q7fQ&amp;oh=00_AfZhpRh181Ye4TvjHtMlsDY7q6JmeMLm6RnraNaPri1xbw&amp;oe=68DB4F5C', 'profileId': 'pfbid02cbpM6KfwAso7arpCz64eq9JiEZeFawnJ1vaBSpXTuedz7K183MqmiB2iGwYEnCy8l', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -12791,7 +12819,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
+          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -12811,13 +12839,13 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -12831,7 +12859,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
+          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -12851,13 +12879,13 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -12871,16 +12899,30 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
+          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>0</v>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Gracias</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>45916.97883101852</v>
+      </c>
+      <c r="H244" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>23:29:31</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -12891,13 +12933,13 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-CyWm8n8cycQ7kNvwGd1HMV&amp;_nc_oc=AdliduxyG5VdUVE8FS-Q7ojRX4YFYGZ57Ohk-RZYg9vgjVThy8TdjV1ZvtdiVAuyqLA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=IW2X4Jv2SOYJQxXzA7HUZA&amp;oh=00_AfbolioqlzKo8XfkHpIqyo2BFZ8K4_9ujuf47tEf0isS0A&amp;oe=68DC689C', 'profileId': 'pfbid0Z4BABA3aKoF7xtDrNSyrBRLi3sQT1pyHaHXSHyehC3uM6Zieg2ffgqMH5XiHFonel', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -12911,7 +12953,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
+          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -12931,13 +12973,13 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -12951,7 +12993,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
+          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -12971,13 +13013,13 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -12991,7 +13033,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
+          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -13011,13 +13053,13 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -13031,7 +13073,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
+          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -13051,13 +13093,13 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -13071,7 +13113,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
+          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -13091,13 +13133,13 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -13111,7 +13153,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
+          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -13131,13 +13173,13 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -13151,7 +13193,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
+          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -13171,13 +13213,13 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -13191,7 +13233,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
+          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -13211,13 +13253,13 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -13231,7 +13273,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
+          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -13251,13 +13293,13 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -13271,7 +13313,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
+          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -13291,13 +13333,13 @@
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -13311,7 +13353,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
+          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -13331,17 +13373,17 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -13351,7 +13393,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
+          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -13368,24 +13410,20 @@
       <c r="L256" t="b">
         <v>0</v>
       </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -13395,7 +13433,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
+          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -13412,24 +13450,20 @@
       <c r="L257" t="b">
         <v>0</v>
       </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -13439,7 +13473,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59teFAGER/</t>
+          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -13456,20 +13490,16 @@
       <c r="L258" t="b">
         <v>0</v>
       </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -13483,7 +13513,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
+          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -13507,13 +13537,13 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -13527,7 +13557,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wfOjMs2/</t>
+          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -13551,13 +13581,13 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wfOjMs2/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -13571,7 +13601,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57o8vjFGo/</t>
+          <t>https://www.instagram.com/p/DN59teFAGER/</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -13595,13 +13625,13 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57o8vjFGo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -13615,7 +13645,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57pBUgFSK/</t>
+          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -13639,13 +13669,13 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57pBUgFSK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -13659,7 +13689,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_STUFZM-/</t>
+          <t>https://www.instagram.com/p/DN59wfOjMs2/</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -13683,13 +13713,13 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_STUFZM-/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wfOjMs2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -13703,7 +13733,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tq0j1Ph/</t>
+          <t>https://www.instagram.com/p/DN57o8vjFGo/</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -13727,13 +13757,13 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tq0j1Ph/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57o8vjFGo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -13747,7 +13777,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tsyAFZ7/</t>
+          <t>https://www.instagram.com/p/DN57pBUgFSK/</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -13771,13 +13801,13 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tsyAFZ7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57pBUgFSK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -13791,7 +13821,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_PjRjI2R/</t>
+          <t>https://www.instagram.com/p/DN5_STUFZM-/</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -13815,13 +13845,13 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_PjRjI2R/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_STUFZM-/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -13835,7 +13865,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_RL7DxSB/</t>
+          <t>https://www.instagram.com/p/DN59tq0j1Ph/</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -13859,13 +13889,13 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_RL7DxSB/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tq0j1Ph/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -13879,7 +13909,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_S8hDx4V/</t>
+          <t>https://www.instagram.com/p/DN59tsyAFZ7/</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -13903,13 +13933,13 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_S8hDx4V/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tsyAFZ7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -13923,7 +13953,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59sU1DANX/</t>
+          <t>https://www.instagram.com/p/DN5_PjRjI2R/</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -13947,13 +13977,13 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59sU1DANX/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_PjRjI2R/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -13967,7 +13997,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P4RjDXp/</t>
+          <t>https://www.instagram.com/p/DN5_RL7DxSB/</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -13991,13 +14021,13 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P4RjDXp/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_RL7DxSB/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -14011,7 +14041,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rvEjAd3/</t>
+          <t>https://www.instagram.com/p/DN5_S8hDx4V/</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -14035,13 +14065,13 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rvEjAd3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_S8hDx4V/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -14055,7 +14085,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_Pt-gLSZ/</t>
+          <t>https://www.instagram.com/p/DN59sU1DANX/</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -14079,13 +14109,13 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_Pt-gLSZ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59sU1DANX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -14099,7 +14129,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P3ljOET/</t>
+          <t>https://www.instagram.com/p/DN5_P4RjDXp/</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -14123,13 +14153,13 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P3ljOET/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P4RjDXp/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -14143,7 +14173,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wdzjdKJ/</t>
+          <t>https://www.instagram.com/p/DN57rvEjAd3/</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -14167,13 +14197,13 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wdzjdKJ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rvEjAd3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -14187,7 +14217,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59xBtjADu/</t>
+          <t>https://www.instagram.com/p/DN5_Pt-gLSZ/</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -14211,13 +14241,13 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59xBtjADu/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_Pt-gLSZ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -14231,7 +14261,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rWvjPIN/</t>
+          <t>https://www.instagram.com/p/DN5_P3ljOET/</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -14255,13 +14285,13 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rWvjPIN/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P3ljOET/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -14275,7 +14305,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59xRNDHUE/</t>
+          <t>https://www.instagram.com/p/DN59wdzjdKJ/</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -14299,13 +14329,13 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59xRNDHUE/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wdzjdKJ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -14319,7 +14349,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57ru6DMwD/</t>
+          <t>https://www.instagram.com/p/DN59xBtjADu/</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -14343,13 +14373,13 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57ru6DMwD/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59xBtjADu/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -14363,7 +14393,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN596MUj3av/</t>
+          <t>https://www.instagram.com/p/DN57rWvjPIN/</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -14387,13 +14417,13 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN596MUj3av/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rWvjPIN/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -14407,7 +14437,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_StEAAQh/</t>
+          <t>https://www.instagram.com/p/DN59xRNDHUE/</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -14431,13 +14461,13 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_StEAAQh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59xRNDHUE/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -14451,7 +14481,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57ojQAEEg/</t>
+          <t>https://www.instagram.com/p/DN57ru6DMwD/</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -14475,13 +14505,13 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57ojQAEEg/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57ru6DMwD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -14495,7 +14525,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wEujyAe/</t>
+          <t>https://www.instagram.com/p/DN596MUj3av/</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -14519,13 +14549,13 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wEujyAe/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN596MUj3av/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -14539,7 +14569,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rD8DEKT/</t>
+          <t>https://www.instagram.com/p/DN5_StEAAQh/</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -14563,13 +14593,13 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rD8DEKT/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_StEAAQh/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -14583,7 +14613,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_RuSgNdP/</t>
+          <t>https://www.instagram.com/p/DN57ojQAEEg/</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -14607,13 +14637,13 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_RuSgNdP/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57ojQAEEg/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -14627,7 +14657,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wgZjE3H/</t>
+          <t>https://www.instagram.com/p/DN59wEujyAe/</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -14651,13 +14681,13 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wgZjE3H/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wEujyAe/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -14671,7 +14701,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_Qt7ALPO/</t>
+          <t>https://www.instagram.com/p/DN57rD8DEKT/</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -14695,13 +14725,13 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_Qt7ALPO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rD8DEKT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -14715,7 +14745,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_QZCgPIS/</t>
+          <t>https://www.instagram.com/p/DN5_RuSgNdP/</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -14739,13 +14769,13 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_QZCgPIS/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_RuSgNdP/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -14759,7 +14789,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57qGFj2R1/</t>
+          <t>https://www.instagram.com/p/DN59wgZjE3H/</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -14783,13 +14813,13 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57qGFj2R1/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wgZjE3H/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -14803,7 +14833,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59yVXgMYH/</t>
+          <t>https://www.instagram.com/p/DN5_Qt7ALPO/</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -14827,13 +14857,13 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59yVXgMYH/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_Qt7ALPO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -14847,7 +14877,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rF5EYlO/</t>
+          <t>https://www.instagram.com/p/DN5_QZCgPIS/</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -14871,13 +14901,13 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rF5EYlO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_QZCgPIS/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -14891,7 +14921,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57qXtDMzI/</t>
+          <t>https://www.instagram.com/p/DN57qGFj2R1/</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -14915,13 +14945,13 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57qXtDMzI/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57qGFj2R1/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -14935,7 +14965,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdr3gMwG/</t>
+          <t>https://www.instagram.com/p/DN59yVXgMYH/</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -14959,13 +14989,13 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdr3gMwG/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59yVXgMYH/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -14979,7 +15009,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdvAgIxV/</t>
+          <t>https://www.instagram.com/p/DN57rF5EYlO/</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -15003,13 +15033,13 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdvAgIxV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rF5EYlO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -15023,7 +15053,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjda3AET_/</t>
+          <t>https://www.instagram.com/p/DN57qXtDMzI/</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -15047,13 +15077,13 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjda3AET_/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57qXtDMzI/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -15067,7 +15097,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjd5igBtb/</t>
+          <t>https://www.instagram.com/p/DOYjdr3gMwG/</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -15091,13 +15121,13 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjd5igBtb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdr3gMwG/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -15111,7 +15141,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdsPgNIQ/</t>
+          <t>https://www.instagram.com/p/DOYjdvAgIxV/</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -15135,13 +15165,13 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdsPgNIQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdvAgIxV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -15155,7 +15185,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjeCiAOsO/</t>
+          <t>https://www.instagram.com/p/DOYjda3AET_/</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -15179,13 +15209,13 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjeCiAOsO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjda3AET_/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -15199,7 +15229,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdt_gLRQ/</t>
+          <t>https://www.instagram.com/p/DOYjd5igBtb/</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -15223,13 +15253,13 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdt_gLRQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjd5igBtb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -15243,7 +15273,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcncgOUZ/</t>
+          <t>https://www.instagram.com/p/DOYjdsPgNIQ/</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -15267,13 +15297,13 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcncgOUZ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdsPgNIQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -15287,7 +15317,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdLYAJr9/</t>
+          <t>https://www.instagram.com/p/DOYjeCiAOsO/</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -15311,13 +15341,13 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdLYAJr9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjeCiAOsO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -15331,7 +15361,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcsmgISX/</t>
+          <t>https://www.instagram.com/p/DOYjdt_gLRQ/</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -15355,13 +15385,13 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcsmgISX/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdt_gLRQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -15375,7 +15405,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcmUALj3/</t>
+          <t>https://www.instagram.com/p/DOYjcncgOUZ/</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -15399,13 +15429,13 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcmUALj3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcncgOUZ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -15419,7 +15449,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjczjAM7v/</t>
+          <t>https://www.instagram.com/p/DOYjdLYAJr9/</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -15443,7 +15473,139 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjczjAM7v/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdLYAJr9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>144</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOYjcsmgISX/</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="b">
+        <v>0</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcsmgISX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>145</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOYjcmUALj3/</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="b">
+        <v>0</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcmUALj3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>146</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOYjczjAM7v/</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="b">
+        <v>0</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOYjczjAM7v/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -16853,11 +17015,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11020001000000000000000001002000000</t>
+          <t>12020001000000000000000000001002000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N306"/>
+  <dimension ref="A1:N308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf2ede4e&amp;x-expires=1758978000&amp;x-signature=1OyqOLviQ6GHqVCJvz10yF%2FZtuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c674cf10&amp;x-expires=1759064400&amp;x-signature=O2b3Rv0P%2F80FEMDVkxrRbgkmuxs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb97406b&amp;x-expires=1758978000&amp;x-signature=2MEit6bHexTnysJcdNeOspqg0sk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a3405a1&amp;x-expires=1759064400&amp;x-signature=%2B6M49FMZjqrdVeuTPHA%2Fg%2BetMfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5e1a7c43&amp;x-expires=1758978000&amp;x-signature=j6YweD2oPw9RPy%2FtfWNcF0vvHmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c4691b6&amp;x-expires=1759064400&amp;x-signature=UJ0imsEDtoN5ll1kKgQR3wDdOSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=aea636ac&amp;x-expires=1758978000&amp;x-signature=b6JqUYAPsWcQyBYCqLwMZhctsLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8194705&amp;x-expires=1759064400&amp;x-signature=J0GocgaArTaeoEiOrW4JNGh8zf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ba524873&amp;x-expires=1758978000&amp;x-signature=8f44Q2NG8yuG%2Bomu3V2nVWqz%2Bu8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ea2e365&amp;x-expires=1759064400&amp;x-signature=HTurmSjobnPnMUr4%2FTVsWfzqQxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=139bcce3&amp;x-expires=1758978000&amp;x-signature=qC0NOMCi3l4m8wl4v0zvMOx7Ibw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1d9b12a&amp;x-expires=1759064400&amp;x-signature=a5Qp2oSOYgw00e548AHXHT19tC4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75143f4e&amp;x-expires=1758978000&amp;x-signature=V6KUTz1miLcgKNIYFDY5CJUl7ig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12d8c0bf&amp;x-expires=1759064400&amp;x-signature=1oegmd5ALsxJyTGuytvDt25KYFs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5766d22b&amp;x-expires=1758978000&amp;x-signature=ZXfQ2Yg0ojLiX4lSqm2oUR9zIn8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f721591&amp;x-expires=1759064400&amp;x-signature=wFnmKfehAJhBgcxJsgPF1mg%2FhZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=931969c2&amp;x-expires=1758978000&amp;x-signature=n%2BfdTQRf%2BXzwRx9MB8vXJdjwrQY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=514e2c0e&amp;x-expires=1759064400&amp;x-signature=mgTatbla6aDp%2BV%2F9YG3d8jEJBZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,18 +1039,18 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>si panela con sal</t>
+          <t>Amo la arena boyacence 🤤🤤🤤</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45906.07712962963</v>
+        <v>45914.81377314815</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45906</v>
+        <v>45914</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>01:51:04</t>
+          <t>19:31:50</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba44616f&amp;x-expires=1758978000&amp;x-signature=eDNVnLy2F7UKEbAX8tMXZ62%2BnW0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5acdc686&amp;x-expires=1759064400&amp;x-signature=lpqs3Q6Ow6ipX9mI1YKcVhyS9UE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,18 +1095,18 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Amo la arena boyacence 🤤🤤🤤</t>
+          <t>si panela con sal</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45914.81377314815</v>
+        <v>45906.07712962963</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45914</v>
+        <v>45906</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19:31:50</t>
+          <t>01:51:04</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99750ff9&amp;x-expires=1758978000&amp;x-signature=OyViArtQSRGbuFsOlIi97kSkK88%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61f8a1fd&amp;x-expires=1759064400&amp;x-signature=p%2Fcswm1AIuYabOjMrQTzi7%2F1SLY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f711dbc6&amp;x-expires=1758978000&amp;x-signature=wqdLLeHw09OV1UwF8DPDB7%2BqJjw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=738e5c7f&amp;x-expires=1759064400&amp;x-signature=FEhVBc3Pb8jtDE5patJmUtOfQcU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l/', 'profilePicture': 'https://scontent.fwbw1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEzJtyO&amp;_nc_oc=AdnYjp2Vo74Be6sXdiiyVDox_-Ede_vLnb4SbzB7x4wnGyOD20UjCODchy_cEtz7TFo&amp;_nc_zt=24&amp;_nc_ht=scontent.fwbw1-1.fna&amp;oh=00_AfaKyvYPAmL64AAdbnRnDJzS7nysrhGiVWvQD9_xTDCwBA&amp;oe=68FE19FA', 'profileId': 'pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHhMp86&amp;_nc_oc=AdmWWmeo_zDyJMkMHBppkbaGRQPU5yG-N_tZSojQkPyfJ-KfedukRVrHTgggBZeI8jo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfYiNTqNXV5iGKw3Q_cDgFbzA24QINZdLqbuEFzTlBj9Tg&amp;oe=68FF6B7A', 'profileId': 'pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHvbyGv&amp;_nc_oc=Admj4e_XT0j5tJAH5CnlpfcmmHwzIa52ZkZLVWm9Bvx76Wamc6g2OkOQR-TH3Ft2O_4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afbkgzk_pis36UL7AHb5BZueQFZ5DvBG2Rru_U4kowfYow&amp;oe=68FE19FA', 'profileId': 'pfbid035v8PSRcT2cx7DTQW5TfhyjyGME9NDR2s8qAVDYConCm8jxBr731AjxSqw3eoEyVrl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwGAtetU&amp;_nc_oc=AdlBbI1mS9p0kypS7iAr3Wyn_jokhK2PgnqOODQBT6eOWKVTaImqQ4VSIPklmC88mN8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfZTbsM6DDtfQhcy_6_Xzb3WkKfU8qRr8q-AjA3GERU9qg&amp;oe=68FF6B7A', 'profileId': 'pfbid021tXfxcQtMcJy7swsfpM9PQGfXQgeph5cyK7cxLesNArMzxGjvHFjoobmJZHxwecjl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwF8pswq&amp;_nc_oc=AdlV3B1jnLmQyiyj_XHjLnFSaO1d3X-uwaMGd-SIuEGcs9m0FHOJSHsbPSMyiq14IMw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfaujyCyLES8d0RECig698HtyH7ep89ICU-kO7xTrt1djg&amp;oe=68DC6AC7', 'profileId': 'pfbid0D3pQSaM4ZFzZJV57H11MnPpkxB5rxiHihvCLSPpk8wRR1F882woS6gioYXVDFMHEl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwEi8zaz&amp;_nc_oc=Adk2UOI64TySOPJcnUYgA_ZZo-gHG8PeyKE_OuI-5EMhFD-rQP-h38oJLM_yi8-32dA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfZiF8K1-p2S94GJDeKGt_0MOvcSbOlK2nWWFFBapdgBTg&amp;oe=68DDBC47', 'profileId': 'pfbid02GRJb4bhgapZoYmU5xVs3VcXVVnD3H2LE5H95ZyRLfidrHTRTDRG9bQGMKpxVTHDol', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwFeOrj6&amp;_nc_oc=Adm9XMpOc25TbqeWBWyLrVOo3isGOLLL3qh_xNt6M4GKGXvNYyD5wtMG5P5zmnJUqvU&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfYXUOPRswTUpzDhVLvl1ADmgqPc6ETyJde5FcKd-EsbGg&amp;oe=68DC6CD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwFmvG01&amp;_nc_oc=AdksazDh9jRRdpb8PdR5TG_Kfd5W6HNns47tFXz_ncTsGqvVOM9066TuWS8T6BP0p8E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_Afa4XkU9Q9fKUihxhzhQEn_ksG6uPOgpSDaJ2W1cDZ-reg&amp;oe=68DC77E2', 'profileId': 'pfbid02c4FntzCAiHqpfhS9TU7GYbQLFiQmFJJWm7FEhKa51mM9APQvrGyEfRyUU8WTFT15l', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwHtN9No&amp;_nc_oc=AdmlJMRASC8ApRm5u26-nPUO3W4TEeJEtgI_FG9EGIEITfGdmIwJiCZ5DCdgW7ssrXw&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfbGqCQOs17X3RLUEHCuSiw6Wva-cUrR-nLD46-Zlf5wyg&amp;oe=68DDBE53', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEwDPnP&amp;_nc_oc=AdnplQVrCCMRdfbqiVhESr3dmNMo7p3-WOtL8ncEsOe5r02-qdQCuHG4IctUXHhSAqE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfZhco092lkWqupnayh68L7ILWQpWEfJw-yYa4bSoPWs5g&amp;oe=68DDC962', 'profileId': 'pfbid0YWcbypZos2ruJHCUg7dTUsKZE5yQBKggGvd83DUXF53E3hy4WvMCGrPySMex3KzTl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwGMUJFK&amp;_nc_oc=Adkcu_PyCoP6Mgk26NyEgpMUxdd_KHSl4aUWVGPuwjwU3J_MRtiNL3bD3vaK_Au2HFY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xnLvU9a05fOkCg6v9TXK0Q&amp;oh=00_AfbU0zdeTJTdThNyaYYePLJpzQO6lwqwoXZMem-guWDE3Q&amp;oe=68DC5DD9', 'profileId': 'pfbid0WQBvzAEFV3BaZRbHKfeDckNfKsYT4pHS9iGKsYhhZ2S9WtssHckSh8Mc3Ksp8mFJl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwFPzdAs&amp;_nc_oc=AdmonyoIB_6WiW0og83mmpAa_Obu88077bjOSVafePav8hHkFZD7pDH2Ed6gr5fU39c&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfYdd4cImYeoL6Vkt_b9ZnrneUbF4rPEcoCasrN0GI-dDg&amp;oe=68DDAF59', 'profileId': 'pfbid02Zmg7cBasWWZan1zCxNUX1c3d9NzFaSJwEVaSgsW1w65Tjr9PE7Q6HeckRSrtECVFl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwEwuYBz&amp;_nc_oc=AdmEdhIunz7H32a8M778oYJGv-E5dQ_2RE-22-wsCvilj8eM6JkSyOdcr7mTyIX8Ttw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYoqQxZu80bMsqewl1KCU_sz15LfshThwBewLENeSf27w&amp;oe=68DC559B', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwGzoEDI&amp;_nc_oc=Adki6AH8w5k_x2gMhpjPIbCFJCvFvIEQXrFr0rsCyf1yOWF44Rz0XUZlKciuoMmiojc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZmZGyATIVF33gr9wAKgbdvKsCrPqu7KVeyDnwUTsjw5w&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwGsMuyf&amp;_nc_oc=Adni9Sm_-mGkGW24kdbU2ICqGbLbtV8C96iY1hyJiUxHy3lzFvNZUfnjBTmp-zq0gL8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfbwliBwACcv08URL_kiMEjTVHPrjaquKpmaDbi9Edt4GQ&amp;oe=68DC729B', 'profileId': 'pfbid0qpukpKUBK18cvHDHwsDGh4qZGTZduCVmkWBYctxP66fjrMX2FDhmKsS7NsGTRGhkl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwHoCoLs&amp;_nc_oc=AdmylAE_uEwhpYvZGfgMmPzyDVQkeqyM3yf59h98WwC-fqG6zTz_Itseuyw5L8xwFk8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZx26AETVnONvNBovDvzcUmQq8AouacPJ23uDA5ymybFw&amp;oe=68DDC41B', 'profileId': 'pfbid02ugMTzzQ1AMEyzB1RUNohW9J7CpSk69mC78PcvkwdxVWZCpD61wTt5iU1fYE6hWyGl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwG7p-Vj&amp;_nc_oc=Adlc4Ix-Of-IjXFCWQHf_3KSmjWNdDMSqN-3FR65ZNCAX-o1pBOxIwpOg-gWlbt4pnA&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_Afbr1IscvlZ6kkPIN_bvNrDg-2FMr2-3bBDMVVZx9Or6yg&amp;oe=68DC57CA', 'profileId': 'pfbid02fb2NDkgVZgMKGik1BDkxWxM4Xkfbfsd1e5KgTVe3LYBi9LftVGgNpyUTJUFZ3QXNl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwH7SUn-&amp;_nc_oc=Admb2J5Y82QBxNzWuyN8nF_tfnPF1rzlLkmbNtldS_caS2KNJvlCgvvir_ekS0FdeBI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbhxCVGLpOpptve3DV5Op9JXFZMwETGvg9GYgZNKGtgcw&amp;oe=68DDA94A', 'profileId': 'pfbid0c3PBJb48iTcMd4niKG7oCKxa7358nEdZQMnpWKRLM1Gox5uMst8SJSqHT2iwkzHul', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwHeHuyJ&amp;_nc_oc=Adm6gDbUNd-CCiNTEk9JR5wxcqqGe4FayatlbwVRKNeQPZ2nFKdeGSiSOCxfNU1_PzE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_Afay5Ou8m6wpN4QckwOe0yqeEyNd07-ETQq7OzJ11HyNNg&amp;oe=68DC64BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwEkTC6a&amp;_nc_oc=AdnCeL0_jJfvdthfAvbjka6HmbiG66FzD1M--EXXMyu4u5D8C_RgH1sNY1ns90VfTNE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZ5VPIvBzkbUzx8-cR5X8IOTi7SQXdSm7n1xhQISi1x9Q&amp;oe=68DDB63C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwHoWvSJ&amp;_nc_oc=Adl2GmhseGVtj1tM6LgHT-bEmC1hu4N5r4p6xuJ_kFitV3gugxUuwE71U_fJv1OGn3o&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZJjt17DEuVvCVLDKYnyon2BFlL1C5oc8ewrGKBCPDR1g&amp;oe=68DC859B', 'profileId': 'pfbid02Lt8asgnSyxKjTkMqPCdY9SP7S6GgXpgtW3CP3hFM9agjhNtczesXsaQj1Y2Ue2zXl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwGQaQkP&amp;_nc_oc=AdnGus-2BUfEXf7FENjf14Zjgx0pWLNz82aK4QHyhEW8zFu2opot3aWjPVWROhA8-04&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfamTo9E-66RRjulujlpP7y-X0GJJhtfuVV8gccTFCPlEg&amp;oe=68DD9EDB', 'profileId': 'pfbid0HLVPxXA68fYT2jY9WPzdU7snjH2fEhaGpdWvLFzVBicpfVPjYiSmsVNv51qtbwUfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwGuCXjQ&amp;_nc_oc=AdnJI9p2dnZPVe_61tLor6VwyhoM4s2Kpxrym5HLKvzQGgScxK-vgG_HUJmtfM7ywd0&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYZ2jufbipj4cwAvvzXf8XDUsRJSPHTZXxxErjfrkL3WA&amp;oe=68DC7ADF', 'profileId': 'pfbid04iLxmN8nfRBVaxCvs8M1nQbNuvnAPDyDrLurA3mzW2cQnyZV1yJrzpmhxcKAiEhjl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwGH4UBC&amp;_nc_oc=AdlDWGe8M37bz1Xk-vWLiZYL797GveDef4hUyRZJgKRbv3Bphxk9zRzco-uv2JBCGjc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbP6TpRqPZamoonZilVMd0hvzKysK2OjCdf6EaR4AUxwg&amp;oe=68DDCC5F', 'profileId': 'pfbid0285q9PPVQhDbkSZyEqa8LcoZv3wFEVqbrNQU7yNw23EW9rZHBy5RosQ3Nd91MpDr4l', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwGf3byP&amp;_nc_oc=AdnTQT2SLITgZv-7WQT7nfrm8r2t1ZeXOEqRaSD52vluWBehGH-OJ9_Jf3Hy5XjcAEc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYzfGuvArxJ6eHlkhw-52siWxAMWjpeGE-SxsJ7w6-gNg&amp;oe=68DC5B0B', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwEGfG2w&amp;_nc_oc=AdkTHlpUrLEWMIrFYIVCnMsfL3V_CwYQIkldVVnDU0F-fPcRzyXXIZZ5g0P3veAKx0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZdXQ3YWq2OrvJNFhpE4Gqyo-wokfU0m_RlwD6cMXKB4w&amp;oe=68DDAC8B', 'profileId': 'pfbid02PpAuuEuYTD9GrzHdKTswovETijDh5nu6TSeyJ9fQhdga8Nv3ju5HkEaH3f1bPQK6l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwFd1vcQ&amp;_nc_oc=Adkatm-oMykDFPc7CNttgUQBqb_pR7kfo5KqK5AIG9TScb-Td4pT8U_qXadN6TVdgB4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZrFcl-XFgOFcT-lUYxPAfO2YLloiSowv9qc4V0U__nxg&amp;oe=68FE1987', 'profileId': 'pfbid025yjUYLRB6ezaU4rzcUkh8kfA6e63UDbrbnVuY4BmGVnth2fnxtWEbvZuyzmv7iThl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwGwS4W1&amp;_nc_oc=Adn2QpWdSVkFso9QLso5KwyWltJirjGw3Sd-jTkEoZkTpYDbvCo6MFm7eCev8tA1Ib0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbbzCkEQXhcTg4Znj-rUYRpC8yZwyyI3TfGyf-_mheA8A&amp;oe=68FF6B07', 'profileId': 'pfbid02S6HdAnpFJSoA2VScfNwyYTXP14SMecqRbkujDKZ9fvZBZc4JaSeoxQ4T9fVuxftl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwErt4-G&amp;_nc_oc=Adm6o1Hv9x2oaag8x8ejMOH0up00cQz4p_xS0InmtdNDnqwui6BEEHjTCXntw6yKA2Y&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfYVez771qXZ4VEKBIOuG1G0C3xvGjBOqdY-0iBfX27XKg&amp;oe=68DC70B7', 'profileId': 'pfbid02SV2nid7xt7HM79z7yzYABHahvUBPbvMBCAUN4CcrzZrTYFAH2C3EGmUE5JASdf8sl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwGq3Wag&amp;_nc_oc=Adlynz-zcC2nT4SDC1FeSohOv_-5iQV09c6Yh6ykNkR3Ii-_lXUP_gTRCNg_VO0_ioE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_Afb5ZLZLFKU7EHkJ3GJHTYPORsmqhevZ-3o4GIoq7Heydw&amp;oe=68DDC237', 'profileId': 'pfbid0NwPboTVc2t6yWV1ioUUWyhmPmuo6tA1wrsNmEhkcWeSdspvqfZGMACKTky5s4r9Jl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_5jqvtP7aRIQ7kNvwFYlg8A&amp;_nc_oc=AdnUN-DCWshTfrGiKtU9plsaDPtsjri3eBz_1IfGjlKUQojBk4oq7VOKHKcXKVL25Fk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=AxFAi1Uuu3WhrPtBLoFHIA&amp;oh=00_AfZTaZm3-qZG2SmCATUg1aBk92Buj46N5vp0bAQo3GmB8w&amp;oe=68FE12F0', 'profileId': 'pfbid02DbGbDiozVmVopXJt8b712FHopiMpFao8pir54cK38QjTiTVYVWdRbbh5XPNf72bol', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwF89Fhq&amp;_nc_oc=AdnD39Qom6Cv1QcTo-W7GPXJKR-kkGwlSpqoWUkiW7riWfgOzWyKf3BmueSd2lPLmGM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfYj416hXhs1zNa2OXMaLXkiFQb1HcLt1TtqsVWI189JBg&amp;oe=68FF6470', 'profileId': 'pfbid0A3dQJZBdeUnt25AGP4nMFz6PyEZNEjVJymu5gGeA4WmQq6n8qDTo5m1goPujaHPul', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwFtmlvG&amp;_nc_oc=AdkdB-ecls2Z6wZp8rtdL7QHGGLcqwFF-tynKuXG5CYhVjUlxPKjqg9oiclL1Vr6U7E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=qnaSBIX_byBANyHV9xK_Ew&amp;oh=00_AfaC3hpAgxFRT6ipCQuiBun1JpZb9WtvQfzhwByueDn_QQ&amp;oe=68FE02CA', 'profileId': 'pfbid0swt2RHfJpN1FTK7XBasR7J1Z85YiuWgPrAYpXpJdZe957VzTo2zeQvViYnwcF7qAl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwGuhsQQ&amp;_nc_oc=AdmMfGJw_gdtWLH-O9KoUnCsFVZOV4T5MAWqXuyhpQwUxm7Lwal8IrI_2APynce0vc36QbvNrgWGcXHgAZb6Y2RA&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=nfjvuvE0hMrDMlxwZ2lvyA&amp;oh=00_AfaMOKHLK9m5HNKf0knt4kMkyYB6yDhKJRT9pcMAYUSO0A&amp;oe=68FF544A', 'profileId': 'pfbid02wKND3K1vqwZdSAvzecw8RSWH5EUUDt8Z3Wb34AnwZhUMV1giPdyh4XEndgqbwVKXl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwFyhkbG&amp;_nc_oc=Adk2oIoW9YQ1dI4ioWmpn8eDsAdnOqNcQ1V5VSa_kAxWoEb043Ff3caMZyZT08oiRrs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=qnaSBIX_byBANyHV9xK_Ew&amp;oh=00_AfadLBGaLirv71HISQLB2WdLfV76HYKMDKMDIl7L9p2Efw&amp;oe=68DC7E2C', 'profileId': 'pfbid02JtazS2dnvndbpxEXGakrYV7ES7eiM8rDnu7KqNpF659gFUqRGfLdVpDZSKAHBgrNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwG5PWjd&amp;_nc_oc=AdmZpoSVtyCKLJfkFgB9cvCP7l7gh-bFUObAAEy6i5n4rICEkoqgaCWrn3aKVA5Sna96QrKa-Pq-d1wGnxpXcEaf&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=nfjvuvE0hMrDMlxwZ2lvyA&amp;oh=00_AfafitZJtpknch53qftoZ31tM8IgkKF9xlCTl1oPOuH9Yg&amp;oe=68DDCFAC', 'profileId': 'pfbid0FLwoWs1S5WTAyBVL2gbxL2H4Zz6szJPfvEDPxK12hmmaeACeioX91QRN2VPWt8Uyl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwFW1K48&amp;_nc_oc=AdnbgPkBpXOG8hIpy47pjxXVBS4i2XTKMlqg9Iau1B4Vc5zuM3_kN_AjcsQHcMkZ-pk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaCvyracW8ifKdiLhzUjVmPO5K63ihwZkG9VE9qL2XcCA&amp;oe=68DC6020', 'profileId': 'pfbid02rrY8vX1rvo6ZGTNfa3RyFEaps1EEemEFFXxMdQRZWZ7hii1D8FhbvYo7kV4UYJzTl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwEuUwAN&amp;_nc_oc=AdmsuZNC76sCdgHwk8ZAQ_pIG7syhZrRRqEvi34aUjR_otppyxPRB8akQax86SdYuRo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfZD5P-aVQZbXJTulS-dQPtheNbbp0Q0cwbfGo0r7TJbMg&amp;oe=68DDB1A0', 'profileId': 'pfbid0npwRShpJFrxosMy4DBHwcg1C483SGSJ4ym4mTb1hm3y1Y9PxxMSWx48USC43Aqckl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwHpGFu-&amp;_nc_oc=AdnDEUmDWqMghsl2omLzSDZjd37Dk_KvQzupXGUhdvSCPe8LeqWUpVn3fu7bVX_aKok&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaH_Mr8SqC7jKcRNBqU9aveYhAgVZx398OtakC9fCrbLQ&amp;oe=68DC7491', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwH6sP8I&amp;_nc_oc=AdlBJrR82bvpvaZnh_hjXnelHna1SNaSPoAZVjeTeOTTOLVXN2yo0HBAOrwLonkK6wc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfYtnLYPNrswJq2X9gmhV3nvgYCFD1Nnl1MCiEgbTV2EjQ&amp;oe=68DDC611', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwF-sD7D&amp;_nc_oc=Adm6UlAJ5iy2V0MgSZrGh4w9Wp7EWno5lPYl_qr5MSjAJp4QsYI7ZlyI1TWRJchXQW8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfYTVMkAzUSeNjEw4h2d-Nm-XuQv2CV-38gMPjW7Vpm8mw&amp;oe=68DC7860', 'profileId': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwEo8IeZ&amp;_nc_oc=AdkFXoopGW2ZH7rXwXsDIrYbZZXw18OUf1Ud0x5OkKl5lW0jdrw8VQk00z5lF6L1ees&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfbLz7C0busTrYJXdvp5hGdGDuKtr5_eIyrwL-Nn3dJ8ag&amp;oe=68FE05D5', 'profileId': 'pfbid02QER6tETWYw5BLHR5JVG3sXE3DgKwJiSZ1BmLKqRUhzWYYswPck73349r6dWxT75Gl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwHf7h9U&amp;_nc_oc=AdmVriAfzDML0bIlnD2y-yaWhSnHzANZ3Yqy8WeeM784IAPXX6MHdoLp79u9b8HxjUg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfaH3MuL7UE-zMBhh8VI7AOua1YE0L5KeEx1pbtAmeIzmg&amp;oe=68DDC9E0', 'profileId': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwE2o9Lq&amp;_nc_oc=Adnnec4JeXVqtITfgfR_AsL2HDSZ4xOlhDq0A8RAU3tBDdmCLUSLxF5HdRoi7H6ot5Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfYDvMgT22fEKrkuKqIUngCDaRW_sjRqjfgxPNcNjC6gmw&amp;oe=68FF5755', 'profileId': 'pfbid0Lgmuy4q9hp3m9DmMiYphFD2SrSwkb6h7Z2tUSgKgbUFrPAeE94upa8hpdDWZXcTCl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwFh24bb&amp;_nc_oc=AdmxKO_gfqmq_pQFW_x9msNuLzI7fiPUe1DyGwD0eoTg8FbIAVsTPttnlz_hZZ4aa50&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfaMyjPO4Jd93W2hK0O8dUzO9lA5Z3cDqYfwbyvZ_jFpGQ&amp;oe=68DC8767', 'profileId': 'pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwEETunj&amp;_nc_oc=AdlCEZ2cdZ4yyCvVjakIQ7DeQT6DR6_2C2duep2EsDPHkz7pYuxFii8-FFYOV9Ck6JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfafMmwEPh4U-dWN4RDD7ZtAWqZZLn8AGDeMBQltXEq2SQ&amp;oe=68DDA0A7', 'profileId': 'pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwF7_lOs&amp;_nc_oc=AdmLohBDMOm63MjxY3Q-exks7-hvToveMpEHpq98BQ54fvfH5fHPJNcbeXibYggHmtc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=EUgMiD9pqNOdqoCj6FlPeg&amp;oh=00_AfZWx9fbxFyOqqi9s3TmzfxoN_ZQ-_S4NKUv2Z9wWi4wuA&amp;oe=68DC64ED', 'profileId': 'pfbid02jTLnW2uaSKqZXmmRpLmbCyLkS4vY22QsYmaR1VNtdDrrtSA44GdJ62S2ykx4KXMKl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwEGBvZJ&amp;_nc_oc=AdmbcVYPXjy9O-LDNbYS69e8Fh9ApKi05yb4PR2GJDti4eACELUFb2Im-nvDYpFC0OI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_Afa_J3ctlcj6XJXzgm2BXAcKxNpRuAkEN9fQXfJvpgkSOg&amp;oe=68DDB66D', 'profileId': 'pfbid0fuhbasHDazgnbm1s8tCXg3fwG5a5n7PdXnnfhnLi5YsLDiTxCVDgaCwM221zVUW9l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl/', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwEzWlvD&amp;_nc_oc=AdlYJStON5yZF5BXE9b3j8NoDnjtRKvdVtsAtMGmUbIaRVGzzKxPVZakJ9InSO1YJF8&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYPbfsHjUFH0DgJ_8ZQ5OoxRqwpkzVHCrUt-AbkW3SHlw&amp;oe=68DC66E6', 'profileId': 'pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwEQFmQb&amp;_nc_oc=Adk3P-C64UJDeSEdM4qmhraVwkbR1f-67ongW7VSvjWBlAevWNYExLvBqrFDwcwr3T8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_Afa0m9b1uu9sWACGE2-MvVbeufzAjrVv8PdYRuezt6gnVg&amp;oe=68DDB866', 'profileId': 'pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwGd-2tv&amp;_nc_oc=AdmC21DdwikACa3dC0uD6qGVkMlWj_ETQBB16WAtL2zGb-ty55GyM1RfZTLLy4OeiYE&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_Afa5IqoNvYMrmuLP5Q8ht1n13BobAqW5x7laQOkp3N2EkA&amp;oe=68DC60CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwHoCV8m&amp;_nc_oc=AdnpLoBkKfUs4ZW72lWFbJYyJo5DJlb7dbiSgjpv-mIYHRKE0dPtLU890-_JBoIiPec&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYn8dD-OUxx15zshLEnnPWc9XfWI5HFvOgIngkDAasDUg&amp;oe=68DDB24D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwFWkX31&amp;_nc_oc=Adl6BkcBJtZBpg2D9jF4rhhLcryMqmUWVCt_T5LfKFEZfwJ18qIVu4I7szsi-zR1dGw&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZozhhHojP4HWjSLU0n73XyIoem-Mo4Umqq9ygCsuMTEg&amp;oe=68DC6249', 'profileId': 'pfbid024MA6U4TSyCr9PJ8Yw4o4TGiMXaddjARkm7UEJsWVitgkGccxnmZVfGxiw9fK1Lk5l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwHoC2Ee&amp;_nc_oc=AdluoOnbDeJkGDy6lRAdCSzpKAZj0VRpWseu7ZtoNYV1Efuyv9UffnqUb3KfwDZJEbw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYNCSwd4jxOpI9FFPH-szb_05XrNefUSHeP6ppZpbPK6Q&amp;oe=68DDB3C9', 'profileId': 'pfbid038CboejPGpVk1W8fThiUzGkUTsMyocgfHDHXjt3rKBPgeij1AzgDcsneyU5U4qPn2l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent.fhio2-1.fna.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwH8Z3Ja&amp;_nc_oc=AdlJHRIEndJIA7WU2G8urUIqXxgcCN8luJS9eeTAKp8tyO97h3Ug8Z1FqsC1AaJIOak&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-1.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZCqp73l-3BkHpJhfgu0D_0Lkp1eVYbqhA75uljNKJT7Q&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwFCUdHo&amp;_nc_oc=AdlAP8AQWQ7M_hIGjKbwda0UlC9yXGnSnK9e7wsfVpuKMrOIwvwbylC8phnhX5fQiro&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_Afa4Je1WaUR6_a52xneLABYjW4N1hiQ3H5EiXLmg0Jc3Ew&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwF2fYgB&amp;_nc_oc=AdmEUuS6yU0-f7o3IGAsXRzlw2LGS-ZRGu6Wvil1wUhcRg2T7Fx6MoHZh0XNXbf7o-o&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYB5zoq7dQSKL8k-PS8iNH-WCEN8nLkYeoCWkp_Uuyfwg&amp;oe=68DC74B3', 'profileId': 'pfbid0Tmx6nsmXBAXo1SsA8Vptv86Sx9HLRV5PwjLspANU9KRk6CZnHkt8PYMHUzyMaEGel', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwHr-V39&amp;_nc_oc=AdlCsgyefS3Om7RcobP7vm---bf2tyn2joG0jf8ehGA40_DPQAAR7ALmTXxhsdxw3zQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfZtHU4zy0D241_AqlGZ16SZvTiqzASysTmP6UYf3dHJ1w&amp;oe=68DDC633', 'profileId': 'pfbid02XdPoyYhM2UmHCh4pzeaNTieJDsiFo6A8LRqLFsyYcWsKE9dBvqGmN1SZpk1QB2ktl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwH_seHG&amp;_nc_oc=AdkZbBIMyjbhLOxn7jQLHHHj8a0DeMf8GGpuEryAwHBLKD2Yk2FHxjNKgHSyn4b-nJA&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZB7eA6Y-HO-7VAyKqrCMkfzZUiXLBbzQPgceZzyrGYig&amp;oe=68DC623C', 'profileId': 'pfbid02iwJufXzeyUJqJsT7qQ4BKRTWhymaW5VJAZufgHCoDgMRdqqtSkYS2E9avQ5UBHJLl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwHLdBkM&amp;_nc_oc=Adkr9o2x4dh7PnUADuTbSnGyqbIbsR2y8LPmGf6uiftEjO-De7sZjAWke6rKyx-H3j0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbbqWoA1NZ-915qH_qUTQuGQweqvLh5FxiBWmsZHWGn7Q&amp;oe=68DDB3BC', 'profileId': 'pfbid0fPfikNNJ8Lob7KTcgv5KLT2SPsuE6ihDsLf2stoD6CGQs3EoNhu1A4j3qByA5i73l', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwFtkT86&amp;_nc_oc=AdmXsso1-KDhgLb-ceYdcGEj12b5oE31WajiFlygq2mPAhM-yMeY135TMn5mkAQNDrM&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfaxaQKcGuC1y7ExORV3eCbpl6kCPlvx9EyXbIs2QzB3mw&amp;oe=68DC8147', 'profileId': 'pfbid0E51ZMf41a9BFD4z6tjMRq4WSez8yRLVsTVJisfcgNzrERbzAnU1GFgcfiAs91prNl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwHtUXBc&amp;_nc_oc=AdktNISnlJlMcaHBG-NjarV2WPBJFGOWtkwa7lBiBMM_Ge_VemcilK3hqC7vI5RziEk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYTlrIxMAnsFIM_xzFWeG-zIYBCrHcB_QvVqGuMGclkcQ&amp;oe=68DDD2C7', 'profileId': 'pfbid02HvTGYKyqRZgwbo6HWRPnT826EsVKFaVNcnXJs6bnz3VmLaEYTVBiGADWuRMa5vmKl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwGI_f_4&amp;_nc_oc=Adn5UdSCDAtZguJBLFsieTex8q2Z8Yn_r2hyrLVpePTTNp3R62QEDYrTgpTbMYlLHoE&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfbxO8t6y3bajt8QHxr-wDUaLasQvNd_ExJ4ybPCs-aKfA&amp;oe=68DC6B7D', 'profileId': 'pfbid031QMLrdWfj8Tr6pkNntktuUww3qMYvqBy8z7qZbXwuFEHcjECfgmXdf5bzLi1abLpl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwHOBsHL&amp;_nc_oc=AdlRaf0CtpolrOENbDjpJKf4-3QeRqRCHHiPPnyVj6Y6HZcgAtuOakumRsa1nQczudg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbntxT5PFFxpfUkicCB5VN53dn8agDK0VyNxz4YCLGSJg&amp;oe=68DDBCFD', 'profileId': 'pfbid0wri9wTtJt1rXLbVyK3Az2pBnRwM1PuxPMSkMpWLqoRXKdWV6F1rBoUtf4Y9SPZEol', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent.fhio2-2.fna.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwG72yFH&amp;_nc_oc=Adlchv_n2Xbyd7TE_k08U5e-kzeqmZ7Z-jg6-tzn7FW4imTEcBLY1OiJfDm3vCc4tcM&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-2.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfYzzRwH0eEoiXHbdTYVQun7uxjOmEOMWJBv_LWBS5b3TA&amp;oe=68DC62BB', 'profileId': 'pfbid02gX5p9Jv2wyxgo5VNidfY5eNzipigpP8JzoF7KJibKVH1fh6oSHwk4AokXjnuxi3Al', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwGeGlV5&amp;_nc_oc=AdlY25Iz25eLPWcUiEs7jzKtj5RHQbJpfrZ8aZOwG-HRl7l76KJQlwNW8AUfTHsaPYg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYxFaePdqjzgZEwdG-8ObN75v5IZLnAaxAk-8_7nHZ1zA&amp;oe=68DDB43B', 'profileId': 'pfbid0cySdE9Hg6hQ8FaXPUuQxFqVbkrMg5ufT8xxRS4fYPvysdbmcgnUzoCyav1A5Z5vml', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent.fhio2-1.fna.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwHc_x_X&amp;_nc_oc=AdmVuRMi97AkKvuMsdW3AMHhdAasBwYH-kmiAUSBnjmWzBLzfz2-TVnIBCUJ7GaNy28&amp;_nc_zt=24&amp;_nc_ht=scontent.fhio2-1.fna&amp;_nc_gid=RETOuWzU6nr8JDNmok9zlQ&amp;oh=00_AfZ2YlqWWJgopmyW6-KBfkeIVWrqReZN902RMGCMc1qR4g&amp;oe=68DC8115', 'profileId': 'pfbid02we9e1hYxquzjfqZkDGkDZRaT9viU4qrrJsYm8sc9vQ8kmXECDeRyMq4vsuCmg6PPl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwGUi7cI&amp;_nc_oc=AdnJqJ6dyONXBcvUsNngIKfDJHUJjPiGm9EdfpRQ3shAii4c95xwq9vpYhwXCQrRiW8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbMln1KZ3bscitg9SK3cmdqnqTD9BVWbJgF7LMrXpFhIA&amp;oe=68DDD295', 'profileId': 'pfbid0t6WT6XvbznPenrfZ1XXMAdmjazz18rX2xroL8dXiz7U3hPBP17qB3zHa48rX1swYl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwFNqexH&amp;_nc_oc=AdnX26cI3GC_YZMGviG9sDsNwTixMfBqzCCEbeUzYAGo8umLirF7v8cEG3wNleEEDr4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afb8ZauUr1pnBHZwXfg531qzl1g7ZMKAi4Yv4aBIltoEuQ&amp;oe=68DC71CE', 'profileId': 'pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwHGdGKD&amp;_nc_oc=Adm3uc5NSR7xZRjyMowU3KOMujg54ejUaMpdhbjDKXsT0eZ28klRi6Sp5fhXHTCk8co&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYQnNPYZ7M5FcMzD9qTGDbh6i9fTMtXtnHa9LRo_wgKDw&amp;oe=68DDC34E', 'profileId': 'pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwHof25n&amp;_nc_oc=AdlGuURIMb-fyhV6SMWwOh61FUVzSZAJ7129KAgcXaMLgKaKeDTMtw45EXmZkwqA9_U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfaHLG_27bgo5jA-iobx5p7aQXHuIVsvV8wgxJQ4bEZvrQ&amp;oe=68DC55F7', 'profileId': 'pfbid02ED6CnCN511KpjFnsCk3tjyDApj58vB5QTYCYCD1mnporZrhjhpw7G9whhT1DtKRpl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwG1CsAk&amp;_nc_oc=AdmpM0dYhVKm2S1FiLj-E6viVElonkj8wKYXiWSZuqhWDo-OwaWEs3uZlyLnqcPhBNk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_Afasw1DS5VOTBP4o1WJBy60dEzPaSmUyoeRdTYEwJx4clQ&amp;oe=68DDA777', 'profileId': 'pfbid0ABVVJPAWL7MhRxkBDG9PLop9gPrZLFJQYjYeW5hEyc7hQYMUaPvhB5GjSnK8MDvBl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwHpDW-E&amp;_nc_oc=Adn6b2Um7ilc38KmGV1zr-S6gTeUGF8j4I9jtppyHScS2A8twQMpp4Om_9aQ-4Y7-D8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfYfpCHBw2YwVRKciEVVtU25aIB4c_NO_sCcrkXf25a9_A&amp;oe=68DC78FD', 'profileId': 'pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwFCnPN-&amp;_nc_oc=AdkWh9CcrO25snyTAO-Le8-pesTnB9MWEu5y1tsh2JFGAXmAGUCMD4l2PujSD73nhIo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfbCjVdxu4eKJd4NfXZEaz1hk6xnGjaKF_MSJBBOiIffwg&amp;oe=68DDCA7D', 'profileId': 'pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwFYu7Wx&amp;_nc_oc=AdmKIDTGxOf4g4VSgbBy9xNApWGE2ynGs4_K34rh6TrK11pVE8wB3vN27zNf2ok5LBw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfZfkSrjSre4xhnDUkNRM4lG8MJ3BvRxbE31JmhUA870hg&amp;oe=68DC7963', 'profileId': 'pfbid02RnWnGCUUcoTG8AqJFxpz8PuGu55RZ5WtjK99MKPLiHSJ4duVW8wCEKYmWjgjvXydl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwGUxl1k&amp;_nc_oc=AdkvK_7zJqSbFtUoHB17zMmfGRW3lvA_EFNJLhhJofC4aKp-Sora4gE40PE764ggW94&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfY0yiiiKlH2i1Z2bn5UuknPMuIno0G_TFwYgxkqTGkv5w&amp;oe=68DDCAE3', 'profileId': 'pfbid0Mkv4nPGuwsr4gHgqm9THnXRSDkBEGYpNZhHAGFAuRMnHiEDtoGn1U75oLrDAqa7Gl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwH84vkZ&amp;_nc_oc=AdnaabmDOYk3V9E8D7sIgQ32ssMBY29tKTa0wcx3DagjG3S3ZvoaoUNSLZ0aYcNxAOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afa5xkv_6YojFPiMO4cC3syuQbjyBXAVfB5XAgYkUX-HeQ&amp;oe=68DC6A9B', 'profileId': 'pfbid05N8ceiuuieCQv8UUe6iVaXGE3eremYoFjE5XDWfpdojFxjHsrhn8GcsxnbHjym7ol', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwEo4vIO&amp;_nc_oc=Adn4hJUV3tDwcOlWweaCg1Zu1U7Y50RH0guZxrIl-AwCwrCQqSoy7VYkNZM5jY52Qjw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZF4_VHJkeaNoCEiLDK0ebfprlDqsCTrq2RgULRvEKunQ&amp;oe=68DDBC1B', 'profileId': 'pfbid029DaKqPqja3PL9YjyRYLmiLASB343PcrvGJxg3Lr3ePRHyu23r7Ar2b5aKbPR98GYl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwGAo2xw&amp;_nc_oc=Adku9XG5WxTrRUB3hue8g_4n7XdxmvGrw6qYYEC_5v1XQW4ijmUFx_S9sLNiyzJ6aL4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afal68Me1isSaYYi1ycs4l4rV49UBKyvLRB6Jtw7Gi3lCw&amp;oe=68DC67AA', 'profileId': 'pfbid0eJyr9ZsTZeY1gxvjAdXt3GNsYcoY7cKhYwWcw8wr3idB2XEEP8a8szajMxCq6mNol', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwGdnrh9&amp;_nc_oc=AdlztHT9iNhwuTapeBiASSFU8K_5Umm10544GrKNoSRELny4tkOAf2Q3D7OsixtUCok&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZkObTe4IzyyRVkNrVHeJdkNaCo8QpCzohbYLaydk73-A&amp;oe=68DDB92A', 'profileId': 'pfbid02iARZLEoHR3U2VFPQ8NJ5sos8rEVweYZGcvGBXdxKAfTsdvBLVrhcWiUTmodF5KqWl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwG-9oJt&amp;_nc_oc=AdktLZhfpjDtRh8ATUeCrZCKGTIkpDjKDmjUE1OyB9-85kjIfQv6kUdrWCookwKkjHQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afb9J7MDjwaCIN109PRYE1GWUPumgAffG_14FGzbgklfTw&amp;oe=68DC5391', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwFoYFCW&amp;_nc_oc=AdkNLt5ihOmEnXlU-1zUZ9s_nlvcuQElpqgyhLBuJM0bW13oUWn_0RTSuSicVKnvJZE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYk1Wg5ub81c_gqArhhu-9130imTO49fiiFWICeYxAjfQ&amp;oe=68DDA511', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwE6zGXf&amp;_nc_oc=AdlGWzZJ3d2ou6LVgtt3cPx8hWy5W_NxAM7vZk7b7mOk_j1ZOPbqG4iLhEASvBp3ptg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfYxVLBnM7Sw5-jziIfyGNM2fHWctHEKVciZiEQfS730yg&amp;oe=68DC6B33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwH1y_Uq&amp;_nc_oc=AdnjroY2TRVEPS8nVLEzTDT1Ntin3_0oNqPmfR5TUtcSqQZK-QF0g-XioAIP8PTNR2s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfbfMU80lFrfJo7_sao1a4rhQJ3XRmmG0v_LFaZI5Xi4IQ&amp;oe=68DDBCB3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwEzU3lL&amp;_nc_oc=AdkwCZfHdsF0zR3SUz-nMq6bBMjv3XdsezxrjQW5iSWxa2WK0PhBuZo311q9bZSHgLA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_AfZaEARH0clwVTlqW1cL3R3SFq7X0kk8Nn7gNaeZXLY9nw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwF_q3qs&amp;_nc_oc=Adk_91Z_S5lJqMy7gCZaGbYXW3S-PLzYfap216pBbjMh7oF-XFF0nqQ4eDLd-W7rJfU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYyXUu70MM84vO60Ab5He9q-Z3RXdqF6cCM_T_0EX6bgw&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwEDNFOa&amp;_nc_oc=AdmdWqXXHnfoCy6FjoYfILlcNoqoL1miSZD5speQaltVIFymQTFrj4l3ooSVW21m7JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=tKnBHgAGZp1FF3CfCzp7tA&amp;oh=00_Afbd7-Rwr0SJHDj5Ap9m2BVf8yvnlhaVatnp3fg98Net6w&amp;oe=68DC63B7', 'profileId': 'pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwFfNq78&amp;_nc_oc=Adn3vL22Vq_0UKjlqPDg6BB4tir3MO-uSylw05ONlBsDbbRBvTWxwdWj_E-izZwRltQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZMdjmsboZV__EEb389OiYrpffAqfKxvrCO7oTO1A9Dsg&amp;oe=68DDB537', 'profileId': 'pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwHesOgF&amp;_nc_oc=AdknBr_4GKGePiJ-yTVlEAk2rc33ttBCqpsP_LjMaDZqYG4m86khbRLFD6QVM30Ive0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb0XciGbZuMRm7h7Hq6vSCmzYKswRINVXbeXnR8OdOCwg&amp;oe=68DC81BD', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwGKmgtc&amp;_nc_oc=AdnO4qhPrqq8fSjAsNXp-N3HiDueuH6zsgqqj7WD7ObKHs85MusaQ1ndfVx9kF48xSU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYsVfBWvkTwSxyQsmdPbC07euO7nRKG5LGI3lrEG_aTRQ&amp;oe=68DDD33D', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGFXmwF&amp;_nc_oc=Adn8bR6NxAl9AHBXXnTQOPzvFSBCErAKiBGfEbJ6aXPWfLedueEbxpXIM2cEYj65X5k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfaxfXHmGrvlhKXXlcZcH02ut5trRm4iChLHNFVXscVN3g&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwEMUQf6&amp;_nc_oc=AdmkfdA1YNldvFb-jbK9x12Iwi4rgvFdw1xRadQypa9jy9hDDhRPK5t74wMJUGxso-I&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYZYU4ydJhH0OoPEd9__5OFtacUYrkcJMpHQP9QDDnYSQ&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwHuNyn5&amp;_nc_oc=Adlgn6iv8K5CCUB5uxDxYc2xZKcgJetNF0QN4QB3EoTERQWofnaeKfn6qkYZpEDMxGc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZn63tw_su13z0s1-EpxMZjIw9mXQvmlhsDuDDY7o2wPA&amp;oe=68DC552E', 'profileId': 'pfbid02m2Cpzer4qiekwXcwEgy2n9DnuqSUqK7SqGVdHqUtbC3zkCYgA1WgqY3PoMwb8Mn5l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwGgA5yu&amp;_nc_oc=Adk3APKVL61dqtmswgfMKS6nwPoZPNhN31tu2wNXBOwbua-6HkCMi1H_DqXa5wJWSww&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfZcfMDowTCznygydyjNP8vfGB1_F3Ij81rFzMNRF4828g&amp;oe=68DDA6AE', 'profileId': 'pfbid0hUZe5VDhzWPhf6VtnDn6zx5t7k554ZTH8pqNCEUziTyBjKkkXzMagMEJTN8zzJswl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwELRPJ-&amp;_nc_oc=Admr-y2ddBk8_nUISOB3zj2tg0iYOGnkmHxglBzESLgOOpLbU35LfqDt02afpJ3MyQw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afbs6O1o57Wplu7VBLDrJmnmCBiG9XxT6DCzBtolWYD3Ag&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwH_XbYk&amp;_nc_oc=AdnrYfBmzKB8WR2JsLTHNiakuLuSrFhHOh8tZXIV7HZvHshUGf0hsCmJrH81IrLIJ7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYQIXCm7hW0SpINagYwBcbKojDuSn75x8wMF3_2ppNsww&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwEqrkqV&amp;_nc_oc=AdkWCy7-z___0DZZ6cpfq3g47uKGsKf_GLBDsPh7tHKncrUaCGpcXvT8VW3YqtnZI4U&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfYpxeV7iG6FfOcs4_5niiwy2k-XKHiTthNxkhlgtgxYbQ&amp;oe=68DC55AC', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwFcNO8A&amp;_nc_oc=Adl2b-J2nYUqRTDSbtOQgaiZ5njswbWXLPv28X8dJxyF9JvIkuwIQTve-d7WRdThSuc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfamNUbSJMrFX8ofP9_gk5KFF08AKg7esRH65KANGJU0Tg&amp;oe=68DDA72C', 'profileId': 'pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwGMdKGc&amp;_nc_oc=AdlTYkQe4PL2UEP2LyuUZoHrS3SeOa-tWRdoAwUStLo6ZjQqfHgU_wLDXbo7RXdFD7g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZrt0XVnUM5cnwXLvwwwkeT_8mJJjpJJeT8Iellp7KopQ&amp;oe=68DC5B94', 'profileId': 'pfbid036BdsESRYhPViNQczE2GDZwDAUXJj631HV2DnFmJomaLvgp2DD9CpWvyJ8kMiGJVvl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwGuafm1&amp;_nc_oc=AdmVaTPI2WjQm2NwDiKbykB5TQxLQOhC8UYSuttdb_vAeYR_BscfoKx2HvjOLtwhRQw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYPnzj857nNyGTHSbhzSrVZdDnENk_Y5KVkDWZrbCvasw&amp;oe=68DDAD14', 'profileId': 'pfbid022dzgKGoBrHueTCEAstXn3BvmsD4esx7MHb324K4LiRmL6vJ42HhN2ggiWTcwZkP6l', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwGExpLw&amp;_nc_oc=AdnhauAqHxOOKQS7y9rPUcGLAFyvaRuW7pdNDS4yaQSi2BRGsY2zMrQQPIot6y78Wo4&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfatujtePR1HwsmOsrh2xsaAk9pg3b41oWxYU93FvLY1Qw&amp;oe=68DC7249', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFe8EwE&amp;_nc_oc=AdnZ7w362uW-RVkrMetlX7L1IUp0H-yQGIGoTR9NbQctbFRqfRvuW_pIAqA9omdkIKk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb7WGXN4pAvuTrUyhAbHFbEfgbShsgkBAl0FDUxcOndRg&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwG1SJoU&amp;_nc_oc=AdmVn3UgcwSwGfoh1IkG_cnafAEPkGx0XZu7BoF0eRl9b0bYc_J11e4q6hAVyHuEBns&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfaYxdrZ9S23lynpKQmLoTsk6rTJf1-xEk2dZBOoMkueqQ&amp;oe=68DDC3C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwEEYHC9&amp;_nc_oc=AdlXVtmMiirIw4BW5fupmVGrNhCQqt7Xw18BWJwQi3QucXWX0wkl4PYJBoIUzupKk7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfbdOLPc3Z1_ozZNDxKLseH4u6HsmG9olFfcKP1g-4HT9A&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwEV_uKk&amp;_nc_oc=AdkZePQYVtsuI7JHq_O25L607NVM-GNn8PlrHmKS6l5Ohshuxvfh_CwGGcWqFpp_mHs&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfarvSo6ZZ82FylNH4YFnSDRvCAdmAuuY55MyM3f5PHQDA&amp;oe=68DC7632', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFe8EwE&amp;_nc_oc=AdnZ7w362uW-RVkrMetlX7L1IUp0H-yQGIGoTR9NbQctbFRqfRvuW_pIAqA9omdkIKk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_Afb7WGXN4pAvuTrUyhAbHFbEfgbShsgkBAl0FDUxcOndRg&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwFBrjCV&amp;_nc_oc=AdlI6ISnw9_TgO2Cztb274E7IUqle2_SQhTi_15OLM_Bh5Dn7HYiP0zqJ349BI2LDZo&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_Afbh7wzOKUmo9bOYiEEXOisWgXX4Np3KlPSR8iczf9LIOQ&amp;oe=68DDC7B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwEEYHC9&amp;_nc_oc=AdlXVtmMiirIw4BW5fupmVGrNhCQqt7Xw18BWJwQi3QucXWX0wkl4PYJBoIUzupKk7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfbdOLPc3Z1_ozZNDxKLseH4u6HsmG9olFfcKP1g-4HT9A&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEQdvlt&amp;_nc_oc=AdmGSCRWxgUi4hm_xtw5gfS7nemsw9M74tin_WecDKruyIQmPQGS18UFqS8D8hCk9VQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaBN4BotMVkpR2EUq4lfB9a6w0LN7HI9LfdRf0oUZRv3A&amp;oe=68FE19FA', 'profileId': 'pfbid02LNeMWy1JKggmXCyydTAjSg3HR9QYw4uzTViop8cqMCt9tHjuFHaXnWjmWaY9Wc8El', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwGyBXjX&amp;_nc_oc=Adl5dK8CTTTFi7-NNNGxpIF16TiDVy0no0WHCa96KcMJUiVTlwTX3Bsxq0PxwdztSCg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfbwmDFpWxRGiXR7zNV5uVMXKdUs2RdRRUa7h2nk8BsjPQ&amp;oe=68FF6B7A', 'profileId': 'pfbid0Gq1AboNwULDWdjCitHgrgPPCMkGWZQcccqYs2gsqUVXmoy1DuQN22LEfj9Uecrcel', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwGXdTjs&amp;_nc_oc=AdnHp1mHmPCaxypr6-TcQbo6WldTOvO-e5tqd3WVXwwiXiPCo1TgMuQAaULrFEUkO30&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=AJygi_qsDG0bgflvQOLDQA&amp;oh=00_AfZxdGU1AlZ11BO89wdctUH4D2jDr1R2dHUW4xgnW8GXRg&amp;oe=68DC7329', 'profileId': 'pfbid02FCKKNPqyU3GFDkd2DQT7PBooVggKda4cK9x3GBhYTUZCwKhjSvx62ho7TRXCN9cZl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwFKU6kW&amp;_nc_oc=AdlTiubMfeo0SgTM_p1ROEUjJlAXdySs42rC7RiP7JQbztmgTvIvobSbTZI655ug26g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfatqF6RemtQcQJsjNLVfIOfiqz8wU-2zcwn8GyfhJHCXw&amp;oe=68DDC4A9', 'profileId': 'pfbid0BAibtaeQo8hzeSPJ7U1uBf9WoPCNKbWvYfntKFPK6UMbdjv7hUDJhDD8mS2MdT9El', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwFPYSla&amp;_nc_oc=AdkL4PpPSXn5bILVYGo9_vJw4C6xNuMnOaPXLXMcQIwTj1TQZeqM0hSnypHSeuzlnM8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbvUV2P3LFQeCdiQpqr8FG2lwutxxZaq8Vow61EcuNMXQ&amp;oe=68DC86BF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwHkjMIC&amp;_nc_oc=Adkb0ceHyhBuiZNWLkvz86x6sGBwakSXyvv5Dlj7bBbo_NA2oXadMlAa-f1tPzqNJ8E&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfY3J4GKvJfmcX_CPlmqCW1XEqttyLBi6lEVhBC86ldNBQ&amp;oe=68DD9FFF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwG5gk-M&amp;_nc_oc=AdlrGLkIxsViXioo10HvXheOu-NKYST-hY9Com5GqQhpTgeTtNxxJ3dS__8EKciOT5Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfZwp-Kl8Do6SOKW26GEQdc-VRzMUDvF5QvWzdObHXrjng&amp;oe=68DC79AA', 'profileId': 'pfbid0GE4BEUariaT4oXiMowrixDaPDYxqGyfq9mx2GMmLa8fjKAETkANPv1SUt4y6whxgl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwFimR6y&amp;_nc_oc=Adkf7kG2U2FSPR9UCTZDsEWR3p0v_e0IhA29mObiUbnZjDSgCou56Vi7loQSkZniLAo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbRNhQVz8NsjFmEh51RWcx3p0pf3jBJUPkkY1tF9qEGwA&amp;oe=68DDCB2A', 'profileId': 'pfbid02L5VtR9WgZwkuMJAKv4UkQyBfGAS21ZZvMQ9CV1ZseTky5NNpAunetJaPyPk1U9J9l', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFOWx9F&amp;_nc_oc=Adm9Dm5sX4u_kUZMHxXk05EOn31_vXasoandHtWBUuLpUzZBPvGlOXtYWblPZMb69O0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfYXpfGPoL6wZIBePJouf6bcAO5sL1mmYOS2aYXARIZggg&amp;oe=68DC7D6E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFOWx9F&amp;_nc_oc=Adm9Dm5sX4u_kUZMHxXk05EOn31_vXasoandHtWBUuLpUzZBPvGlOXtYWblPZMb69O0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfYn-pHN86MPCMoNteKIQd0xIcZV9oDLbvVOkcoF3-X8Ug&amp;oe=68DC7D6E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHdc-js&amp;_nc_oc=Admko8eUnaILG21zS5QsWUhlke-d2v7vyqsUnIO98GhZqos7SbQf5CgHfQWyVdLGjKg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbXv4VtWJuAvgJCEVxAjMhSD4yclslG-qdtaTspf7ZPZw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwGYUm9t&amp;_nc_oc=AdkNmr4VUFwdpFuAMfBwMhrV3p87csTp6RjZxEh-eJpp86on2RZTJ1ZjWoo0awug6hw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfYiuRiAXiY35tpTqlbK_orTRsIKCL_VrvvKLIeF05r2yQ&amp;oe=68DDCEEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwGYUm9t&amp;_nc_oc=AdkNmr4VUFwdpFuAMfBwMhrV3p87csTp6RjZxEh-eJpp86on2RZTJ1ZjWoo0awug6hw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbCs2bg2QN2RRiiHXQq1Fyle2oz_JkJgZ0cmdmR8e_hkg&amp;oe=68DDCEEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHfJ3pw&amp;_nc_oc=AdmfAmfBezre8wSMGYgr8h7Sz-GTZv0VWJ2gqRXt4YD7kh94GOVyvgnLIQ9pSFbNafQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfaJNW_cX-Cedz4AsXaMTXe3qs8nzk8BvGUFXZm55lS_ag&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHdBmI7&amp;_nc_oc=Adn06I3VZiCmNv2hJtmEDent0VnWNwag3DhkCgm_UbfzV7ZvLdbF4P_JdK3Sq-WOJbA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfZgGHnyJFuyTK6d56qzAOq4APNl1diopTgpfXJcjzk9Wg&amp;oe=68DC5D17'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHdBmI7&amp;_nc_oc=Adn06I3VZiCmNv2hJtmEDent0VnWNwag3DhkCgm_UbfzV7ZvLdbF4P_JdK3Sq-WOJbA&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbVPcRkf_zJn8iJWaOTPqEJ0krCV8-Ywu5DKZQKg5Cm_g&amp;oe=68DC5D17', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHdc-js&amp;_nc_oc=Admko8eUnaILG21zS5QsWUhlke-d2v7vyqsUnIO98GhZqos7SbQf5CgHfQWyVdLGjKg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_AfbXv4VtWJuAvgJCEVxAjMhSD4yclslG-qdtaTspf7ZPZw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwFLW79i&amp;_nc_oc=AdlfVvxBSAZvK9R7k2gTvlbFj8_DmFoqbvtVNVM3Q6bUfT5RP5xskWW0E5SUV5PQWp4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbKblzDkvK4d9bM7zmP5q8aogAVYs0GZSCAjp4dDR6M8A&amp;oe=68DDAE97'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwFLW79i&amp;_nc_oc=AdlfVvxBSAZvK9R7k2gTvlbFj8_DmFoqbvtVNVM3Q6bUfT5RP5xskWW0E5SUV5PQWp4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfYt4BVATLE_doZfiPaWSRK6mLgxw1PgTggCdRuUzJggSQ&amp;oe=68DDAE97', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHfJ3pw&amp;_nc_oc=AdmfAmfBezre8wSMGYgr8h7Sz-GTZv0VWJ2gqRXt4YD7kh94GOVyvgnLIQ9pSFbNafQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfaJNW_cX-Cedz4AsXaMTXe3qs8nzk8BvGUFXZm55lS_ag&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEtZhEg&amp;_nc_oc=AdlS9YR6yAjCE0g1_iLMemvVEZoA3-0CPQ_sm19gMksvuqGRsVmLreE86SMVHnpO4vY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_Afb3cU1LDOEP3GTuA68yRDE-dWsdng-Wdx5TaYDbJeaOkg&amp;oe=68DC7B72', 'profileId': 'pfbid02X21V5QtAZBTnFXcn1xXUyUobDC69LyvoEM4z88imY3S44GiZA4NiNtQ6gVLWeXp9l', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEedkjP&amp;_nc_oc=AdmKjM25Czk8TZpNdcUToK1q2-1XDOFLvgcHQcHnvqJKyjWjrVgGyNPyMcSaKTtUnpk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_Afa_BCXXjao4cnBev0ntiE-Vo18eMLS9-yR_Y7d45_VO-Q&amp;oe=68DDCCF2', 'profileId': 'pfbid0TUNJAFFohxaErM5pCQgH9KZvbYjoSWzxSk6waE1xQKkk7BTvwCxgLvB7NMAiBbuSl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwFMgSRv&amp;_nc_oc=AdnAFIoVEqzn_xNkB4BgtZWJRn16KqXtalQTVh0su5vRgZ1SEg-YA-E8rw9wKzWqbxQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=2Kvjrl73_-To5OVNh_M7og&amp;oh=00_Afaml5TCPRbPqH60ym0E9Hi7cTta0cEXp_S2BCmmc62duA&amp;oe=68DC7B45', 'profileId': 'pfbid02HVE3gGzo8VPnuGfqDLK8MNsYaNN6Ka8494qXu5kBy5QhjGW8ARDVZwJM4SpkoRxQl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwHyX8aj&amp;_nc_oc=AdkreGZ0WWk3wJvSESOUtZ7f_9dbm-C-PbkJeKamkq8emCfGr-xjJ8_3HAaQemUbMfs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbupICZli0l61-GyR1Zrp02US94pBR3_lOw7DiyeAK2Rg&amp;oe=68DDCCC5', 'profileId': 'pfbid0Dwarm7NSHKDvjYiDkW7UJzLPccD3F733WvF5erzDMJw21WeVd7wZrmATHFkT9fE9l', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5WUAEwC/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5WUAEwC/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5uwgBs0/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5uwgBs0/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5aQgLAr/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5aQgLAr/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I0TgLBE/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I0TgLBE/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk1DsgF9F/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk1DsgF9F/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IKDAN8A/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IKDAN8A/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5jMgKDI/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5jMgKDI/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5gcAHFr/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5gcAHFr/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1JAhgH2b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1JAhgH2b/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5orgCHj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5orgCHj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5k-AOiR/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5k-AOiR/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jcnRmuKNItMQ7kNvwHU02sV&amp;_nc_oc=Adl7Tu_qvgOs1WIiFT7Di7YdDc5iSn3tqTkTP9muURF8AYoFt8ehOdcSR5VWahssNmY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afbb4D4f_-VRG_VzTUFkFodcAa4ZiXlPzYh7g6bspGJ9Nw&amp;oe=68DC66E6', 'profileId': 'pfbid038VupvQKuR5AUJNpgTwc9ZkmbBF5eqgNnwHVML9yTdCqzkmCBmMK4bStKE8Cuhocl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwE9L-t0&amp;_nc_oc=Adl1DDk-fbPeamJgZmqryr7_RSGxSUIQ6ic0miW4Bq7_ogZzK2pP5Kd07_gZvrU9jL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYzq0qwxo0o7zhJxWiIYnl_9XVuIKgL9Ap96WLAlCcQnQ&amp;oe=68DDB866', 'profileId': 'pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwEk4dZ4&amp;_nc_oc=AdlthKK2F3sxbRLrJdgxARdZNdBzyIpo0JDUBc_yi7i_Knb-MLUC8sFjs9lB70Pp8-c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYdX7KdbOZ1PYWFNEbvuLiNvWjdq5q3LTds4FUeVRI4bw&amp;oe=68DC60CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwFbde4r&amp;_nc_oc=Admej9ylg-uoJViIdCY6JZO6wcjZjrx4D8y-TT1brvfIzJknbeMdY33ON3NfG-Dg_FI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfbFbMVQLxOFEal82f0FRaWoJ8dbxG4j5KbPoSj9ml6Wnw&amp;oe=68DDB24D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwE6i8Zd&amp;_nc_oc=AdkhIjLoPoyJiwgGcgVPmOIK3eXpuSbMyXZsi9UccLmEVC8aEaxiiZTftjjLMw0D5W4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYUX4IRJDdfUOa6RGBOH7jsW02fHYxaXENvPxdt4APa2w&amp;oe=68DC6249', 'profileId': 'pfbid024MA6U4TSyCr9PJ8Yw4o4TGiMXaddjARkm7UEJsWVitgkGccxnmZVfGxiw9fK1Lk5l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwFTMtM-&amp;_nc_oc=AdkXCQ4VRT92qKhcea-nylu9AccoROA4G6LmZBQgW4epFukcv4-R1XR6hp3BICqK5JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYTtzBdn8gdG3eA8BpgDicEpUpcvErMPJweXmaKnuvkZw&amp;oe=68DDB3C9', 'profileId': 'pfbid038CboejPGpVk1W8fThiUzGkUTsMyocgfHDHXjt3rKBPgeij1AzgDcsneyU5U4qPn2l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGgYPub&amp;_nc_oc=AdkJI0yINBOUS8chJErtxf3SNGS4dv9LnlgiiNl2QBv5UTD-CRIOPio5Ks0vriUYy1U&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfaNEHye0xEnWF4vQkk6nf_OAT8Nh_kVj4bCX9AkGUAiRQ&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGJKKFv&amp;_nc_oc=AdmbBw_oddyJXPdhC11AWJrm7DpHDrKgb807johKiXW4r44inTwyDi1H5hXoP83vr0A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfY4F2U50lT4ALDE8XMS8ALrn4ITcB83e4rEAkggD2gdiQ&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwH-siiQ&amp;_nc_oc=AdkcJWpmLSK4O1CJqDPWXNb3rfJsNfGIqhtp4h5-aAhDec3DCp17iC1PEw8speOpms4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfYDQ_N7PAtBZlKNd21HI66slcpyO_21rXfosaXOBVUoNg&amp;oe=68DC74B3', 'profileId': 'pfbid0Tmx6nsmXBAXo1SsA8Vptv86Sx9HLRV5PwjLspANU9KRk6CZnHkt8PYMHUzyMaEGel', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwG6RIyu&amp;_nc_oc=AdlW4wtAs1fqpJG5SkD96emyKQTnwl9klDkJrbIIZ33gcD9LlqXh_oWmiPNkcuC6HOw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfZDH3HZtHr67O1ZOeoXFjHaXNOmbfyVpzXAWRb3Zljw4A&amp;oe=68DDC633', 'profileId': 'pfbid02XdPoyYhM2UmHCh4pzeaNTieJDsiFo6A8LRqLFsyYcWsKE9dBvqGmN1SZpk1QB2ktl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwG7hZXE&amp;_nc_oc=AdmpR7xShwiiBOZFsMoXNaL1J8u9Tnio58A5RXJZMZxYaPLlc_3s6nUR0zUVlwK9dho&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfY4fY-AZVWjzfOYRzTEyBdusvXmc8G7fQ8rAZsiiOQ9mw&amp;oe=68DC623C', 'profileId': 'pfbid02iwJufXzeyUJqJsT7qQ4BKRTWhymaW5VJAZufgHCoDgMRdqqtSkYS2E9avQ5UBHJLl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwFF0UOs&amp;_nc_oc=AdmXSSutJ8y-fqd-zMejut7TZEDUjLUjHSuR4YC6D3ITDt5O5LLWSA3NRjyhnrP_VaQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_Afb1WhUyAzTSvR2z78EXqPAG0yqvzRijf24qtn2zBDnzPQ&amp;oe=68DDB3BC', 'profileId': 'pfbid0fPfikNNJ8Lob7KTcgv5KLT2SPsuE6ihDsLf2stoD6CGQs3EoNhu1A4j3qByA5i73l', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwHdM2wb&amp;_nc_oc=AdmQCGEIPvRVuo5D0etCQuqsK2cAz9UBn2fEyhETy1XJr1UbETXYglojLQl9JkeJNrk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfZi1TIGmPx6DW3m9ymapUg8ZzEORtYyoKcgrakFtrrYRg&amp;oe=68DC8147', 'profileId': 'pfbid0E51ZMf41a9BFD4z6tjMRq4WSez8yRLVsTVJisfcgNzrERbzAnU1GFgcfiAs91prNl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ae7LqkQWo7YQ7kNvwF74dyB&amp;_nc_oc=Adkcd74QQ-BCYI1kY5TFaq8DyyPf_skfhRc17hZif2pkfRIiD9TGpYcSYo0fEdX65yk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfY675nVYT7hlWJFX0Ls9UV14PtGlaA02VEOFm_HfZXgAg&amp;oe=68DDD2C7', 'profileId': 'pfbid02HvTGYKyqRZgwbo6HWRPnT826EsVKFaVNcnXJs6bnz3VmLaEYTVBiGADWuRMa5vmKl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwH3XGx2&amp;_nc_oc=AdnBbsaP-bywQF9BwIuPcvZJmX_C2M8QVUNohjDoFqgryhsgViu6l4EKhxi_LJO3ccA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afa35VbVUcq0LPjpsZOR0NfFVUHDSNGptTg_ohEXj9rB9Q&amp;oe=68DC6B7D', 'profileId': 'pfbid031QMLrdWfj8Tr6pkNntktuUww3qMYvqBy8z7qZbXwuFEHcjECfgmXdf5bzLi1abLpl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwG-z9XW&amp;_nc_oc=AdlCIue_YQ-uztZMUBw5ZxA5R-PIeThBECqcbXAGdFq5dhuT0ml7MzcHVw9TdnWMcrA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYuLPlBD4ea5bVTVZA6EpytH-AqfRxnAUKOBmTLxaWvug&amp;oe=68DDBCFD', 'profileId': 'pfbid0wri9wTtJt1rXLbVyK3Az2pBnRwM1PuxPMSkMpWLqoRXKdWV6F1rBoUtf4Y9SPZEol', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwHnEghO&amp;_nc_oc=AdkvXB3T7TXW5F3R8ZdTHYKHB32WBqzgRQgmEsAGwu2OtgzAq6sj7Wl8m7BQng7_d7o&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_AfZB7nGHremT0qmVI4DWseIABe4E65zSSlMV6awYkDL3rA&amp;oe=68DC62BB', 'profileId': 'pfbid02gX5p9Jv2wyxgo5VNidfY5eNzipigpP8JzoF7KJibKVH1fh6oSHwk4AokXjnuxi3Al', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwHPXUKd&amp;_nc_oc=AdlYQqJHZcXoCAwU1uiPLG_5w29VlzTS81FCfLUQTbkhi6yj1NuJ8sgGMpmZMil027M&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfaJPhspqu4Lv0hfKnVjWTUi5vDJ3TUV7yBcEnd-G-mm2g&amp;oe=68DDB43B', 'profileId': 'pfbid0cySdE9Hg6hQ8FaXPUuQxFqVbkrMg5ufT8xxRS4fYPvysdbmcgnUzoCyav1A5Z5vml', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwGyeHqr&amp;_nc_oc=Adk3BqrQbV6PFMyIXUFitl018BAiKIvP_EgHt7VVwnk87N7C-HdxCsoIJj9YknqZSLs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=bsnxft8OOXSR5lJVtKt-VQ&amp;oh=00_Afbe--wNS4wmebhf73DayGYo7t42bJiGf8F1EX5TsCS6ZA&amp;oe=68DC8115', 'profileId': 'pfbid02we9e1hYxquzjfqZkDGkDZRaT9viU4qrrJsYm8sc9vQ8kmXECDeRyMq4vsuCmg6PPl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwFaTJDM&amp;_nc_oc=AdlpxSF3sLiJ5YlOxhqA8Dbk8IJGlI109Nr3YA31Wr7oWQsJJOK2UnfAC_TOnpxkqJc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfbB2IIFQ8AkgM6kfA-4DBnWq1gRS4jG2m36NKNHNWWn1Q&amp;oe=68DDD295', 'profileId': 'pfbid0t6WT6XvbznPenrfZ1XXMAdmjazz18rX2xroL8dXiz7U3hPBP17qB3zHa48rX1swYl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwFubFFp&amp;_nc_oc=AdmVZfcaOBCaOMORnA2KRztALXxGZh2sWwOFQ4wlKV8mKJ_HumnQVVLkfbtO12lxzPdm1MBWncGvEK7ViFooXhld&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfahxQ0fhGJrLzVCuaO0v9hrKoFiIu3yzdvz4I2ZWzjzng&amp;oe=68DC71CE', 'profileId': 'pfbid0jgLdxcG2BjaYuvj5E1XBk7tga7FefsdGddm4zczRoxQAGhKWra2bzVqcRbzTYocpl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwEr_ssM&amp;_nc_oc=AdmjuAWuTVDea_K8JBvXXKggB5jjBzjxK_bLCJlf65aW4kkBHxm1jUsQTKmf4_U0le8&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_Afaa8D1SaqGbeqkAAEfMxLMWH6kLRtNnAg-VgowkwZMNBQ&amp;oe=68DDC34E', 'profileId': 'pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwFOhFIZ&amp;_nc_oc=AdmArY1S1Eb6-gyEVEaCSNY5heTMFtpsdvKlJKnp1ZKUUPbWC7sfa2lDJy7evKuL4pZvvi2ImxMpyUQ_7OpJmjTg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfZN9q0B4Bfar4ckf5uheQAdBTbYfs8csBf-kzmMHfBH0g&amp;oe=68DC8E37', 'profileId': 'pfbid02ED6CnCN511KpjFnsCk3tjyDApj58vB5QTYCYCD1mnporZrhjhpw7G9whhT1DtKRpl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwEX_BNs&amp;_nc_oc=Adlu18fWQahpYNY0pNa6p8u3rlpgGAA3g0kDnWYIry55Q29g9vE3a5sSY-XEg5y-14Y&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZI_-4MHg6vDNS3qGPvY5iVvkLJZ8ML_5b3OoaV-i-77Q&amp;oe=68DDA777', 'profileId': 'pfbid0ABVVJPAWL7MhRxkBDG9PLop9gPrZLFJQYjYeW5hEyc7hQYMUaPvhB5GjSnK8MDvBl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwE6PEFs&amp;_nc_oc=AdlpzYOqER-TXqUGB-KKiJSxul8hAn2XvhAH9ndwPvn6QzXckRTwh5Mp3jHjqvmR7TZuQ--pBOYcz2ZwMs_tR7sH&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfbjMMkL7uRVPcBZxC7bOt9WBvCF54klCbQ5ok72-maOlg&amp;oe=68DC78FD', 'profileId': 'pfbid02YsFgRffx4AYE8cAwg4wpAYoqDCzzbd4q8Qn6ooTyP6nibPPsqVkpszGHsRmfKkbVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwG0KsAa&amp;_nc_oc=Adn9mbuYmqqz8hR8qF3LeKwFk58zTU5abkvSUR3UfeRlQwWvgfc0z7EoBrRXiZtDw50&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZGf3tZlH1fLpZ7fPq1pP_l9l1tWgvuVYRBrE3uiJoWsQ&amp;oe=68DDCA7D', 'profileId': 'pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UXiD0On2-GQQ7kNvwGT3Qcl&amp;_nc_oc=AdkNFXc1QPNuMLX8CQjPIo8WDKhVddvEW-sSBsVYqJda-TcZ5A1tPwHkwEjs8GPF8vPkSoxMmazzfPs8xW2014On&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfbhCScS6Lrz6dwEfRGZauB6IgbSgLRcuFiLDIygIaQFzA&amp;oe=68DC7963', 'profileId': 'pfbid02RnWnGCUUcoTG8AqJFxpz8PuGu55RZ5WtjK99MKPLiHSJ4duVW8wCEKYmWjgjvXydl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwEe6rkT&amp;_nc_oc=AdkBkItEJMClFft8u8xW2aCb9YFXJF81qduk_zB9K8Gm3fYie-DWDvjEH5baOBLs09A&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfY1gYoNIKoeXsJOaHwHh0RM89PvBSbWd4J6--GrdWORxQ&amp;oe=68DDCAE3', 'profileId': 'pfbid0Mkv4nPGuwsr4gHgqm9THnXRSDkBEGYpNZhHAGFAuRMnHiEDtoGn1U75oLrDAqa7Gl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwGEANUx&amp;_nc_oc=AdmgCEtRWD77_YstMT6akdAI5i04cjo3fg3Vz8yY5ZtJo9PuDbAj-0FAGUU-hMO_fvlE6V6O8vYsvIk5ymXM3PzP&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afb6cZK5P_hEFbgI-TKuwOwnTsjdouo8Q2PMA2sAPINjLA&amp;oe=68DC6A9B', 'profileId': 'pfbid05N8ceiuuieCQv8UUe6iVaXGE3eremYoFjE5XDWfpdojFxjHsrhn8GcsxnbHjym7ol', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwGR4R9X&amp;_nc_oc=Adm11nI4zhRrNjFclYXlFNdU-_gZ__Q8K8yDFK257n-GDkZjJPqqRNAamfCXPuUoPv8&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbpKX9T5RLuUU6btdtqln6WGm6HWSNbqAmZfkI9delTiA&amp;oe=68DDBC1B', 'profileId': 'pfbid029DaKqPqja3PL9YjyRYLmiLASB343PcrvGJxg3Lr3ePRHyu23r7Ar2b5aKbPR98GYl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Qp3gjiXES8Q7kNvwFg6XfN&amp;_nc_oc=AdmX2NnFUOAi0dqPOb6s1xaqFYhx29JmDt4neeby6jtJ-Ew6umCVEHg_SLd7TApVx4hAujOknl1P-VIVu6Gih1L9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfZUX-3QqdK4Io4mvHxZJc4utyk5qJ31pzc_pj2LJlCeZw&amp;oe=68DC67AA', 'profileId': 'pfbid0eJyr9ZsTZeY1gxvjAdXt3GNsYcoY7cKhYwWcw8wr3idB2XEEP8a8szajMxCq6mNol', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwGiNYqU&amp;_nc_oc=AdkpdjATXwfCKpoGj17TxAu02MN7TSBCU0bH-tpxozw7KyEKLY2F9_eaLonUCadGEc4&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZB8xPHbtQeVmXb6NZRMaTqlYmYw29Ykk5JtCGa6tWNNQ&amp;oe=68DDB92A', 'profileId': 'pfbid02iARZLEoHR3U2VFPQ8NJ5sos8rEVweYZGcvGBXdxKAfTsdvBLVrhcWiUTmodF5KqWl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwFauk-R&amp;_nc_oc=Adk132NufVdKXszdBuYHnzVMeIUdf4lU4ZfXatTdgt6JjlIj8LeLub67zhtIUzTymupxY4_hsMmpAIRJdJdawhSb&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfYhHFyNWdQtAx493OP_NGBLQSmAV8J3akKh_lLDL8FDww&amp;oe=68DC8BD1', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwH_S1CB&amp;_nc_oc=AdmhPYPyp3TCPQaCi7LRP6Isrx81TDW3TA6YeuWgET2J8zQVtMDqFrxndBdR923oG6w&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZkm1Sx7ezsS_MLMuNYif5wSzp0eDpZcIsy8GktscEbnA&amp;oe=68DDA511', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwFNDotm&amp;_nc_oc=AdnjWocXyOQDg10KBjPvZbIhRQ8uoJBGiqtWM2eJJkeIq7WMfCakPOrHXiuZLe8I0DY_r_DChnxDEeDJifzdS5L7&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afa-CpXQcLlCVvnQ6_CTaZ55RdG9m-lvwHrLZcW1Y9gjKQ&amp;oe=68DC6B33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwE9cds-&amp;_nc_oc=AdmLX9MZdcFL_3_HiPMR9yJgLRuHxDSpocMNH9vQEj-9-CQobvCBVvVlcarjynsbv_g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbBhiG-qZjEn-vDTqwAyTUZtwwjbE5f5SG4hotGDAvegQ&amp;oe=68DDBCB3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwFDdXln&amp;_nc_oc=AdnTSv5ewScOSK2umss6-RajNK_5rX2-mBuDE2ucVYTZEegOVVjyrPNcGZu3_jnNFqnxVyU4qzVAaXVARNHS2XrI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_Afbn7uKb9rE7Bpd4XZGJO4aHhjCKH4izddqV8Qbane-gmw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwHeW5E0&amp;_nc_oc=AdlXCRpkPIbH_l9w0rFWSvu8pS7kGUU9tZddpARvqJQy-J-hNifh0cndjIq0ai6AC7I&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbdPc0LFvl6xG_h3wjvBlfYCye_U_PnSDMr9zDeUI2wbg&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwEORtE9&amp;_nc_oc=AdnVb7yV7ESt1ey4K7U2seeQvsdIyNgAXcQv2qzQlb6kbUy-BV6r_a9bIVR-H6PeCoguAI2FaOohOCtkRcLRZmyr&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=b5sAe8BWD05pUnz0VdTyTw&amp;oh=00_AfYxow5ZKY0euWlOKWrEq5JUfuyrQOQ4FlLQB4zR4NdjLA&amp;oe=68DC63B7', 'profileId': 'pfbid0apHd6eirMBP9b4KP2B5GVmGpkQwrM6vymU6iUkiPecCa4fxywWb4Ur3a6gigCqejl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwHtOMGn&amp;_nc_oc=AdmnNiUCxLZNza1o9sDClvkPxB3lWA4tX99YFCbVe2OGhgP6rEdk-mJBhuiMaTgLHVY&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZ3RkOUfEoYjnxLx3gkwH8Z6QEMi70lhn_YJ-AmDucswA&amp;oe=68DDB537', 'profileId': 'pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwE1VIwK&amp;_nc_oc=Adl7M0mmUGwjw67I7F-mPF4uV50GcOvlS6GEhnIhEKoXfOHICJxXBinnGZScY_BKU78&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfaqEP5K3Nz0UcvPcJtFzQr8ZvABjOJWh_HgfpLOsyr_Jw&amp;oe=68DC81BD', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwHw6yPv&amp;_nc_oc=AdmUk4RLnhjUWm-4TgTVP9UqsXcTTn4R7cZOLI9Y3xTl2viqTPC3NyLUdsd_uylCDMk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYO6YX67EoMHIeGhgjdjrgWalilLvjEbWdjMPTgRM8_1Q&amp;oe=68DDD33D', 'profileId': 'pfbid0ahJG2v4NmjDca21WxTpToMVjD9qf8Ww7L7TrFNSh5gYinEvMX4ea9SMX2RPjuGdQl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwHRc7Rb&amp;_nc_oc=AdleCQZLDe06Joi9w7Wm4qFeLUEP0uLKeRMJaHGFNk4Zx5G-5RKGKAWHcq4qXwyZ7kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbTXtlqY90vFAwsixLI0iR7wGWXLIkUI0sexCka_79Lxg&amp;oe=68DC5EA6', 'profileId': 'pfbid02ftHAhmvtFQwdWB694ECqps8MwDzVQoUrcJvhH5KBGYmZ7GmZCyjQScqX5SM9QRWnl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwFIOwDq&amp;_nc_oc=AdkagLbjYz9CxyZcNktKvIDACRO9inFhQDia4QkKeT_WfLXf7zfjEDfbhtSUHQywVnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afbh7d6YTy8yDAGexJ0QMjL_jk6tbxgQdM_sSgUKXFpeUA&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CYOFLjVGC_0Q7kNvwEkCjfE&amp;_nc_oc=AdnwMGpU01ZO7AY4_UT279n0fj943Or1RJns4y-6dwHpdqLiX1hoB-xB4sJZ06HxZY8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfYz22dzyDEIQm4TIsGZOV_z6TBuP_Ton9QVkXV5AyA9Bw&amp;oe=68DC8D6E', 'profileId': 'pfbid02m2Cpzer4qiekwXcwEgy2n9DnuqSUqK7SqGVdHqUtbC3zkCYgA1WgqY3PoMwb8Mn5l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwHZMIM0&amp;_nc_oc=Adneqaiclrw69NuzsVe_OA_vH0bgT51mx0aYeRF4943xuBNyhjEsD2mn7fdzY1PGE8o&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYJHpr0k5PHJkFwD9pG3CMB0vCdESebMfVw4nb2cYAc0g&amp;oe=68DDA6AE', 'profileId': 'pfbid0hUZe5VDhzWPhf6VtnDn6zx5t7k554ZTH8pqNCEUziTyBjKkkXzMagMEJTN8zzJswl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwF-bsnQ90sQ7kNvwGiH_l8&amp;_nc_oc=AdkQeaqXr7SqU21Dgh1xaPmBjwEc2WUtuth_lUD7XkanBbW9SGeqYLAGko0EjEpEFPs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZ3T_h9TrXZvMMIAlq6q6u-UncSvwSa9lYuyFZeLEPzbw&amp;oe=68DC749B', 'profileId': 'pfbid0RvGZuoxdxiCKdRuwCTH2ANSitewqZbPsdo4w6UpJEU2dtZbrjtnYkHDXkDpCoAQTl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwGpEPyG&amp;_nc_oc=Admoev23mcuVxwnH9_j1puZ4m1rTg38h-5CayAi8zuX7eQAwddFwO6o9oYl2nbRmaxM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afb0lH4Kcs-saTsqdPDMZMjnDkYMbjpSXf6OsQYbc6OO1g&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nQc-bM0Vd6gQ7kNvwHPOnjJ&amp;_nc_oc=Admr8qTGH-Qd-JL8v7nhjcnuKIA2HRB7ArBpZCGeFayPih6TgIpEW8rISrWqVKMCwZs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfY-gg4cfZLnmm7nPAbxr8LijPPrcbLQfdE8isJlePxjaA&amp;oe=68DC8DEC', 'profileId': 'pfbid0BmE9z9rzUw9qYDPxaft1W7ynvAS88gutA4pH1qyqYHFJ8ZZTnYxsA2TLdTf3Ri59l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwE1vnW_&amp;_nc_oc=AdmO_kGinY954AuHidWHXQ0urXOORWuBDGsVV8tU5nAxjYk_U9sOPDcPSjoTEXQn28E&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afb35IZCq-XEOdRHsmrkHr-KtWFrcwebX4fqvkqXRElBSg&amp;oe=68DDA72C', 'profileId': 'pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwHq4wnM&amp;_nc_oc=AdkAbwIjKXGtWtPqbzicsHmZgf2pNIwWm4UwMsCmFUOJw9ZNutR8M6GKP_4fFbyWW48&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbW-tJA8MImmzkYxd-Jl1Cx7TTWqPwMzm9SI0Wo8pZD7Q&amp;oe=68DC5B94', 'profileId': 'pfbid036BdsESRYhPViNQczE2GDZwDAUXJj631HV2DnFmJomaLvgp2DD9CpWvyJ8kMiGJVvl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwHL2iUo&amp;_nc_oc=AdnJmn1lkDOVGNdS8d0yaOPV5DbQ62BDVaBHZcMG8Dhs4ms4-ZzbLlx3k8MaMbx5O-U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaKzKd5kSpqyp4abt8V8RJKoxDhNs1F_1xLKXBbrCRsVQ&amp;oe=68DDAD14', 'profileId': 'pfbid022dzgKGoBrHueTCEAstXn3BvmsD4esx7MHb324K4LiRmL6vJ42HhN2ggiWTcwZkP6l', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=Y756p9xfExMQ7kNvwH4bwj-&amp;_nc_oc=Adk_e0qRrO_0zqJBCaF6Qxel7bzVP4gxyXh5wLkRIoiJgyUJUi17ZsT6n3KjBbvj6Lg&amp;_nc_zt=26&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbmFKBfwKPL9gLdoTDeh2rH4ml2KcFWdz478UzDFZIDew&amp;oe=68DC7249', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFrWkWo&amp;_nc_oc=AdkfOUGveJHmHGscbzjjGWs6HzqY_oHzIO7Zzo599C819uJ79iAL3jp5KUskuYPE7Rk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZnrIoAar1dnSOaRbcpOZr2raPPAX1aIQNluvslfwf23w&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwGAxNjK&amp;_nc_oc=AdlKrwG1IYeI5du40Unvz4Ski4kIdZtswQru1_9p4Tchtqva1JoMbB63sc0zSucPx3k&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaxwvT0tVj2yUQX5O5JBeejA6IdhepPYJJlsI1L0E1x8Q&amp;oe=68DDC3C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGC62Qc&amp;_nc_oc=Admt3tLDmkCgckg8dKiuAufqoyjgMpDI7F6eCSflDN5_TNv4PaUwMfvIIhVacBCILnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYa96dprDD-gfIfx1p2YYi_eraaDI7KTNRTpOwnwqfPLA&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwGsipcF&amp;_nc_oc=Admd32KsFxkqZ6HQYdi-dKhOlJ-Hl0HWQHY3l87ryDhZPEpnJz-61I-U7dwbXw4a330&amp;_nc_zt=26&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfYDm4pb0zkpJLNKmRC_9YXVULmWR_YWny3NKNcLupa1hw&amp;oe=68DC7632', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V-nhe7-RqGYQ7kNvwFrWkWo&amp;_nc_oc=AdkfOUGveJHmHGscbzjjGWs6HzqY_oHzIO7Zzo599C819uJ79iAL3jp5KUskuYPE7Rk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfZnrIoAar1dnSOaRbcpOZr2raPPAX1aIQNluvslfwf23w&amp;oe=68DC73CC', 'profileId': 'pfbid02nLsTAAJxPyze1fVbygKt1ChngiLtu8AZfMNi3ZS6BQxDsKpas5vpM31GSPgHW5p6l', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwHM4yge&amp;_nc_oc=AdlzRBbirS_tz5U7KdHnjCsT5QilnjJFQN4iY0vKrJkajdthUBly9trOssA0POGDDMo&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYN5mCsrXmpSTNCv3EVelzadl7TEhhkG1ywSOPEQuJ2iw&amp;oe=68DDC7B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGC62Qc&amp;_nc_oc=Admt3tLDmkCgckg8dKiuAufqoyjgMpDI7F6eCSflDN5_TNv4PaUwMfvIIhVacBCILnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYa96dprDD-gfIfx1p2YYi_eraaDI7KTNRTpOwnwqfPLA&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHu8ASz&amp;_nc_oc=AdnZrCY6-SYR60aNxNwifqi4JXXpaQmi5zr6vwZ3nHgpFgtPgQumk3VTLZV0F9Frj8A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_AfZpcckCDVHMRyhwLZa8wNoFmiekh0mTNBAo5X44EU3LEw&amp;oe=68FE19FA', 'profileId': 'pfbid02LNeMWy1JKggmXCyydTAjSg3HR9QYw4uzTViop8cqMCt9tHjuFHaXnWjmWaY9Wc8El', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFGj6z_&amp;_nc_oc=AdmBpjwbrHWr8dTn0pYSLIf8_Zvu9d1KX70CzjjlVO56zti2Ai8NskolRaCRx_axw4A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afb7y9DwJxuveozNChXNTd7XR9I2fjSJbc9TmnExsBzf1g&amp;oe=68FF6B7A', 'profileId': 'pfbid0Gq1AboNwULDWdjCitHgrgPPCMkGWZQcccqYs2gsqUVXmoy1DuQN22LEfj9Uecrcel', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwHwCPEF&amp;_nc_oc=AdnxDmFJE7bUN_OsDKARTl0t4bf8Yss43rFBtUfQcAEGD08v-iv9x2rIt75Qu4gTDYs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=yeNqKaW1XJCh7XxtC5OPvg&amp;oh=00_AfbVffrTe8nyQMNmgtjwULnIZxNFg50eijHLn_vOcstWyg&amp;oe=68DC7329', 'profileId': 'pfbid02FCKKNPqyU3GFDkd2DQT7PBooVggKda4cK9x3GBhYTUZCwKhjSvx62ho7TRXCN9cZl', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwGvDphQ&amp;_nc_oc=Adn2dK3xAHJzQe-pC9Nva5Q1Ya21MUxEGGs6kCQ-ghpxx8t3SBme3MhfAcl6uzlUA5I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaUQ7uU7qet3X2FCRFWRts1-_wYNYmazHpa1tOuY0LNaQ&amp;oe=68DDC4A9', 'profileId': 'pfbid0BAibtaeQo8hzeSPJ7U1uBf9WoPCNKbWvYfntKFPK6UMbdjv7hUDJhDD8mS2MdT9El', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwGiWz6h&amp;_nc_oc=AdmLpTKJDleIFKvbbaENS9Ttw9WEPm5alG9-1IUcX9Ktv1VP5pUQrKS_TdaJSv9C9RU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_Afac_3aUW_4EGHwVXYMCgh8NCyxVNSM5bGrJI_HbflRk-A&amp;oe=68DC86BF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwFpY0bY&amp;_nc_oc=Adn1eUUVMlm17arX-c-PB7NzYfcVTYO8V21PpfrDr2HMmyhCdvE6gbMPE0No7Fp5Nxo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfZQV47liaj0OzrJsgd3-Qw6NqgKHmASR_bg8DK-vCdfUQ&amp;oe=68DDD83F', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RINk25I5nSUQ7kNvwHbSIYr&amp;_nc_oc=Adnl-DsyJM-47fdhB3e79HQ76XSLjlPJoPirZ9ohLpRvHZLYF6hYe0Up9QU96etF8nE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_Afa8i-8gasAm7Uja_xYre2vGn7dwJ9zs46h__J1hXL-hxw&amp;oe=68DC79AA', 'profileId': 'pfbid0GE4BEUariaT4oXiMowrixDaPDYxqGyfq9mx2GMmLa8fjKAETkANPv1SUt4y6whxgl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwGhdmFM&amp;_nc_oc=AdlRrZs5IAAHcuustY0DhjTGltUngR9BtPU8RL90gErp1i9hfKoZx_MZEGfFfCiV2lk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfbE7ooLkeWKtm7EoZKg8_AgVhMQbbNTfr8x0fYTlmVbgw&amp;oe=68DDCB2A', 'profileId': 'pfbid02L5VtR9WgZwkuMJAKv4UkQyBfGAS21ZZvMQ9CV1ZseTky5NNpAunetJaPyPk1U9J9l', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFScEE8&amp;_nc_oc=Adm2hLC9wSTqv-Ww6KavXodzDygZ2Gm5c0DxaFOzlvRtfDcnuaHXOLP6MqJxx6u_URQ&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaZROuSQOAr4dpwi3WJGVAIgEL46XSLwpJ3btzs3EJwmg&amp;oe=68DC7D6E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFScEE8&amp;_nc_oc=Adm2hLC9wSTqv-Ww6KavXodzDygZ2Gm5c0DxaFOzlvRtfDcnuaHXOLP6MqJxx6u_URQ&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaN72yWjWlh1TYF7FOQDjh4YjxLEpyaf_oILB2Vq_YG4w&amp;oe=68DC7D6E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwG1Lv5h&amp;_nc_oc=Adna9mO0ioOxYWMnJ9WTaPYr_Tkn9Idh8auu4uX__Gal2pUy3GasS_sc0-WAegOgLEU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfatVwzj73Lj4suK2LFua2Dsv2hpKC4K3tGYpA9gCeFzdw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFfjg0u&amp;_nc_oc=Adm7iKRwcuWXKq955Ei5OtkldvYvEa32V19YuylRlgKwpL8m8aqf7vM8Gt2MtCKT4e8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfY41MK6h__PjervlLMIUAGvZS6eKnISwlngBJwUwC44DA&amp;oe=68DDCEEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFfjg0u&amp;_nc_oc=Adm7iKRwcuWXKq955Ei5OtkldvYvEa32V19YuylRlgKwpL8m8aqf7vM8Gt2MtCKT4e8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuhS5RE38IavdVHPnf5WmZ7j9XZvj8PoCdDxLVaFslTg&amp;oe=68DDCEEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwGFfZhN&amp;_nc_oc=AdmAStu23vQhr5bkzOhiwFOIgxYKRCP5UFf-YUcJKfZHgZIq2O7hNUqwLJCTZiwDeTQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuFrMNoYkAnJ8f-UKSo01gR-c0qmekSnoTKp4HVe6lyg&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwGZn54r&amp;_nc_oc=Adl04nDdeigHKm7IzOKGga93SToDeDgs5qPmWeWkUUcUtDbcecsgkJXGvOmihYgtxpU&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfbLBNdMEhjihuA6M89Qe2f66EP_Fvw83cpJlza_DHUuSA&amp;oe=68DC5D17'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwGZn54r&amp;_nc_oc=Adl04nDdeigHKm7IzOKGga93SToDeDgs5qPmWeWkUUcUtDbcecsgkJXGvOmihYgtxpU&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfZzccCdl725ElkOWEB-12RXWwLxXLUavuIlgUAzgi3w1g&amp;oe=68DC5D17', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwG1Lv5h&amp;_nc_oc=Adna9mO0ioOxYWMnJ9WTaPYr_Tkn9Idh8auu4uX__Gal2pUy3GasS_sc0-WAegOgLEU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfatVwzj73Lj4suK2LFua2Dsv2hpKC4K3tGYpA9gCeFzdw&amp;oe=68DC6E69', 'profileId': 'pfbid02tu2jGQuLDEuXF7g3TgbcPq31apcPr8x9pj1AaNBovLKqXuqy9ioao2HwzcjdUJdtl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHn71G3&amp;_nc_oc=AdlndkYfLCs_ue34snk3wb_5NZl_3pBp-vqPlj5mUaXF8YIq3Fe4a3SuJy86wnti3aI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfatXjdYDBKoU4O_nRbWaFr1l_8SqxiEB_YdNMtY5q0Pcw&amp;oe=68DDAE97'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHn71G3&amp;_nc_oc=AdlndkYfLCs_ue34snk3wb_5NZl_3pBp-vqPlj5mUaXF8YIq3Fe4a3SuJy86wnti3aI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_Afa-yd2z6CeJgt993AO5MXhxanc27tZy3d0dS_AquP9CMA&amp;oe=68DDAE97', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwGFfZhN&amp;_nc_oc=AdmAStu23vQhr5bkzOhiwFOIgxYKRCP5UFf-YUcJKfZHgZIq2O7hNUqwLJCTZiwDeTQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuFrMNoYkAnJ8f-UKSo01gR-c0qmekSnoTKp4HVe6lyg&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwFFJllR&amp;_nc_oc=AdlTGbzKIrw2R7tXowxg4bS0vDPeX1-ZXLsvjNYQjOTN_9E8qekxBkkh7ptPRC2ayzY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfaeFtWo-U2VH1N289f9skECQtgBh3_cPGwTZqr3Y9LqFA&amp;oe=68DC7B72', 'profileId': 'pfbid02X21V5QtAZBTnFXcn1xXUyUobDC69LyvoEM4z88imY3S44GiZA4NiNtQ6gVLWeXp9l', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEoPkfz&amp;_nc_oc=AdlfrCmCUJNuegrVygz7CQPvUzTbnVWZk4k3w4HZPPXmrCV9fDFF1bkZgba5USWa8zs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfY9BKWTaG-v4wWnNLzHb5BmrAXx1HouT-xKouLwFi2qrA&amp;oe=68DDCCF2', 'profileId': 'pfbid0TUNJAFFohxaErM5pCQgH9KZvbYjoSWzxSk6waE1xQKkk7BTvwCxgLvB7NMAiBbuSl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwF9e_Jx&amp;_nc_oc=Admikv4J1y-jVLIKMjk7oDXmmR02rjOsUa_yFfPF-SLNeqtl8pr2BPQXQzmHJ_B-_h0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=HerKo1v6xX7ZDxzLPswNAQ&amp;oh=00_AfZPG0pLGJMiWqJso2v70_aomokGkUJM4j3CbMjzTFKxLw&amp;oe=68DC7B45', 'profileId': 'pfbid02HVE3gGzo8VPnuGfqDLK8MNsYaNN6Ka8494qXu5kBy5QhjGW8ARDVZwJM4SpkoRxQl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwGJN5nw&amp;_nc_oc=AdlAcH_H-yah3BNaYeD25RIpH_psBjfyoANPHGv6h4x1mhXNmnCNjAvwY1dWhzmp0x8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_Afa7IEiwpR8bfyV7C_Vm3tMnNz_pZrAiGqlea9cDQqhChA&amp;oe=68DDCCC5', 'profileId': 'pfbid0Dwarm7NSHKDvjYiDkW7UJzLPccD3F733WvF5erzDMJw21WeVd7wZrmATHFkT9fE9l', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwGCLKPc&amp;_nc_oc=AdkD8djMJEC_itQoLsFq_gwmsIceHJyQQRDsaJYPZ3QFLP1eC_Amxvgcw5_l1taT2P88UyplelbAxo98269LP9Bx&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfYJn-_CxRi6Qa5LQHQQ4z49cdiCCZiJNGScNAlckLL1cw&amp;oe=68DC8DDB', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwF2SY65&amp;_nc_oc=AdmZcDXmcm3nW-Aj8Tjw-sbCqfvMFwZ_9gLRHJsoLy8M6u1zhOQ1suW5630rpGt_HSw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_Afbj6O0O2-_2B9gyoXSE7yXoSYTPkeczKLc-aX-ltJs_8Q&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwFJxmH2&amp;_nc_oc=AdmyN9Wsl68TqSObvXxaPQSbSrnxPGd3HBgpARh1DxWq25C-5V-r6GudPXZlGHPcYhVvz_jvc0ToIbRKP3s041o_&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_Afbg25sgb2RbAdATgzH5pOnDapdiBQLAPsT8v-FMXST2uQ&amp;oe=68DC729B', 'profileId': 'pfbid0qpukpKUBK18cvHDHwsDGh4qZGTZduCVmkWBYctxP66fjrMX2FDhmKsS7NsGTRGhkl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwG2xOYU&amp;_nc_oc=AdlGuVlf3NOqT7ybPWeY-d-3twOHsZ829vrNOD4QHdPEClcKvdr4GtL1ghBZ3VlccHg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfblA-Tuuf767B5obZashJpkac16gXLaUP3xJbfAqxd5ew&amp;oe=68DDC41B', 'profileId': 'pfbid02ugMTzzQ1AMEyzB1RUNohW9J7CpSk69mC78PcvkwdxVWZCpD61wTt5iU1fYE6hWyGl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwEbGa5q&amp;_nc_oc=AdkfvPH91uLmMMCTDIJ3_utgTCRNLCkX2f-fwIeqT_WWBE3loR9OY9-i-6E72cNUVIA7CMi5itjrSONqCL3d2tFr&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfZyNuPN7vRL9eyI9mkYpJpfVxR_zmv-KnSPUZo9wlcgfg&amp;oe=68DC900A', 'profileId': 'pfbid02fb2NDkgVZgMKGik1BDkxWxM4Xkfbfsd1e5KgTVe3LYBi9LftVGgNpyUTJUFZ3QXNl', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwGt6vIW&amp;_nc_oc=AdnnBWJR_xfXHwajTGnDk0PSC9xcjRBfH4vHpYWo7q-HvBgpDMD6sjPJHFvzMkfPakQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYGxpqGqRDg3m-8zCjpbH3ilVP9IfIr4LYB_i7rVVGzYw&amp;oe=68DDA94A', 'profileId': 'pfbid0c3PBJb48iTcMd4niKG7oCKxa7358nEdZQMnpWKRLM1Gox5uMst8SJSqHT2iwkzHul', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MqqPu3sO8G4Q7kNvwEP6suw&amp;_nc_oc=AdnBrg6oJ-Zcbxia-PIf5E8LsikoInkhe-YFgHvSxRl67kAfZwwt25cRRtR7-jbveJYg8tVtS3UbciQ-XkslCuCo&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfaJkheyjsuiqyW8hHKDNmqCbV7-Ne0ex6yY1Re2COdJvA&amp;oe=68DC64BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwGBLM5_&amp;_nc_oc=Adl_2WO3a8yXGPgWkZ0ajmEONx3q2qgslqL7QGeoOgpq1vsDpT5K0Fr5oPvaSecWXFU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYh3JcDZQh_-DI3OHPgL1nm2SWwatUVI8HPGlZ2Qhf1pQ&amp;oe=68DDB63C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwEtznB0&amp;_nc_oc=AdmLrRwjw091aei4UgvpJtv5oRvbc4HbDuZMWNlvTnS_0q0E7tbeRU9-YajAwL_ZDq8c7XAaqc8YitHcBSrNKhmK&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfY521_t04bAJT66cAyurLpOJXW1sa2WJ-PY-cbf59lzdw&amp;oe=68DC859B', 'profileId': 'pfbid02Lt8asgnSyxKjTkMqPCdY9SP7S6GgXpgtW3CP3hFM9agjhNtczesXsaQj1Y2Ue2zXl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwHy2fKl&amp;_nc_oc=Admd0KbSMAYJSPQICp-_U-WGHdJKbDD9qiHnUeBdkSMlJ6w9df9m9prYc7iS4O2nLXs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfY729MhwiL5a2rBFnUINOQJB7F5DSUSlPjRQTn1RhGmgA&amp;oe=68DDD71B', 'profileId': 'pfbid0HLVPxXA68fYT2jY9WPzdU7snjH2fEhaGpdWvLFzVBicpfVPjYiSmsVNv51qtbwUfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwEnFB9U&amp;_nc_oc=AdkgJhZW79FPaIXFn-m7eRJ-kQIQKoPB9bbzaqGq18NDJgunnLyUhs8F4LSmrzq2tg19ppEJmugYVxAdph_skF89&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfabxXeqYmdb16QR5hApBP7GfD8RgAVQq0NukLGAMq6IxA&amp;oe=68DC7ADF', 'profileId': 'pfbid04iLxmN8nfRBVaxCvs8M1nQbNuvnAPDyDrLurA3mzW2cQnyZV1yJrzpmhxcKAiEhjl', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwHhSxQH&amp;_nc_oc=AdmRjF9S8c1nr7Ag93H6dpoEdPl-woDgQxuk7sKVEARj-PvJHreSsKDVq9Aw4GpfAAg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZnwXFNkSuoX869ZRioCWhny_NJGn-T6ohsma3T4OTijg&amp;oe=68DDCC5F', 'profileId': 'pfbid0285q9PPVQhDbkSZyEqa8LcoZv3wFEVqbrNQU7yNw23EW9rZHBy5RosQ3Nd91MpDr4l', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwFDe0tm&amp;_nc_oc=AdkOTo29HK8rAbsQ9I1mMwSKbLWUxauAUapdHqaXSKisNQrtThSbhwOWgmrPAtxaS-TnKIKInty5dDnh61TDHlVh&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfZ-6WbcEa2dozJEN9Q2L48DroOLkXLoLWiAD0WuY4d-7A&amp;oe=68DC5B0B', 'profileId': 'pfbid0KxjCiZyibuqxdbHJyhyyJRoz9oZphCtN5YrmUM3NStU4fM7v2sjiQ9QQBMQ8Bf62l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwF_EGtI&amp;_nc_oc=Adl0OmmaeXwmyu0iS-SGxCIida32dl2aUkv1bteZsk4udZqKj7gdIx8gCGGWqP1XQn8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_Afb5bRLqCW5GllTIUVvIKPmIyVFNf-jhCgAsuBAfWEcTdA&amp;oe=68DDAC8B', 'profileId': 'pfbid02PpAuuEuYTD9GrzHdKTswovETijDh5nu6TSeyJ9fQhdga8Nv3ju5HkEaH3f1bPQK6l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwGfIxsD&amp;_nc_oc=Adm60vhhZ_yrA6v19njgp0_Jast1IVCsfPPHyJNjmLoIGXf5n-4j4AjDA0S7t6TNaNESOKwlnVnUy0DFAzoXZXxC&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfbVWQxmeYwlJNPNwkM1EafsCkZrUM1byFp4XTYOwy5h6Q&amp;oe=68FE1987', 'profileId': 'pfbid025yjUYLRB6ezaU4rzcUkh8kfA6e63UDbrbnVuY4BmGVnth2fnxtWEbvZuyzmv7iThl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwFhn_5q&amp;_nc_oc=AdnxjCe2PGR4Wql6KkGofL9K6qTQfLRThgkil0OFpBuDBJte12LRFsjgKabNMo7SWGE&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZEIrLqLZuPuAbkTpPf3YHW2oo3mawyn3obE6NVN5J9ZA&amp;oe=68FF6B07', 'profileId': 'pfbid02S6HdAnpFJSoA2VScfNwyYTXP14SMecqRbkujDKZ9fvZBZc4JaSeoxQ4T9fVuxftl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwGjK4r8&amp;_nc_oc=AdkgvsvjWZhjZH6zj3JN_kCKNTsx2L2nP8CJYE9mz7OZ1duxlC2ZIrjIgcW8Y1gK6WtfRYVFyduUJDXna0RO_v0m&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfaH8j-2ZSLVdXLbnIp8QK68buFSkLHUG_sS0BCAmIA-QA&amp;oe=68DC70B7', 'profileId': 'pfbid02SV2nid7xt7HM79z7yzYABHahvUBPbvMBCAUN4CcrzZrTYFAH2C3EGmUE5JASdf8sl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwFSIvF8&amp;_nc_oc=AdkEem1t6dusPS9ZU7oTc1_EjVpxmqnNTFPLxyFhFwxgn6WFXewxfYeNF54Ed9TDKos&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYENoAg_H8IMRLSdo9K_o6LRcPXLoHiHsFQ7QcnE_71qA&amp;oe=68DDC237', 'profileId': 'pfbid0NwPboTVc2t6yWV1ioUUWyhmPmuo6tA1wrsNmEhkcWeSdspvqfZGMACKTky5s4r9Jl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwFtru7q&amp;_nc_oc=AdkVrDzjEQiPc93FtyCcKv_g6G7fxmWHWQt1mrZhgcSKZZLNB61DgyPuTohxpNzreWzfTG_5KBQH2DNSBRxnwm-V&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5V9X6UhM39twxPpsyaxvCg&amp;oh=00_AfagWspqWGPtbFetJVXsb98Ioew-HGrgRI41YK___ECo5A&amp;oe=68FE12F0', 'profileId': 'pfbid02DbGbDiozVmVopXJt8b712FHopiMpFao8pir54cK38QjTiTVYVWdRbbh5XPNf72bol', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwE4wejh&amp;_nc_oc=AdkO_7-0o0S5kHTQZiqjCGEjj76rOqpV1gQd_xl98zOolsKsJOyq20-lYEGK62TE0iQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZ9RU_VnYzC1USwVcAFN6fMiq6mrLoQvwdV5RLh02xcrw&amp;oe=68FF6470', 'profileId': 'pfbid0A3dQJZBdeUnt25AGP4nMFz6PyEZNEjVJymu5gGeA4WmQq6n8qDTo5m1goPujaHPul', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwGPPI97&amp;_nc_oc=AdmWSPNZHmp8udNXxkZS4r_4LWT6sqMvnuuSjlGlFjvGAZvUxD9bwR6gtaucVXHCK6nsz8RT7gSwXE9uRcStYrUm&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=63-IYeIUEmUkfBcRFX7p4w&amp;oh=00_AfbJn1J-_2rp7qfYjjOpwF93l1GDqA-kQlbIa6M6bonJCg&amp;oe=68FE02CA', 'profileId': 'pfbid0swt2RHfJpN1FTK7XBasR7J1Z85YiuWgPrAYpXpJdZe957VzTo2zeQvViYnwcF7qAl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwHFxLXA&amp;_nc_oc=Adl_RQooodvGabYL2Bz7fMQKndrLc6quFWODzsSytHrh3ohPhv0HVDlvVOpWvHL8ezw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=F2dpdAc-YwNyCPzhZcLQCA&amp;oh=00_AfbsuoFEJpR9q2PcEjcnAUcses8DWFScYmQGwfzIMxMqUQ&amp;oe=68FF544A', 'profileId': 'pfbid02wKND3K1vqwZdSAvzecw8RSWH5EUUDt8Z3Wb34AnwZhUMV1giPdyh4XEndgqbwVKXl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwFAu3Nl&amp;_nc_oc=Adk2sMXx5P7D6S9nk00g5ZUlUof8mL6b1NvoL4MbywFc3x9H4UicLUejAOp5u7UVXYJo3QH5KwoozjDFjSYpi4dE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=63-IYeIUEmUkfBcRFX7p4w&amp;oh=00_AfaU9jd-2eVW-2YvzZznT8PZdy4gLpAhalopC-osjo7RiQ&amp;oe=68DC7E2C', 'profileId': 'pfbid02JtazS2dnvndbpxEXGakrYV7ES7eiM8rDnu7KqNpF659gFUqRGfLdVpDZSKAHBgrNl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwEdQ466&amp;_nc_oc=AdkbpHu6uiLeajfbGu2iiUOW7uDxhSSu0ktmv2jarc2ZMo8N24aoizfY_wAAItdGkdU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=F2dpdAc-YwNyCPzhZcLQCA&amp;oh=00_AfYkrqj1qOhQoHOfry9Uj-PD7Fw4MPrPpooH6oT2oXkWBA&amp;oe=68DDCFAC', 'profileId': 'pfbid0FLwoWs1S5WTAyBVL2gbxL2H4Zz6szJPfvEDPxK12hmmaeACeioX91QRN2VPWt8Uyl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=axvWypj9384Q7kNvwHvJOCk&amp;_nc_oc=AdkVYOZI9ytD2WuexywY04RvFxJU6R56ChgEdw9NPVvlFC4v6Ft-tBanafrQUYwWNoo&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=VBxaimvcwUtkKRdx9_65OQ&amp;oh=00_AfbEBqWzeQkld2FQfXaYFC_B13SNTWMZRKUl6C_VW87ECA&amp;oe=68DC7FFC', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=axvWypj9384Q7kNvwEGKgOK&amp;_nc_oc=Adkwbecwh3NxaOD2sMUaP_tqP8ZsDhPVcu8EtNYK7QeLmlGnePX3q5QTvvk02uSnxKA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=YYXtoMK5QqW5VHANSaXQzA&amp;oh=00_AfZ2vjvB6z1E4gWt6r4SAqX-ClWfRoQXxwc7G9bp_utFpw&amp;oe=68DDD17C', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D_fFm2h4g5gQ7kNvwGC12Q5&amp;_nc_oc=AdlOUI07KZlTK_aFl9fHOWGyKLkXF3cDsdXq5qMHDnklOyW25Z4hMLeumBMG6UIk5qQ&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=VBxaimvcwUtkKRdx9_65OQ&amp;oh=00_AfYbuI9xIqes-xA27LXd1i7NuAVKFIVhCVdl33pbaIZtnA&amp;oe=68DC683D', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D_fFm2h4g5gQ7kNvwGksZxw&amp;_nc_oc=AdkaHurYizdkXZDZAFibzPb3aTTdwi5cU-rVxfp2Zh-sjYYAEiuKPqFVIY1ctYcc1h0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=YYXtoMK5QqW5VHANSaXQzA&amp;oh=00_AfYsnO4lB_qxWrOyq-fFK0UF-EzpM6XApIGDJJo7ea84UQ&amp;oe=68DDB9BD', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwHlOYsA&amp;_nc_oc=AdkZn_3HMjv5Qb1oV9voUPahRtvjkZUeDLgStxlNYwMh8zTS-tcZu0mSxGpS6esFOEc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfYFxuN2gPrE06f28i6o_xzKo2JkOAuZ1aPttyRn4iNEqQ&amp;oe=68DC6020', 'profileId': 'pfbid02rrY8vX1rvo6ZGTNfa3RyFEaps1EEemEFFXxMdQRZWZ7hii1D8FhbvYo7kV4UYJzTl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwGHLoA-&amp;_nc_oc=Adl3PUB8An_xyiFkrukL8TcUkiNjnvNIPm1FAE-SAQIkznuFRH15WUdCF6CnuEHq8GQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfY3rFQnjozYELU82AdG4WObUMuhuefB8wL_6_f9P3z7Pw&amp;oe=68DDB1A0', 'profileId': 'pfbid0npwRShpJFrxosMy4DBHwcg1C483SGSJ4ym4mTb1hm3y1Y9PxxMSWx48USC43Aqckl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1XhLF-zaP34Q7kNvwEaytNh&amp;_nc_oc=AdlGQNw0rXhjIQu5wid5GyFZy3wgAvXmfjW4UP7_McbQS7RG2gddKFaOdSerFENFEsU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_Afa-PkOKq788FT3qae5q1xGyqjIkO5kgKSI0-tRNY99agg&amp;oe=68DC7491', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwG3zvff&amp;_nc_oc=Adkm0cL_T4A44Kzt1OrHrKwaYegNmMmKVuyek_teDAuPzP6eJHU0IJy_vKOo0soEaRA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_Afb4xXcuaJLLvxSfsFqVE_Izvmqm6N-CaTFGcPk1coIQZA&amp;oe=68DDC611', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwGTVG8p&amp;_nc_oc=AdlXN0lFNwlzHNEnLrnugG1m2oB1k_8S0AxHYNXKjGZJBo6rYzxITzoBhW3YWrml8GU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfYRQ1eXj6ukXTIsPBmCtQI12ndboVRke9bWFE_TAQC66w&amp;oe=68DC7860', 'profileId': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwG_aCpG&amp;_nc_oc=AdnhW7ND5lJStxlgBX0BGO7-bwdRrCsraxX9_HoiriqUB5eWmZeuP1MAbaDjWOnH8FU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfY23uQuXrRHK_r05nO8Bmq5FXdhKGE_O9ceLDwH593h0A&amp;oe=68FE05D5', 'profileId': 'pfbid02QER6tETWYw5BLHR5JVG3sXE3DgKwJiSZ1BmLKqRUhzWYYswPck73349r6dWxT75Gl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid03788dFa35xCQ5bozuU7DZE2mebHC53SJ46GwGwauQvj6sQ1Pu9P2gj4eYkg7WdR5Cl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwFC1Mba&amp;_nc_oc=AdmTuBf_nZc48z3-iGGTAYv-wQX1Q3Tu8T6tNFE-ZjHagdBE0SM9h6fRTzxBZY_AQxY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfaSw_QGDglkS4sOJDblZ5mtnejbkvHEGdgR2AoA7hBJLA&amp;oe=68DDC9E0', 'profileId': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwEWmZgr&amp;_nc_oc=AdlI91E9NxrF2x2ZCdDz3X8sgsLcD9zoKBYM5T2In9j2d_uxF9bwqGlrKbnDDut2G5s&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfYMnrNFSZY1R-tuYAhxOS9oXiZ-HMjPUEODPVMWaVDSPw&amp;oe=68FF5755', 'profileId': 'pfbid0Lgmuy4q9hp3m9DmMiYphFD2SrSwkb6h7Z2tUSgKgbUFrPAeE94upa8hpdDWZXcTCl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwEWUDIB&amp;_nc_oc=AdlbLN9vd11EY6GvRtElpm-w0v12kHuV_OhC_hRe1CuEwVsJTiTrFCVs_OwEEtOxs0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfaBp0ywmsXcWrgp257KF5FhpRL9Qior4MPV7pOp8aXBzw&amp;oe=68DC8767', 'profileId': 'pfbid02px1wXRDwRECdaumNHMcZXXB54QsJTbwCVrkjkRP5rVcBBGWME1QUDqdjc7sS3weql', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwFoUKbm&amp;_nc_oc=Admt2RKcCEqWzED_NJ-y2yoXW30j9QFu5GD9HB2y16KyAmox9iI6_CTvlxs3NVNgob8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfYLgZ89gsBn8xvrY7BYBZwAgskpfhdzZjikDFr2qlgbcA&amp;oe=68DDD8E7', 'profileId': 'pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwEAimlO&amp;_nc_oc=AdlqORKBis5-L5qNHcdBybU_YitvvxUGDkFZoiZ-mTo-oVeop8awU-BHJ6_dDo0XA3A&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=u0geD3j-Az6hPvVMFoyAqA&amp;oh=00_AfZtoGy7ZHYBdhImmFOGKRUbS2CdO_ng1jSBv7sBixZq4Q&amp;oe=68DC64ED', 'profileId': 'pfbid02jTLnW2uaSKqZXmmRpLmbCyLkS4vY22QsYmaR1VNtdDrrtSA44GdJ62S2ykx4KXMKl', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwHP4Y5C&amp;_nc_oc=AdkMfkj6aSgRJQMtI-UW30ygy5Wn9s8iw1mQ4ZAnynib5v-HfZ6CRPTWbV8gPwHZKnY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfY2yR5DWJyA3vWHyaAF6xE4d9bIgldIiq80lf3BXWvYtw&amp;oe=68DDB66D', 'profileId': 'pfbid0fuhbasHDazgnbm1s8tCXg3fwG5a5n7PdXnnfhnLi5YsLDiTxCVDgaCwM221zVUW9l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFYMbK5&amp;_nc_oc=Adlb5mtJhs4nJaQakDGNTtSHY7jWCCq5NGMQht4-E_STMvuBF9U1kLsvi5OpOqR9I00&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfaPetmEY0KKTDxspDB5WI2QHHoObDqpjbaiDYeGegj7-A&amp;oe=68FE19FA', 'profileId': 'pfbid035v8PSRcT2cx7DTQW5TfhyjyGME9NDR2s8qAVDYConCm8jxBr731AjxSqw3eoEyVrl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEuTXrU&amp;_nc_oc=AdlkIVZsb60nM-CCov9-oP0ZeE15TwEAVdcpKFiugwYKc-3tcdCIkJdSpch_3K_upao&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_AfacsdKpE4jeA6_54xDUPmoX4zD3NCKhcr0ASi94owOmhw&amp;oe=68FF6B7A', 'profileId': 'pfbid021tXfxcQtMcJy7swsfpM9PQGfXQgeph5cyK7cxLesNArMzxGjvHFjoobmJZHxwecjl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwGY4Qxf&amp;_nc_oc=AdlrlylhV_d0so7tBXl9hnjCCPa-kDnsLDzcnhPyNBrOHl-2YgEviChd-6hIU71veW8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfYKzz7yZ0VRd4BQipdAiGryoBxOBFkeX768KysnfRh2sQ&amp;oe=68DC6AC7', 'profileId': 'pfbid0D3pQSaM4ZFzZJV57H11MnPpkxB5rxiHihvCLSPpk8wRR1F882woS6gioYXVDFMHEl', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwFCz-uj&amp;_nc_oc=AdkcAjJWLprumwQsdONZ2Von0vHzKPzisn_d_ue-ZmNTC2QHRTuArmSN9v3jh46MFws&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfbRkahUHEclIybMGmnZRIOP56PVh6gFncNfH-qiGD-XUg&amp;oe=68DDBC47', 'profileId': 'pfbid02GRJb4bhgapZoYmU5xVs3VcXVVnD3H2LE5H95ZyRLfidrHTRTDRG9bQGMKpxVTHDol', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=lgCB5RqdFBsQ7kNvwHKI3Pr&amp;_nc_oc=AdkBkIhDEKMrK2hHE9aG6hzNa20Dtj3X6bbwXXEtDpd--YO8CyyIz9fgJeqTLrXkORs&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfbscNzGChCwnAWU5gtX4awHH28ck2MJoBL01Ezwun2VXw&amp;oe=68DC6CD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEYtTVv&amp;_nc_oc=AdkzVgnqdFhnnDzBxyDFWLydZodmgbIxqOUXxpm7C0EW_okdHKFDMiac5EI22ISqX0U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_Afb_fcH2nvTv8DkJDOYuP5TTNrcO-6Lc0qlQarSpl3uC0A&amp;oe=68DC77E2', 'profileId': 'pfbid02c4FntzCAiHqpfhS9TU7GYbQLFiQmFJJWm7FEhKa51mM9APQvrGyEfRyUU8WTFT15l', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwG_rsOi&amp;_nc_oc=Adlf90eNxvwu671iabjS2PBKK37e9hMst2-PdvHLhGXyHmziv0vLELZcudpnDBxCtig&amp;_nc_zt=26&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_Afbme4Zfl4hJ7JK8sDd9xcX-aDNQynUWzBDoTvC_99mkvg&amp;oe=68DDBE53', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwHZIaOz&amp;_nc_oc=AdlfL6XTzqfkpxdtqzFVOl15Ih3owpTT_C0jeQrdV3g1DeYfStYz4E-f2BYF-bpDWEY&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfZwXcaAgqlACHd0IhWySVP1qPww2-Ttu_QUGeNIJDQBvg&amp;oe=68DDC962', 'profileId': 'pfbid0YWcbypZos2ruJHCUg7dTUsKZE5yQBKggGvd83DUXF53E3hy4WvMCGrPySMex3KzTl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2DWKHbi-638Q7kNvwHbg-px&amp;_nc_oc=AdmYU6gxfsaWkmmaYUzOmYtb9BH5hOXgJSlpG_gsI73GHsqix5XWRXyBchyGn4BX85w&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=YpWSN8C7kvEAFl0WsKuGkQ&amp;oh=00_AfYa-uug4dLB6m8o8Yrfo2Js8LMC09cP4m-ATDE4-W6XPg&amp;oe=68DC5DD9', 'profileId': 'pfbid0WQBvzAEFV3BaZRbHKfeDckNfKsYT4pHS9iGKsYhhZ2S9WtssHckSh8Mc3Ksp8mFJl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwF2q-vd&amp;_nc_oc=AdmpFmYHwmxmmcLTuyyYgln7wc0c-4YXxlnAfG9mCn8UMVMgREnp5rR07VsRrSGVruU&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfYaQxSJelJ6ymvaDl4fJNftcdV5jMv4Ogu7DjvZ4JxDoQ&amp;oe=68DDAF59', 'profileId': 'pfbid02Zmg7cBasWWZan1zCxNUX1c3d9NzFaSJwEVaSgsW1w65Tjr9PE7Q6HeckRSrtECVFl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFoTQwp&amp;_nc_oc=Adkt5QL3U85G4H03oNJ7lDkrua0ckF1xDNdnDDJxMinIsPqcZvBO4mdvUepkc17ZONM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_AfYFX_tGOLSgfuVU8sX27Y3SHn92niw9BfN6oRBwFXVoZA&amp;oe=68FE19FA', 'profileId': 'pfbid0CFqjiVF3Z4hkncHMpb8HbGnAFXAx3pvLZcytSnLnsiHh5wNw56ir7iBabGHpMfG3l', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEyXAB2&amp;_nc_oc=AdkI9GtyQTZMlzlGp8CGyXWPWfjxT80ijNd-mBr3YAB-JZQ-YkebKyW9xGmuFrzWiAw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_Afb_tvElSJFd_iKqguj8eMw7-Z67iIGdRt54y-9ipnnsGw&amp;oe=68FF6B7A', 'profileId': 'pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwF9BF85&amp;_nc_oc=AdmIPOskwWtdeHPgWOhJKoncPsnL4OCOmh1BmEmfQd_aHDesMbM0KnyqaFv-Z4nwd4w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfYLFLTsbMsPbdzXOBhk79QZfyazEk8nXZ0m3Jo8Q6Eqhg&amp;oe=68DC8DDB', 'profileId': 'pfbid0TCCqWFZAJpRY3SXx6P9DjFHFX4VeFAdz16WEP3yZ857VRotcZ4z2HT54J1ZXC2r5l', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwERWkTy&amp;_nc_oc=Adls8WkBCVEteNWIPhPKHnK10nCC1N7cdpN8Y-HMKjPvC8s_c3Js12PC95GJIylpm0E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfYSCvcWEDLgXsCX2KX6EoJQzN5t4mRJxK9PqsSQ_vXqdQ&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NrAhZBS5OGMQ7kNvwGtVIRf&amp;_nc_oc=AdnK7w596BlqtYadXyTNB2kMV8hM0tfvrpbS1-rx26A6NRjHLDKvpI7PEl3LmvNchOI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZCoDlSNdvJZ4WLXLxq6Vf2P9d41QXslVf91TN9KZ_pig&amp;oe=68DC776B', 'profileId': 'pfbid02cDDArNSazrhxBK9cgs9KhCehYNJTWLcpFQ2ywQj6mpLuLNaoFAcmLsVyNi3QJKXCl', 'profileName': 'Luz Artunduaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NrAhZBS5OGMQ7kNvwGpR_Tn&amp;_nc_oc=AdleQ-rr13mg8Vg16v_gJaRQ6Mll7anq1L6c33vkq9NNzpJ5K22xX9SGA50JTG_68AE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZXUJgV3zKU3KaE0OkA2KxwlgbWm6HSf2KF-fvL5_XPyQ&amp;oe=68DDC8EB', 'profileId': 'pfbid0YfZywCpE9jGRNBndYt8TaM8MyEoLEhoJzXsxRoBHhZxeGDv9BgdamapWPWDEMVSWl', 'profileName': 'Luz Artunduaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid03E4ynVXw6M68fCAMfnKqZUPkAKhZYeVeK3atu9cRRwhk9JdC91bZ2yzt4XBVQ6QGl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K_0_FOKICcwQ7kNvwE2zv_z&amp;_nc_oc=AdlqVoPE9dxrrbM3MXovXErbCRTT7tNIrh6qaQDbxjqn_HVsFmctnZJ2SQTHz4Gunyw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZOPkejtO9TJQ_OstsmHjnWfH-N8c9dqfoflt_KroxBVw&amp;oe=68DC9226', 'profileId': 'pfbid03E4ynVXw6M68fCAMfnKqZUPkAKhZYeVeK3atu9cRRwhk9JdC91bZ2yzt4XBVQ6QGl', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid0275WgyATkwjHaFmD76aRmJPo9uezKRnkfZ1HwDjYBUbrKFgygagsDVVgn1cqt918ol/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CVD0Jr-dgkYQ7kNvwGnbq3X&amp;_nc_oc=AdklcZK-MVq5DrJwWRa6GnfzrBQD6WbL3fQ9CTBnmf6CB8CjiFLZBt10Vb4WWgtWdWM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZifeHCZYllinXcxrtp1dYfD1RQgzucbJ4LwhItwPeRtQ&amp;oe=68DDAB66', 'profileId': 'pfbid0275WgyATkwjHaFmD76aRmJPo9uezKRnkfZ1HwDjYBUbrKFgygagsDVVgn1cqt918ol', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9765,23 +9765,23 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Delicioso pero con esta situación</t>
+          <t>Muy bueno</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>45910.60291666666</v>
+        <v>45926.61658564815</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>45910</v>
+        <v>45926</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>14:28:12</t>
+          <t>14:47:53</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K182" t="n">
@@ -9793,7 +9793,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid0z9WXRueFn3RwKemttsR8RBuhYwA8db1T9VoKcomxtJJ3RGDzr8KtFZSMyw1oqhXFl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-x0nseZNdIQ7kNvwEKIfk_&amp;_nc_oc=AdmwAoiaWLMRQcaGKG8UWyZVINemb6sb09dWmEUg1nkNcu3cl9S7ZKpcRA-yExGQRR0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfbYBcdh9alho6VPXdmf0SK3Ef_y7r9z98O1-OdrBv4oyA&amp;oe=68DC7A3A', 'profileId': 'pfbid0z9WXRueFn3RwKemttsR8RBuhYwA8db1T9VoKcomxtJJ3RGDzr8KtFZSMyw1oqhXFl', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=659141110565722', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzY1OTE0MTExMDU2NTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82NTkxNDExMTA1NjU3MjI=', 'date': '2025-09-26T14:47:53.000Z', 'text': 'Muy bueno', 'profileUrl': 'https://www.facebook.com/alexa.gomes.52056', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEDDeCt&amp;_nc_oc=Adm4JNr7zz0pCartGLpMoCnOPLGkZ7gKdTv1bTL4fSGbAsWmqcBBONAlGo7fLkuBHi4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afa1-l1nmE-5iy2MYvVSzSsHa6v9x1xNUFFwEKixGu3pmQ&amp;oe=68FF6B7A', 'profileId': 'pfbid0oNifqgSiQqAk8jCtaCqM5Ay3L6i5boRMWKLJCbYvBcqQsAfE71oK7MkwqgvoXEvcl', 'profileName': 'Alexa Gomes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9819,23 +9819,23 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gracias por compartir sus recetas que delicia</t>
+          <t>Delicioso pero con esta situación</t>
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>45919.77305555555</v>
+        <v>45910.60291666666</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>18:33:12</t>
+          <t>14:28:12</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K183" t="n">
@@ -9847,7 +9847,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwHd7kn9&amp;_nc_oc=AdkJ8zl28pERIJmU_6Ih7d8y4sepr6z_4n5dwLeCyxUx4CySOEmzFeZns4Tuh4p_lVU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZZYdC2BUwbEQ39QtSbds9bVcyexgg8elm9OGyzM48R4A&amp;oe=68DC80E4', 'profileId': 'pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid033zxEcaa5dHiBkjvrRjnqrPsAHwRu7hT7k5HR1vEnekVmy8jRe2PZTHhK4FGKHxj4l/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-x0nseZNdIQ7kNvwEl_zcL&amp;_nc_oc=Adn4gHmPxAK70GZg0KljSW_L--JjJIXIahuTcuBTlpm-xaU2vOhM1T_dMjrZYe4nIG4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfbyN_pGeY8NK5eWX6BYN7yyPaheeFQQb49SnQm_iZzfMw&amp;oe=68DDCBBA', 'profileId': 'pfbid033zxEcaa5dHiBkjvrRjnqrPsAHwRu7hT7k5HR1vEnekVmy8jRe2PZTHhK4FGKHxj4l', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9873,18 +9873,18 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>super gracias</t>
+          <t>Gracias por compartir sus recetas que delicia</t>
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>45922.65383101852</v>
+        <v>45919.77305555555</v>
       </c>
       <c r="H184" s="3" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>15:41:31</t>
+          <t>18:33:12</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9901,7 +9901,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hz3wc2_dzx0Q7kNvwGJh7p9&amp;_nc_oc=AdlkTFMvqLzY7KpvGbjur99dTJJam7NeDBsV9hPxbpmiscHav40IjkDZrweSetPB2vY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfahbwEcDDM7tqVREgVpRqn12znuSWP-DM0PAwxbFUPb2A&amp;oe=68DC83E1', 'profileId': 'pfbid02VW6TvGKbDaKBUBtVDTpGZ66G6LbNMwQbft8XaBucwoBqGXEaHiNwyeaxsrW2aX2al', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwEKLfPh&amp;_nc_oc=AdnyJGzGbclHHmS_nF_Vy6FMRN3YkV1upLyWbc39Ic_XsseCdkaU0mOqE-Xtw4jqj_8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afb5wpTpWyGX8O2vt6oVz9jpdeRPzQBptzv4GPVTZyYVaQ&amp;oe=68DDD264', 'profileId': 'pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9927,18 +9927,18 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Muybueno</t>
+          <t>super gracias</t>
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>45924.79480324074</v>
+        <v>45922.65383101852</v>
       </c>
       <c r="H185" s="3" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>19:04:31</t>
+          <t>15:41:31</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9955,7 +9955,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid02qUhr6NJcHuTovLZGQcPYdAFAQUuaoXEr2SBaC3QNpTsjMd8gLPYqrJEPyxEYtSu7l/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cUuhIKu9gwMQ7kNvwGNhdFc&amp;_nc_oc=AdkoDxIsSA8mVJ48l6WFCX4kkFNqOvD-ty9YP1FaB-l8jAFIDs-L_eJSHO4F7SV9eco&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZcO_c0zmBX2UbM6ESyoGcJqpYAqv59sQdmrFv2vayc9Q&amp;oe=68DC6006', 'profileId': 'pfbid02qUhr6NJcHuTovLZGQcPYdAFAQUuaoXEr2SBaC3QNpTsjMd8gLPYqrJEPyxEYtSu7l', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hz3wc2_dzx0Q7kNvwFgvlmu&amp;_nc_oc=AdnIm2n4vf3yVrBa4h_hQ2qJaxOIECg1flq5xEPZl8X8s1jbpaf8xkpg5pg1x_PGh7E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZf2HZkk68-v98N1WNNxGuvremXyrYnEUDHCSog2HxvDQ&amp;oe=68DDD561', 'profileId': 'pfbid0RxTH16hENMUBdg8dmtpUNbPbYhNUBehwSjbShRNL4onADj8YXvkZe4whUPtfDMfNl', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9981,23 +9981,23 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Mi chef preferido tan bello saludos</t>
+          <t>Muybueno</t>
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>45914.17449074074</v>
+        <v>45924.79480324074</v>
       </c>
       <c r="H186" s="3" t="n">
-        <v>45914</v>
+        <v>45924</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>04:11:16</t>
+          <t>19:04:31</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K186" t="n">
@@ -10009,7 +10009,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4xprlaNpUCoQ7kNvwEmjiMF&amp;_nc_oc=AdnhMyk74DWFX5MozhWhQyLo8wx7magVGA5jC_tD99doA_RzAdY-M-tc9XfbtwvInso&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZns32T-_zP60nUVkWUOjiOg5yVlRtCUDQWhaBXwK0a7Q&amp;oe=68FE0BF0', 'profileId': 'pfbid02kY2dfbmKALL6X4mcMGAohkxQDLAGe7py5YFUJn9AipmH592Efnch3viMiF7JryLpl', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid0mT78cZ73cyThfAwPipSscFuzqEbwTdw8UwrnMtBEY7aBSfRg14DBYqyrzQVLZVWrl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cUuhIKu9gwMQ7kNvwHaxZAO&amp;_nc_oc=AdlhXPqDroDuF4_BuW_1UaFcjevmjx_LeATZWZ57A2lATN5wVCWwOoOv_s_2VL_9FQg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afb1s1VaYPUhYVPmpI3joe1cpYknOUT70dkvTG7A6rzByg&amp;oe=68DDB186', 'profileId': 'pfbid0mT78cZ73cyThfAwPipSscFuzqEbwTdw8UwrnMtBEY7aBSfRg14DBYqyrzQVLZVWrl', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10035,23 +10035,23 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Deliciosa me gusta</t>
+          <t>Mi chef preferido tan bello saludos</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>45918.61329861111</v>
+        <v>45914.17449074074</v>
       </c>
       <c r="H187" s="3" t="n">
-        <v>45918</v>
+        <v>45914</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>14:43:09</t>
+          <t>04:11:16</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K187" t="n">
@@ -10063,7 +10063,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid0PBv2HBEXfZZfx7YMg1rJtfJK1tWtcVT4pzrYMUqEnMw2JX4szWXYfqTzPKus14Yxl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEA0aBv&amp;_nc_oc=Adm4I_ia9d9cPuNtZCX1AsAflKp8or56dH6ade2MGtvswaExAZHs3MOwfKStGAOesn0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfaGSQbmZ06PfXjGa9mGs3jRbCfK7Y2VnNOp1Z23iYN5bw&amp;oe=68FE19FA', 'profileId': 'pfbid0PBv2HBEXfZZfx7YMg1rJtfJK1tWtcVT4pzrYMUqEnMw2JX4szWXYfqTzPKus14Yxl', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i6LOV4nXWj0Q7kNvwE4Ns3_&amp;_nc_oc=AdkEll4rXvDg6LhJAP4er04XYcH8IJaQvuk-kEA7d1D_7nC8Zri33tpxKjTNDNC1N7w&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afa4sssn1TIpjCpG3uio1WbnAZ9WjtbGFCQbYX6wcQOyBg&amp;oe=68FF5D70', 'profileId': 'pfbid02kY2dfbmKALL6X4mcMGAohkxQDLAGe7py5YFUJn9AipmH592Efnch3viMiF7JryLpl', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10089,18 +10089,18 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Me fascina  sus rec</t>
+          <t>Deliciosa me gusta</t>
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>45923.6975</v>
+        <v>45918.61329861111</v>
       </c>
       <c r="H188" s="3" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>16:44:24</t>
+          <t>14:43:09</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10117,7 +10117,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid0KfUQEYjKvGXp6zMsmwDWiE13MsrTXChihRb5xxGLqM3VQhDMhqtaSzoRHcxwKe2dl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=amqVlVumdpsQ7kNvwGCR2eX&amp;_nc_oc=AdlE-RCnpuxnDU2flJN3qGstclGQc2_1nSSdby2lRT7U2cufjgOAvbR1CypxC2Z_vsw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=YVf-XID-sAroJDk5okPo9A&amp;oh=00_AfZRkJgJpYwa1H8ZfrBgyGRz4qojVjrHJnPIeNxufEuuJQ&amp;oe=68DC712D', 'profileId': 'pfbid0KfUQEYjKvGXp6zMsmwDWiE13MsrTXChihRb5xxGLqM3VQhDMhqtaSzoRHcxwKe2dl', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid02T3MjTrAMX6MGmffbBtH36824aQuk3r9nmEwDVHjCGX93Co6U3BCGCfA58kJHWvCul/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEDDeCt&amp;_nc_oc=Adm4JNr7zz0pCartGLpMoCnOPLGkZ7gKdTv1bTL4fSGbAsWmqcBBONAlGo7fLkuBHi4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afa1-l1nmE-5iy2MYvVSzSsHa6v9x1xNUFFwEKixGu3pmQ&amp;oe=68FF6B7A', 'profileId': 'pfbid02T3MjTrAMX6MGmffbBtH36824aQuk3r9nmEwDVHjCGX93Co6U3BCGCfA58kJHWvCul', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10143,18 +10143,18 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Muy delicioso</t>
+          <t>Me fascina  sus rec</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>45920.71951388889</v>
+        <v>45923.6975</v>
       </c>
       <c r="H189" s="3" t="n">
-        <v>45920</v>
+        <v>45923</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>17:16:06</t>
+          <t>16:44:24</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10171,7 +10171,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid0FhaxsAeqYMTEib4RdWs9GnPjTw4qu1FGx2gnX2EGRnvQAtFUTMSMDiTnvf7c99uxl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHfKf0b&amp;_nc_oc=AdkQS6Im1Ow_FvKcA0V5-o-yhwcL3xiwsVKrCMjB7OsEVsvR_pDWznHUpxMB7GY_SWg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfZ8yfNS8GAlS_1bSqpPZZw9l901FIMvqMTOotvZyNvErA&amp;oe=68FE19FA', 'profileId': 'pfbid0FhaxsAeqYMTEib4RdWs9GnPjTw4qu1FGx2gnX2EGRnvQAtFUTMSMDiTnvf7c99uxl', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid02P2xara5wwyiwvcPbZ4d2Ukghj7R3GgpKV6hVK8edf5DmphmpVZvKghiHBByKzcAql/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=amqVlVumdpsQ7kNvwGn18gL&amp;_nc_oc=AdkHWMUVReiIBifbT3rlohC6ouBn1aVgNT044LR0BvGLn8P8wsIV4BK7vh-Ox3wufgs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbOL6kqz2ikDBzT_5U3YYddP7FPMLVY5tNU1KKCTq-5uA&amp;oe=68DDC2AD', 'profileId': 'pfbid02P2xara5wwyiwvcPbZ4d2Ukghj7R3GgpKV6hVK8edf5DmphmpVZvKghiHBByKzcAql', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10197,18 +10197,18 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Que deliciosa reseta.</t>
+          <t>Muy delicioso</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>45925.97263888889</v>
+        <v>45920.71951388889</v>
       </c>
       <c r="H190" s="3" t="n">
-        <v>45925</v>
+        <v>45920</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>23:20:36</t>
+          <t>17:16:06</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10225,7 +10225,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1516380633045485', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1MTYzODA2MzMwNDU0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTE2MzgwNjMzMDQ1NDg1', 'date': '2025-09-25T23:20:36.000Z', 'text': 'Que deliciosa reseta.', 'profileUrl': 'https://www.facebook.com/liliana.porras.728521', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/406886152_372916905138379_1079989097024052189_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AEk5blnsmfEQ7kNvwEegNU-&amp;_nc_oc=AdnlJIf6kYibMGwKZZQDRrboxfAEgrndzRFrH-eQt6KNZzxWx6FtEO3susYblnxvdtI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afa4VK2veMLlVHagTTF_x15jV3NRXJyxvqm41mud4R7RTg&amp;oe=68DC5C59', 'profileId': 'pfbid02jwdN5m2JirvoBXJ87z6wCEPcuiAkNGJojkHhBT4HkmgdrkuocBJBxcJNZpRHc7CLl', 'profileName': 'Liliana Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid02KZ2g3qafPjUEcGU4MwL3v3dBPhR8ePocdFnX2SYGTTcyrvZdBGjSPpAcDQQ3iZgJl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEtYaES&amp;_nc_oc=AdkYui9S1sc7_wUz-juubjoZcldN-6UFjFZkWic_rUw5nUC7FVCvz3z4jNaRK1xeBR4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYe8rfuB0FTJYOFwqZKIOv2o5nnQ1WrZMaq4f9tcYEqMA&amp;oe=68FF6B7A', 'profileId': 'pfbid02KZ2g3qafPjUEcGU4MwL3v3dBPhR8ePocdFnX2SYGTTcyrvZdBGjSPpAcDQQ3iZgJl', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10251,18 +10251,18 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Q delicia gracias x compartir</t>
+          <t>Que deliciosa reseta.</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>45925.00795138889</v>
+        <v>45925.97263888889</v>
       </c>
       <c r="H191" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>23:20:36</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10279,7 +10279,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Re8bYDXiJRcQ7kNvwEgDhqo&amp;_nc_oc=AdlBSKUORfc6ukI9uvoq2mK-F6kwARC1QAZ9wE0XvIrzV1oYIeNXIDNZ-m2JRWp7BdU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfaaNAFR33nSdcBC2mwRYx39clmpfi6ufVo6dmdN_7lXhw&amp;oe=68DC61FA', 'profileId': 'pfbid02NL7YpJY34SP6gFUt3EJskayLhFMpkrsPEpwADZRKP3Lt7WQQQECpF2zub5vYMQCNl', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1516380633045485', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1MTYzODA2MzMwNDU0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTE2MzgwNjMzMDQ1NDg1', 'date': '2025-09-25T23:20:36.000Z', 'text': 'Que deliciosa reseta.', 'profileUrl': 'https://www.facebook.com/liliana.porras.728521', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406886152_372916905138379_1079989097024052189_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AEk5blnsmfEQ7kNvwFcTJtn&amp;_nc_oc=AdnJqiS0-SwL96KRd7lbHgHUftXL72aFGWajO__lRLAAigzVRck5NhsP6O_r3arfPDc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbbRNNCVKYJkI-wW70LgRZmZDZUKYcmmag3-mjtPEM2Vw&amp;oe=68DDADD9', 'profileId': 'pfbid0gPzBAbPwshLpXFaeh6tuqBEKUj8r3cS5XQk3dZj8kBVQicgz9jdPGqu1jZnsHonQl', 'profileName': 'Liliana Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10305,18 +10305,18 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Delicioso gracias por compartir tu conocimiento 😘🙏😘</t>
+          <t>Q delicia gracias x compartir</t>
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>45912.83972222222</v>
+        <v>45925.00795138889</v>
       </c>
       <c r="H192" s="3" t="n">
-        <v>45912</v>
+        <v>45925</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>20:09:12</t>
+          <t>00:11:27</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10333,7 +10333,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RJ-F5y_BIcAQ7kNvwFq0L95&amp;_nc_oc=Adkteo2X0gimo2IawW58tQijpDDsQOCUpXQux0nFPLGR6t4lYsC5ZIGcLDvJ4jF4rDg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afb5p2RcCZVv9FoiJCkLmdJqwIThcwQbN4smv6qLx-l2nw&amp;oe=68FE1EFC', 'profileId': 'pfbid021nJaGb7Xm9dDjsPBYxoP7fp3XS2bzoWskKeLJrbPWEMKrWC5iqqtyYcmHajCLWe4l', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Re8bYDXiJRcQ7kNvwGG_8AG&amp;_nc_oc=Adn3_cjEijRyXCRi_mu6EG8tKeI-VhMrWn4wCykhCfRY3QdO4dPWg2SmTigMIdkwmEY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfYhMocREGlscq2abhA-9dQZ5Ufbp-s6GW-JWT9pVtj3DA&amp;oe=68DDB37A', 'profileId': 'pfbid0JnUMu8ugDE5Gf3E8YxBpdHP3G5NprrDMCJKfdxnZV8YFaCdvbMr7zkiN51kF46Lml', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10359,18 +10359,18 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Delicioso</t>
+          <t>Delicioso gracias por compartir tu conocimiento 😘🙏😘</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>45906.13795138889</v>
+        <v>45912.83972222222</v>
       </c>
       <c r="H193" s="3" t="n">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>03:18:39</t>
+          <t>20:09:12</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10387,7 +10387,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwFtsRUO&amp;_nc_oc=AdmbRu0Jeyf0TjyCTODwbPndYmT5lZJAmpg-ScyHdw7nHF7J57HcnzHYDSmkQhVGFCo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfbyxazJqla4zEQRaGvBDktqstByPqa8OJxiA2qCCsBYaQ&amp;oe=68DC8B0D', 'profileId': 'pfbid0kBPXnX258XQ2aZazegsj22L7Grm3rZy3wxUN5sKSwexTzAwHdG9d5zjFL2yYYMwZl', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RJ-F5y_BIcAQ7kNvwHMZPkD&amp;_nc_oc=AdkjPF48Amyuxb2U7txFJcbWrLoNT1fnfywq3CJR2HfV-ptwE4EeqAMjpuES6SftFH8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbiPp1EVfYILAeP04idYPcOuoZXTUJhrvGaWoQ2xkxvEA&amp;oe=68FF707C', 'profileId': 'pfbid0359nktcU9nodbPgMUmCX7qPp48XBnwowubWJoGU4q1pXdVcb3kDmtiTCVNoRmD3q6l', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10413,18 +10413,18 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Gracias por compartir.</t>
+          <t>Delicioso</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45904.96579861111</v>
+        <v>45906.13795138889</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>23:10:45</t>
+          <t>03:18:39</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Xmr1ltupWX0Q7kNvwF5nAqV&amp;_nc_oc=AdkT2xaJsBLc7Ht31TGVdiCXzd7hOBguEIQy8j04bHfAn1-cQM2iF54zL-j4pE4R5bU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfanPcylviuPwWouyWxuVhHbGunv2blA0SVCl0t2ff5CDQ&amp;oe=68FE0EA6', 'profileId': 'pfbid031WFPXaGVru2rcARUiAb6eHdv8N4TkGcdQ7bTZ2mie8aLNCGnxNpSkSjC53XN8Nnzl', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwHImn1u&amp;_nc_oc=AdmUM3Z_tB8UaKYnxKUc1To3lyZOSagcuMeM0EWNnEMQy4MLEE48TJLO5ydWoaPkEcU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbiDOwnX2aAlYlcUN7_PXWD2NV4jzLok9_WffDjWLivxg&amp;oe=68DDDC8D', 'profileId': 'pfbid02p2qEyBwtyvAmokJx14S13EgvaJ9KPyFFQ4LPdiwTcsY8JZjMST1E7CjAqzxvjbvPl', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10467,18 +10467,18 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Deli deli 😋</t>
+          <t>Gracias por compartir.</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45917.71725694444</v>
+        <v>45904.96579861111</v>
       </c>
       <c r="H195" s="3" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>17:12:51</t>
+          <t>23:10:45</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10495,7 +10495,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwwKdYU-gEEQ7kNvwEGtUgZ&amp;_nc_oc=AdkWQikIoAzC6YOjFxedmTbxgcBzlNJpPLQopHYEsNw0fb_P-JijRDzgt9ehpUolkQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afabm54RIgCA4lzNEWxfM1iL5KapD8jxcIH9sCxH7lIiHQ&amp;oe=68DC865C', 'profileId': 'pfbid0Y2mLVfq5T3uYtgd5uhJZKYoHTKBCXQxDDydUuovRtmpALqHrtE7bqbvs78GzfbwFl', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Xmr1ltupWX0Q7kNvwGdKtGj&amp;_nc_oc=Adk6soBSvh9C-0p4Ufwjuwngol8_ModmmjuJNEbNR5RF4vWAKT19JKDAsIfMgNoz95k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbVhv7s8kRZIVqz1o89mcpCpnGBtSrZAMiFeUJ20CWxiQ&amp;oe=68FF6026', 'profileId': 'pfbid0wUeg3m4wBozKvaiijiWoBksvo7dmng7PfWrdt1zhugcUMmLvCKEacLvcJoxyqqkGl', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10521,18 +10521,18 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
+          <t>Deli deli 😋</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45912.0812037037</v>
+        <v>45917.71725694444</v>
       </c>
       <c r="H196" s="3" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>01:56:56</t>
+          <t>17:12:51</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10549,7 +10549,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=s290lwe4b7wQ7kNvwGbrtOI&amp;_nc_oc=AdnwCEt2X08oircRTbcZ5g8ZphMoSHlgw9NuSB47HhfzOmgJHLsFjWoV86js_CZLljE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_AfbIQC7TF3XncRModG4mMIt-jrKlfkEYeAZkg52QdMl1TA&amp;oe=68DC80E4', 'profileId': 'pfbid02M62zAYQnLMupyk8EjnQuYMzrsZ547q5QFY5MxxTFphLnuc6yKEcxLJTku1PXPPD6l', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwwKdYU-gEEQ7kNvwGZMp33&amp;_nc_oc=AdnYkgbvfzuCFeQBR93DzbKoA4GGhP9jnvz_uZV0OkkFyR3oZcRFxKXaXtYP33q5HfM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_Afa5MqvNzYqG2d42BR37Dx6rnkICrUkm5DV2SK4NoVw_1g&amp;oe=68DDD7DC', 'profileId': 'pfbid02btD3gLkuJQXddDV395yJPpqQRCHZm8xGGxdNeY76yRaQFrutgXhphjVPen2csQX5l', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10575,18 +10575,18 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Se ve Deli 👌</t>
+          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45926.01299768518</v>
+        <v>45912.0812037037</v>
       </c>
       <c r="H197" s="3" t="n">
-        <v>45926</v>
+        <v>45912</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>00:18:43</t>
+          <t>01:56:56</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10603,7 +10603,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2210500276094450', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyMTA1MDAyNzYwOTQ0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjEwNTAwMjc2MDk0NDUw', 'date': '2025-09-26T00:18:43.000Z', 'text': 'Se ve Deli 👌', 'profileUrl': 'https://www.facebook.com/gloriapatricia.torresmejia.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/32741996_1156586584482993_6833877341186293760_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SrviBe1kNegQ7kNvwG7SNGK&amp;_nc_oc=AdmdmhV5uHrelzlHYLCY2GGcoMNawVxX7aysOV-XjCV-uOp5PBwpm1JxcsTZ1lNDGck&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=qPSF0Um1EQDLsY67VUeUSQ&amp;oh=00_Afat7vyNzevJ9pWbnyOKl0FtaSprQTA_V9fj9Td7PfMWAQ&amp;oe=68FE20EE', 'profileId': 'pfbid0pihEHv3bbGu7ZeMxUvTDduH4QrkZRsqyMdTMHjGYsUnP16Vqfe5beHx2qP2Ys6pKl', 'profileName': 'Gloria Patricia Torres Mejia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwGFMRua&amp;_nc_oc=AdkHKbPzu1ZluW_SdPhvWqEJV_m_eiNHh5y-U-mXv5_2DPHFdgXd8HvyN5whdaWqi4w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfZrctA793nbPSSnHInUmdCTQBQFfryLxsH51U1c-ISpdA&amp;oe=68DDD264', 'profileId': 'pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10629,18 +10629,18 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Queso, queso, queso, y más queso....gracias...yo paso</t>
+          <t>Se ve Deli 👌</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45925.89454861111</v>
+        <v>45926.01299768518</v>
       </c>
       <c r="H198" s="3" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>21:28:09</t>
+          <t>00:18:43</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10657,7 +10657,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24883620281246745', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0ODgzNjIwMjgxMjQ2NzQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDg4MzYyMDI4MTI0Njc0NQ==', 'date': '2025-09-25T21:28:09.000Z', 'text': 'Queso, queso, queso, y más queso....gracias...yo paso', 'profileUrl': 'https://www.facebook.com/adrian.herrera.3402', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHfKf0b&amp;_nc_oc=AdkQS6Im1Ow_FvKcA0V5-o-yhwcL3xiwsVKrCMjB7OsEVsvR_pDWznHUpxMB7GY_SWg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfZ8yfNS8GAlS_1bSqpPZZw9l901FIMvqMTOotvZyNvErA&amp;oe=68FE19FA', 'profileId': 'pfbid02sP7i7GLkscsJnZJHeqiM27qnCKDZgGB7k8CeJiHHvVGhtSS3x7jSWNBRPg83UdnRl', 'profileName': 'Adrián Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2210500276094450', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyMTA1MDAyNzYwOTQ0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjEwNTAwMjc2MDk0NDUw', 'date': '2025-09-26T00:18:43.000Z', 'text': 'Se ve Deli 👌', 'profileUrl': 'https://www.facebook.com/gloriapatricia.torresmejia.7', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/32741996_1156586584482993_6833877341186293760_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SrviBe1kNegQ7kNvwHMkZ_h&amp;_nc_oc=Adk7dZGhp0AaS2vCH3Bj9BNLxklEbRmlQ_QKrrUL8oBsZLLAUvN6FSeadXO-nN0eQjc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfZJDVt6ceCytHf-lH5fSg8hrr9PlqwQQZcPVumK4qw0cg&amp;oe=68FF726E', 'profileId': 'pfbid02t6BQuwQDcwwFrqSmrMmGdJdhpz1JkqFRRV7E1ep7kN84ZLmUS1gNFy8m1k8F16Etl', 'profileName': 'Gloria Patricia Torres Mejia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10683,18 +10683,18 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Que ricura</t>
+          <t>Queso, queso, queso, y más queso....gracias...yo paso</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45917.82965277778</v>
+        <v>45925.89454861111</v>
       </c>
       <c r="H199" s="3" t="n">
-        <v>45917</v>
+        <v>45925</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>19:54:42</t>
+          <t>21:28:09</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10711,7 +10711,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D9d_76y01ZMQ7kNvwFFVho_&amp;_nc_oc=Adkn7nW4AyX2FUCj63MRnpwHo6SbXw9HV4AQG9xOhjpLr2EJFXBiG7sCKKAbf3e9N2M&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZfJd0qNBii0AFlo9T-v29JOOEAGE-sKDHZ9urf1jKgKg&amp;oe=68DC6381', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24883620281246745', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0ODgzNjIwMjgxMjQ2NzQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDg4MzYyMDI4MTI0Njc0NQ==', 'date': '2025-09-25T21:28:09.000Z', 'text': 'Queso, queso, queso, y más queso....gracias...yo paso', 'profileUrl': 'https://www.facebook.com/adrian.herrera.3402', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEMTZbT&amp;_nc_oc=AdnRkx7fsin-rcbsYvnmQwQW_twwitRpoB4LmbqrLyFL2xhq89cKf5P0SR0GO0opiMQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfZhVbVqMH5KLX6IjHfB6xZ4JjNoZiBa-PonxvCSd_PMJg&amp;oe=68FF6B7A', 'profileId': 'pfbid0oMWzdT9CCaKYSXuNuZkMfai7Rcx7CBnyXkcKQmSSBWvrwaFPKswRGnX4dZmyBV33l', 'profileName': 'Adrián Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10737,18 +10737,18 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Ese cucho cocina bueno</t>
+          <t>Que ricura</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45923.72631944445</v>
+        <v>45917.82965277778</v>
       </c>
       <c r="H200" s="3" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>17:25:54</t>
+          <t>19:54:42</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10765,7 +10765,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z3uA8mDoYbIQ7kNvwF-LzF-&amp;_nc_oc=AdlQNbc9yrqbWB9kmmvUU3hHW4yOMsAXHAdrD7HILtljgNmBsCQ8PILc_QqEMIH8RUU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYSLGIGf5Ptcbko3C4v-SEejVMXleMY-LHwBatdgmDu5A&amp;oe=68DC8485', 'profileId': 'pfbid021DyexbiExpdqxddBAdziwmM99SzZKZ4ABn6UrGxRA8AEPddGn6cBC2gGNCGYTPw9l', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=I50IlRtyosMQ7kNvwEkekUC&amp;_nc_oc=AdlPTYWDe66pK-KdyDptP77YSHEfGH842W0nwByrJ4ipHPOjPL5j6A4RxKOO5KtlJzM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZvmAP9g_vzLAbdJzx05TpJ6kOoBex__GpbKdYGKVu4uQ&amp;oe=68DDB501', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10791,18 +10791,18 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
+          <t>Ese cucho cocina bueno</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45915.93363425926</v>
+        <v>45923.72631944445</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>22:24:26</t>
+          <t>17:25:54</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10819,7 +10819,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SE-hJZnDB5IQ7kNvwFz6NHA&amp;_nc_oc=AdnoMum_u4ZnqhrYCFbYbfuI_7E_OjrZ8CRCSCCjTUiyUQr00arrVOgGn6BznJjvHGA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZ2-yMvHM246QK9fSOSl2mE0AWVX1C_umzfk80EUZdOYg&amp;oe=68DC702D', 'profileId': 'pfbid0Uj6s7Duhzzs1depP5reyjLVh5sFPXiXVJeqA3Ji2nDToAdV2ZcJpJkFGAGgtiPitl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EuMrNbPBt2AQ7kNvwFaWTKg&amp;_nc_oc=AdmwzPu-cqvF8MZqUsD_w0jIDs8fdQ_bUoZJdgmTD-54pAPwP3VQ1eagNkPrHF7AThI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZMrS2aj2uA6honc54sh0_KbP7W9TFp-lx0QTW0DTLymA&amp;oe=68DDD605', 'profileId': 'pfbid034bTqad4rzdNLzqB1NiYUbJ22Dum51rHA3sAVZqRa3LuCJ6UUx5KRRzuJDSb9hKL6l', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10845,18 +10845,18 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Mucho queso</t>
+          <t>Hummm con queso 🧀 hasta un pan tieso!!!</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45916.98717592593</v>
+        <v>45926.72167824074</v>
       </c>
       <c r="H202" s="3" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>23:41:32</t>
+          <t>17:19:13</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10873,7 +10873,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l_hycE0C_BcQ7kNvwFazMUd&amp;_nc_oc=Adl0p9-W0OINc9WeHphuKfIN1D6Dar3XoCi3yVPSiV4WyRzJ7sb3eb3IEAsUSJWcCO0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYgzXAjn0pG4t3-M8zvByspVb6P6Bm-6SaRHjwg-p3QJg&amp;oe=68DC8D46', 'profileId': 'pfbid03872iFvcZnx3ysTfquVtDaTCoYNcsuRb8k9agB92eFuaMDLfH42d8u7EtRn2L1cqJl', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1866667430892057', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4NjY2Njc0MzA4OTIwNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODY2NjY3NDMwODkyMDU3', 'date': '2025-09-26T17:19:13.000Z', 'text': 'Hummm con queso 🧀 hasta un pan tieso!!!', 'profileUrl': 'https://www.facebook.com/enelia.marlesparodi', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/485524911_9404635272935698_2624890956971738038_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MeETcqc_iFsQ7kNvwHLKnVV&amp;_nc_oc=AdnemNNlYNwruGW2cP_QF5vyISmzhHvjajr14zCub0a2YUqGXP_ENFhbLpqXy3Ex0mY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfalG4gJcwQh7PU3snRaj_sZt7jDO9MUN61WlxMJ27hc3Q&amp;oe=68DDCD80', 'profileId': '100001679553754', 'profileName': 'Enelia Marles Parodi', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10899,18 +10899,18 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Que deli</t>
+          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45923.67105324074</v>
+        <v>45915.93363425926</v>
       </c>
       <c r="H203" s="3" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>16:06:19</t>
+          <t>22:24:26</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10927,7 +10927,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MQCVpMikDlMQ7kNvwHbubgX&amp;_nc_oc=AdnWTNEOiDSGSOpi0JMHaPfZ95dSXZpvu0ayr8VHJ930UYtTH7x5TG-EijPt7xNgBGQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfZLQcDmu8aDR0JjT5Ly--GYANVxpdmAZ0au2Jsucq9Oxg&amp;oe=68DC5C79', 'profileId': 'pfbid02Ldw97LfkHwzbEmPYar9WGf25roq3e3AS6CyUeqL5eyPbkHnCr2MJb1WdCMiLSFc2l', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SE-hJZnDB5IQ7kNvwEsEJbL&amp;_nc_oc=AdmufXY4wyiVixeaaoGdFq4muvpkINHGzGn_ZSZnNkTbhZ7qMkVWXAhA_ar6gbIUBww&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfaX-pDYy0EimR_rgHJhf7wSbRYiJK1capIGdXz6518Qyw&amp;oe=68DDC1AD', 'profileId': 'pfbid02YaYaHtqXrRD9TPE2cL3VLPCyRBYZeBftdAyXezLCH173verfSvmG7MWgs5NNoSnvl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10953,18 +10953,18 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Q rico</t>
+          <t>Mucho queso</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45917.98428240741</v>
+        <v>45916.98717592593</v>
       </c>
       <c r="H204" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>23:37:22</t>
+          <t>23:41:32</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10981,7 +10981,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Psb6AVpncewQ7kNvwHXAVv6&amp;_nc_oc=AdlJ2offYQiytObpvuKSVPImWT-qXDcgm1B-lxHUmJ_IvePOLbokcFdFuXYd52GAomg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfYgY1SewuwhNBQMYm5dUKF0m2yBhpXH6qC-zO4Z0Vffrg&amp;oe=68DC6FC0', 'profileId': 'pfbid035GERc6ietDmrwykaZBXJFvRwEUji1rtPqPXykdM6v5UY56f93KLyd9b7DGwGGMFBl', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l_hycE0C_BcQ7kNvwGaZylz&amp;_nc_oc=Adn-vHzH98t_T-4CooYeJv0-oxH81KRFZDChRyHKwLgFwT2u5ESyE5OGNK9RjwtNH70&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZnO2EBcUBh7JEU_rbOPFUPWt78swSjitpjRW5tPeY8uA&amp;oe=68DDDEC6', 'profileId': 'pfbid024ZPXLkzCwvCLuq6tFBsYAHFrW2hwgfyh4csuPYkMWH4oRjNb7pYnbfGDPjGGwUkxl', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11007,18 +11007,18 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
+          <t>Que deli</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45914.97866898148</v>
+        <v>45923.67105324074</v>
       </c>
       <c r="H205" s="3" t="n">
-        <v>45914</v>
+        <v>45923</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>23:29:17</t>
+          <t>16:06:19</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11035,7 +11035,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfDvRnp6PEkQ7kNvwEtKwFJ&amp;_nc_oc=AdnN1P5lFcfPJwureWBgzOAlrSmEiV2yMJKD34YhlJ6V3yMKk_XULMuvlxZglK_Zu2w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfbCyQsFxWg8jANzJ1-pVt2TDFYP1hlJJr57-KcJMMmZuw&amp;oe=68DC6CB6', 'profileId': 'pfbid02rmx8HExRn329havS23w5eGfivPZyqLubdkb6YqrjruJ7WSnUNPJvQvyePi4dnPtdl', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MQCVpMikDlMQ7kNvwHJJJ8u&amp;_nc_oc=AdkB-UltoDlNUcnXQVorjx9AiT2ag5Ruuvq5Vq3iAIcALXU3YObTOZilRtp7ZfLY0_c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfbZyrbjtdjFR_Aqlo0PnKpSHGSyzc0IKrDhua1ONXvolg&amp;oe=68DDADF9', 'profileId': 'pfbid0H6HxCB3PSqA76PFQD3UPb4PL3ZvTLbEoKzQBSnPbnTEV4LnRiBzs3wJeXTUxk8RPl', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11061,18 +11061,18 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Que receta tan costosa</t>
+          <t>Q rico</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45922.76958333333</v>
+        <v>45917.98428240741</v>
       </c>
       <c r="H206" s="3" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>18:28:12</t>
+          <t>23:37:22</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11089,7 +11089,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FeBlcYoQP3EQ7kNvwFtenQ-&amp;_nc_oc=Adlg_c2sIMwmerDvHenHWOUNd78_SOGz7hurTf0WabjL4HlrR1Yl7UxAVtBSyJZb5Ps&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfbvBe4bXskkZ9WXHHTAlGtZUI3IRGR_z8o5qKk4Y7xqGw&amp;oe=68FE0EFC', 'profileId': 'pfbid02xNjzjyYAkUzzbijXSjAkCHNiX3B7QULe2cNHW5SDLAWtVBPr1Kna5KGK4bP6zTY1l', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ds2eU7UugpYQ7kNvwH9kU0h&amp;_nc_oc=AdmaaJlzZo9ggKpOs5NHWh5TPjqWzkG8Atxx6ZgWHJLySrOpR4HiBfWb045yCNcnzS4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfYYZUIcSwiF3ybmH-AEFWgHB6p7ReQDuliP1H8erDDM_g&amp;oe=68DDC140', 'profileId': 'pfbid021ibEgw6J39aazJSNSWb7ubJFeHyf7U29pejMCscc5ztvJcSzS1HNh6GXMxNwpTp4l', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11115,23 +11115,23 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Otilia Gamboa Cristancho</t>
+          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45912.71965277778</v>
+        <v>45914.97866898148</v>
       </c>
       <c r="H207" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>17:16:18</t>
+          <t>23:29:17</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K207" t="n">
@@ -11143,7 +11143,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzawOjNzeqsQ7kNvwGDVuXS&amp;_nc_oc=AdmR_qe6-3Jvh6AneDQ97ScR8wk-wTCCNqQ_V8p6oDdyrGpmlE4_HNnDUx001WEUDiE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfY8S3cwDSRQrrOdPMIdOHOeijMj3J6NKu2tUfmqmFU_8g&amp;oe=68DC809A', 'profileId': 'pfbid0G4SnysonrpUT3GBsgMQnzt169bWLr1DazkX4cp9Jn4owqUUxrBNGhFeDVL11bGLzl', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6f8MaJtipLYQ7kNvwF8O07H&amp;_nc_oc=AdnOGLrQemHrDquGQlRhQ656tCzBv0oWqaFUZcv0ZtIRZSNeBuJ4RWywhT3-NmHinSM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZYckjgTr6Vjp_PzJgUglBaGjZROwCCME1UkwAS44JnlQ&amp;oe=68DDBE36', 'profileId': 'pfbid0oEJwN5L4vutRQbeTgSueP6XUNEnCJiQ7TKR7wMw5krxupjswynyfAt38Dfhhoe54l', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11169,18 +11169,18 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
+          <t>Que receta tan costosa</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45924.06525462963</v>
+        <v>45922.76958333333</v>
       </c>
       <c r="H208" s="3" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>01:33:58</t>
+          <t>18:28:12</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ow93DvipsccQ7kNvwEtIr3Y&amp;_nc_oc=Adm9G7XU59_zsotnu0UEv0lkQDq8SWIkUU8jSQWo3fmMHBLgnbH6iv0J33VoO1XIyx4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=RwGZUlCUmLTUd2WrEoNSrA&amp;oh=00_AfaNZGAXY15AUm27GLMyA2Kum9uKX5VjrXxf6XY96-JGug&amp;oe=68DC91BB', 'profileId': 'pfbid031pNs5DZ5yAVzuW4X8einmKKKTFksrUrus1cTgCFGZr6Vtap1GRS9K6Appxg7UNfml', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FeBlcYoQP3EQ7kNvwHjsDvz&amp;_nc_oc=AdlIEpvut5cK3ZmlKDVGQgx-8fA7iGHzNhdCBCUfkLZFcz6TsaAGc5Tk4WcbgsBdIeU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_Afb8DE1YtThHAttccjCtIu12F0ebm3Xib9u0ueiwqHrI-Q&amp;oe=68FF607C', 'profileId': 'pfbid0tq6opououDN2npX1Ej9j9rK437C9dDsZ6JupDPKfHQqWY3r7c3asU9LNkMzc9mzXl', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11223,23 +11223,23 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>El maíz es crudo?</t>
+          <t>Otilia Gamboa Cristancho</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45916.72425925926</v>
+        <v>45912.71965277778</v>
       </c>
       <c r="H209" s="3" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>17:22:56</t>
+          <t>17:16:18</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K209" t="n">
@@ -11251,7 +11251,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A8-TxuQWIEAQ7kNvwE3SWxq&amp;_nc_oc=AdkwTb3FRHBQOWPkcYhwXLu4A5LGNaQN--7dZgRVg93KlS3f_lpYIWstSA3CRIHAEbo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfYHmSv9ZXa89Inprb6wsK09KoV7YhFonWPbuywTUS1tvw&amp;oe=68DC7F6F', 'profileId': 'pfbid02YQAn4ArjyjG5onNV9gJt3mzqkeGfWbfm61ZQaqwc3EYeqcyz2QwiCfEqUEKDiwdyl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzawOjNzeqsQ7kNvwHxE9u4&amp;_nc_oc=Adl3GIHhDni_0cUTyiO9KtPYwAYRQO3rZqKGlU6wvssSnJt_1LXiPH1VXnBRQUsv7WJvW-AMs_h3gVZONtxvXGFG&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afb1SxYscR0-4lcUICnMfQmYJG03Ixzdl6XPzLYGbtWtTQ&amp;oe=68DDD21A', 'profileId': 'pfbid02KutWAYjci7A6Lapom3aPjrTt9EQNdt7MbPoY7LRdZyvv3VYqHudaZgSaV4UH4cukl', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11277,23 +11277,23 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Puro queso y disque mazorcada</t>
+          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45909.09671296296</v>
+        <v>45924.06525462963</v>
       </c>
       <c r="H210" s="3" t="n">
-        <v>45909</v>
+        <v>45924</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>02:19:16</t>
+          <t>01:33:58</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K210" t="n">
@@ -11305,7 +11305,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kJJIv2-QO8AQ7kNvwGVd-NM&amp;_nc_oc=AdkkQcrsl23FeWKGXb844vvF3uD2oQblqWcB35hNxNt4rZzdemlRAayKJY3wtnOFdmU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfahPrW__5vn1L5MQqWDoR42x3mxRDgrkiRhE077nbV1Eg&amp;oe=68DC672B', 'profileId': 'pfbid02VFu29vCtXfCLQgQJEt1x4mfQtq91uC3Wyxp21yxPAVUxsm7Yt3ucUGaRyPzSxT1il', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ow93DvipsccQ7kNvwGZuzy_&amp;_nc_oc=AdkRNoku5CMidsMLwVYKA4lhkDmotiDf24g8XpjpjF2afdfRSKgJa3GEAFaAE1d6cz6cJ6LuzDI6x9Zu24FAcTm8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfYPEq6ldDQWZlx9Vq4dNSk9Y1rZNal0wEoPrzkn5aHvvA&amp;oe=68DDAAFB', 'profileId': 'pfbid0xGjgA3vj81UNTS1SwwKdd5RbphPZqbJUpHhHDzLq9R5NNkXrZxyh5yfin3QQEfJfl', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11331,18 +11331,18 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>No había otro queso por ahi para agregar?</t>
+          <t>El maíz es crudo?</t>
         </is>
       </c>
       <c r="G211" s="2" t="n">
-        <v>45919.65423611111</v>
+        <v>45916.72425925926</v>
       </c>
       <c r="H211" s="3" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>15:42:06</t>
+          <t>17:22:56</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11359,7 +11359,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEiegUn&amp;_nc_oc=Adm3ReRb5HbSbJCOZPAonP9WzpYjUDCbdJeTQzSzhLz5DRcdkqQDps_7FjFZK29lMJ0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_Afaz3p2dFLrEuLInd_Ri7O_msQ2uPDFq38r8pjcE0Xk8AA&amp;oe=68FE19FA', 'profileId': 'pfbid02nteg7uJGiBKaNc4ybeVviRePqH5iriG6HLVLwb75CG8Gr5UDwwQcFJPVqLXNSLmHl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A8-TxuQWIEAQ7kNvwGXlZPx&amp;_nc_oc=AdkE_3KoFBVCFtEShpPzbNHQAa-3a_SUlSfotYLsS0aRx7SpKe4Z1PY__844q-iIkjfMKvbyiAs52DMptZsjIf4t&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZjhg6HAV6Pc6C9_b42ubDPY3L3gjzESlR1tghJ67GzPw&amp;oe=68DDD0EF', 'profileId': 'pfbid0UrXb91EP8U4su1VWEraZZSiDNYtijQrHyjLX3RCYaZgse8fadvP2viYaKYqGJBHZl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11385,23 +11385,23 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>No me gustó</t>
+          <t>Puro queso y disque mazorcada</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
-        <v>45923.95258101852</v>
+        <v>45909.09671296296</v>
       </c>
       <c r="H212" s="3" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>22:51:43</t>
+          <t>02:19:16</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K212" t="n">
@@ -11413,7 +11413,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lhWtsTcvAy8Q7kNvwH9APPw&amp;_nc_oc=Adk0jRfiooFGqsILG_U44fmEt6Cngt7Ki572dl2yPHoqv0F3whVSzgMaSq8UxPIB2no&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbv1FJBFqlqmbg2W_P7sfnlFF0ZmyCkqguUUzmoSB-89g&amp;oe=68DC5E77', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dDEVShl-K4AQ7kNvwEO9ehm&amp;_nc_oc=AdnTEche8_Ll1Co7v62NYbffRC1Kq_jckrfYbT0OHujZZ-_c6MyXEE2PEW8ruRQOjxcRYJDAGUVdhLzjSu-iRxpS&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afaa337f2JroN0ftF5FeJ6vCelYK_o5oX6RM7LSavNhjsw&amp;oe=68DDB8AB', 'profileId': 'pfbid0REJJg71KriUDi1kjMdp6ic5WTrW5U9UoWYqk7XYXidwjPXYNEC9q9qc9XHorRi8fl', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11439,18 +11439,18 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+          <t>No había otro queso por ahi para agregar?</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
-        <v>45914.56732638889</v>
+        <v>45919.65423611111</v>
       </c>
       <c r="H213" s="3" t="n">
-        <v>45914</v>
+        <v>45919</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>13:36:57</t>
+          <t>15:42:06</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11467,7 +11467,7 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tiWtr0JTTsQ7kNvwGL6WTh&amp;_nc_oc=Adk3yEYb7m5Me2D4aXq2IDGOpiamXtO3DyCX9xNa1lazNr_vCQlFLLNVhekwCl5ocuE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfZgaRfcXupQTGW4biHqz2po8VpqeZtqeQuxhfIHPtt9EQ&amp;oe=68DC7140', 'profileId': 'pfbid0K288kUFWFtRXsbSXwYfjPhKqu4DFJ185YDorTGDKckGS4bPsCGJd4zXMDAbABPAQl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEH3VPp&amp;_nc_oc=AdndV5_P9N-55E-Jm5EW367wK4NzAhVfB-HtoTLzLf6lX9Qg4OvUtWT76oqZbsnIxBMm_uEMsVHMZicBxtOSXt_R&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afa5c7BoYFBIP-2CK6X397eSEXEWGztlXQp_o9jXqnnYLA&amp;oe=68FF6B7A', 'profileId': 'pfbid0jM1VCjfurygoFiqfTfpqaXL3A83AJF8aMAgtPBeb6UhfN3PC28RC15SxdyZbVpwQl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11491,16 +11491,20 @@
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>No me gustó</t>
+        </is>
+      </c>
       <c r="G214" s="2" t="n">
-        <v>45918.07300925926</v>
+        <v>45923.95258101852</v>
       </c>
       <c r="H214" s="3" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>01:45:08</t>
+          <t>22:51:43</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11517,7 +11521,7 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pS-K45ZiXr0Q7kNvwEPJOYS&amp;_nc_oc=AdlJg_03J5aY4w95bT7_MaGiYNQCpZgnIQm2kNqrJlSNnXXZ0UGInRRXHHiKRlU6Pr8&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfY23spm6xy-4ti-f0kauRd0anwCB63iM2HPDAdLeBog1A&amp;oe=68DC6240', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dj72F0m7c3gQ7kNvwHaFHIw&amp;_nc_oc=AdnLBAy4oASG7901ACrfUNPhatrflD9DDMc3-sAfiGuO4aHSFWlOTcjLyizBRzzXf0I&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfYmqVXdIwVa75u0035m5ImSRGu2EUGJqgkY5iLf6t_reQ&amp;oe=68DC881F', 'profileId': 'pfbid0o1e866W1ZNMWHarmxFFZxs7kytAG7gcAXemaEbs2z7YkXr5ogcn6eTM4ftgjcVj6l', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUcEsWc2Si4Q7kNvwFiv1oq&amp;_nc_oc=AdlmQ7BLJJpswo0KuEVgmz8MPuc4--mRSuFyrlF5qQr-j4xg6noufQr7s-uMwh3biYcm1NzasqkL4Nd7w-tVP5oi&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfYGohmC6-nhr8Iw0JBKyFtqEaOj3w5tkqnceSX-I_M7zQ&amp;oe=68DDAFF7', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11541,16 +11545,20 @@
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+        </is>
+      </c>
       <c r="G215" s="2" t="n">
-        <v>45915.08302083334</v>
+        <v>45914.56732638889</v>
       </c>
       <c r="H215" s="3" t="n">
-        <v>45915</v>
+        <v>45914</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>01:59:33</t>
+          <t>13:36:57</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11567,7 +11575,7 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=g5lB0QLm1oAQ7kNvwHS9e9k&amp;_nc_oc=AdnLFTjhUUan3HiDtXT8AQmgbgcO3WFNMXTjDaCJl7GaNRbX2SnOg2sw8o6ssNI77Ew&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afaz4VFp05hqf-Cg80kaFUzlzjaj8sYGG4Dkbjlg1TXYfQ&amp;oe=68DC60E9', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwEApf6f&amp;_nc_oc=AdlB5-G24hOauYYv6xGycC9Dfkmt7esf4slpnPm6Hgqdmbf6iWkUWp5lJY9bFx13hPc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbq7i8HKUJhIVYhV1bhtTksDDVvlija9YG5gH07BSDKPg&amp;oe=68DC75A6', 'profileId': 'pfbid085q9z97NSsAXF4hSU4U5fDDRpbH8ZZoSkgQ7Q8i8T7n4vzved9aQE8m8kGzD8pbyl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tiWtr0JTTsQ7kNvwFDFcQB&amp;_nc_oc=Adn6D_Jvf69JpAWbZhv33RHnuY_5C9R_CPy6nVG-BH7gZ2k2vcI91EIRPKqZpMrfaP_JLBNZF6TyVtkDKgTrLVl8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afa0E3H0DDu6ICVbylJlDLXJ8DG97wU8m-_oF6_pRW4fmg&amp;oe=68DDC2C0', 'profileId': 'pfbid02NsZqw9BL7CQLBTwDsDKqfp4TjhDWsthUQFoM8UZrSKJRibvXAwWc5c62v8E9eg5Xl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11593,14 +11601,14 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" s="2" t="n">
-        <v>45915.08300925926</v>
+        <v>45918.07300925926</v>
       </c>
       <c r="H216" s="3" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>01:59:32</t>
+          <t>01:45:08</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11617,13 +11625,13 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=cCgCamhyQCoQ7kNvwExKqoQ&amp;_nc_oc=AdliefyidTgwCFD-BiTzfJGc8It69wYsf2Zi2qXgnj1oHxZgWeEz3_bNroUTJJukChw&amp;_nc_zt=26&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_AfaUCKU7QkvOE5C4TyNg1jDhtDEBdaMuimfnQviNgYbPiQ&amp;oe=68DC9373', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwEApf6f&amp;_nc_oc=AdlB5-G24hOauYYv6xGycC9Dfkmt7esf4slpnPm6Hgqdmbf6iWkUWp5lJY9bFx13hPc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=YNNuQGANvFV17y9Yk-__BQ&amp;oh=00_Afbq7i8HKUJhIVYhV1bhtTksDDVvlija9YG5gH07BSDKPg&amp;oe=68DC75A6', 'profileId': 'pfbid085q9z97NSsAXF4hSU4U5fDDRpbH8ZZoSkgQ7Q8i8T7n4vzved9aQE8m8kGzD8pbyl', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pS-K45ZiXr0Q7kNvwG_aZnp&amp;_nc_oc=Adkgp3WumOZr_gdRZ2QVk1vHu6x8NhHYmvRw5du00p_Jo97TmHkgAICzryhHxXJz0DxvoWSqSK2pJbcjzb3ROL7N&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afbj_6u4Q5Dz7haWMhJ_4IhfvFAjzchIG7uk5jOjmiSOnA&amp;oe=68DDB3C0', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dj72F0m7c3gQ7kNvwF8n9_7&amp;_nc_oc=AdmEtJF3H4CODUTDqdJ-kWmA-dX-E9jGrKVAezcCg-BPv-JL1Y0kxGFXG4vdFIIGzaGGvImDANFb7vQ5V27Xr1K5&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZIkP3RXfHxG2OkinGlbF04NtTO6-RvJZ1KHB1ltcFXZQ&amp;oe=68DDD99F', 'profileId': 'pfbid02rs5qGmRqQnadfM6FKqH2WLB76rCdyPSz8BNnwwMm8qpWDYE1yxrJNe6nk8VJ4Z1zl', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -11637,29 +11645,25 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Super rica Muchas gracias</t>
-        </is>
-      </c>
+      <c r="F217" t="inlineStr"/>
       <c r="G217" s="2" t="n">
-        <v>45905.11831018519</v>
+        <v>45915.08302083334</v>
       </c>
       <c r="H217" s="3" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>02:50:22</t>
+          <t>01:59:33</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K217" t="n">
@@ -11671,13 +11675,13 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFkcY5w&amp;_nc_oc=Adk7WPszAvV9ClWeGrZZS8W7twWHWY71pOajgXzTnwOW3hUvP9jfMA9tL7T6pEBx-ws&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_Afa6p3F9F0mc1Q_tX369Ntf8Pha3-U2FKiibmcRh4qPbkA&amp;oe=68FE19FA', 'profileId': 'pfbid0xXG851JkbQhChWNfohoDBJXVQgGhVekRNxKvPgKnAFzwY1A3gWogCL1YFVzJtApYl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=g5lB0QLm1oAQ7kNvwEJ4qMH&amp;_nc_oc=Adk1yDHqwrJpsyTBLfrAJ_Wpe9PEA7WvlIo210Cw7Y1DfqMXqIzU7owQE-wTozwGBhGdjOgW3t6nWktgBBXeU6OG&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afamy54uRZyNlet2DPF1ngCm_w-hyTDs8ApSf1s0_Z8sDg&amp;oe=68DDB269', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFV3HF1&amp;_nc_oc=Adk6m3_32zQpINwRh2v3huP6v3zIpEtu_kAAGeVPFi3RF6dbxX5ECMvaDO-hKDFfp_rC46OUQajOqqraA-LTjJlZ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfaUlHHIyFNxl3p81uewftcK5BHNCTaCyZC4M-ux1MXE3A&amp;oe=68DDC726', 'profileId': 'pfbid02BTKLcATzUUiAAP3o5EsGzXutjst9wuK7jjMkpNRKp9LBfsmpmJXk7xcwsn5ugX8ql', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -11691,29 +11695,25 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Súper se ve exelente gracias por explicar</t>
-        </is>
-      </c>
+      <c r="F218" t="inlineStr"/>
       <c r="G218" s="2" t="n">
-        <v>45904.72891203704</v>
+        <v>45915.08300925926</v>
       </c>
       <c r="H218" s="3" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>17:29:38</t>
+          <t>01:59:32</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K218" t="n">
@@ -11725,7 +11725,7 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9QTVxfq8KSUQ7kNvwEFXjB0&amp;_nc_oc=Adn871y0zUZFEbaLbI0BUqv6eJrFs77pXLhCJT9xmLJ0V5030JMNv4fjz9cXLvz4MJ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=9AyAtcbaiCguyJkiIAQ8gw&amp;oh=00_AfaN9i6SSsdQ36Fb1yQ7QUsolMQVYJj6Q3-fLgy4mE09nA&amp;oe=68FE03C1', 'profileId': 'pfbid0rLWJ81N14Ut9i8viVk5JKhVoiJ1paFzvCGJuAV8rLbZr8Q8dAg1ac5b7MBtNDNful', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=fTWVIT6Mqb4Q7kNvwEP3tK0&amp;_nc_oc=AdnG4-jfQIadl12rJFuzoZ4nCX3tVxCptNAgzJunlNvDL09CiTQbtuq_zxtv3eqabl5yZJdnleFguDbfDMm-xkLT&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZ_tWWNnWZnhTkPBguf7YxDpFcGe96DH-ZCExV6VIhh6w&amp;oe=68DDACB3', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFV3HF1&amp;_nc_oc=Adk6m3_32zQpINwRh2v3huP6v3zIpEtu_kAAGeVPFi3RF6dbxX5ECMvaDO-hKDFfp_rC46OUQajOqqraA-LTjJlZ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfaUlHHIyFNxl3p81uewftcK5BHNCTaCyZC4M-ux1MXE3A&amp;oe=68DDC726', 'profileId': 'pfbid02BTKLcATzUUiAAP3o5EsGzXutjst9wuK7jjMkpNRKp9LBfsmpmJXk7xcwsn5ugX8ql', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11751,23 +11751,23 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
+          <t>Super rica Muchas gracias</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
-        <v>45906.03012731481</v>
+        <v>45905.11831018519</v>
       </c>
       <c r="H219" s="3" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>00:43:23</t>
+          <t>02:50:22</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K219" t="n">
@@ -11779,13 +11779,13 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RNBUJB4Aeu0Q7kNvwHW3qUD&amp;_nc_oc=Adma_e2TqP3r03ajGEYzM-3rFTVnI_TRZPXnMG9NkWYr-vyXg5RZe0e05p8D2YFF03Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=9AyAtcbaiCguyJkiIAQ8gw&amp;oh=00_AfY8MNVxcBsbJ-g0PlSktepdpPt39zqH6Y7VIa8lhqoZkw&amp;oe=68DC6B60', 'profileId': 'pfbid0dqZzVw58P4gE1JSAEY8u95QUpeAiByUKeMYuDUKzmdWcrp2JUcXDrfTA5ZVQFnCsl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHcTiFm&amp;_nc_oc=Admw-vLCYc0ZzF6U56ScFKo9FRJIZEoeP49SxsZcR-_VBxUerF1LHIbvJwWlypkN1qc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfbEad8dBNliUlLNpm4r4aByNvX01CcSjcLlFiqlEbpY2A&amp;oe=68FF6B7A', 'profileId': 'pfbid032NhqFgEaSsFzg2zpKnbA7vocTE9cWJBbazuLWASqFHhimcMhGXrXaXivAF4QBELyl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11799,29 +11799,29 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Se ve deliciosa</t>
+          <t>Súper se ve exelente gracias por explicar</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
-        <v>45904.76834490741</v>
+        <v>45904.72891203704</v>
       </c>
       <c r="H220" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>18:26:25</t>
+          <t>17:29:38</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K220" t="n">
@@ -11833,13 +11833,13 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent.fftk1-1.fna.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BYWMw7Zp7f4Q7kNvwGrrzE-&amp;_nc_oc=AdkhCEzCusQWd2j-dzpVW36EUwoHwfSZvsqypaQJTGCxTr77wXUB4fYHhKofkkQ1P1c&amp;_nc_zt=24&amp;_nc_ht=scontent.fftk1-1.fna&amp;_nc_gid=EPYy0Og4TrjamlY78R2Iug&amp;oh=00_AfYvmnmDXRe7_L06fIfM0rjDCqyQiBq-ZBU-dYIn3UOPGQ&amp;oe=68FE0900', 'profileId': 'pfbid02RhVS67PwkbguBa6QLYNnLeHij79wBiEhraf2Cf2yBP2noiS4XZZ4Dx5FLfU1otgzl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9QTVxfq8KSUQ7kNvwG8l070&amp;_nc_oc=Adli8qtjTWxFp6oOUysAYp6MD7rQACyo67ZA98tEZAGdkfdN0OLCLY7KBDYo4NIHirU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=tll9u2v197WyiE-nUxLwzA&amp;oh=00_AfY9PFIsuDq9Zhf1KXPKcBwdvY4QUYJkds6FspcN85m99g&amp;oe=68FF5541', 'profileId': 'pfbid02vBx1JgHpuqvANpgS9uGYBRD53WPcsfm5ZZcuKKG7FAK7iCcncpoCzm1SCGm3FUhVl', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -11853,24 +11853,24 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Q delicia 😋</t>
+          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
-        <v>45919.22232638889</v>
+        <v>45906.03012731481</v>
       </c>
       <c r="H221" s="3" t="n">
-        <v>45919</v>
+        <v>45906</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>05:20:09</t>
+          <t>00:43:23</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11887,13 +11887,13 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t95rTK-evXkQ7kNvwFMz8uk&amp;_nc_oc=AdlpmOHN9WXLwUIFB7vv4Zjfg9OfKwbFGERsPjriiITsepe8dq5j4Zj4KQB6VPgr2U2SyhxXuOLCDFqUKsuphJL7&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfbHBT5jenqQ1laItUZtUMJKoySm52ydQtRZPnhiBcSfHw&amp;oe=68FE1291', 'profileId': 'pfbid0q7xQq5obLB9FeWfFcmQqrS5iBzazjFgpWbLcEkG2Fd26fLQZMC3atSjYneAgCrxWl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RNBUJB4Aeu0Q7kNvwEtM4zT&amp;_nc_oc=Admv-2anUuVLHLkxB1ugJ367vvfHj34qu_-0JgK8xYukBYPpMnFgZAUUpFlyXvk0Dkc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=tll9u2v197WyiE-nUxLwzA&amp;oh=00_AfaFzc95H4VTKwFEQZj2zW2K9Tta5imkC_xvSacQaeFkhg&amp;oe=68DDBCE0', 'profileId': 'pfbid02hh1hgbzxEYXhAYuXFQRD13jkAKZ6c5ERuWVoRXeY4joLsiSn8bZ3GXd71WAvQ2zGl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -11907,24 +11907,24 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Gracias</t>
+          <t>Se ve deliciosa</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45908.03875</v>
+        <v>45904.76834490741</v>
       </c>
       <c r="H222" s="3" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>00:55:48</t>
+          <t>18:26:25</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11941,7 +11941,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MskbYWd7ErsQ7kNvwEwbxJ1&amp;_nc_oc=Adk-AY28htwePAhhiDmKVEkKL-fKk1rkprZ8aMQMD5TCgVM3oHL_DGaasS_fQ-QfZLPYUrLv_gIwhvFvBtBXPt7k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_Afa9wMj2y-06ybkFarUOQn3wGn92rwP9zwHafHt_2nFP-w&amp;oe=68FE2A80', 'profileId': 'pfbid02x2eWJgfdvtZQUaQEtUpKq4ywejrCWk5juxBoVwkyquWHhSLeh6mYwnnM452f1p9al', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BYWMw7Zp7f4Q7kNvwH-X8Bi&amp;_nc_oc=AdlVoHqxrLfa6kieunIho_2B3izka7AB2e7fzJ58_7oqbXYwSzpmieHFu0JpX2esH0s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=O4jDOkGsHuPjPcrxuKUOJg&amp;oh=00_AfboXpXg45TG11mabsnQtTmprpGRc4scCij2WKSwi4lgjw&amp;oe=68FF5A80', 'profileId': 'pfbid0N9rFAwmauEx8xHQASLT6KXAKL2PthhNksPebQ9PewXYNhkFA1txP4KnSLUd3NV1hl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
         </is>
       </c>
     </row>
@@ -11967,18 +11967,18 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Grac8as por su receta,quedan deliciosas</t>
+          <t>Q delicia 😋</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
-        <v>45904.89225694445</v>
+        <v>45919.22232638889</v>
       </c>
       <c r="H223" s="3" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>21:24:51</t>
+          <t>05:20:09</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11995,7 +11995,7 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=py6ngu7yDtoQ7kNvwELZT8N&amp;_nc_oc=Adm599BFijfIhzYep-NSkCHRmIBOQATo5HMW8RgiibihcpZzFY_SJ_L-79kP9ywxvUKoD_ahpIOd6SwM-NondJXP&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfZom_z1vH0Zg3CVi0U7GUzAPIhX1ym0IRRM_hL677rMMw&amp;oe=68DC5EC3', 'profileId': 'pfbid02w8mmURAgxBF14FsqwhgJTGqMQgSHAWEHwScNd8kDtrsXSPX7qhVzVWyAaqxhYYd4l', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tSrn5TJkn_UQ7kNvwFH3zG9&amp;_nc_oc=AdnzHUYhF7OG5dfIvY1GKCA4WSxv81fWyJnU0nRTDVjjHWm_AsA9faqUAGiEXOW9dM0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_Afad5Hid66FGEQC0r72MyIRnyuDRMEhUzspn7kbHUu0pig&amp;oe=68FF6411', 'profileId': 'pfbid02tVSbT7ADMywbdFVQ8qBpDNhUfwdk3Yf5wGqH8Dsps4e8T1K1EZpyxt5JknEKbQQpl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12021,18 +12021,18 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Excelente preparación.  Muchas gracias</t>
+          <t>Gracias</t>
         </is>
       </c>
       <c r="G224" s="2" t="n">
-        <v>45908.82081018519</v>
+        <v>45908.03875</v>
       </c>
       <c r="H224" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>19:41:58</t>
+          <t>00:55:48</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12049,7 +12049,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ipaWqJoYDPEQ7kNvwHmqGgo&amp;_nc_oc=AdnDCspKmDGJ-aRLye0Jwpz0kLilt6aATn7twnxaIAaA4-li8PJ3EIm580TodgYtIBhBNYc_nCLE77hPRQkffaMY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfbpXzmju_GO3nd6zvCnQZsCRptAVXs2aJbzHtrv07iOGQ&amp;oe=68DC6719', 'profileId': 'pfbid035CjknrCy22ir1QrFDXK1fZuyPArn7UzkWdNLf29udpocSfP1N2rJQCPeTFiTG3dFl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MskbYWd7ErsQ7kNvwHTOjrB&amp;_nc_oc=AdkRkjaSsI56kSjeNjCGcwEfYd77jOBqoGs3bdHgG5BKfYypJSUK1yDZkNsE8bW7cUw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_Afb-gk9E0Xmd9u50jiYtEjHer4Wm6BkJlJvyKldP1EtBzQ&amp;oe=68FF7C00', 'profileId': 'pfbid0tV1KPX3H5e5ahv5hjsanafx66oiEhsXJQvDzME5tSGSYpBuh3NxjYYXvRVWdq24Jl', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12075,18 +12075,18 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Q delicia Gracias 🙏😘</t>
+          <t>Grac8as por su receta,quedan deliciosas</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
-        <v>45906.83768518519</v>
+        <v>45904.89225694445</v>
       </c>
       <c r="H225" s="3" t="n">
-        <v>45906</v>
+        <v>45904</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>20:06:16</t>
+          <t>21:24:51</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12103,7 +12103,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dy_mj1UV4lwQ7kNvwE15QK0&amp;_nc_oc=Adn5byAGVjIUwmXfAlWFyYtRQZquf5NDLzbfZHObrt2LOTHkdKYUyA8a0RYxTR0iqXZG6aWchh6sQNK20N1wqgHC&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_AfaH1SiGvlHlAOc2Nd6t9qoGQigckYG7eDOm49Vs3rfNmA&amp;oe=68DC79BE', 'profileId': 'pfbid02aQNMMotwmCWs1whnPe1K9xehtrgLiTsF35PeS8YLqmyFkU8fF8jqz8w4gMiTaNpYl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=py6ngu7yDtoQ7kNvwEt8nt0&amp;_nc_oc=AdlLQXrpUgGPB7Vl7RsdSs8CJdRUNJtd0s55fI1NLkFH_M2-DfGLJQVoHRbIs-azh4w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfZD2mp_OjOEqNIuB0QgVWdbaCARZe2hGPOsXgko1JABig&amp;oe=68DDB043', 'profileId': 'pfbid02w8mmURAgxBF14FsqwhgJTGqMQgSHAWEHwScNd8kDtrsXSPX7qhVzVWyAaqxhYYd4l', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12129,18 +12129,18 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Uff q rico</t>
+          <t>Excelente preparación.  Muchas gracias</t>
         </is>
       </c>
       <c r="G226" s="2" t="n">
-        <v>45908.07615740741</v>
+        <v>45908.82081018519</v>
       </c>
       <c r="H226" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>01:49:40</t>
+          <t>19:41:58</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12157,13 +12157,13 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nBJu0L-67DYQ7kNvwH3q4xt&amp;_nc_oc=AdkoEwA6gDtsxsDR7duBVfC69aIwqJ-8eADGEKonPcN7pRNoemibzFATEGBg8e4L4RsqNdi_jHKp4SOQoDhYlZFl&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TSqVTkiAIk-WWPPixaOcig&amp;oh=00_Afa0Ykm9jTO1QI07rzBpOkJ5Be3eSvHpSke-7blsvS6ORQ&amp;oe=68DC7D39', 'profileId': 'pfbid0rqSrZiNH5R7Uyka1eAwjNnoyASQceKQ9bF9jUg3ZtjeWueeMp5ousTHMetgmmxVZl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ipaWqJoYDPEQ7kNvwEhfxL7&amp;_nc_oc=AdkCQlti0ODFMfrdcgz3Y7u2lUI635sxhGknCcYoDJEiUR--8x28lthwq1krQuDPaWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfYlGABvLzF8nupa6cf5-ELmI46FCoTRqz2X2dkjN0qLmQ&amp;oe=68DDB899', 'profileId': 'pfbid021f6ZsgacAnwhGqJ7riGjjgvoMiBygqEaeTSN1sbqdj2w52PgCiMiKZjHFxcWKVTVl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -12177,16 +12177,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0</v>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Q delicia Gracias 🙏😘</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>45906.83768518519</v>
+      </c>
+      <c r="H227" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>20:06:16</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -12197,13 +12211,13 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dy_mj1UV4lwQ7kNvwGS7JMv&amp;_nc_oc=Adm0YCM1VzVdgUrhjCK5m7PGKJvZttFIdvXJ8GuPOLx9X5gq6v5yUNtr3nlXo3xgBIc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfY9zM4KAKEH4BFTxRX9bB9xK7yfw-gudf6ydW91K0HZ5g&amp;oe=68DDCB3E', 'profileId': 'pfbid0WrjASeGavAd2NebUxgnbH1gtdkXi4yMz6AiSgbWLT1vMq84kVPLC83x2z6nUzgEGl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -12217,16 +12231,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>0</v>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Uff q rico</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>45908.07615740741</v>
+      </c>
+      <c r="H228" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>01:49:40</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -12237,13 +12265,13 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nBJu0L-67DYQ7kNvwFq4uNu&amp;_nc_oc=AdnqPnicKqQRIxpf44zzvpIEF00-oiwsq8LceZdkkpSCxhk7CeAAbQtdMF1eNAoGxdA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfZMICeaoMzq1hhtZpZgnese3papE5yunAVXYwF5JnQqeQ&amp;oe=68DDCEB9', 'profileId': 'pfbid02vgtZkPJ6vm2nsRuheNuEXjaGJ4XeCPmW4QJF6w7nEpKfBNqJBtfvb5jUg7BDHBpNl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -12257,7 +12285,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
+          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -12277,13 +12305,13 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12297,7 +12325,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
+          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -12317,13 +12345,13 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12337,7 +12365,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
+          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -12357,13 +12385,13 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12377,30 +12405,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
+          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="n">
-        <v>45904.49738425926</v>
-      </c>
-      <c r="H232" s="3" t="n">
-        <v>45904</v>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>11:56:14</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -12411,13 +12425,13 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=97YniGpISUgQ7kNvwH8oF2v&amp;_nc_oc=Admg6XataHmC5oya2HetsP5ZbYbDVuYc5cyjg4EzQfUJGish5cY5GcxgLZ_Yf7tzaKmkAtzskgVcnbDseJLsSlyS&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=8DQun0bTMT9Cwt_C1k0YWg&amp;oh=00_AfYtxOYjrr470bKIgxpPkfGLfUFxgZ6YMOl-MyDP_3J7tg&amp;oe=68FE2408', 'profileId': 'pfbid02iz3EoNDvM11a9gLTwH4r5UGBcHLsFaRJdkNGdxC6PCJZmftm9GMqJNgkCGaSsbCKl', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12431,7 +12445,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
+          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -12451,13 +12465,13 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -12471,24 +12485,24 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Umm que delicia.... BENDICIONES</t>
+          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
         </is>
       </c>
       <c r="G234" s="2" t="n">
-        <v>45905.03835648148</v>
+        <v>45904.49738425926</v>
       </c>
       <c r="H234" s="3" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>00:55:14</t>
+          <t>11:56:14</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12505,13 +12519,13 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S-Z8sYgdZUUQ7kNvwGWa6Vd&amp;_nc_oc=AdnjumYoqCyoC8agUz6okugFKrEqLbiHcwJWtrvFBE6kblN253kKpY-bCDI3qwmd_a2Fb3cysUuMagZc55VUECpr&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=Humm-b1cYNg5dStdpzgQ7g&amp;oh=00_AfaHmXZV-UtbZ8_EJF6ErmycY-n1I2amwlWc2xDQcudSug&amp;oe=68DC7828', 'profileId': 'pfbid0e7qnY8XYi88xAopNEJKaPTE81ofJC6hz8vVK17wCsfGyFuBs9BHBqgNjFLpAyfnpl', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent-fml1-1.xx.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=97YniGpISUgQ7kNvwGVNsKH&amp;_nc_oc=AdmLGGCLLe6iLndY7FCF6JK9FBzFinzUxKOQmeE8wwJr2ODuEs2evhwP-uorJZ4uq_c&amp;_nc_zt=24&amp;_nc_ht=scontent-fml1-1.xx&amp;_nc_gid=XGIOadIlTDcyj-wXZcGbDg&amp;oh=00_AfasD8ar254X4fsqiHnEw_Qb4m9Vv6AXlgQ1bQxUSKfgFw&amp;oe=68FF7588', 'profileId': 'pfbid0fSQ3tCbZViMGW4c4FNEMWrN1Z7rG75RG7cd8RwHGCu2hZNbVd5WZAsk4MRN2Txtol', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -12525,30 +12539,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Con agua 😲</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="n">
-        <v>45904.83614583333</v>
-      </c>
-      <c r="H235" s="3" t="n">
-        <v>45904</v>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>20:04:03</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -12559,13 +12559,13 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent.ftpa1-1.fna.fbcdn.net/v/t39.30808-1/537806890_2151822881969954_7030349860004953967_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xv8y5gTKIoQ7kNvwFsFY5Q&amp;_nc_oc=AdnqC0HU2mY8UjWBZ21FAAfDhoRisK9YbkFr4oXYLeQwoXe1qyF62jJEd1XEUFU2JfKEzh0jKVpXrrhamXsdY4e7&amp;_nc_zt=24&amp;_nc_ht=scontent.ftpa1-1.fna&amp;_nc_gid=Humm-b1cYNg5dStdpzgQ7g&amp;oh=00_AfZIH7VfqpSM4QKi8DxV0paIanwAY1DzdnxRJAoUUyFgLg&amp;oe=68DC6499', 'profileId': 'pfbid02h82keARv2XEMuoUPXd47mgu7vZ8mbgpvjZGWJRpg2nZSTqgrKgrw7JVY4n7UyeZyl', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -12579,16 +12579,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>0</v>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Umm que delicia.... BENDICIONES</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>45905.03835648148</v>
+      </c>
+      <c r="H236" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>00:55:14</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -12599,13 +12613,13 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S-Z8sYgdZUUQ7kNvwEA6ZQ0&amp;_nc_oc=AdmXHTyjJ-12uM1Y_EEz3Q7JqJ0ysIwGwHdCyBOdXrN976xfNBLJR-w2uuIQ1AeJhAk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=rL1VvlsqX1Ozp31_LiCAjQ&amp;oh=00_AfYxWGE1yjYk1Z5IwPXysajxoTRap28T6GfWg1AAiAfAKQ&amp;oe=68DDC9A8', 'profileId': 'pfbid02hyHVioTNZahD38WjhczQV3HDL5zja6NfAGaADHdxB57Z9DApMuzfxBhXezU4ktyel', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -12619,16 +12633,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>0</v>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Con agua 😲</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>45904.83614583333</v>
+      </c>
+      <c r="H237" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>20:04:03</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -12639,13 +12667,13 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/555551924_2184678995351009_6627119744596247003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x5uNKIC1edoQ7kNvwH-VIIi&amp;_nc_oc=AdlOGXQ0XZGv0HEUnQU5CsSTkxivZxS4Z9XkMgDqX5fdKc_U702sXRk0BqWEFQ7d86g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=rL1VvlsqX1Ozp31_LiCAjQ&amp;oh=00_AfZOxuCpArjhLdxU8IMzd7gG7qzW2KLkWvUfx0WeGhunVg&amp;oe=68DDC223', 'profileId': 'pfbid0daPZizoZBFra6zEukwxgyqJ247aELJ7ZbzKx2K139QELDhZWuBnQ1A2XWnhiRu1zl', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -12659,7 +12687,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
+          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -12679,13 +12707,13 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -12699,7 +12727,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
+          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -12719,13 +12747,13 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -12739,7 +12767,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
+          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -12759,13 +12787,13 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -12779,7 +12807,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
+          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -12799,13 +12827,13 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -12819,7 +12847,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
+          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -12839,13 +12867,13 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -12859,7 +12887,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
+          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -12879,13 +12907,13 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -12899,30 +12927,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Gracias</t>
-        </is>
-      </c>
-      <c r="G244" s="2" t="n">
-        <v>45916.97883101852</v>
-      </c>
-      <c r="H244" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>23:29:31</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -12933,13 +12947,13 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-CyWm8n8cycQ7kNvwGd1HMV&amp;_nc_oc=AdliduxyG5VdUVE8FS-Q7ojRX4YFYGZ57Ohk-RZYg9vgjVThy8TdjV1ZvtdiVAuyqLA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=IW2X4Jv2SOYJQxXzA7HUZA&amp;oh=00_AfbolioqlzKo8XfkHpIqyo2BFZ8K4_9ujuf47tEf0isS0A&amp;oe=68DC689C', 'profileId': 'pfbid0Z4BABA3aKoF7xtDrNSyrBRLi3sQT1pyHaHXSHyehC3uM6Zieg2ffgqMH5XiHFonel', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -12953,7 +12967,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
+          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -12973,13 +12987,13 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -12993,16 +13007,30 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
+          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>0</v>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Gracias</t>
+        </is>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>45916.97883101852</v>
+      </c>
+      <c r="H246" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>23:29:31</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -13013,13 +13041,13 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=M1g2wiVFeRMQ7kNvwE_KjB8&amp;_nc_oc=Adl7fVE1gzaYAhmekVGAMlVenhBSeKqLeGrbFF1rRS93MI5E6wcv-KDADJgxvTpRtrk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XmeoBS8qqvYFkqVnm4e2QQ&amp;oh=00_AfafgBR-joSJz8SpOEdhCsgy24xGhJHtme0ufRJvD27Nqw&amp;oe=68DDBA1C', 'profileId': 'pfbid02cucsMpyQB3TpGJYQEnfFyMqGavcYMdqmh8uzwxYv7JPbZZHDkgXKhMFycdzuBPhKl', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -13033,7 +13061,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
+          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -13053,13 +13081,13 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -13073,7 +13101,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
+          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -13093,13 +13121,13 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -13113,7 +13141,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
+          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -13133,13 +13161,13 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -13153,7 +13181,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
+          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -13173,13 +13201,13 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -13193,7 +13221,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
+          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -13213,13 +13241,13 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -13233,7 +13261,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
+          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -13253,13 +13281,13 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -13273,7 +13301,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
+          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -13293,13 +13321,13 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -13313,7 +13341,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
+          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -13333,13 +13361,13 @@
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -13353,7 +13381,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
+          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -13373,13 +13401,13 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -13393,7 +13421,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
+          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -13413,13 +13441,13 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -13433,7 +13461,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
+          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -13453,13 +13481,13 @@
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -13473,7 +13501,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
+          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -13493,17 +13521,17 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -13513,7 +13541,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
+          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -13530,24 +13558,20 @@
       <c r="L259" t="b">
         <v>0</v>
       </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -13557,7 +13581,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
+          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -13574,20 +13598,16 @@
       <c r="L260" t="b">
         <v>0</v>
       </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -13601,7 +13621,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59teFAGER/</t>
+          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -13625,13 +13645,13 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -13645,7 +13665,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
+          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -13669,13 +13689,13 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -13689,7 +13709,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wfOjMs2/</t>
+          <t>https://www.instagram.com/p/DN59teFAGER/</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -13713,13 +13733,13 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wfOjMs2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -13733,7 +13753,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57o8vjFGo/</t>
+          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -13757,13 +13777,13 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57o8vjFGo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -13777,7 +13797,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57pBUgFSK/</t>
+          <t>https://www.instagram.com/p/DN59wfOjMs2/</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -13801,13 +13821,13 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57pBUgFSK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wfOjMs2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -13821,7 +13841,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_STUFZM-/</t>
+          <t>https://www.instagram.com/p/DN57o8vjFGo/</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -13845,13 +13865,13 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_STUFZM-/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57o8vjFGo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -13865,7 +13885,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tq0j1Ph/</t>
+          <t>https://www.instagram.com/p/DN57pBUgFSK/</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -13889,13 +13909,13 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tq0j1Ph/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57pBUgFSK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -13909,7 +13929,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tsyAFZ7/</t>
+          <t>https://www.instagram.com/p/DN5_STUFZM-/</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -13933,13 +13953,13 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tsyAFZ7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_STUFZM-/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -13953,7 +13973,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_PjRjI2R/</t>
+          <t>https://www.instagram.com/p/DN59tq0j1Ph/</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -13977,13 +13997,13 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_PjRjI2R/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tq0j1Ph/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -13997,7 +14017,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_RL7DxSB/</t>
+          <t>https://www.instagram.com/p/DN59tsyAFZ7/</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -14021,13 +14041,13 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_RL7DxSB/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tsyAFZ7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -14041,7 +14061,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_S8hDx4V/</t>
+          <t>https://www.instagram.com/p/DN5_PjRjI2R/</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -14065,13 +14085,13 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_S8hDx4V/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_PjRjI2R/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -14085,7 +14105,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59sU1DANX/</t>
+          <t>https://www.instagram.com/p/DN5_RL7DxSB/</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -14109,13 +14129,13 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59sU1DANX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_RL7DxSB/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -14129,7 +14149,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P4RjDXp/</t>
+          <t>https://www.instagram.com/p/DN5_S8hDx4V/</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -14153,13 +14173,13 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P4RjDXp/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_S8hDx4V/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -14173,7 +14193,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rvEjAd3/</t>
+          <t>https://www.instagram.com/p/DN59sU1DANX/</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -14197,13 +14217,13 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rvEjAd3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59sU1DANX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -14217,7 +14237,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_Pt-gLSZ/</t>
+          <t>https://www.instagram.com/p/DN5_P4RjDXp/</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -14241,13 +14261,13 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_Pt-gLSZ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P4RjDXp/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -14261,7 +14281,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P3ljOET/</t>
+          <t>https://www.instagram.com/p/DN57rvEjAd3/</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -14285,13 +14305,13 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P3ljOET/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rvEjAd3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -14305,7 +14325,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wdzjdKJ/</t>
+          <t>https://www.instagram.com/p/DN5_Pt-gLSZ/</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -14329,13 +14349,13 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wdzjdKJ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_Pt-gLSZ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -14349,7 +14369,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59xBtjADu/</t>
+          <t>https://www.instagram.com/p/DN5_P3ljOET/</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -14373,13 +14393,13 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59xBtjADu/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P3ljOET/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -14393,7 +14413,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rWvjPIN/</t>
+          <t>https://www.instagram.com/p/DN59wdzjdKJ/</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -14417,13 +14437,13 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rWvjPIN/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wdzjdKJ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -14437,7 +14457,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59xRNDHUE/</t>
+          <t>https://www.instagram.com/p/DN59xBtjADu/</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -14461,13 +14481,13 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59xRNDHUE/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59xBtjADu/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -14481,7 +14501,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57ru6DMwD/</t>
+          <t>https://www.instagram.com/p/DN57rWvjPIN/</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -14505,13 +14525,13 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57ru6DMwD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rWvjPIN/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -14525,7 +14545,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN596MUj3av/</t>
+          <t>https://www.instagram.com/p/DN59xRNDHUE/</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -14549,13 +14569,13 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN596MUj3av/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59xRNDHUE/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -14569,7 +14589,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_StEAAQh/</t>
+          <t>https://www.instagram.com/p/DN57ru6DMwD/</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -14593,13 +14613,13 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_StEAAQh/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57ru6DMwD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -14613,7 +14633,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57ojQAEEg/</t>
+          <t>https://www.instagram.com/p/DN596MUj3av/</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -14637,13 +14657,13 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57ojQAEEg/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN596MUj3av/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -14657,7 +14677,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wEujyAe/</t>
+          <t>https://www.instagram.com/p/DN5_StEAAQh/</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -14681,13 +14701,13 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wEujyAe/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_StEAAQh/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -14701,7 +14721,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rD8DEKT/</t>
+          <t>https://www.instagram.com/p/DN57ojQAEEg/</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -14725,13 +14745,13 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rD8DEKT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57ojQAEEg/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -14745,7 +14765,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_RuSgNdP/</t>
+          <t>https://www.instagram.com/p/DN59wEujyAe/</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -14769,13 +14789,13 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_RuSgNdP/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wEujyAe/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -14789,7 +14809,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wgZjE3H/</t>
+          <t>https://www.instagram.com/p/DN57rD8DEKT/</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -14813,13 +14833,13 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wgZjE3H/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rD8DEKT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -14833,7 +14853,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_Qt7ALPO/</t>
+          <t>https://www.instagram.com/p/DN5_RuSgNdP/</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -14857,13 +14877,13 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_Qt7ALPO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_RuSgNdP/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -14877,7 +14897,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_QZCgPIS/</t>
+          <t>https://www.instagram.com/p/DN59wgZjE3H/</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -14901,13 +14921,13 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_QZCgPIS/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59wgZjE3H/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -14921,7 +14941,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57qGFj2R1/</t>
+          <t>https://www.instagram.com/p/DN5_Qt7ALPO/</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -14945,13 +14965,13 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57qGFj2R1/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_Qt7ALPO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -14965,7 +14985,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59yVXgMYH/</t>
+          <t>https://www.instagram.com/p/DN5_QZCgPIS/</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -14989,13 +15009,13 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59yVXgMYH/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_QZCgPIS/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -15009,7 +15029,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57rF5EYlO/</t>
+          <t>https://www.instagram.com/p/DN57qGFj2R1/</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -15033,13 +15053,13 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57rF5EYlO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57qGFj2R1/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -15053,7 +15073,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57qXtDMzI/</t>
+          <t>https://www.instagram.com/p/DN59yVXgMYH/</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -15077,13 +15097,13 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57qXtDMzI/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59yVXgMYH/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -15097,7 +15117,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdr3gMwG/</t>
+          <t>https://www.instagram.com/p/DN57rF5EYlO/</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -15121,13 +15141,13 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdr3gMwG/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57rF5EYlO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -15141,7 +15161,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdvAgIxV/</t>
+          <t>https://www.instagram.com/p/DN57qXtDMzI/</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -15165,13 +15185,13 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdvAgIxV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57qXtDMzI/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -15185,7 +15205,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjda3AET_/</t>
+          <t>https://www.instagram.com/p/DOYjdr3gMwG/</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -15209,13 +15229,13 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjda3AET_/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdr3gMwG/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -15229,7 +15249,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjd5igBtb/</t>
+          <t>https://www.instagram.com/p/DOYjdvAgIxV/</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -15253,13 +15273,13 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjd5igBtb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdvAgIxV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -15273,7 +15293,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdsPgNIQ/</t>
+          <t>https://www.instagram.com/p/DOYjda3AET_/</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -15297,13 +15317,13 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdsPgNIQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjda3AET_/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -15317,7 +15337,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjeCiAOsO/</t>
+          <t>https://www.instagram.com/p/DOYjd5igBtb/</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -15341,13 +15361,13 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjeCiAOsO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjd5igBtb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -15361,7 +15381,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdt_gLRQ/</t>
+          <t>https://www.instagram.com/p/DOYjdsPgNIQ/</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -15385,13 +15405,13 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdt_gLRQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdsPgNIQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -15405,7 +15425,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcncgOUZ/</t>
+          <t>https://www.instagram.com/p/DOYjeCiAOsO/</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -15429,13 +15449,13 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcncgOUZ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjeCiAOsO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -15449,7 +15469,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjdLYAJr9/</t>
+          <t>https://www.instagram.com/p/DOYjdt_gLRQ/</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -15473,13 +15493,13 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjdLYAJr9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdt_gLRQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -15493,7 +15513,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcsmgISX/</t>
+          <t>https://www.instagram.com/p/DOYjcncgOUZ/</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -15517,13 +15537,13 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcsmgISX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcncgOUZ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -15537,7 +15557,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjcmUALj3/</t>
+          <t>https://www.instagram.com/p/DOYjdLYAJr9/</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -15561,13 +15581,13 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOYjcmUALj3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOYjdLYAJr9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -15581,7 +15601,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOYjczjAM7v/</t>
+          <t>https://www.instagram.com/p/DOYjcsmgISX/</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -15604,6 +15624,94 @@
         </is>
       </c>
       <c r="N306" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcsmgISX/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>145</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOYjcmUALj3/</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="b">
+        <v>0</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOYjcmUALj3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>146</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOYjczjAM7v/</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="b">
+        <v>0</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DOYjczjAM7v/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -17015,11 +17123,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>12020001000000000000000000001002000000</t>
+          <t>1200200010000000000000000000001002000000</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N308"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c674cf10&amp;x-expires=1759064400&amp;x-signature=O2b3Rv0P%2F80FEMDVkxrRbgkmuxs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7547911468127027976', 'createTime': 1757385099, 'createTimeISO': '2025-09-09T02:31:39.000Z', 'text': 'lo intento hacer en la freidora pero tengo miedo que no salga', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904686353687708678', 'uniqueId': 'sharivch', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/716c8976f2d03a7531c9ee9b0afb0b60~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2aaf1602&amp;x-expires=1759150800&amp;x-signature=FUsLocGXaMGsw9kx3bwhOebsvWQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a3405a1&amp;x-expires=1759064400&amp;x-signature=%2B6M49FMZjqrdVeuTPHA%2Fg%2BetMfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546759107640001298', 'createTime': 1757116804, 'createTimeISO': '2025-09-06T00:00:04.000Z', 'text': 'yo acepto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806357842427675653', 'uniqueId': 'vivianita937', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7320802529942437894~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a23fbf&amp;x-expires=1759150800&amp;x-signature=Q3JgI88SYGiU9QodDjE%2FteazMLs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c4691b6&amp;x-expires=1759064400&amp;x-signature=UJ0imsEDtoN5ll1kKgQR3wDdOSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906205563112722', 'cid': '7546055357219619602', 'createTime': 1756952932, 'createTimeISO': '2025-09-04T02:28:52.000Z', 'text': 'El es de asquerosamente rico?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7218337988961747974', 'uniqueId': 'johngarca66', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7218361572995891206~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d472bde5&amp;x-expires=1759150800&amp;x-signature=YnU2yUvTFJGUwAzAgBHwBNyn7xc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8194705&amp;x-expires=1759064400&amp;x-signature=J0GocgaArTaeoEiOrW4JNGh8zf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7545996360920285973', 'createTime': 1756939212, 'createTimeISO': '2025-09-03T22:40:12.000Z', 'text': 'Quierooooooooo🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '257353200142344192', 'uniqueId': 'flakis9.0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/25b3a990544817d986f787905fe60ed1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54984b19&amp;x-expires=1759150800&amp;x-signature=FzsDG%2Bw%2BJA%2FdOhFsuPjrUlfqw%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ea2e365&amp;x-expires=1759064400&amp;x-signature=HTurmSjobnPnMUr4%2FTVsWfzqQxE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547908399992734482', 'createTime': 1757384379, 'createTimeISO': '2025-09-09T02:19:39.000Z', 'text': 'Me antoje', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7126759612301493254', 'uniqueId': 'mariamarquezvi', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/46d7919187d4c20a80bd60aeeecc85f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=01bdcf02&amp;x-expires=1759150800&amp;x-signature=Lv4e4o2s8kCtkf2zJcwPUSYkbHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f1d9b12a&amp;x-expires=1759064400&amp;x-signature=a5Qp2oSOYgw00e548AHXHT19tC4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906164911934736', 'cid': '7547688192855196432', 'createTime': 1757333142, 'createTimeISO': '2025-09-08T12:05:42.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7427668485327717381', 'uniqueId': 'etandavila', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b530bf8faf724fb968e89ce573ac3204~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ae4d37b&amp;x-expires=1759150800&amp;x-signature=EqjMKWUTvd5fz%2FiSGSjsIV6qPo4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12d8c0bf&amp;x-expires=1759064400&amp;x-signature=1oegmd5ALsxJyTGuytvDt25KYFs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546402769323672340', 'createTime': 1757033831, 'createTimeISO': '2025-09-05T00:57:11.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7204516210380407814', 'uniqueId': 'user5817375075181', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/76b41d0c82889f041c6fe33ab0f7c916~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3b9a9fc&amp;x-expires=1759150800&amp;x-signature=1T7G5Hrkt0VgAuJE56Ed42qLoUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f721591&amp;x-expires=1759064400&amp;x-signature=wFnmKfehAJhBgcxJsgPF1mg%2FhZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906204736900359', 'cid': '7546417230700430081', 'createTime': 1757037199, 'createTimeISO': '2025-09-05T01:53:19.000Z', 'text': 'y quedó asquerosamente ricoooo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365235105675805702', 'uniqueId': 'extmiya', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4ea9b207974065ee3c65af96cce4b76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c924b7c&amp;x-expires=1759150800&amp;x-signature=IHolcTtPD9NjEz0dORzpWRPhJEo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=514e2c0e&amp;x-expires=1759064400&amp;x-signature=mgTatbla6aDp%2BV%2F9YG3d8jEJBZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'input': 'https://www.tiktok.com/@alpinacol/video/7545906203931757831', 'cid': '7547670581929607944', 'createTime': 1757329007, 'createTimeISO': '2025-09-08T10:56:47.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6798930543222178821', 'uniqueId': 'miguelperez861', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327689909963816965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6140ea4d&amp;x-expires=1759150800&amp;x-signature=rarz7tAFV2wwNr1bkrqzIuLNgRE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5acdc686&amp;x-expires=1759064400&amp;x-signature=lpqs3Q6Ow6ipX9mI1YKcVhyS9UE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7550029769645376264', 'createTime': 1757878310, 'createTimeISO': '2025-09-14T19:31:50.000Z', 'text': 'Amo la arena boyacence 🤤🤤🤤', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6674624526812529669', 'uniqueId': 'vane97_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/edce2cfa557d61eaf06ab6bb38f3b5e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b10dfc9f&amp;x-expires=1759150800&amp;x-signature=Hlepk86bsMCgnlC%2F1%2BWhtz6Za1g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,18 +1095,18 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>si panela con sal</t>
+          <t>la arepa de maíz pelado asada en laja de piedra una delicia</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45906.07712962963</v>
+        <v>45908.6434375</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>01:51:04</t>
+          <t>15:26:33</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61f8a1fd&amp;x-expires=1759064400&amp;x-signature=p%2Fcswm1AIuYabOjMrQTzi7%2F1SLY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=393458e8&amp;x-expires=1759150800&amp;x-signature=ya%2FZ6VMbZTkAUJdT18ohVJ5zCmY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,18 +1151,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>la arepa de maíz pelado asada en laja de piedra una delicia</t>
+          <t>si panela con sal</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45908.6434375</v>
+        <v>45906.07712962963</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45908</v>
+        <v>45906</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15:26:33</t>
+          <t>01:51:04</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7547740092749726480', 'createTime': 1757345193, 'createTimeISO': '2025-09-08T15:26:33.000Z', 'text': 'la arepa de maíz pelado asada en laja de piedra una delicia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6974847520204817413', 'uniqueId': 'luz_402021', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/35b31d259b19dda5c712d5873c5ac306~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=738e5c7f&amp;x-expires=1759064400&amp;x-signature=FEhVBc3Pb8jtDE5patJmUtOfQcU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'input': 'https://www.tiktok.com/@alpinacol/video/7545783917819858183', 'cid': '7546787771239858964', 'createTime': 1757123464, 'createTimeISO': '2025-09-06T01:51:04.000Z', 'text': 'si panela con sal', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607938070460252165', 'uniqueId': 'estrellitamunozz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8baa848301ec11daebc9fd9473407e12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41379c16&amp;x-expires=1759150800&amp;x-signature=jRazlsD7HWedUFQcwy7%2BAlm8SF8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHhMp86&amp;_nc_oc=AdmWWmeo_zDyJMkMHBppkbaGRQPU5yG-N_tZSojQkPyfJ-KfedukRVrHTgggBZeI8jo&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfYiNTqNXV5iGKw3Q_cDgFbzA24QINZdLqbuEFzTlBj9Tg&amp;oe=68FF6B7A', 'profileId': 'pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CZeFyzYWZFf1Ew3bYM5KXfrYw5AQyAxLnrESXsGBrMMD5DEfkMLhFSFgcXPnpnHel/', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFJBzCR&amp;_nc_oc=Adl-1tN-YI9fTc1bIX0EXG0Kd9VC5UCXxm8sdnWWxakH5tV8ZpXP5YhoU5n5r2UI7Uk5k70lH_uVsXyWS5qsTSr7&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;oh=00_AfZqu90QMg8kC1ML9xdPiFtA8cl9APSqYApHByOfwKBQkw&amp;oe=6900BCFA', 'profileId': 'pfbid0CZeFyzYWZFf1Ew3bYM5KXfrYw5AQyAxLnrESXsGBrMMD5DEfkMLhFSFgcXPnpnHel', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/share/v/1AECsaNCAg/'}</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwGAtetU&amp;_nc_oc=AdlBbI1mS9p0kypS7iAr3Wyn_jokhK2PgnqOODQBT6eOWKVTaImqQ4VSIPklmC88mN8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfZTbsM6DDtfQhcy_6_Xzb3WkKfU8qRr8q-AjA3GERU9qg&amp;oe=68FF6B7A', 'profileId': 'pfbid021tXfxcQtMcJy7swsfpM9PQGfXQgeph5cyK7cxLesNArMzxGjvHFjoobmJZHxwecjl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwGD37Xz&amp;_nc_oc=AdlmXdoT0n2dAnlIK6eZjqcppVHBHpkqtTl8fhO1gyFpWQy3zAqrNWeG-vQ0ANyg6T9aL2pZ9nq_pAkMsOltuo-n&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;oh=00_AfZ2u7JRpx68KyO4VdFY5QruPSXUsK6i6KLyOB8YS9GxoA&amp;oe=6900BCFA', 'profileId': 'pfbid035jyP9HLiDDbczYzXVBGpRPtgrchSZXVTsUMEUabCJYBRp9b3cNsXRYwu6Y4G7NLzl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwEi8zaz&amp;_nc_oc=Adk2UOI64TySOPJcnUYgA_ZZo-gHG8PeyKE_OuI-5EMhFD-rQP-h38oJLM_yi8-32dA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfZiF8K1-p2S94GJDeKGt_0MOvcSbOlK2nWWFFBapdgBTg&amp;oe=68DDBC47', 'profileId': 'pfbid02GRJb4bhgapZoYmU5xVs3VcXVVnD3H2LE5H95ZyRLfidrHTRTDRG9bQGMKpxVTHDol', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwF8MnUI&amp;_nc_oc=AdnsiwBHwGS9KW6nql5e4d51efKdQNUunqZLU-dEzddo_2tGGN9SqUGQEm2gPnOU-GA-YZif5E7_OqmbR8Ees7q_&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5T0QumJo4sFQPlnOkivmmA&amp;oh=00_AfbD4lS-d8kXx8H8p6LkIYnY05BqrpPkWsnf_NfkrjX4AQ&amp;oe=68DF0DC7', 'profileId': 'pfbid0CsfQ9S5KjjgLx8H35hQLviJQmsmKhk8B4bZoLbt3pKcgPoVSkzRFHSuEkdC2XLiml', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwHtN9No&amp;_nc_oc=AdmlJMRASC8ApRm5u26-nPUO3W4TEeJEtgI_FG9EGIEITfGdmIwJiCZ5DCdgW7ssrXw&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfbGqCQOs17X3RLUEHCuSiw6Wva-cUrR-nLD46-Zlf5wyg&amp;oe=68DDBE53', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEwDPnP&amp;_nc_oc=AdnplQVrCCMRdfbqiVhESr3dmNMo7p3-WOtL8ncEsOe5r02-qdQCuHG4IctUXHhSAqE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfZhco092lkWqupnayh68L7ILWQpWEfJw-yYa4bSoPWs5g&amp;oe=68DDC962', 'profileId': 'pfbid0YWcbypZos2ruJHCUg7dTUsKZE5yQBKggGvd83DUXF53E3hy4WvMCGrPySMex3KzTl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwH4afaG&amp;_nc_oc=AdlDBc3XMcs_v4t6a26DOYl0ly2kvxCjm4o9gHg2VUEmzg8bSjvvg3_xEnXbhHfh9KzZthLqxOCFEsiZSeVWhOO8&amp;_nc_zt=26&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5T0QumJo4sFQPlnOkivmmA&amp;oh=00_AfZ5K0PPTP4hDwV_t_H_1RB4hB3A4DoxZl7ZK-uQLoJcMg&amp;oe=68DF0FD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent.fcps4-1.fna.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEmvYCO&amp;_nc_oc=AdkdUDpn66zp31YA10O9W4OTJs_VnOwhhZsZx3u4-6MDve8LO4BtMCwI2ySsEsSk1EZ597mRIrb9EUlFhid7rA0w&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps4-1.fna&amp;_nc_gid=5T0QumJo4sFQPlnOkivmmA&amp;oh=00_AfY1l0HLX9QrYSvZZQ-Gwgw-4QQ1YmoaiS2Mr6Oa5ona_Q&amp;oe=68DF1AE2', 'profileId': 'pfbid02cN4KAVVdiQ7wQAumVQReMgwSrvmkvmQav9oBoYg138hkyV4eMBspHrHBvoefwXdXl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwFPzdAs&amp;_nc_oc=AdmonyoIB_6WiW0og83mmpAa_Obu88077bjOSVafePav8hHkFZD7pDH2Ed6gr5fU39c&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Ho0SWL3u44paIujEw75C0w&amp;oh=00_AfYdd4cImYeoL6Vkt_b9ZnrneUbF4rPEcoCasrN0GI-dDg&amp;oe=68DDAF59', 'profileId': 'pfbid02Zmg7cBasWWZan1zCxNUX1c3d9NzFaSJwEVaSgsW1w65Tjr9PE7Q6HeckRSrtECVFl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/19tQheWQPf/', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent.fcps3-1.fna.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwE6r5sD&amp;_nc_oc=Adn4Z1C4gu2rRrFwdQUXQ-8lPTijq75BH_ph63ceplxDLsTUc25lmxUqLj_kBbxMiqieJBXekKW-Pzfk0kEb-Hym&amp;_nc_zt=24&amp;_nc_ht=scontent.fcps3-1.fna&amp;_nc_gid=5T0QumJo4sFQPlnOkivmmA&amp;oh=00_AfZ7JOXmK1Ei8_uVIph7av_A1NKlg0tB5nOwAo4tWMBMHw&amp;oe=68DF00D9', 'profileId': 'pfbid0WE2vh1xWfKgj7XBJUpvqQHp31LdwxNYo8vEcwSiLYyjKPZihzvwspzV3eHvXgmjnl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/19tQheWQPf/'}</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwGzoEDI&amp;_nc_oc=Adki6AH8w5k_x2gMhpjPIbCFJCvFvIEQXrFr0rsCyf1yOWF44Rz0XUZlKciuoMmiojc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZmZGyATIVF33gr9wAKgbdvKsCrPqu7KVeyDnwUTsjw5w&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6hvnG8u7QeYQ7kNvwHIFvBy&amp;_nc_oc=Adk6X0yi85sxlYD-WtW8HM-ldSImOFBt9gPzH6PPCE_4exeYVOHP_662rQvBwzuJ0VU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfYPXBoOC2QzRDfCBERHTbFzN9snUiOG8ng7fRXb3GX9xQ&amp;oe=68DEF89B', 'profileId': 'pfbid0TW1MmkrdK9ScV1stD4VZBUYb178DkArWZ2ezQGQhJzNDMniUYhTswgA9jXDhogpkl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwHoCoLs&amp;_nc_oc=AdmylAE_uEwhpYvZGfgMmPzyDVQkeqyM3yf59h98WwC-fqG6zTz_Itseuyw5L8xwFk8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZx26AETVnONvNBovDvzcUmQq8AouacPJ23uDA5ymybFw&amp;oe=68DDC41B', 'profileId': 'pfbid02ugMTzzQ1AMEyzB1RUNohW9J7CpSk69mC78PcvkwdxVWZCpD61wTt5iU1fYE6hWyGl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LP5llbu7TEEQ7kNvwFa34oS&amp;_nc_oc=Adn8w4xaqvBUbNG6K54UrEDBua7rGIKE9VFbstNxdDRClDAfw2PrVZWqtwvohPj_Qcg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfbE1Olol2Bu9_zHF6JA1ctCFazvVimV-qQlAnJq8xZP5Q&amp;oe=68DF159B', 'profileId': 'pfbid0r8iH5pmeKFbVRkPFWrY8v49htEgUYQ2itvb879WbUbjGnyApt4xd7P5n2R7Jdj6cl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwH7SUn-&amp;_nc_oc=Admb2J5Y82QBxNzWuyN8nF_tfnPF1rzlLkmbNtldS_caS2KNJvlCgvvir_ekS0FdeBI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbhxCVGLpOpptve3DV5Op9JXFZMwETGvg9GYgZNKGtgcw&amp;oe=68DDA94A', 'profileId': 'pfbid0c3PBJb48iTcMd4niKG7oCKxa7358nEdZQMnpWKRLM1Gox5uMst8SJSqHT2iwkzHul', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MiuP9g8SVtAQ7kNvwH2deui&amp;_nc_oc=AdldVuIgLuHm77xgmcgxVxfN_bxCFhfCFLGgUodP7cjRRMeDmQMwmq4LCiCIBUhJZps&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfavxB3xGhEEQCiuA5nqcaVzXtEAIqyBdjffoLiz99oadQ&amp;oe=68DEFACA', 'profileId': 'pfbid02fQsMvcQkkCcGp5siFdzq3SqgQMcVLLhWnpeUDs48MWC9tG1NjA7ateJkJv1pnQ4ol', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwEkTC6a&amp;_nc_oc=AdnCeL0_jJfvdthfAvbjka6HmbiG66FzD1M--EXXMyu4u5D8C_RgH1sNY1ns90VfTNE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZ5VPIvBzkbUzx8-cR5X8IOTi7SQXdSm7n1xhQISi1x9Q&amp;oe=68DDB63C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwFCx8Z3&amp;_nc_oc=Adn3HvZjzntooIycmwOa0CcjWaSy6hicpXF5OKVLss7rVDMTbx2DpnMm9W8tarjZ0YE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_Afb0IcbgObTv1y_go2tQmnIdFwS9j9bF1QxQWGJvlwH4Kw&amp;oe=68DF07BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwGQaQkP&amp;_nc_oc=AdnGus-2BUfEXf7FENjf14Zjgx0pWLNz82aK4QHyhEW8zFu2opot3aWjPVWROhA8-04&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfamTo9E-66RRjulujlpP7y-X0GJJhtfuVV8gccTFCPlEg&amp;oe=68DD9EDB', 'profileId': 'pfbid0HLVPxXA68fYT2jY9WPzdU7snjH2fEhaGpdWvLFzVBicpfVPjYiSmsVNv51qtbwUfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwH4thVR&amp;_nc_oc=AdkSyxwC_bCHrfygoUnd-UjY-R8TtThQRjT08U5R8FmlWGMZ4ZMJismGhxvdfD1ZZSU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_Afb1Lei-xsv5FdFu14TGhcSR2mkHdIZePP8re8rqQ4DiMw&amp;oe=68DEF05B', 'profileId': 'pfbid02LhyaaYWiAPfUyyaXjquNERXf51C9AfEMgvXi6Yy23k4ZU7zEuKbsjFS68ERiidRJl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwGH4UBC&amp;_nc_oc=AdlDWGe8M37bz1Xk-vWLiZYL797GveDef4hUyRZJgKRbv3Bphxk9zRzco-uv2JBCGjc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbP6TpRqPZamoonZilVMd0hvzKysK2OjCdf6EaR4AUxwg&amp;oe=68DDCC5F', 'profileId': 'pfbid0285q9PPVQhDbkSZyEqa8LcoZv3wFEVqbrNQU7yNw23EW9rZHBy5RosQ3Nd91MpDr4l', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwEj20tH&amp;_nc_oc=Admu06O3Q27-mNt0qaTJidwBD2qm4dsKwIoacNbpVUBPxmqA3h9CN2hPRQ1iIaD6fzM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfadHTI9Ga8o6CVsbfuBKOGqWV-bGV5dQVumbrzZVxS86Q&amp;oe=68DF1DDF', 'profileId': 'pfbid04YBxUDs3qzoG8y5AmT11YF6GuPnFnrvBrGFpXsa6ugsUY19cjMeaQ41LAQsMTQDol', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwEGfG2w&amp;_nc_oc=AdkTHlpUrLEWMIrFYIVCnMsfL3V_CwYQIkldVVnDU0F-fPcRzyXXIZZ5g0P3veAKx0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfZdXQ3YWq2OrvJNFhpE4Gqyo-wokfU0m_RlwD6cMXKB4w&amp;oe=68DDAC8B', 'profileId': 'pfbid02PpAuuEuYTD9GrzHdKTswovETijDh5nu6TSeyJ9fQhdga8Nv3ju5HkEaH3f1bPQK6l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwH9zaaz&amp;_nc_oc=AdnD-_cDpyqwpZSbF54gaINPJD3z778lyEvxs2fBhFrVMwPDIKglmw3IYkHVTW-L1IE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfYoQQuNqaaN6wXVujZp2VCRUnoHV0r0fm0JmMdiePAJCA&amp;oe=68DEFE0B', 'profileId': 'pfbid0LGXiz5HBc65NVRxB4WbnZXj6n6wCDWvLMa1P9zMT2TpP8kcjLfgYYmasraTBk8t2l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwGwS4W1&amp;_nc_oc=Adn2QpWdSVkFso9QLso5KwyWltJirjGw3Sd-jTkEoZkTpYDbvCo6MFm7eCev8tA1Ib0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfbbzCkEQXhcTg4Znj-rUYRpC8yZwyyI3TfGyf-_mheA8A&amp;oe=68FF6B07', 'profileId': 'pfbid02S6HdAnpFJSoA2VScfNwyYTXP14SMecqRbkujDKZ9fvZBZc4JaSeoxQ4T9fVuxftl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwEFA5AZ&amp;_nc_oc=AdlNM_MYEZYJP4L-mcTzd5KVE8IPEw2AkuLz23IfKIO4hr47SCNaHEPwv0B_xJue0iA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfYU9FfvQ-L0Z3SsOCq3aio12VdRD_pwJX6IUcQKu0emNg&amp;oe=6900BC87', 'profileId': 'pfbid025oaUFC9SH1q4NL33St1yqKDKSqqhzKAjfpZU4CrVBF7oH5YP3ZLgAiSbBq8bG1E7l', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwGq3Wag&amp;_nc_oc=Adlynz-zcC2nT4SDC1FeSohOv_-5iQV09c6Yh6ykNkR3Ii-_lXUP_gTRCNg_VO0_ioE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_Afb5ZLZLFKU7EHkJ3GJHTYPORsmqhevZ-3o4GIoq7Heydw&amp;oe=68DDC237', 'profileId': 'pfbid0NwPboTVc2t6yWV1ioUUWyhmPmuo6tA1wrsNmEhkcWeSdspvqfZGMACKTky5s4r9Jl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwHnNt79&amp;_nc_oc=AdnEIAa7mu4j9VC1pLwLjPzRhSoRw9-_yV95gHa00fRQnFJx4Ev89H1OYC7O83eaO0U&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfYzZZX6eFycGfaa8eM9-CXvf2JmkmgcsB4xCqAI9JHFxg&amp;oe=68DF13B7', 'profileId': 'pfbid02SnqJz8RRtJDKzcYd2aKZDn8cc4Beoq6ptsMHUxzSSAKnQPKXPjPTzCakkWi3yA6Ml', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwF89Fhq&amp;_nc_oc=AdnD39Qom6Cv1QcTo-W7GPXJKR-kkGwlSpqoWUkiW7riWfgOzWyKf3BmueSd2lPLmGM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zS6xtuvsmF01OPuvmVw2bA&amp;oh=00_AfYj416hXhs1zNa2OXMaLXkiFQb1HcLt1TtqsVWI189JBg&amp;oe=68FF6470', 'profileId': 'pfbid0A3dQJZBdeUnt25AGP4nMFz6PyEZNEjVJymu5gGeA4WmQq6n8qDTo5m1goPujaHPul', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwHCu3kU&amp;_nc_oc=Adlo9oU3u81RK-Z47_6CSzlgIo3Wv8KGeJHUI4XNDK4R8hNykJsYe1doWjR_BBwQkUI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=PdnNE_0vmVcgG5bYeDafSA&amp;oh=00_AfYsSt9mNnM4D0KbM696SWM-18HXqumRs4pXcVRRsUX2EQ&amp;oe=6900B5F0', 'profileId': 'pfbid02DR7avaYFg6L24p8bf6TXVt7AF1XbgydupJ5ZwYauF4bLCYdScMuqXKKb28WkHExVl', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwGuhsQQ&amp;_nc_oc=AdmMfGJw_gdtWLH-O9KoUnCsFVZOV4T5MAWqXuyhpQwUxm7Lwal8IrI_2APynce0vc36QbvNrgWGcXHgAZb6Y2RA&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=nfjvuvE0hMrDMlxwZ2lvyA&amp;oh=00_AfaMOKHLK9m5HNKf0knt4kMkyYB6yDhKJRT9pcMAYUSO0A&amp;oe=68FF544A', 'profileId': 'pfbid02wKND3K1vqwZdSAvzecw8RSWH5EUUDt8Z3Wb34AnwZhUMV1giPdyh4XEndgqbwVKXl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwHy61rM&amp;_nc_oc=AdlDyCuvw05RVNPAZ0EQiIkD3wx-GyBcqpHq_4Vs9c6NJ75PAniuN2s2KXoK0FYCVdpy0HQfamZT8v2--Jp0dSEO&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=C8nGcnrG3kxmIL2l0OdUjA&amp;oh=00_AfYTIOCeDydehupKhS53WdzTfDFbhVNsfM2yc8k9Nh_YMA&amp;oe=6900A5CA', 'profileId': 'pfbid0smj289PZzmPaPJsWFHjXC9krjCmnURMxfhGJUfUYXUmFQ1nYSXKRMLN8dH6n67gRl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwG5PWjd&amp;_nc_oc=AdmZpoSVtyCKLJfkFgB9cvCP7l7gh-bFUObAAEy6i5n4rICEkoqgaCWrn3aKVA5Sna96QrKa-Pq-d1wGnxpXcEaf&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=nfjvuvE0hMrDMlxwZ2lvyA&amp;oh=00_AfafitZJtpknch53qftoZ31tM8IgkKF9xlCTl1oPOuH9Yg&amp;oe=68DDCFAC', 'profileId': 'pfbid0FLwoWs1S5WTAyBVL2gbxL2H4Zz6szJPfvEDPxK12hmmaeACeioX91QRN2VPWt8Uyl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwEp_vJi&amp;_nc_oc=AdlQ9aIsWTnjOjW7t73B0CUDlQhmQWME0Y2hsvh6bhbxPX9UYBrZA44DzTTUlGAaUag6KDoAT6gwz7B6LVmYHNbW&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=C8nGcnrG3kxmIL2l0OdUjA&amp;oh=00_Afax-V-2iW_VugczJ6PDuKc2USkGm_FfzjqyQ0JajgptBg&amp;oe=68DF212C', 'profileId': 'pfbid02JiRz8tN477VMazsBWvtokckEpPoPeHKgz7bVahB1fy92HJdKki3i3FCibUCjqpA6l', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/1CJf8Y6ZQ3/'}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwEuUwAN&amp;_nc_oc=AdmsuZNC76sCdgHwk8ZAQ_pIG7syhZrRRqEvi34aUjR_otppyxPRB8akQax86SdYuRo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfZD5P-aVQZbXJTulS-dQPtheNbbp0Q0cwbfGo0r7TJbMg&amp;oe=68DDB1A0', 'profileId': 'pfbid0npwRShpJFrxosMy4DBHwcg1C483SGSJ4ym4mTb1hm3y1Y9PxxMSWx48USC43Aqckl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QrJqXEA1CCEQ7kNvwFha4Av&amp;_nc_oc=Adm197WBqcQGEt8-75hGeaTXVaUWfx4l7zt07e-3bbPMspzzXZNTysVzFkQAUdi6uB8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_AfYxVcK8BHUFeui4CALUM500Wr66B_TlTjDlIzLcyQ4KmA&amp;oe=68DF0320', 'profileId': 'pfbid02rgP8dNk87MYxPUjie6zxnUXBFv6khWv5sWcGaronwLBzi3JJb4FtDzwgD2btr7Acl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwH6sP8I&amp;_nc_oc=AdlBJrR82bvpvaZnh_hjXnelHna1SNaSPoAZVjeTeOTTOLVXN2yo0HBAOrwLonkK6wc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfYtnLYPNrswJq2X9gmhV3nvgYCFD1Nnl1MCiEgbTV2EjQ&amp;oe=68DDC611', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwFc9-EW&amp;_nc_oc=AdlZKEM2zQNi2e9_zANI2Y3XqiTJ7j8VOC8wiSLgFoo1ReZOK6WdC2F1WkXVMwq_1DE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_AfZFnafMJJ2p555xWAmYX7Ze1zArZ7Bam-PAm7VRL86leQ&amp;oe=68DF1791', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwHf7h9U&amp;_nc_oc=AdmVriAfzDML0bIlnD2y-yaWhSnHzANZ3Yqy8WeeM784IAPXX6MHdoLp79u9b8HxjUg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfaH3MuL7UE-zMBhh8VI7AOua1YE0L5KeEx1pbtAmeIzmg&amp;oe=68DDC9E0', 'profileId': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwE2o9Lq&amp;_nc_oc=Adnnec4JeXVqtITfgfR_AsL2HDSZ4xOlhDq0A8RAU3tBDdmCLUSLxF5HdRoi7H6ot5Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfYDvMgT22fEKrkuKqIUngCDaRW_sjRqjfgxPNcNjC6gmw&amp;oe=68FF5755', 'profileId': 'pfbid0Lgmuy4q9hp3m9DmMiYphFD2SrSwkb6h7Z2tUSgKgbUFrPAeE94upa8hpdDWZXcTCl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4SWvvFo3uwIQ7kNvwFw5k54&amp;_nc_oc=Adn0duH4wZko0owt0K0nu1E40Xr_fPoN-rbC5lJ7c2jsUzXF02tcLriqqMbVLGErrEI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_AfYAljimRLe809lmD44_-TaIIn99ntGGRjFEvWrH1CyOcg&amp;oe=68DF1B60', 'profileId': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwEA_2uo&amp;_nc_oc=AdmYDUkpYqRBeazJm4rEHD60EXFyfRTvR-rgUaYJF67Oc-dt7O6fWAb_bT6Fq63svuU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_Afa_bxI_iYcK03haFYXk1rmibz66j4i-gIZkREwUAeJlZA&amp;oe=6900A8D5', 'profileId': 'pfbid02Q4G6b6BmjKh2VMkmihF9j354Wevzws3V21zFv71VYm4PhAYnRG9jD1rn1HxdXbmgl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwEETunj&amp;_nc_oc=AdlCEZ2cdZ4yyCvVjakIQ7DeQT6DR6_2C2duep2EsDPHkz7pYuxFii8-FFYOV9Ck6JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_AfafMmwEPh4U-dWN4RDD7ZtAWqZZLn8AGDeMBQltXEq2SQ&amp;oe=68DDA0A7', 'profileId': 'pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02pmrwEGxCbjWS5nWngYFiWvX3EsA8ha94mw1MiLvxvsWfuAJfywcu3sC5zdkFNHRcl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xlNTtupL5hkQ7kNvwGqQxjx&amp;_nc_oc=AdkNicf0aJnLB7hXn6ctczqC6AXNU248rn8uvhHjlEYGyDeZdWjULjZextUUq3Dir9Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_AfY70JrE8cV_q2E5jWyc_Vm4UnKruJQCDmvhjEnq7VDxFA&amp;oe=68DEF227', 'profileId': 'pfbid02pmrwEGxCbjWS5nWngYFiWvX3EsA8ha94mw1MiLvxvsWfuAJfywcu3sC5zdkFNHRcl', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwEGBvZJ&amp;_nc_oc=AdmbcVYPXjy9O-LDNbYS69e8Fh9ApKi05yb4PR2GJDti4eACELUFb2Im-nvDYpFC0OI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=JxeFsjz6RSAFMf7DGqtThA&amp;oh=00_Afa_J3ctlcj6XJXzgm2BXAcKxNpRuAkEN9fQXfJvpgkSOg&amp;oe=68DDB66D', 'profileId': 'pfbid0fuhbasHDazgnbm1s8tCXg3fwG5a5n7PdXnnfhnLi5YsLDiTxCVDgaCwM221zVUW9l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwE5Ye1K&amp;_nc_oc=AdkUwFnF0nYaHgb9Kdv3wMfI5tvWiv3WgWXHiIuEmnkGj__DcZCy0GKnbz1yjREEFfU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=VpzYizQnOR8rJDRGhNOVjQ&amp;oh=00_AfYtAWXlOag8p7VtmSBGorGsfVRsUIuTRXp0hZML4D5wHA&amp;oe=68DF07ED', 'profileId': 'pfbid02jHBnCtdqcoQo765DzKYYCtFBJxi72P3AhBnMCbLkKcZ57YmruFCZtFkWvwx754Z6l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/16dwuwzUGy/'}</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwEQFmQb&amp;_nc_oc=Adk3P-C64UJDeSEdM4qmhraVwkbR1f-67ongW7VSvjWBlAevWNYExLvBqrFDwcwr3T8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_Afa0m9b1uu9sWACGE2-MvVbeufzAjrVv8PdYRuezt6gnVg&amp;oe=68DDB866', 'profileId': 'pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid02xLuXn8b64TTxmFX2gvvtWsWLRbCnphW6koka4Nr6M4T3Bxgg2ycYuRFUKhJNDetl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwGE0PND&amp;_nc_oc=Admu_pOIdcLL2Ni7PwGsu0rErdH2tjEVsFwtNN11HbOAGdjv3gFPhNDjRjxY2IJzYzU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_Afay5NEvzQjDBeAljoo-2xy_kO5L2Jza5gNO-91HEcUBJA&amp;oe=68DF09E6', 'profileId': 'pfbid02xLuXn8b64TTxmFX2gvvtWsWLRbCnphW6koka4Nr6M4T3Bxgg2ycYuRFUKhJNDetl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwHoCV8m&amp;_nc_oc=AdnpLoBkKfUs4ZW72lWFbJYyJo5DJlb7dbiSgjpv-mIYHRKE0dPtLU890-_JBoIiPec&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYn8dD-OUxx15zshLEnnPWc9XfWI5HFvOgIngkDAasDUg&amp;oe=68DDB24D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wgtk3-qZ7BIQ7kNvwG73IT3&amp;_nc_oc=AdnanHZu2C6D5sEJbA9xm8ZUa3NEhjgt_DMpyBTR-_PoRa81M1rI8Yg9Y2EycdXTQQI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfYcmus9PLqbHQscP1A4_bnPKfO7fawRYA4R2DcH__PusA&amp;oe=68DF03CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwHoC2Ee&amp;_nc_oc=AdluoOnbDeJkGDy6lRAdCSzpKAZj0VRpWseu7ZtoNYV1Efuyv9UffnqUb3KfwDZJEbw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYNCSwd4jxOpI9FFPH-szb_05XrNefUSHeP6ppZpbPK6Q&amp;oe=68DDB3C9', 'profileId': 'pfbid038CboejPGpVk1W8fThiUzGkUTsMyocgfHDHXjt3rKBPgeij1AzgDcsneyU5U4qPn2l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=awK2GHC6uHoQ7kNvwGoG6ls&amp;_nc_oc=Adnv0NHRYWiOKbtN-4kimtipbm8fiPjXeyJdny5QRhQ-sMXEbTXmchMTnK8VfohNx_Y&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfZOoDYHUpVW7XbFO32KNVyKgos7M97Dg_G3c0ciZMjRLw&amp;oe=68DF0549', 'profileId': 'pfbid024excjZkuyH8YzjfeSVWK41Y8r89uEbKcy2KVj6c6dQ1pEaf4iM8CCist6tGioSfKl', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwFCUdHo&amp;_nc_oc=AdlAP8AQWQ7M_hIGjKbwda0UlC9yXGnSnK9e7wsfVpuKMrOIwvwbylC8phnhX5fQiro&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_Afa4Je1WaUR6_a52xneLABYjW4N1hiQ3H5EiXLmg0Jc3Ew&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwEOi4jw&amp;_nc_oc=AdnaIhTWEfQtMtArHILqiAXkYbwZl3h9GLBpYNi_SOdG1zo1THlO67wpHvVd3XEVmpU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfbdIDMo1-rs_LhFEjPDzIH_LE7mQDylyqm83ysJaWl4_A&amp;oe=68DF01A6', 'profileId': 'pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwHr-V39&amp;_nc_oc=AdlCsgyefS3Om7RcobP7vm---bf2tyn2joG0jf8ehGA40_DPQAAR7ALmTXxhsdxw3zQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfZtHU4zy0D241_AqlGZ16SZvTiqzASysTmP6UYf3dHJ1w&amp;oe=68DDC633', 'profileId': 'pfbid02XdPoyYhM2UmHCh4pzeaNTieJDsiFo6A8LRqLFsyYcWsKE9dBvqGmN1SZpk1QB2ktl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_UnuetPe_D4Q7kNvwGH1a7E&amp;_nc_oc=AdlrfilQ_9IlpO_NK63SZIeUTmcfM5O__CdprbPxljy_oL6B4Zj_SYas6G14VWUiCYE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfbRS5it9adE1OjWXzdT_X2mwf7rz2S7A0klAEufDNZZdw&amp;oe=68DF17B3', 'profileId': 'pfbid0Tbo6VjVnMZLQgChMtyrNqtsiyEX4Ea7BAfSjeoeTnGku5hUpGDTs1SFA7FbUGeqvl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwHLdBkM&amp;_nc_oc=Adkr9o2x4dh7PnUADuTbSnGyqbIbsR2y8LPmGf6uiftEjO-De7sZjAWke6rKyx-H3j0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbbqWoA1NZ-915qH_qUTQuGQweqvLh5FxiBWmsZHWGn7Q&amp;oe=68DDB3BC', 'profileId': 'pfbid0fPfikNNJ8Lob7KTcgv5KLT2SPsuE6ihDsLf2stoD6CGQs3EoNhu1A4j3qByA5i73l', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwGwGvqb&amp;_nc_oc=AdloHn6IO2D1tG-eCvffnwAdV5CivrsbWzFHCYeOW2zTYshu4UpdYdyZvGPTRLC9kh8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfY5LkVC15DsDjeQNxXV3LC9UkmkMeybrNzKJuepjofxqQ&amp;oe=68DF053C', 'profileId': 'pfbid02jF7Rw3J7yboWwFL1zJw848eLKS2YjHq7czWSSuaWiW2hnYge3uyYDs9aftBF2BUrl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oejaIfwBbwYQ7kNvwHtUXBc&amp;_nc_oc=AdktNISnlJlMcaHBG-NjarV2WPBJFGOWtkwa7lBiBMM_Ge_VemcilK3hqC7vI5RziEk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYTlrIxMAnsFIM_xzFWeG-zIYBCrHcB_QvVqGuMGclkcQ&amp;oe=68DDD2C7', 'profileId': 'pfbid02HvTGYKyqRZgwbo6HWRPnT826EsVKFaVNcnXJs6bnz3VmLaEYTVBiGADWuRMa5vmKl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ae7LqkQWo7YQ7kNvwFN86Jr&amp;_nc_oc=AdnREheMcwLiUUD-cPOmbImX-qLz32lGubNiFr-vBfjs_mIcunEkdEeiMYzWUfVovag&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfYuZ7ux2yzCeqbqFYGpW9bz1FpfTuy9CplRfChyWxZTug&amp;oe=68DF2447', 'profileId': 'pfbid0ENp5dAMUaPrzEVVVn2pGXaDD3RxnFuG4fPDTvTTQ6e77UhTdtKSFWc1QNEupr96fl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwHOBsHL&amp;_nc_oc=AdlRaf0CtpolrOENbDjpJKf4-3QeRqRCHHiPPnyVj6Y6HZcgAtuOakumRsa1nQczudg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbntxT5PFFxpfUkicCB5VN53dn8agDK0VyNxz4YCLGSJg&amp;oe=68DDBCFD', 'profileId': 'pfbid0wri9wTtJt1rXLbVyK3Az2pBnRwM1PuxPMSkMpWLqoRXKdWV6F1rBoUtf4Y9SPZEol', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwGC31ab&amp;_nc_oc=Adl-H-p5GG1ubbQntvfRsoRF6QLoO2NVAIV2KW3t997U-8Uz_xO_MSEUAE2_ezKdc5c&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_Afb_wY30dsiP6OeTSOzPUJxjvhQjauA0XeBW5Z2rXYD8xg&amp;oe=68DF0E7D', 'profileId': 'pfbid031ECLZVEvuhcfkT4QHVaJU1UAp8fQNTW2R4d6oDieHLVy4JLcKgdXaVi6uGjwvv7Pl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwGeGlV5&amp;_nc_oc=AdlY25Iz25eLPWcUiEs7jzKtj5RHQbJpfrZ8aZOwG-HRl7l76KJQlwNW8AUfTHsaPYg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfYxFaePdqjzgZEwdG-8ObN75v5IZLnAaxAk-8_7nHZ1zA&amp;oe=68DDB43B', 'profileId': 'pfbid0cySdE9Hg6hQ8FaXPUuQxFqVbkrMg5ufT8xxRS4fYPvysdbmcgnUzoCyav1A5Z5vml', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-rORPEvhf3cQ7kNvwE_ybuq&amp;_nc_oc=AdmB9WXgyHz_cPbirszTD0P1IFI68VOYUrSuIcMdgOPxzTlf7C6hozT9OV-CsBy5IXI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfZ8tniYuoGx5uw6bBUJxFlH5AQqwRTfdCiwtTQByidETg&amp;oe=68DF05BB', 'profileId': 'pfbid02gptLQpDVxAaP3H5AErsLcoJ3zrgkNbhR1jjZgTMwcNZZXAdwhUUq8vkWCrT8f81Ql', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwGUi7cI&amp;_nc_oc=AdnJqJ6dyONXBcvUsNngIKfDJHUJjPiGm9EdfpRQ3shAii4c95xwq9vpYhwXCQrRiW8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YO7sWKGJI91iKXkFbnO4GQ&amp;oh=00_AfbMln1KZ3bscitg9SK3cmdqnqTD9BVWbJgF7LMrXpFhIA&amp;oe=68DDD295', 'profileId': 'pfbid0t6WT6XvbznPenrfZ1XXMAdmjazz18rX2xroL8dXiz7U3hPBP17qB3zHa48rX1swYl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwEOerAZ&amp;_nc_oc=AdkNhdBJAebsfolgN6Hp65gjayyj3klB51zACbSsHxp3oYrEhHD05XGcF-peR5iL250&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=3G6rdLLSlVIF5P_b--CD-Q&amp;oh=00_AfZDfgGWYPjOBCaKIH9zoUuENhV2DQNtGrcx4G04yXYXzQ&amp;oe=68DF2415', 'profileId': 'pfbid02wTzdiZHE2VL5kfdTQooq1ozqhqCBTFDhS2XxVyi92QpD2bZusR2XbUwfSXq6SggAl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwHGdGKD&amp;_nc_oc=Adm3uc5NSR7xZRjyMowU3KOMujg54ejUaMpdhbjDKXsT0eZ28klRi6Sp5fhXHTCk8co&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYQnNPYZ7M5FcMzD9qTGDbh6i9fTMtXtnHa9LRo_wgKDw&amp;oe=68DDC34E', 'profileId': 'pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jWBdfTzHNCMw49MLd8jyoe6kpFR6BS2aMpd9yVvfUPCELWTHdESqXdTgBHVtNxh3l/', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwGgzfVA&amp;_nc_oc=Adk-Ae_SyM-yrohvvRiuPiQ_iHsjYqMP4SIjrPBWPMTiZQFsDAnw1UI-JHgD_2k6RY-O4f3nynG7BkLqszpgnpuE&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfbGSNnCcevlA1tA6iHFXv6rWRalZNWh-cvKw1hl6-TQmQ&amp;oe=68DF14CE', 'profileId': 'pfbid0jWBdfTzHNCMw49MLd8jyoe6kpFR6BS2aMpd9yVvfUPCELWTHdESqXdTgBHVtNxh3l', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwG1CsAk&amp;_nc_oc=AdmpM0dYhVKm2S1FiLj-E6viVElonkj8wKYXiWSZuqhWDo-OwaWEs3uZlyLnqcPhBNk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_Afasw1DS5VOTBP4o1WJBy60dEzPaSmUyoeRdTYEwJx4clQ&amp;oe=68DDA777', 'profileId': 'pfbid0ABVVJPAWL7MhRxkBDG9PLop9gPrZLFJQYjYeW5hEyc7hQYMUaPvhB5GjSnK8MDvBl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwERWr-2&amp;_nc_oc=AdmtH3L0azvoS4gtfZV5R0RB-cMhTKqoqhxF1p9NQxIxYNSGmKlSsSA3vJO-SqjOACuxgvy14-4kgFbug-K60hMe&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfZUeeF-Wk98iAtCJBzbLFJOdz1y7PW1kF_h0X2p-kV2cQ&amp;oe=68DEF8F7', 'profileId': 'pfbid02E2wCV46LBNMfCwVfTiAN1323tFmtuDYKEVt5WrhAUvPazaKn3wbQM2cn24M9Z8Nql', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwFCnPN-&amp;_nc_oc=AdkWh9CcrO25snyTAO-Le8-pesTnB9MWEu5y1tsh2JFGAXmAGUCMD4l2PujSD73nhIo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfbCjVdxu4eKJd4NfXZEaz1hk6xnGjaKF_MSJBBOiIffwg&amp;oe=68DDCA7D', 'profileId': 'pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02Yh6g8XQDEaYV1k82yxHpozsRQsFWpmi5TK41KxRu1mf6w2mDf6Ze13g41CSga6kyl/', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_DytOHOKEqMQ7kNvwFdf62d&amp;_nc_oc=AdkPt9tAwK3UoZhDiUU0T3AReJ1EnfExoPsjLS0Awk6SUtc3ngk1G-vyrMxO_Io-4u5MmPC2H6M-Cf_DQZ1IazGG&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfYo66lwcPmSegggeqbclGZZyHQ_VqQCq5PGe8uEhjBW9A&amp;oe=68DF1BFD', 'profileId': 'pfbid02Yh6g8XQDEaYV1k82yxHpozsRQsFWpmi5TK41KxRu1mf6w2mDf6Ze13g41CSga6kyl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwGUxl1k&amp;_nc_oc=AdkvK_7zJqSbFtUoHB17zMmfGRW3lvA_EFNJLhhJofC4aKp-Sora4gE40PE764ggW94&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfY0yiiiKlH2i1Z2bn5UuknPMuIno0G_TFwYgxkqTGkv5w&amp;oe=68DDCAE3', 'profileId': 'pfbid0Mkv4nPGuwsr4gHgqm9THnXRSDkBEGYpNZhHAGFAuRMnHiEDtoGn1U75oLrDAqa7Gl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwGPylb-&amp;_nc_oc=AdnnOxVKD2qAfxrEfq8mu5Jz2Lgfk9a4gGXhrh51ixyEK7LvovooOlBrjtwPGv1IToq0mFAQrwZXDq0h9x1Q1oj-&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfbIE5O-A2wOVQTHiVQMjPh8LQ_tqTta_opEujwgN_gBOg&amp;oe=68DF1C63', 'profileId': 'pfbid02RcMmy4CjoHuNnHdKXTMWEVzpPtzvWnkCEPcRxeCXjyj2PZQLHVc4hFe4W9KQv1Qzl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwEo4vIO&amp;_nc_oc=Adn4hJUV3tDwcOlWweaCg1Zu1U7Y50RH0guZxrIl-AwCwrCQqSoy7VYkNZM5jY52Qjw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZF4_VHJkeaNoCEiLDK0ebfprlDqsCTrq2RgULRvEKunQ&amp;oe=68DDBC1B', 'profileId': 'pfbid029DaKqPqja3PL9YjyRYLmiLASB343PcrvGJxg3Lr3ePRHyu23r7Ar2b5aKbPR98GYl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SRPKkfLYYs8Q7kNvwF4iTOG&amp;_nc_oc=Adn_899vMcmmv6IwM9Ef2mnvWwD2AX4RvTYt9XRAePU4YL37IDwoy8PMpPvaV84lgyckc3obrdjeDqvU7ZotAkKi&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfbWjMX8vXIo75-F_KX4TJlAhOkR09dGrhFPEcINZw3ABA&amp;oe=68DF0D9B', 'profileId': 'pfbid05fw8vEDNiusQwBjhKEbDoFGbXZPmeLodEopybU645NYVDV7soVaAtajgCvDhTsyml', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwGdnrh9&amp;_nc_oc=AdlztHT9iNhwuTapeBiASSFU8K_5Umm10544GrKNoSRELny4tkOAf2Q3D7OsixtUCok&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZkObTe4IzyyRVkNrVHeJdkNaCo8QpCzohbYLaydk73-A&amp;oe=68DDB92A', 'profileId': 'pfbid02iARZLEoHR3U2VFPQ8NJ5sos8rEVweYZGcvGBXdxKAfTsdvBLVrhcWiUTmodF5KqWl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwFKSATK&amp;_nc_oc=AdnRIvV_fYAZTVtljHy45rJNPPHyAObztTpcYRTh_0IWLISUzmu8Pi2P2nPt9zjIuKkonpZiQq1nuxiXaWQGfex8&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfZU0Rf8t_sPBR4Z9wdQrjjNcti_hY4iKlQZyJi6N-99Bg&amp;oe=68DF0AAA', 'profileId': 'pfbid0e8pqrRbik3UDUCVgtFVCCF6W8iVPiLemsvjRkNxwbzHKzmCTLAdv4s5aV6VwnGigl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwFoYFCW&amp;_nc_oc=AdkNLt5ihOmEnXlU-1zUZ9s_nlvcuQElpqgyhLBuJM0bW13oUWn_0RTSuSicVKnvJZE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYk1Wg5ub81c_gqArhhu-9130imTO49fiiFWICeYxAjfQ&amp;oe=68DDA511', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwGx8moH&amp;_nc_oc=Adm9y2TTnn4g8b1pB-JVW4QYExlsCFR1ZIDdTKYDnOdXeSauAclEizOs5VNHlrt1PHgFa58OMa90O5Q4uNRmC6pL&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_Afbq3tbjSSgOy8ReIAhHvVhXjGjLV6v_CVTFbFqYt4MKLw&amp;oe=68DEF691', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwH1y_Uq&amp;_nc_oc=AdnjroY2TRVEPS8nVLEzTDT1Ntin3_0oNqPmfR5TUtcSqQZK-QF0g-XioAIP8PTNR2s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfbfMU80lFrfJo7_sao1a4rhQJ3XRmmG0v_LFaZI5Xi4IQ&amp;oe=68DDBCB3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=iVMi0vqXB6IQ7kNvwG6Bfn1&amp;_nc_oc=AdmRhRR804NnbIweJkGYt8XTtgn1SBpa80Jc5Im1P-dMeXHz1zHMIkSdnW63pqlmo0jkhf87D6NDjDVzxf2WX19d&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfZz5IXojAdlt-p3d0sYtWvI0BJjjyZ1rbh4C0Zrf0tSFQ&amp;oe=68DF0E33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwF_q3qs&amp;_nc_oc=Adk_91Z_S5lJqMy7gCZaGbYXW3S-PLzYfap216pBbjMh7oF-XFF0nqQ4eDLd-W7rJfU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfYyXUu70MM84vO60Ab5He9q-Z3RXdqF6cCM_T_0EX6bgw&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwEIiN_x&amp;_nc_oc=AdnNAuVwQFO90_9aQw_jsYKlRn4rWVGcOEQWFJIZOz28vb5hkPmfYbSQxKGhyvtQk0UdW0nFSzhkOX4mGa0zsbBY&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfZh8mKs6zlvyN3Jn0S1FxwsGW6lw6b61WgfGujbP5zGLw&amp;oe=68DF179B', 'profileId': 'pfbid0Rk7Zcfgu9HbNFRiQzFPLYE8y6ydgq8Kjnfjo491T1yGvYiMvKoXKzjuZQUfp9m5gl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwFfNq78&amp;_nc_oc=Adn3vL22Vq_0UKjlqPDg6BB4tir3MO-uSylw05ONlBsDbbRBvTWxwdWj_E-izZwRltQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zjXTINPHA77FGY57rzPlnA&amp;oh=00_AfZMdjmsboZV__EEb389OiYrpffAqfKxvrCO7oTO1A9Dsg&amp;oe=68DDB537', 'profileId': 'pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0b869NA2KMQESS4kgcPynAAcQfjyhyXzMabi9UXiKBZYh8K45VHjdksz5DvjnWwxvl/', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwHeXAZx&amp;_nc_oc=AdkbGG6OVnEjvYo8yTj2ce1hSWCo3OG9K_BF6bOWsF11RxPqtdYGHvq8FPboLBfC48ZgLYuHeJXJUTar8W3-9zou&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=GJSusnTqoEwOCH2qJs5xYQ&amp;oh=00_AfZJ0XqtGZxVLRSq7qdD1ba68uydlg7q1c86NB9odiOzfg&amp;oe=68DF06B7', 'profileId': 'pfbid0b869NA2KMQESS4kgcPynAAcQfjyhyXzMabi9UXiKBZYh8K45VHjdksz5DvjnWwxvl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwGKmgtc&amp;_nc_oc=AdnO4qhPrqq8fSjAsNXp-N3HiDueuH6zsgqqj7WD7ObKHs85MusaQ1ndfVx9kF48xSU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYsVfBWvkTwSxyQsmdPbC07euO7nRKG5LGI3lrEG_aTRQ&amp;oe=68DDD33D', 'profileId': 'pfbid02eEwSx5gjd63stPnVWSHFGi5CvSCruNYcapcxmLFak6f9GiP9ncX3ZBz4BdZMMxJzl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uBCnWgRm81cQ7kNvwGTcNyt&amp;_nc_oc=AdnFnhw7Y0XSYYdrTOGY8904NFe8kznAbGizDr_XPavfSj-272of4BtjnfLErwsWnQo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfY0O0yRowjftWgG_J2PB9cWwFRgWdkgsbhSk8aKf-BR0w&amp;oe=68DF24BD', 'profileId': 'pfbid0ahJG2v4NmjDca21WxTpToMVjD9qf8Ww7L7TrFNSh5gYinEvMX4ea9SMX2RPjuGdQl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwEMUQf6&amp;_nc_oc=AdmkfdA1YNldvFb-jbK9x12Iwi4rgvFdw1xRadQypa9jy9hDDhRPK5t74wMJUGxso-I&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYZYU4ydJhH0OoPEd9__5OFtacUYrkcJMpHQP9QDDnYSQ&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwECp5nN&amp;_nc_oc=AdnybBiFrEBijcw0fJceKS4GBB8FZpR4qx_ZBoWhhDFztLXBZmRg-uoDtj68lpmlals&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfZ85ZCwtCjfZnjocqfkpVm4Vnn7I576wC_2BecN_waV6w&amp;oe=68DF01A6', 'profileId': 'pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwGgA5yu&amp;_nc_oc=Adk3APKVL61dqtmswgfMKS6nwPoZPNhN31tu2wNXBOwbua-6HkCMi1H_DqXa5wJWSww&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfZcfMDowTCznygydyjNP8vfGB1_F3Ij81rFzMNRF4828g&amp;oe=68DDA6AE', 'profileId': 'pfbid0hUZe5VDhzWPhf6VtnDn6zx5t7k554ZTH8pqNCEUziTyBjKkkXzMagMEJTN8zzJswl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwHBX-yP&amp;_nc_oc=AdmLWA8XQW2cg8ECmNNagKgzv5sySpOl5wvn4OawvJWcjPiPuVExpNwS_gHsJOvMQcc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfZVLQF7G6G5TOLanVRyU9BKHA9AVbooikREarwVdcaWQQ&amp;oe=68DEF82E', 'profileId': 'pfbid02kr3phWaL2FXXDHQcrr3eSBEihoFcVXVQ2q6jHfSrGRFaUD2hybm77MLroQDc8cH2l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwH_XbYk&amp;_nc_oc=AdnrYfBmzKB8WR2JsLTHNiakuLuSrFhHOh8tZXIV7HZvHshUGf0hsCmJrH81IrLIJ7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYQIXCm7hW0SpINagYwBcbKojDuSn75x8wMF3_2ppNsww&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwG8Rk-Y&amp;_nc_oc=Adk3aZIOkNzn_XRTAcjUSURH-4p9vVxqHlyKsKA04MN9kEdrCzhg4onKFTS5-z-_Sog&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfYLox8ctVQR3ClkEpcE4VIzzE1IsFqUa6pv1329aNak8w&amp;oe=68DF179B', 'profileId': 'pfbid0Rk7Zcfgu9HbNFRiQzFPLYE8y6ydgq8Kjnfjo491T1yGvYiMvKoXKzjuZQUfp9m5gl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwFcNO8A&amp;_nc_oc=Adl2b-J2nYUqRTDSbtOQgaiZ5njswbWXLPv28X8dJxyF9JvIkuwIQTve-d7WRdThSuc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfamNUbSJMrFX8ofP9_gk5KFF08AKg7esRH65KANGJU0Tg&amp;oe=68DDA72C', 'profileId': 'pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0C52gFfATUvHW9WMfUL8HUQSy4TRFWAWGSe5GjfF8S6oSXRuXhtVFAkecehMi5UnYl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwGqcukX&amp;_nc_oc=AdnnIsdny0UuZasXIMCSo2K6BRiOQRu3ZRY00TgetH_Cj0J8YHiESgHliMCY2ScazpI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfZ7u2_Ez7aIuFdOEjSAzysx5mVRAJKRAfEj4o2OCHM6jA&amp;oe=68DEF8AC', 'profileId': 'pfbid0C52gFfATUvHW9WMfUL8HUQSy4TRFWAWGSe5GjfF8S6oSXRuXhtVFAkecehMi5UnYl', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwGuafm1&amp;_nc_oc=AdmVaTPI2WjQm2NwDiKbykB5TQxLQOhC8UYSuttdb_vAeYR_BscfoKx2HvjOLtwhRQw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfYPnzj857nNyGTHSbhzSrVZdDnENk_Y5KVkDWZrbCvasw&amp;oe=68DDAD14', 'profileId': 'pfbid022dzgKGoBrHueTCEAstXn3BvmsD4esx7MHb324K4LiRmL6vJ42HhN2ggiWTcwZkP6l', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwEH3mWD&amp;_nc_oc=AdmQM8xg-QKxt94iV8IGc1ZS7a5GSPcoApUOVTgixWR-ZW_rX1tdOc2qJLzaoU8oxRU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfZ6Ct1PGgLjzuv9wyGKgVgSer_ZnED1DtTCak415XO_BQ&amp;oe=68DEFE94', 'profileId': 'pfbid0361UrwJ9osnGtafugTYHd3RzTWwDmbqiGU82dUH9rCDSkZwENoLe9oG3rWB4AgizYl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwG1SJoU&amp;_nc_oc=AdmVn3UgcwSwGfoh1IkG_cnafAEPkGx0XZu7BoF0eRl9b0bYc_J11e4q6hAVyHuEBns&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfaYxdrZ9S23lynpKQmLoTsk6rTJf1-xEk2dZBOoMkueqQ&amp;oe=68DDC3C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwEEYHC9&amp;_nc_oc=AdlXVtmMiirIw4BW5fupmVGrNhCQqt7Xw18BWJwQi3QucXWX0wkl4PYJBoIUzupKk7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfbdOLPc3Z1_ozZNDxKLseH4u6HsmG9olFfcKP1g-4HT9A&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwGbN7IC&amp;_nc_oc=AdnpartaL-Fu9CbirurL0cmgnkS32F7JbPTGPqmlWrYnJ-TidW8fawnaPrjQr5cQFj4&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfbWnSB_shKktaNeOa1TAqqzEj33h1Bv4SW5K-B9_HyJWA&amp;oe=68DF1549', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGQOvtI&amp;_nc_oc=AdnlLYZwNNgNCQrhXIKnk4UlQxXU4zWiKFfSuKz5DbkUuLHNJMC1ZaDjT1ygU2QvmUI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_Afauc7Y0QymV4jKVIf50ooRYAc8X4x3YzHKNo2Gq6A8n4g&amp;oe=68DF16CC', 'profileId': 'pfbid02nAiSs23DaFf6RaFQ9V9biaoiX1jaKkNwMycL4hV8Xf9YUaFuX2yi9789Jy4XpcQpl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwFBrjCV&amp;_nc_oc=AdlI6ISnw9_TgO2Cztb274E7IUqle2_SQhTi_15OLM_Bh5Dn7HYiP0zqJ349BI2LDZo&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_Afbh7wzOKUmo9bOYiEEXOisWgXX4Np3KlPSR8iczf9LIOQ&amp;oe=68DDC7B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwEEYHC9&amp;_nc_oc=AdlXVtmMiirIw4BW5fupmVGrNhCQqt7Xw18BWJwQi3QucXWX0wkl4PYJBoIUzupKk7U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfbdOLPc3Z1_ozZNDxKLseH4u6HsmG9olFfcKP1g-4HT9A&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=MZsuAJS0xG8Q7kNvwHfKrdD&amp;_nc_oc=AdliAdawFW0tYsrYyKtEwcQXqoMn_VSEvgpUETeVz5B4SYkRhy4GI0QukGN_3V5FTDA&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfYbSuWQrhRO735DOSLmzpQq_K5vWG8_YwcJcQAk45jhZg&amp;oe=68DF1932', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGQOvtI&amp;_nc_oc=AdnlLYZwNNgNCQrhXIKnk4UlQxXU4zWiKFfSuKz5DbkUuLHNJMC1ZaDjT1ygU2QvmUI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_Afauc7Y0QymV4jKVIf50ooRYAc8X4x3YzHKNo2Gq6A8n4g&amp;oe=68DF16CC', 'profileId': 'pfbid02nAiSs23DaFf6RaFQ9V9biaoiX1jaKkNwMycL4hV8Xf9YUaFuX2yi9789Jy4XpcQpl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwGyBXjX&amp;_nc_oc=Adl5dK8CTTTFi7-NNNGxpIF16TiDVy0no0WHCa96KcMJUiVTlwTX3Bsxq0PxwdztSCg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfbwmDFpWxRGiXR7zNV5uVMXKdUs2RdRRUa7h2nk8BsjPQ&amp;oe=68FF6B7A', 'profileId': 'pfbid0Gq1AboNwULDWdjCitHgrgPPCMkGWZQcccqYs2gsqUVXmoy1DuQN22LEfj9Uecrcel', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHr8LR_&amp;_nc_oc=Adlg2vxM7QclAAuFoK-j4M09YQeMfR1KlZ0-tdKJzjd5pLVQ2VX3XCSgzIutDK2c1lk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;oh=00_AfYzPoUCOpnw7Adhk_MpdJPyerPBOqGz0BcnNoanviC8ug&amp;oe=6900BCFA', 'profileId': 'pfbid02LCVMDpjZW4agQTjnpmH1KwmBmsErxy2D5qrrGZhcAenR8a5d83kEXroFuGmpgQq6l', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwFKU6kW&amp;_nc_oc=AdlTiubMfeo0SgTM_p1ROEUjJlAXdySs42rC7RiP7JQbztmgTvIvobSbTZI655ug26g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Z1zevnWa-DDgqBgUyA9mzQ&amp;oh=00_AfatqF6RemtQcQJsjNLVfIOfiqz8wU-2zcwn8GyfhJHCXw&amp;oe=68DDC4A9', 'profileId': 'pfbid0BAibtaeQo8hzeSPJ7U1uBf9WoPCNKbWvYfntKFPK6UMbdjv7hUDJhDD8mS2MdT9El', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9nDBJ6emlRcQ7kNvwE3xXDe&amp;_nc_oc=AdnHweo3fZd8Lhy_0McylsMR2lGAEalHN2Hk44l0UKK-DKIv-IS80LdleWtvtaCc7Rk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=w38MyiXyzSKurqkvlHU_sg&amp;oh=00_AfYuhln-jLdFWSmKCtILQiqykSob-kFUlt7V0EwULEueQQ&amp;oe=68DF1629', 'profileId': 'pfbid02F2AK5FaEeRMKNiHnWevKq7KMVQYffWFZJGS7XrHh8eJtc2EoH71Eo6vwhraEk3Vml', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwHkjMIC&amp;_nc_oc=Adkb0ceHyhBuiZNWLkvz86x6sGBwakSXyvv5Dlj7bBbo_NA2oXadMlAa-f1tPzqNJ8E&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfY3J4GKvJfmcX_CPlmqCW1XEqttyLBi6lEVhBC86ldNBQ&amp;oe=68DD9FFF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lk1MGrzI1Y0Q7kNvwHGZUw0&amp;_nc_oc=Adn4FKeGhypVHw1QISnyQ5mwpshXXEDl7n5IZhTQeI5C_QhGAkzcS7tyNXqJJP0Ya5_z_6bdu9I3g-qUmprQL0TG&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfbG_3ccqj4uIhn2iYi3xNaSCKMWOyVwlnWrShV5LyK5AQ&amp;oe=68DEF17F', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwFimR6y&amp;_nc_oc=Adkf7kG2U2FSPR9UCTZDsEWR3p0v_e0IhA29mObiUbnZjDSgCou56Vi7loQSkZniLAo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbRNhQVz8NsjFmEh51RWcx3p0pf3jBJUPkkY1tF9qEGwA&amp;oe=68DDCB2A', 'profileId': 'pfbid02L5VtR9WgZwkuMJAKv4UkQyBfGAS21ZZvMQ9CV1ZseTky5NNpAunetJaPyPk1U9J9l', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwEqvARH&amp;_nc_oc=Adl3pSr7bz6E9NsvFo--Nzz_gXefEmaaK90SVcA33st6uEe_vvkdv3hYiuIkqA4CsDPfa6gcYpnkzp6RW8n7NTZ_&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfbbcPCWC5h-cizc4BTEdhykOW9y0RWlFRBjzqiwQ1srFA&amp;oe=68DF1CAA', 'profileId': 'pfbid0G3uAwLK7turCe3mupqLVyuZGERePDAxo5zjUwGNvXaWw2ugBoMPq2ctt4vPT2eAQl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwGYUm9t&amp;_nc_oc=AdkNmr4VUFwdpFuAMfBwMhrV3p87csTp6RjZxEh-eJpp86on2RZTJ1ZjWoo0awug6hw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfYiuRiAXiY35tpTqlbK_orTRsIKCL_VrvvKLIeF05r2yQ&amp;oe=68DDCEEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwGYUm9t&amp;_nc_oc=AdkNmr4VUFwdpFuAMfBwMhrV3p87csTp6RjZxEh-eJpp86on2RZTJ1ZjWoo0awug6hw&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbCs2bg2QN2RRiiHXQq1Fyle2oz_JkJgZ0cmdmR8e_hkg&amp;oe=68DDCEEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHfJ3pw&amp;_nc_oc=AdmfAmfBezre8wSMGYgr8h7Sz-GTZv0VWJ2gqRXt4YD7kh94GOVyvgnLIQ9pSFbNafQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfaJNW_cX-Cedz4AsXaMTXe3qs8nzk8BvGUFXZm55lS_ag&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwE77_3j&amp;_nc_oc=AdluWhA_VkGVdJj8b-hYpJfc37GAJtMU3BlajNqcbt0H_oy3NLya-hmF9EjELALWFN8AosOIOLxzHDL8tH1TSiH0&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfZlSBio94LLpDx3JCHfd8bmOK4-juxvSwTWgm64bQXpXg&amp;oe=68DF206E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwE77_3j&amp;_nc_oc=AdluWhA_VkGVdJj8b-hYpJfc37GAJtMU3BlajNqcbt0H_oy3NLya-hmF9EjELALWFN8AosOIOLxzHDL8tH1TSiH0&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfYb3QS9HyIgsdoQYVI_zI0ppEkU3aYKBPaVxoRt4FV1VQ&amp;oe=68DF206E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHpehK1&amp;_nc_oc=AdkDZSLGUcKR5JvINgJHGQ34OyrshbJCDZBQQeCcnswJdtFNOtNMxuQo8ndywvVtWle2rcEFyAkewYRVjvUAVubA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfYwh73Xj73MVq8WE5EBAzBRwSnSLpWOJSCjvxgO6-fB_w&amp;oe=68DF1169', 'profileId': 'pfbid02tisiyGdbPb1EE36mgKVGGDhmoHHKKKcDdCRnx3fe4qJBmWsV2YqEwxuaQx252xckl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwFLW79i&amp;_nc_oc=AdlfVvxBSAZvK9R7k2gTvlbFj8_DmFoqbvtVNVM3Q6bUfT5RP5xskWW0E5SUV5PQWp4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbKblzDkvK4d9bM7zmP5q8aogAVYs0GZSCAjp4dDR6M8A&amp;oe=68DDAE97'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwFLW79i&amp;_nc_oc=AdlfVvxBSAZvK9R7k2gTvlbFj8_DmFoqbvtVNVM3Q6bUfT5RP5xskWW0E5SUV5PQWp4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfYt4BVATLE_doZfiPaWSRK6mLgxw1PgTggCdRuUzJggSQ&amp;oe=68DDAE97', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHfJ3pw&amp;_nc_oc=AdmfAmfBezre8wSMGYgr8h7Sz-GTZv0VWJ2gqRXt4YD7kh94GOVyvgnLIQ9pSFbNafQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfaJNW_cX-Cedz4AsXaMTXe3qs8nzk8BvGUFXZm55lS_ag&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-nDX_eHYa-kQ7kNvwHI_kbf&amp;_nc_oc=Adke40SlynitXwLcLyH2972egs1CI4naOxWaCfZLr-i6b80SxOlacZkyFLncIWlOnhSIqBRpKOftvvHEEECDHRMb&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfYbUEEPwA89Vk6-VNQ-aixzZOy1ZUKIn5plMNPGQf0lEw&amp;oe=68DF0017'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-nDX_eHYa-kQ7kNvwHI_kbf&amp;_nc_oc=Adke40SlynitXwLcLyH2972egs1CI4naOxWaCfZLr-i6b80SxOlacZkyFLncIWlOnhSIqBRpKOftvvHEEECDHRMb&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfbFijybx5pCVI6D7LX_BI050b3GFPDAeJrs3XBU3uc3Cg&amp;oe=68DF0017', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwHpehK1&amp;_nc_oc=AdkDZSLGUcKR5JvINgJHGQ34OyrshbJCDZBQQeCcnswJdtFNOtNMxuQo8ndywvVtWle2rcEFyAkewYRVjvUAVubA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfYwh73Xj73MVq8WE5EBAzBRwSnSLpWOJSCjvxgO6-fB_w&amp;oe=68DF1169', 'profileId': 'pfbid02tisiyGdbPb1EE36mgKVGGDhmoHHKKKcDdCRnx3fe4qJBmWsV2YqEwxuaQx252xckl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEedkjP&amp;_nc_oc=AdmKjM25Czk8TZpNdcUToK1q2-1XDOFLvgcHQcHnvqJKyjWjrVgGyNPyMcSaKTtUnpk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_Afa_BCXXjao4cnBev0ntiE-Vo18eMLS9-yR_Y7d45_VO-Q&amp;oe=68DDCCF2', 'profileId': 'pfbid0TUNJAFFohxaErM5pCQgH9KZvbYjoSWzxSk6waE1xQKkk7BTvwCxgLvB7NMAiBbuSl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEtNRdX&amp;_nc_oc=Adk8GnDqkZ59achl7pmvmBdL07_8SfNO8bmtO5LSIsFk5Hl0seMq3oCL6WZ5s5lnvno-Xip9ggPKaVmXy3VKULM7&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfZ1IC1ywlbSo2qfE9iijdOdx1HMdfG39ml4WIOkUMehUw&amp;oe=68DF1E72', 'profileId': 'pfbid02WqrUnGcRjZy8ZCjWvtcGafZHZBiM22qCZpQrXWAHb5MoV2u5X2SfPDC5nhJDoBMNl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwHyX8aj&amp;_nc_oc=AdkreGZ0WWk3wJvSESOUtZ7f_9dbm-C-PbkJeKamkq8emCfGr-xjJ8_3HAaQemUbMfs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=asGBlRus3lWoqaivqWKYYA&amp;oh=00_AfbupICZli0l61-GyR1Zrp02US94pBR3_lOw7DiyeAK2Rg&amp;oe=68DDCCC5', 'profileId': 'pfbid0Dwarm7NSHKDvjYiDkW7UJzLPccD3F733WvF5erzDMJw21WeVd7wZrmATHFkT9fE9l', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwFCMH6l&amp;_nc_oc=AdlrpKXV5C913jn6NOw0jTaDQrbdlpMjaO9SU5f3h_i-r6_b8T0N6rDRq0KKxnQQeUI7cMdm1sHXnr1hRlT8r-0K&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=FAlW7VsciTtRzYh1NZoKFA&amp;oh=00_AfZweQxFkvrZPM0T03RyRCQ1E0ETtJdxE1wLpUOC7jYRGw&amp;oe=68DF1E45', 'profileId': 'pfbid02HK53P8j4K4u69HLsnqDg3qcKyUFpsRhhHfCaRDKSSKfmnKwYiesvzoLkTgqNS4pFl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/share/r/17Pta7RTLQ/'}</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IfZgMkK/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IfZgMkK/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5xrgAWJ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5xrgAWJ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5uTgKUO/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5uTgKUO/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5PLADHq/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5PLADHq/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5cEAAcQ/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5cEAAcQ/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5ejgFaV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5ejgFaV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1Iv0ABvo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1Iv0ABvo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5sBAAWP/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5sBAAWP/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IvXAI4e/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IvXAI4e/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I3bACvH/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I3bACvH/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5fiALE9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5fiALE9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5rdAPK6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5rdAPK6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I-ngOqh/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I-ngOqh/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5iDAIdy/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5iDAIdy/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2bpgKSF/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2bpgKSF/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy589gPp1/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy589gPp1/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5iQANz7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5iQANz7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy50FgF6j/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy50FgF6j/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I-8AJtl/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I-8AJtl/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5q3AKsY/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5q3AKsY/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2MUgE8f/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2MUgE8f/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5WUAEwC/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5WUAEwC/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5uwgBs0/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5uwgBs0/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5aQgLAr/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5aQgLAr/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I0TgLBE/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I0TgLBE/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk1DsgF9F/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk1DsgF9F/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1IKDAN8A/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1IKDAN8A/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5jMgKDI/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5jMgKDI/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5gcAHFr/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5gcAHFr/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1JAhgH2b/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1JAhgH2b/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5orgCHj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5orgCHj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5k-AOiR/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5k-AOiR/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1I3AAM4q/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1I3AAM4q/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5a4AEX0/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5a4AEX0/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk2mAACPq/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk2mAACPq/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1KKDANI7/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1KKDANI7/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy51xAIei/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy51xAIei/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJh3vLgPqb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJh3vLgPqb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5eYAHJn/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5eYAHJn/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy6OrACfT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy6OrACfT/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJ1HuCgM5g/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJ1HuCgM5g/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5fJAIr4/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5fJAIr4/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOKy5dDAGfg/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOKy5dDAGfg/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOJk25pgKiT/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOJk25pgKiT/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwE9L-t0&amp;_nc_oc=Adl1DDk-fbPeamJgZmqryr7_RSGxSUIQ6ic0miW4Bq7_ogZzK2pP5Kd07_gZvrU9jL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYzq0qwxo0o7zhJxWiIYnl_9XVuIKgL9Ap96WLAlCcQnQ&amp;oe=68DDB866', 'profileId': 'pfbid026ywd1bL9ksquq7jCk1MWcNCEsx39GdbLvS5pK1MLjc5B9bHvEdedPHLecNLGoX9el', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=778192408252988', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc3ODE5MjQwODI1Mjk4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NzgxOTI0MDgyNTI5ODg=', 'date': '2025-09-09T13:35:51.000Z', 'text': 'Que delicia', 'profileUrl': 'https://www.facebook.com/people/Ana-Cened-Urue%C3%B1a-Lozano/pfbid02xLuXn8b64TTxmFX2gvvtWsWLRbCnphW6koka4Nr6M4T3Bxgg2ycYuRFUKhJNDetl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/449033006_439286985640915_7858073579776244477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=47NK2L--vtEQ7kNvwFemzk-&amp;_nc_oc=AdkW03X8f0-RJHa8Ct6GtdfOcXOmij7095iTMLC5VvKIdRGKQTP9RhZmUfkLbU-Qm3o&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfbWaHxI7MYTerKS7MpkDEOtL360-KvICQvRkEktbVew0A&amp;oe=68DF09E6', 'profileId': 'pfbid02xLuXn8b64TTxmFX2gvvtWsWLRbCnphW6koka4Nr6M4T3Bxgg2ycYuRFUKhJNDetl', 'profileName': 'Ana Cened Urueña Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OEywzUSovGQQ7kNvwFbde4r&amp;_nc_oc=Admej9ylg-uoJViIdCY6JZO6wcjZjrx4D8y-TT1brvfIzJknbeMdY33ON3NfG-Dg_FI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfbFbMVQLxOFEal82f0FRaWoJ8dbxG4j5KbPoSj9ml6Wnw&amp;oe=68DDB24D', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1689351801729247', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2ODkzNTE4MDE3MjkyNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjg5MzUxODAxNzI5MjQ3', 'date': '2025-09-09T00:55:34.000Z', 'text': 'Deli 😋', 'profileUrl': 'https://www.facebook.com/ana.requena.9212', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526671036_2023344178406355_8374029701343561290_n.jpg?stp=c0.0.605.605a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wgtk3-qZ7BIQ7kNvwGbUp_j&amp;_nc_oc=AdlnjKTVfTPZt33C4KIdWGI3zWIq_eir3DGOejFWiqNctMoGzN8_qvCO5BlDUv8g1kc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfbLmVkwTHvk_aHON4ZBVnEqjS9NAdfVJQY-5qpvxl0snQ&amp;oe=68DF03CD', 'profileId': '100021923779521', 'profileName': 'Ana Requena Paternina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEwzR8JVBxEQ7kNvwFTMtM-&amp;_nc_oc=AdkXCQ4VRT92qKhcea-nylu9AccoROA4G6LmZBQgW4epFukcv4-R1XR6hp3BICqK5JQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYTtzBdn8gdG3eA8BpgDicEpUpcvErMPJweXmaKnuvkZw&amp;oe=68DDB3C9', 'profileId': 'pfbid038CboejPGpVk1W8fThiUzGkUTsMyocgfHDHXjt3rKBPgeij1AzgDcsneyU5U4qPn2l', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=765797716162714', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2NTc5NzcxNjE2MjcxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjU3OTc3MTYxNjI3MTQ=', 'date': '2025-09-05T01:00:55.000Z', 'text': 'Ummmmmm que ricooo!!!   Quiero comer yaaa!!!', 'profileUrl': 'https://www.facebook.com/m.pilar.rojas.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/472193517_518907734519560_3614246633768493949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=awK2GHC6uHoQ7kNvwGRzFMn&amp;_nc_oc=Adlyb0Sw5TkvDbNQWb0bwmjOV10b0kt7Vca7LyfpN4nOPP-0UCsGiJbfLGAXop3xWbU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfadNeT3vsuN2c5kbpKEtuMg9oS2mBooBJbFrZfJvOnQ1A&amp;oe=68DF0549', 'profileId': 'pfbid024excjZkuyH8YzjfeSVWK41Y8r89uEbKcy2KVj6c6dQ1pEaf4iM8CCist6tGioSfKl', 'profileName': 'M Pilar Rojas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGJKKFv&amp;_nc_oc=AdmbBw_oddyJXPdhC11AWJrm7DpHDrKgb807johKiXW4r44inTwyDi1H5hXoP83vr0A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfY4F2U50lT4ALDE8XMS8ALrn4ITcB83e4rEAkggD2gdiQ&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2852128491664692', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzI4NTIxMjg0OTE2NjQ2OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yODUyMTI4NDkxNjY0Njky', 'date': '2025-09-09T03:55:10.000Z', 'text': 'Mucho dulce para mi gusto', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwGKNK3k&amp;_nc_oc=AdlRH6qkIkrSecUMaT9DbR8uPTBLViAgkO_9an3P1LKHQ0FuYbwkg_CAuVoX6PRUHjw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfYmVjjyzO_wSTpaycik1_5LAj2cVHKc0bumVScQoPu3Sg&amp;oe=68DF01A6', 'profileId': 'pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl', 'profileName': 'Lucia Valencia', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6dIWMvJ0ICsQ7kNvwG6RIyu&amp;_nc_oc=AdlW4wtAs1fqpJG5SkD96emyKQTnwl9klDkJrbIIZ33gcD9LlqXh_oWmiPNkcuC6HOw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfZDH3HZtHr67O1ZOeoXFjHaXNOmbfyVpzXAWRb3Zljw4A&amp;oe=68DDC633', 'profileId': 'pfbid02XdPoyYhM2UmHCh4pzeaNTieJDsiFo6A8LRqLFsyYcWsKE9dBvqGmN1SZpk1QB2ktl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1800885380507665', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDA4ODUzODA1MDc2NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODAwODg1MzgwNTA3NjY1', 'date': '2025-09-07T19:45:50.000Z', 'text': 'Muy duro te quedo más aguaito  es mucho mejor', 'profileUrl': 'https://www.facebook.com/farides.ramosmartinez', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/468359923_1633353050898400_90626934604215307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_UnuetPe_D4Q7kNvwF58xvC&amp;_nc_oc=AdkZYsalakjww0HlJo_6hc7Yappju8mm39FmhWN4g7cTihmfpxoCCdP5gzcgmmVvx-M&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfbnThngu_W0uAHK-Ddf6xDMFKu--LXUlVrNH7byMZgzuw&amp;oe=68DF17B3', 'profileId': 'pfbid0Tbo6VjVnMZLQgChMtyrNqtsiyEX4Ea7BAfSjeoeTnGku5hUpGDTs1SFA7FbUGeqvl', 'profileName': 'Farides Ramos Martinez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwFF0UOs&amp;_nc_oc=AdmXSSutJ8y-fqd-zMejut7TZEDUjLUjHSuR4YC6D3ITDt5O5LLWSA3NRjyhnrP_VaQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_Afb1WhUyAzTSvR2z78EXqPAG0yqvzRijf24qtn2zBDnzPQ&amp;oe=68DDB3BC', 'profileId': 'pfbid0fPfikNNJ8Lob7KTcgv5KLT2SPsuE6ihDsLf2stoD6CGQs3EoNhu1A4j3qByA5i73l', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=782698340976014', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MjY5ODM0MDk3NjAxNA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODI2OTgzNDA5NzYwMTQ=', 'date': '2025-09-08T18:29:12.000Z', 'text': 'De acuerdo queda de mejor sabor pero queda más engordador es mejor para la salud más sencillito gracias', 'profileUrl': 'https://www.facebook.com/luzdary.salazar.711753', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/470224823_596157269765791_6632817007297904200_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lx_Cgg6ykPwQ7kNvwGrzQxs&amp;_nc_oc=Adnbzf2SPdbWfgyql8qzse-Knyr35qVzu0gSXzW3MShIk9eIcT6rXm1pqwfrVt2QYOg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_Afbs0SL2sEF9x_7WhumPankg3qKwnrLWjirv_g5YPSaupA&amp;oe=68DF053C', 'profileId': 'pfbid02jF7Rw3J7yboWwFL1zJw848eLKS2YjHq7czWSSuaWiW2hnYge3uyYDs9aftBF2BUrl', 'profileName': 'Luzdary Salazar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ae7LqkQWo7YQ7kNvwF74dyB&amp;_nc_oc=Adkcd74QQ-BCYI1kY5TFaq8DyyPf_skfhRc17hZif2pkfRIiD9TGpYcSYo0fEdX65yk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfY675nVYT7hlWJFX0Ls9UV14PtGlaA02VEOFm_HfZXgAg&amp;oe=68DDD2C7', 'profileId': 'pfbid02HvTGYKyqRZgwbo6HWRPnT826EsVKFaVNcnXJs6bnz3VmLaEYTVBiGADWuRMa5vmKl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115914223385946', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTU5MTQyMjMzODU5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1OTE0MjIzMzg1OTQ2', 'date': '2025-09-07T23:50:06.000Z', 'text': 'Uyyy yo quiero', 'profileUrl': 'https://www.facebook.com/anamaria.aguilar.1610092', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/515474143_1176640457838682_7400800561961761315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ae7LqkQWo7YQ7kNvwFcrBew&amp;_nc_oc=AdmTDQ6OPehfbhukTugpoCpBc6P44Z0lq9zsQIejkQ3qMo6fW5OfcES35n4XO0-wkSA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfYldufH4tmPAtQEKANv9LdpxfbTp4gkVTJ9PbIV3eXBIg&amp;oe=68DF2447', 'profileId': 'pfbid0ENp5dAMUaPrzEVVVn2pGXaDD3RxnFuG4fPDTvTTQ6e77UhTdtKSFWc1QNEupr96fl', 'profileName': 'Ana María Aguilar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PwS1o79NdIoQ7kNvwG-z9XW&amp;_nc_oc=AdlCIue_YQ-uztZMUBw5ZxA5R-PIeThBECqcbXAGdFq5dhuT0ml7MzcHVw9TdnWMcrA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfYuLPlBD4ea5bVTVZA6EpytH-AqfRxnAUKOBmTLxaWvug&amp;oe=68DDBCFD', 'profileId': 'pfbid0wri9wTtJt1rXLbVyK3Az2pBnRwM1PuxPMSkMpWLqoRXKdWV6F1rBoUtf4Y9SPZEol', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1316091796964326', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTYwOTE3OTY5NjQzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzE2MDkxNzk2OTY0MzI2', 'date': '2025-09-07T20:59:20.000Z', 'text': 'Demasiado dulce', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/449455556_10228794250333732_6203681106400144223_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FH7qF4B_PNQQ7kNvwGoZUtb&amp;_nc_oc=AdnBUXNjLxrZ0Rumnaz_Fc8f_2-uGKrWHLbpn0RV0rTetA-rVTtDZgsIgXa8C5KwQbc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_Afa-FgYgItNoBUFpw-PTem-fY1NN47CZNmS0IakzuIy0-A&amp;oe=68DF0E7D', 'profileId': 'pfbid031ECLZVEvuhcfkT4QHVaJU1UAp8fQNTW2R4d6oDieHLVy4JLcKgdXaVi6uGjwvv7Pl', 'profileName': 'Zoraida Bracamonte', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=962aHwgvYZ4Q7kNvwHPXUKd&amp;_nc_oc=AdlYQqJHZcXoCAwU1uiPLG_5w29VlzTS81FCfLUQTbkhi6yj1NuJ8sgGMpmZMil027M&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfaJPhspqu4Lv0hfKnVjWTUi5vDJ3TUV7yBcEnd-G-mm2g&amp;oe=68DDB43B', 'profileId': 'pfbid0cySdE9Hg6hQ8FaXPUuQxFqVbkrMg5ufT8xxRS4fYPvysdbmcgnUzoCyav1A5Z5vml', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1784853645450036', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3ODQ4NTM2NDU0NTAwMzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzg0ODUzNjQ1NDUwMDM2', 'date': '2025-09-06T22:27:42.000Z', 'text': 'Rico rico', 'profileUrl': 'https://www.facebook.com/yasmin.soraca.3', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/398493411_745293934089427_8713069071453979258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-rORPEvhf3cQ7kNvwFRDosq&amp;_nc_oc=AdnuZNB2JsceOwmO3F6s6hhT6tCDveUPsWSoQg83_4NoSm11nDMl3Q1EdEpmZ4lZgB8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfbTH2KPLmbwiXY6DJM5jLyWxvDf_Z3OWuPeLPLJ-pqMTw&amp;oe=68DF05BB', 'profileId': 'pfbid02gptLQpDVxAaP3H5AErsLcoJ3zrgkNbhR1jjZgTMwcNZZXAdwhUUq8vkWCrT8f81Ql', 'profileName': 'Yasmin Soraca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwFaTJDM&amp;_nc_oc=AdlpxSF3sLiJ5YlOxhqA8Dbk8IJGlI109Nr3YA31Wr7oWQsJJOK2UnfAC_TOnpxkqJc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=KVFXDx5GsW0Iq5O4aiUnxA&amp;oh=00_AfbB2IIFQ8AkgM6kfA-4DBnWq1gRS4jG2m36NKNHNWWn1Q&amp;oe=68DDD295', 'profileId': 'pfbid0t6WT6XvbznPenrfZ1XXMAdmjazz18rX2xroL8dXiz7U3hPBP17qB3zHa48rX1swYl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=756905593810432', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc1NjkwNTU5MzgxMDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NTY5MDU1OTM4MTA0MzI=', 'date': '2025-09-06T21:44:36.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/olgalucia.hermida', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/451366013_1544196922881051_7301355648087442299_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y5KMOzxjib4Q7kNvwE1jrUd&amp;_nc_oc=Adk4-EQsxpr3I0KxK9sANLXa1nQ5-dbxCZsYi8hAC0_esWDkDaS3TxdEQuvuJlZi5UM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=s65IJRpsYeSB79YinQAn7Q&amp;oh=00_AfYDRJh_gbDzkrYP7V8HfOmwQvzo9s8vTAvQXVk5gYwHJw&amp;oe=68DF2415', 'profileId': 'pfbid02wTzdiZHE2VL5kfdTQooq1ozqhqCBTFDhS2XxVyi92QpD2bZusR2XbUwfSXq6SggAl', 'profileName': 'Olga Lucia Hermida', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwEr_ssM&amp;_nc_oc=AdmjuAWuTVDea_K8JBvXXKggB5jjBzjxK_bLCJlf65aW4kkBHxm1jUsQTKmf4_U0le8&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_Afaa8D1SaqGbeqkAAEfMxLMWH6kLRtNnAg-VgowkwZMNBQ&amp;oe=68DDC34E', 'profileId': 'pfbid02oXnM9HBr34u9V9NFbsM8wjDZX6wEVTC6ReUNUJQ9SEz3vHaE9hhNN8WvmzFhqwwPl', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1975126046672702', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzUxMjYwNDY2NzI3MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTc1MTI2MDQ2NjcyNzAy', 'date': '2025-09-08T05:17:09.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Mariely-Torres/pfbid0jWBdfTzHNCMw49MLd8jyoe6kpFR6BS2aMpd9yVvfUPCELWTHdESqXdTgBHVtNxh3l/', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/474472878_583994281271787_5093690582674007663_n.jpg?stp=c0.88.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1_aGaC5bOf4Q7kNvwHz5UsW&amp;_nc_oc=Adlr6nUr4DQ2QhYjMbQplzbPzUOFODTUnMHf_WRFcmuaAKRPLGFeY_cNUzg1VyAUnnQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfbzRRBOlo7UmDtkMR_ryS0Nilm9jw7xOLlQvuk8niYwLw&amp;oe=68DF14CE', 'profileId': 'pfbid0jWBdfTzHNCMw49MLd8jyoe6kpFR6BS2aMpd9yVvfUPCELWTHdESqXdTgBHVtNxh3l', 'profileName': 'Mariely Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwEX_BNs&amp;_nc_oc=Adlu18fWQahpYNY0pNa6p8u3rlpgGAA3g0kDnWYIry55Q29g9vE3a5sSY-XEg5y-14Y&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZI_-4MHg6vDNS3qGPvY5iVvkLJZ8ML_5b3OoaV-i-77Q&amp;oe=68DDA777', 'profileId': 'pfbid0ABVVJPAWL7MhRxkBDG9PLop9gPrZLFJQYjYeW5hEyc7hQYMUaPvhB5GjSnK8MDvBl', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=4066650593575013', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzQwNjY2NTA1OTM1NzUwMTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF80MDY2NjUwNTkzNTc1MDEz', 'date': '2025-09-07T03:55:18.000Z', 'text': 'Muy seco 😁', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/471977832_1056916529454137_6680551135932558868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5-_KdyfgD0Q7kNvwGogcBs&amp;_nc_oc=AdlFafksdzSOX5iExuTkM2tb1woKpQ_4ZFuTMjX-wF4TWd8Ac6MSkhrY3gjDE3iVQvc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZZZ3kI024jv-fWLUQPGtXDYkgCGexVTw_4VryXOLU_2A&amp;oe=68DEF8F7', 'profileId': 'pfbid02E2wCV46LBNMfCwVfTiAN1323tFmtuDYKEVt5WrhAUvPazaKn3wbQM2cn24M9Z8Nql', 'profileName': 'Yohana Martinez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PZe-i_Cc-A4Q7kNvwG0KsAa&amp;_nc_oc=Adn9mbuYmqqz8hR8qF3LeKwFk58zTU5abkvSUR3UfeRlQwWvgfc0z7EoBrRXiZtDw50&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZGf3tZlH1fLpZ7fPq1pP_l9l1tWgvuVYRBrE3uiJoWsQ&amp;oe=68DDCA7D', 'profileId': 'pfbid0VKcVWW3bD1BGqd9xVWhkmkv5oMzZBSkZbzSo23jMTeiiewvfV6U6KSTCw7znZGnVl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=761475950102880', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc2MTQ3NTk1MDEwMjg4MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83NjE0NzU5NTAxMDI4ODA=', 'date': '2025-09-07T02:01:55.000Z', 'text': 'Deli', 'profileUrl': 'https://www.facebook.com/people/G%C3%A9nesis-Apocalipsis/pfbid02Yh6g8XQDEaYV1k82yxHpozsRQsFWpmi5TK41KxRu1mf6w2mDf6Ze13g41CSga6kyl/', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/524992586_122093919488966126_7559152729892040350_n.jpg?stp=c0.0.780.780a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_DytOHOKEqMQ7kNvwGFV_hS&amp;_nc_oc=Adl8EQvfQgyDgkismwGmSAPUmsn1NE2knB0aZ6E7u2d2790htJ9KkHft0Bb-kt5pErg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZFM8ZnId7cQjHh7dWruWs1g06XIyojdAAWY8-cl2wxug&amp;oe=68DF1BFD', 'profileId': 'pfbid02Yh6g8XQDEaYV1k82yxHpozsRQsFWpmi5TK41KxRu1mf6w2mDf6Ze13g41CSga6kyl', 'profileName': 'Génesis Apocalipsis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwEe6rkT&amp;_nc_oc=AdkBkItEJMClFft8u8xW2aCb9YFXJF81qduk_zB9K8Gm3fYie-DWDvjEH5baOBLs09A&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfY1gYoNIKoeXsJOaHwHh0RM89PvBSbWd4J6--GrdWORxQ&amp;oe=68DDCAE3', 'profileId': 'pfbid0Mkv4nPGuwsr4gHgqm9THnXRSDkBEGYpNZhHAGFAuRMnHiEDtoGn1U75oLrDAqa7Gl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1807810943276762', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE4MDc4MTA5NDMyNzY3NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xODA3ODEwOTQzMjc2NzYy', 'date': '2025-09-08T12:53:09.000Z', 'text': 'Eso está muy duro mano', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/518948494_734094302651298_4304307527181276040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cCCwqwVawU4Q7kNvwGc0dR9&amp;_nc_oc=Adk9T6dQCAwjT5iHEf4yN0EUyX5uckaTvKGIqb4lg20LDRSLOTvytSMeIwyM0iG1iRQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZV8AgbKYPa_wUq6tFCHHW4PWUzxJQkJfKBay3NkuFh5g&amp;oe=68DF1C63', 'profileId': 'pfbid02RcMmy4CjoHuNnHdKXTMWEVzpPtzvWnkCEPcRxeCXjyj2PZQLHVc4hFe4W9KQv1Qzl', 'profileName': 'John Oroz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6oGxBzoAlZYQ7kNvwGR4R9X&amp;_nc_oc=Adm11nI4zhRrNjFclYXlFNdU-_gZ__Q8K8yDFK257n-GDkZjJPqqRNAamfCXPuUoPv8&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbpKX9T5RLuUU6btdtqln6WGm6HWSNbqAmZfkI9delTiA&amp;oe=68DDBC1B', 'profileId': 'pfbid029DaKqPqja3PL9YjyRYLmiLASB343PcrvGJxg3Lr3ePRHyu23r7Ar2b5aKbPR98GYl', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1496490138025667', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0OTY0OTAxMzgwMjU2Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDk2NDkwMTM4MDI1NjY3', 'date': '2025-09-06T17:58:02.000Z', 'text': 'Me dió diabetes con eso', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/550503888_779754204699981_6420896750484180509_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SRPKkfLYYs8Q7kNvwFahHrU&amp;_nc_oc=Adk2DQ8BdqORLYcuHIJibCvt1Vewpqi75ufTkoIEYG4YYXJx8bCzv14TixFzgYqVi6I&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfbgQ4KzV5aeeRtYK61_wIawu9Rea5tzBvs2PN1-1Rm1MQ&amp;oe=68DF0D9B', 'profileId': 'pfbid05fw8vEDNiusQwBjhKEbDoFGbXZPmeLodEopybU645NYVDV7soVaAtajgCvDhTsyml', 'profileName': 'Paula Andrea Sanchez', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwGiNYqU&amp;_nc_oc=AdkpdjATXwfCKpoGj17TxAu02MN7TSBCU0bH-tpxozw7KyEKLY2F9_eaLonUCadGEc4&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZB8xPHbtQeVmXb6NZRMaTqlYmYw29Ykk5JtCGa6tWNNQ&amp;oe=68DDB92A', 'profileId': 'pfbid02iARZLEoHR3U2VFPQ8NJ5sos8rEVweYZGcvGBXdxKAfTsdvBLVrhcWiUTmodF5KqWl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=811911244516759', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxMTkxMTI0NDUxNjc1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTE5MTEyNDQ1MTY3NTk=', 'date': '2025-09-08T00:28:36.000Z', 'text': 'Mucho dulce mucho cancer', 'profileUrl': 'https://www.facebook.com/jhon.jairo.pena.arias.2025', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/497011046_122130418334764187_5270288015911943346_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4K_fdMzh5Q4Q7kNvwHSObm1&amp;_nc_oc=Adk6np6MFE3vsOx-1KlEZ1_2KOTG3oEpGAL-1PPERtLyOSs_jvFcteZwMXvTA90vbLQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZGw-MRxA3rFsyn0i_gBKA9gzAs2LYA4uAJ28wXS9bD_A&amp;oe=68DF0AAA', 'profileId': 'pfbid0e8pqrRbik3UDUCVgtFVCCF6W8iVPiLemsvjRkNxwbzHKzmCTLAdv4s5aV6VwnGigl', 'profileName': 'Jhon Jairo Peña Arias', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwH_S1CB&amp;_nc_oc=AdmhPYPyp3TCPQaCi7LRP6Isrx81TDW3TA6YeuWgET2J8zQVtMDqFrxndBdR923oG6w&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZkm1Sx7ezsS_MLMuNYif5wSzp0eDpZcIsy8GktscEbnA&amp;oe=68DDA511', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1677327222956808', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE2NzczMjcyMjI5NTY4MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNjc3MzI3MjIyOTU2ODA4', 'date': '2025-09-05T16:45:44.000Z', 'text': 'Eso me engorda', 'profileUrl': 'https://www.facebook.com/prosegurextintores', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/528645879_728991006418697_8165979746760900039_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VXw1jTB1C3UQ7kNvwGMoiYy&amp;_nc_oc=AdlHi8ATAcicJOxWshPViXP3T_2hm5ylOgFv_ULiKSAOKuX9QKZGSbB3S2xsIWJsZKc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZdLxJowR-Daz6j6o2643AYh4itFFOKz6cv2eLu8rYFeg&amp;oe=68DF2ED1', 'profileId': '100079234120319', 'profileName': 'Prosegur Extintores Pitalito', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M1XFmxAwotAQ7kNvwE9cds-&amp;_nc_oc=AdmLX9MZdcFL_3_HiPMR9yJgLRuHxDSpocMNH9vQEj-9-CQobvCBVvVlcarjynsbv_g&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbBhiG-qZjEn-vDTqwAyTUZtwwjbE5f5SG4hotGDAvegQ&amp;oe=68DDBCB3', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1112065567136836', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTIwNjU1NjcxMzY4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTEyMDY1NTY3MTM2ODM2', 'date': '2025-09-08T17:36:30.000Z', 'text': 'El arroz se ablanda es con agua', 'profileUrl': 'https://www.facebook.com/emilse.olaya.10', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/474745093_1314356523032334_3595313260436754681_n.jpg?stp=c0.0.800.802a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=iVMi0vqXB6IQ7kNvwHFuTSB&amp;_nc_oc=AdmcCK1ObyHDUBKpGZ7Uq6XfZq60cFZoL4zHdh98ZVy5eqjxiPawtkE44lzAmJNijPs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZ1huHAk0aQVtMsixhrS7aU3AGxE5K6q2cCr27jLHvt8Q&amp;oe=68DF0E33', 'profileId': '100033739965924', 'profileName': 'Emilse Olaya', 'likesCount': '1', 'commentsCount': 4, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwHeW5E0&amp;_nc_oc=AdlXCRpkPIbH_l9w0rFWSvu8pS7kGUU9tZddpARvqJQy-J-hNifh0cndjIq0ai6AC7I&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfbdPc0LFvl6xG_h3wjvBlfYCye_U_PnSDMr9zDeUI2wbg&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1714984109193895', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MTQ5ODQxMDkxOTM4OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzE0OTg0MTA5MTkzODk1', 'date': '2025-09-07T21:34:26.000Z', 'text': 'Que gente tan fastidiosa, muy dulce, muy seco eso engorda, ña ña ña ña ña', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwEOK85p&amp;_nc_oc=Adk11HXSLIvVr0EYpR4RuKXMT0zFVu-jilfF0vwzFf-C_6IaDoM8dM-n0NubmyabIRI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfZ0fdA8QVYSababwYSsmPHNZ6HPTJXWtW91sefbGDtclQ&amp;oe=68DF179B', 'profileId': 'pfbid0Rk7Zcfgu9HbNFRiQzFPLYE8y6ydgq8Kjnfjo491T1yGvYiMvKoXKzjuZQUfp9m5gl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl/', 'profilePicture': 'https://scontent.fluk1-1.fna.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwHtOMGn&amp;_nc_oc=AdmnNiUCxLZNza1o9sDClvkPxB3lWA4tX99YFCbVe2OGhgP6rEdk-mJBhuiMaTgLHVY&amp;_nc_zt=24&amp;_nc_ht=scontent.fluk1-1.fna&amp;_nc_gid=GUpa6Yp19zLDjZaY1liVMA&amp;oh=00_AfZ3RkOUfEoYjnxLx3gkwH8Z6QEMi70lhn_YJ-AmDucswA&amp;oe=68DDB537', 'profileId': 'pfbid02efjLHKegCdapgAmU3qrbSR2TqigDX4J6qYb1VysDiYuMJCYCqfF3znAyje19oPJLl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1313299903520045', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEzMTMyOTk5MDM1MjAwNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMzEzMjk5OTAzNTIwMDQ1', 'date': '2025-09-06T02:04:49.000Z', 'text': 'bb', 'profileUrl': 'https://www.facebook.com/people/Emily-Escalante/pfbid0b869NA2KMQESS4kgcPynAAcQfjyhyXzMabi9UXiKBZYh8K45VHjdksz5DvjnWwxvl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/490373300_994067182918851_6280552107710519618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2Z6-CvSKtRkQ7kNvwHTKnm-&amp;_nc_oc=AdkuGJ0Tw_xpNpFaNndfW9RoOodzXjhAA3hR16xlpH888C79-H0xg2NuI2YomRDJFew&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=J0a4fy_5GAARVDP4Z0DoHw&amp;oh=00_AfbSzfz7ZX9ECeYxKECkHI4bowtg41AnEgwnjX-doXn0gg&amp;oe=68DF06B7', 'profileId': 'pfbid0b869NA2KMQESS4kgcPynAAcQfjyhyXzMabi9UXiKBZYh8K45VHjdksz5DvjnWwxvl', 'profileName': 'Emily Escalante', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L8yoGYddFMwQ7kNvwHw6yPv&amp;_nc_oc=AdmUk4RLnhjUWm-4TgTVP9UqsXcTTn4R7cZOLI9Y3xTl2viqTPC3NyLUdsd_uylCDMk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYO6YX67EoMHIeGhgjdjrgWalilLvjEbWdjMPTgRM8_1Q&amp;oe=68DDD33D', 'profileId': 'pfbid0ahJG2v4NmjDca21WxTpToMVjD9qf8Ww7L7TrFNSh5gYinEvMX4ea9SMX2RPjuGdQl', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1115041896734314', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzExMTUwNDE4OTY3MzQzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMTE1MDQxODk2NzM0MzE0', 'date': '2025-09-07T04:17:44.000Z', 'text': 'Pero con esa narrativa parece un cuento de terror, métale animo mijo', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/476306003_586794167681175_5089697919427671041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uBCnWgRm81cQ7kNvwHqTg7u&amp;_nc_oc=AdlmZ_jzOFg9-L4vccHutXxTGob9bBX9qYjZn0xYo_eAEFUdzlknG_DdU777pNV9Ce8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfbOou1c2CHWKaQr83c_6IFXJHy0H0lV7tSiuRq8dN74JQ&amp;oe=68DF24BD', 'profileId': 'pfbid02e4nSewQzoUAFxRmAW3E1i3jjuKGHXq6Kb5dxg4LpQVpk4i5DqBepUzKHrA1jB2Mql', 'profileName': 'Juan Kalde', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwFIOwDq&amp;_nc_oc=AdkagLbjYz9CxyZcNktKvIDACRO9inFhQDia4QkKeT_WfLXf7zfjEDfbhtSUHQywVnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afbh7d6YTy8yDAGexJ0QMjL_jk6tbxgQdM_sSgUKXFpeUA&amp;oe=68DDB026', 'profileId': 'pfbid0brgTDxjKaRryBpew4iMmTNSBZMUTiCN6mRvZJ2gS2X3vFcuzucbgvcw85Luqr4WTl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1273684933970342', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyNzM2ODQ5MzM5NzAzNDI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjczNjg0OTMzOTcwMzQy', 'date': '2025-09-09T03:56:53.000Z', 'text': 'Solo verlo me dió cosa....jijijij', 'profileUrl': 'https://www.facebook.com/people/Lucia-Valencia/pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/552947968_2467880740279186_7869914646133066215_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-HmkC5Hrt-IQ7kNvwG8B9HJ&amp;_nc_oc=AdkIK7CS64cA8H95EWrw8YVyib0XYQT4nbqzU3yZIM_-Os4RH8WXcw4nlPj7Sywy0HY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfbVafmdNDSPjLgvXVh-ATMEESmGP38I6FYRXF-Gnahuzg&amp;oe=68DF01A6', 'profileId': 'pfbid02fi8AQdf9Rs8tbxBvtG3A4J3c1w1YGCq5LKxoYiG6gTac2UJ1s7g6vT9PiTNm3Niyl', 'profileName': 'Lucia Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwHZMIM0&amp;_nc_oc=Adneqaiclrw69NuzsVe_OA_vH0bgT51mx0aYeRF4943xuBNyhjEsD2mn7fdzY1PGE8o&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYJHpr0k5PHJkFwD9pG3CMB0vCdESebMfVw4nb2cYAc0g&amp;oe=68DDA6AE', 'profileId': 'pfbid0hUZe5VDhzWPhf6VtnDn6zx5t7k554ZTH8pqNCEUziTyBjKkkXzMagMEJTN8zzJswl', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1709381033114613', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE3MDkzODEwMzMxMTQ2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNzA5MzgxMDMzMTE0NjEz', 'date': '2025-09-07T20:48:09.000Z', 'text': 'Osea le pones leche condesada y con arequipe. 🙃🤨🤨😮\u200d💨😬😬🥲🥲😉😉🤦🤦🤦🙈🙈🙈y  también leche y crema de leche. 🥲🥲🥲', 'profileUrl': 'https://www.facebook.com/maria.a.padilla.16', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/504893967_10162612290888875_336575164891983406_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=30KoqqmaGy0Q7kNvwE6TdP9&amp;_nc_oc=AdkgOGPiqsZ03q2SaQiGQecZNNnJFCeEQzDipZZ4-00vNs-ataQcjCykI2OWSX_Rvig&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_Afb7PBFSgLY45-SCz6KQsHvTnNI65uDZpWkK_-5J8S0SAg&amp;oe=68DEF82E', 'profileId': 'pfbid02kr3phWaL2FXXDHQcrr3eSBEihoFcVXVQ2q6jHfSrGRFaUD2hybm77MLroQDc8cH2l', 'profileName': 'Maria Angelica Conde Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwGpEPyG&amp;_nc_oc=Admoev23mcuVxwnH9_j1puZ4m1rTg38h-5CayAi8zuX7eQAwddFwO6o9oYl2nbRmaxM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afb0lH4Kcs-saTsqdPDMZMjnDkYMbjpSXf6OsQYbc6OO1g&amp;oe=68DDC61B', 'profileId': 'pfbid02VHkkXqKFzUg7hLEwmDkak5JtpZkrBsdrGoFDgk7mFjrKj3a8U1kxwFSrYdud8HpLl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2235173696931968', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIyMzUxNzM2OTY5MzE5Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMjM1MTczNjk2OTMxOTY4', 'date': '2025-09-07T21:33:05.000Z', 'text': 'Ari Deschamps', 'profileUrl': 'https://www.facebook.com/manuela.deschamps.ramos.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/414849876_374850798546700_5735906918750448651_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jUNHtWBLfmkQ7kNvwEr3kzJ&amp;_nc_oc=AdmSpL1whIhzbLUu2UOUNzWnue0kWwUr-Hbxv1kInslR2SP2R_BQZ9VN8XQXKPP8Gsw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_Aface5P4dXFby3kYxdBvDswDidBXyhIWtVuCZ2KDeIqqeQ&amp;oe=68DF179B', 'profileId': 'pfbid0Rk7Zcfgu9HbNFRiQzFPLYE8y6ydgq8Kjnfjo491T1yGvYiMvKoXKzjuZQUfp9m5gl', 'profileName': 'Manuela Deschamps Ramos', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwE1vnW_&amp;_nc_oc=AdmO_kGinY954AuHidWHXQ0urXOORWuBDGsVV8tU5nAxjYk_U9sOPDcPSjoTEXQn28E&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_Afb35IZCq-XEOdRHsmrkHr-KtWFrcwebX4fqvkqXRElBSg&amp;oe=68DDA72C', 'profileId': 'pfbid02FcfsApnpLK9DobTs8VgdyijxUsi7rLUtK7TXRqj1sQUTfeRmKnJs6XQktoM6Muj3l', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=781330534544897', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4MTMzMDUzNDU0NDg5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODEzMzA1MzQ1NDQ4OTc=', 'date': '2025-09-08T17:12:33.000Z', 'text': 'Jaja yo pese que tenia  gripe  es escucha con mucho moco 😅 😩 😪 😥 😣 🤣', 'profileUrl': 'https://www.facebook.com/people/Luna-P%C3%A9rez/pfbid0C52gFfATUvHW9WMfUL8HUQSy4TRFWAWGSe5GjfF8S6oSXRuXhtVFAkecehMi5UnYl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/523877452_122187602294314011_6258135478729644980_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMv2wAUzT7gQ7kNvwGutj4V&amp;_nc_oc=AdmfBt82s3b-aMjAd3uAWqfw30SVLKEsxQB-jEtl628qbGlQxupQJosOJk9VKrwttg8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfbuAajyRPOsTXr-zVRySXyQUl9b60wsnPIPiXFfc7z2vg&amp;oe=68DEF8AC', 'profileId': 'pfbid0C52gFfATUvHW9WMfUL8HUQSy4TRFWAWGSe5GjfF8S6oSXRuXhtVFAkecehMi5UnYl', 'profileName': 'Luna Pérez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwHL2iUo&amp;_nc_oc=AdnJmn1lkDOVGNdS8d0yaOPV5DbQ62BDVaBHZcMG8Dhs4ms4-ZzbLlx3k8MaMbx5O-U&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaKzKd5kSpqyp4abt8V8RJKoxDhNs1F_1xLKXBbrCRsVQ&amp;oe=68DDAD14', 'profileId': 'pfbid022dzgKGoBrHueTCEAstXn3BvmsD4esx7MHb324K4LiRmL6vJ42HhN2ggiWTcwZkP6l', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=788907967418395', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4Xzc4ODkwNzk2NzQxODM5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83ODg5MDc5Njc0MTgzOTU=', 'date': '2025-09-06T19:28:46.000Z', 'text': 'Se me hizo agua la kk 🥴', 'profileUrl': 'https://www.facebook.com/CristianRaMen', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/548139483_10224023289010196_2158516359621879323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wlDJ168tKDwQ7kNvwFcIVH2&amp;_nc_oc=Adnh_PLjcagPER0MG34tWVISsUICstdiIGgsJlqYn3j9FB2ggW4LzRugMoNq1r_c4uQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfY6e6sJgiL3tI-Wt22fT2MMXZZKNvFzH_0wnrkOqYfedw&amp;oe=68DEFE94', 'profileId': 'pfbid0361UrwJ9osnGtafugTYHd3RzTWwDmbqiGU82dUH9rCDSkZwENoLe9oG3rWB4AgizYl', 'profileName': 'Cristián Ramírez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwGAxNjK&amp;_nc_oc=AdlKrwG1IYeI5du40Unvz4Ski4kIdZtswQru1_9p4Tchtqva1JoMbB63sc0zSucPx3k&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaxwvT0tVj2yUQX5O5JBeejA6IdhepPYJJlsI1L0E1x8Q&amp;oe=68DDC3C9', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGC62Qc&amp;_nc_oc=Admt3tLDmkCgckg8dKiuAufqoyjgMpDI7F6eCSflDN5_TNv4PaUwMfvIIhVacBCILnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYa96dprDD-gfIfx1p2YYi_eraaDI7KTNRTpOwnwqfPLA&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=739230238937803', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzczOTIzMDIzODkzNzgwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF83MzkyMzAyMzg5Mzc4MDM=', 'date': '2025-09-09T12:48:39.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.1997-6/545345199_24855057907431236_2396099676637059020_n.webp?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=9NjqylyciR8Q7kNvwGRtWmI&amp;_nc_oc=AdlrlOPxdlbBZ68zPPhoDGZ_fe2Rm3oqLbXr6Mxl59K7A2uk3pg7jNUDCBQEDGkOr7E&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfahuvcIQVh-9xZL61LreH9FtSlsuKXR6mqf9MEbOAC37g&amp;oe=68DF1549', 'width': 120, 'height': 120}, 'id': '2272593746571450'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwH1yfd-&amp;_nc_oc=AdntcwNK_uty5RTIClowfWAM3SMt-Olg8Z6ZNXyMiO9fsbYtR-8tqJLSGcesuHh24ac&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfZhH9oT_XJ_LOCak-Eh79UES43pxpzD_180SYkS2mhTuA&amp;oe=68DF16CC', 'profileId': 'pfbid02nAiSs23DaFf6RaFQ9V9biaoiX1jaKkNwMycL4hV8Xf9YUaFuX2yi9789Jy4XpcQpl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=FznnQra8LMAQ7kNvwHM4yge&amp;_nc_oc=AdlzRBbirS_tz5U7KdHnjCsT5QilnjJFQN4iY0vKrJkajdthUBly9trOssA0POGDDMo&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYN5mCsrXmpSTNCv3EVelzadl7TEhhkG1ywSOPEQuJ2iw&amp;oe=68DDC7B2', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwGC62Qc&amp;_nc_oc=Admt3tLDmkCgckg8dKiuAufqoyjgMpDI7F6eCSflDN5_TNv4PaUwMfvIIhVacBCILnU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfYa96dprDD-gfIfx1p2YYi_eraaDI7KTNRTpOwnwqfPLA&amp;oe=68DDC54C', 'profileId': 'pfbid0ioEGEzgbYhzp87Hk9RzwLWaSfndXMmEaSQ8ubhDySoAmBniFdZehRRLcuXEz4HAVl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1516744356355999', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MTY3NDQzNTYzNTU5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTE2NzQ0MzU2MzU1OTk5', 'date': '2025-09-09T12:48:38.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.1997-6/546198224_605328712517437_7149605326802647481_n.webp?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=MZsuAJS0xG8Q7kNvwFdtN2w&amp;_nc_oc=AdnYS66otf5ZR-XDVtaBfUNukNd5sERleMqqyODwpce9GeWwxj__4YxOegt5EyD9ES8&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfYEj8ZjkOfDrLgNbhJE1iTEK9S0b_rBhpeyYVv0TAyM3A&amp;oe=68DF1932', 'width': 120, 'height': 120}, 'id': '1502326487631438'}], 'profileUrl': 'https://www.facebook.com/oma.pardo.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/375309818_140242819156972_3641086895261944685_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LY9as3qJJgwQ7kNvwH1yfd-&amp;_nc_oc=AdntcwNK_uty5RTIClowfWAM3SMt-Olg8Z6ZNXyMiO9fsbYtR-8tqJLSGcesuHh24ac&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfZhH9oT_XJ_LOCak-Eh79UES43pxpzD_180SYkS2mhTuA&amp;oe=68DF16CC', 'profileId': 'pfbid02nAiSs23DaFf6RaFQ9V9biaoiX1jaKkNwMycL4hV8Xf9YUaFuX2yi9789Jy4XpcQpl', 'profileName': 'Oma Pardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFGj6z_&amp;_nc_oc=AdmBpjwbrHWr8dTn0pYSLIf8_Zvu9d1KX70CzjjlVO56zti2Ai8NskolRaCRx_axw4A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afb7y9DwJxuveozNChXNTd7XR9I2fjSJbc9TmnExsBzf1g&amp;oe=68FF6B7A', 'profileId': 'pfbid0Gq1AboNwULDWdjCitHgrgPPCMkGWZQcccqYs2gsqUVXmoy1DuQN22LEfj9Uecrcel', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1454368369014716', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0NTQzNjgzNjkwMTQ3MTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDU0MzY4MzY5MDE0NzE2', 'date': '2025-09-09T03:13:20.000Z', 'text': 'Un poquito seco', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFETQv-&amp;_nc_oc=AdkmVFX_GNDVXc-8DvJWSg1Oiqde_mpIa7ynVj-XiwrXsrbTT-Go_2xeWNHGBs4TkJE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfYV2MQdlT4nswpR5v3qmGAazxEnSkjOwhMAYD2w-xtq6Q&amp;oe=6900BCFA', 'profileId': 'pfbid02LCVMDpjZW4agQTjnpmH1KwmBmsErxy2D5qrrGZhcAenR8a5d83kEXroFuGmpgQq6l', 'profileName': 'Jorge Ivan Agudelo Acuña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0TufPogYoLAQ7kNvwGvDphQ&amp;_nc_oc=Adn2dK3xAHJzQe-pC9Nva5Q1Ya21MUxEGGs6kCQ-ghpxx8t3SBme3MhfAcl6uzlUA5I&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=8KEZhBcbMbfM7gEcKx_bTA&amp;oh=00_AfaUQ7uU7qet3X2FCRFWRts1-_wYNYmazHpa1tOuY0LNaQ&amp;oe=68DDC4A9', 'profileId': 'pfbid0BAibtaeQo8hzeSPJ7U1uBf9WoPCNKbWvYfntKFPK6UMbdjv7hUDJhDD8mS2MdT9El', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=2180317295815586', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzIxODAzMTcyOTU4MTU1ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8yMTgwMzE3Mjk1ODE1NTg2', 'date': '2025-09-08T23:19:47.000Z', 'text': 'Pues la de bajo no se cansa dele jajaha eso es salud y abeses los hombres piensa que las mujeres son máquinas idiotas', 'profileUrl': 'https://www.facebook.com/yenyyohana.mesarua', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/550546050_2753254131547168_5200317828521687813_n.jpg?stp=c0.135.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9nDBJ6emlRcQ7kNvwFq4E8a&amp;_nc_oc=Adk-JggWKw8BnEDtx0WZHCOGF9MyoyeOnmcnKSYybTGXStauwKLkh4ABHmvGoZP9RMs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=erQqDM5BPJcGubo3Akk-Ow&amp;oh=00_AfbJMsn5Tg9QFA6cnJwZ0sc3z5zkkIiFP6eshd9ncvdkIg&amp;oe=68DF1629', 'profileId': 'pfbid02F2AK5FaEeRMKNiHnWevKq7KMVQYffWFZJGS7XrHh8eJtc2EoH71Eo6vwhraEk3Vml', 'profileName': 'Yeny Yohana Mesa Rua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7nga7hyEk4sQ7kNvwFpY0bY&amp;_nc_oc=Adn1eUUVMlm17arX-c-PB7NzYfcVTYO8V21PpfrDr2HMmyhCdvE6gbMPE0No7Fp5Nxo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfZQV47liaj0OzrJsgd3-Qw6NqgKHmASR_bg8DK-vCdfUQ&amp;oe=68DDD83F', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1530336804625982', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE1MzAzMzY4MDQ2MjU5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNTMwMzM2ODA0NjI1OTgy', 'date': '2025-09-07T17:21:28.000Z', 'text': 'Pero ¿lo sacaron para el departamento  de Antioquia? Porque recuerdo que lo habían  sacado luego de que aquí  no gustara, aunque  a mí  sí.', 'profileUrl': 'https://www.facebook.com/lina.maria.mazo.serna', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/453083184_1935270180233817_7110486866236322969_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=lk1MGrzI1Y0Q7kNvwHJECly&amp;_nc_oc=Adl621zqJq6t40ok9O4Oz8QKCYhq5u0DZbWkCNKMmpv2_UoiJlcbVM3COycDpzdG8VEjVEzAwOkNPe4tOVt3agtT&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfaVo0pshUIXMXEY5j4-98J4LVBjgEF9FuKRMyHXfsoxGw&amp;oe=68DF29BF', 'profileId': '100012525618818', 'profileName': 'Lina María Mazo Serna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwGhdmFM&amp;_nc_oc=AdlRrZs5IAAHcuustY0DhjTGltUngR9BtPU8RL90gErp1i9hfKoZx_MZEGfFfCiV2lk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfbE7ooLkeWKtm7EoZKg8_AgVhMQbbNTfr8x0fYTlmVbgw&amp;oe=68DDCB2A', 'profileId': 'pfbid02L5VtR9WgZwkuMJAKv4UkQyBfGAS21ZZvMQ9CV1ZseTky5NNpAunetJaPyPk1U9J9l', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1435961534327541', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE0MzU5NjE1MzQzMjc1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xNDM1OTYxNTM0MzI3NTQx', 'date': '2025-09-06T18:36:56.000Z', 'text': 'Parece cortado.. Menos arroz con leche', 'profileUrl': 'https://www.facebook.com/romerosebastino', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/515493229_1262005202144285_1056325664655973078_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KfmhGGLCerQQ7kNvwFawijy&amp;_nc_oc=Adn2-YWVTSQ5IWcvEwr9mbOcexKK8573hvrKg8_XS-ecWB25iX_YsVWM-sPyC6W1u3BhXXi-DaYNBgxOln4g0WxR&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_Afas0fFFZvk4va0PaXMg6M4n69sOkLDOpV9kORQCbOA-qg&amp;oe=68DF1CAA', 'profileId': 'pfbid0G3uAwLK7turCe3mupqLVyuZGERePDAxo5zjUwGNvXaWw2ugBoMPq2ctt4vPT2eAQl', 'profileName': 'Gonzalez Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFfjg0u&amp;_nc_oc=Adm7iKRwcuWXKq955Ei5OtkldvYvEa32V19YuylRlgKwpL8m8aqf7vM8Gt2MtCKT4e8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfY41MK6h__PjervlLMIUAGvZS6eKnISwlngBJwUwC44DA&amp;oe=68DDCEEE'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwFfjg0u&amp;_nc_oc=Adm7iKRwcuWXKq955Ei5OtkldvYvEa32V19YuylRlgKwpL8m8aqf7vM8Gt2MtCKT4e8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuhS5RE38IavdVHPnf5WmZ7j9XZvj8PoCdDxLVaFslTg&amp;oe=68DDCEEE', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwGFfZhN&amp;_nc_oc=AdmAStu23vQhr5bkzOhiwFOIgxYKRCP5UFf-YUcJKfZHgZIq2O7hNUqwLJCTZiwDeTQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuFrMNoYkAnJ8f-UKSo01gR-c0qmekSnoTKp4HVe6lyg&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=3078223222356978', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzMwNzgyMjMyMjIzNTY5Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8zMDc4MjIzMjIyMzU2OTc4', 'date': '2025-09-05T04:05:48.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwHI5uLi&amp;_nc_oc=AdnNUxQZFl21LdjViwvVkkNedB2vRxcp6_PEz88r8MAXN_WmHeDUeHsp0YT5_CJN_F6SGEPnxeLHgFKhrVWNsLM4&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_Afb9QuzfftdRU-sE1ly4Gk3mBztzD6v3zRsvllKaHcnpIQ&amp;oe=68DF206E'}, 'id': '1104323481831217', 'cix_screen': None, 'massive_image': {'width': 731, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/543063164_1104323485164550_6604724544493806463_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=QeFyF4Cs6bcQ7kNvwHI5uLi&amp;_nc_oc=AdnNUxQZFl21LdjViwvVkkNedB2vRxcp6_PEz88r8MAXN_WmHeDUeHsp0YT5_CJN_F6SGEPnxeLHgFKhrVWNsLM4&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfZD1npFBkmzYKc1u09Hitz6h5X2EWfTiNw6nj5KmAweuw&amp;oe=68DF206E', 'width': 160, 'height': 210}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Jorge Mario Betancurt Beta Orozco 地 zee DIOCESIS IOCESISDECARTAGO DE CARTAGO Ladrón manipulador'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwFxZFZK&amp;_nc_oc=AdnNu-axlUUeZoP8qbSalr6SlZpEUvIOwBErFZVpQ1rs3SIdYkgZE7kp2Geq7OIef7np_I41jalculFApXJ_WD48&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfbmLxpkfWIkF8tb0bgVwhkODCxuvHlSHpvdBf4pSDaXdA&amp;oe=68DF1169', 'profileId': 'pfbid02tisiyGdbPb1EE36mgKVGGDhmoHHKKKcDdCRnx3fe4qJBmWsV2YqEwxuaQx252xckl', 'profileName': 'Victoria Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHn71G3&amp;_nc_oc=AdlndkYfLCs_ue34snk3wb_5NZl_3pBp-vqPlj5mUaXF8YIq3Fe4a3SuJy86wnti3aI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfatXjdYDBKoU4O_nRbWaFr1l_8SqxiEB_YdNMtY5q0Pcw&amp;oe=68DDAE97'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ct4J6edB15UQ7kNvwHn71G3&amp;_nc_oc=AdlndkYfLCs_ue34snk3wb_5NZl_3pBp-vqPlj5mUaXF8YIq3Fe4a3SuJy86wnti3aI&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_Afa-yd2z6CeJgt993AO5MXhxanc27tZy3d0dS_AquP9CMA&amp;oe=68DDAE97', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwGFfZhN&amp;_nc_oc=AdmAStu23vQhr5bkzOhiwFOIgxYKRCP5UFf-YUcJKfZHgZIq2O7hNUqwLJCTZiwDeTQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfYuFrMNoYkAnJ8f-UKSo01gR-c0qmekSnoTKp4HVe6lyg&amp;oe=68DDBFE9', 'profileId': 'pfbid0psS1nbhmYH5VzxFhmMRP6N7dgRTtsZkLN1fBrtkC7RK5baknji5nbheti8rnaq7Ql', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1973651973421805', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzE5NzM2NTE5NzM0MjE4MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xOTczNjUxOTczNDIxODA1', 'date': '2025-09-05T04:05:43.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-nDX_eHYa-kQ7kNvwETvMN9&amp;_nc_oc=AdlpJCjdYGmk1ezAwq1ISxLJ5YLzwd2TfvpGXzmHW1VlVMtBrAOWniXNDaxautz9R8t3aQYWukKAyBIxCwvZ9SPn&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfZq1wF8ek3OjXnogGf6twVqCJPP7lc9zIZqw4hxNEMAvQ&amp;oe=68DF0017'}, 'id': '1104323405164558', 'cix_screen': None, 'massive_image': {'width': 806, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/544777064_1104323408497891_4144970330377310813_n.jpg?stp=dst-jpg_s180x540_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-nDX_eHYa-kQ7kNvwETvMN9&amp;_nc_oc=AdlpJCjdYGmk1ezAwq1ISxLJ5YLzwd2TfvpGXzmHW1VlVMtBrAOWniXNDaxautz9R8t3aQYWukKAyBIxCwvZ9SPn&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfaQ1GAsTFFE19ocm1UivWyqDixTGSvgaSq-PkeG4KImYQ&amp;oe=68DF0017', 'width': 180, 'height': 215}, 'ocrText': "May be an image of 1 person and text that says 'Colombia Ladrón Jorge Mario Betancurt manipulador DIOCESIS DE CARTAGO'"}], 'profileUrl': 'https://www.facebook.com/victoria.hernandez.596746', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/370383425_628222232774680_1359423843705753170_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE0mbtb7b68Q7kNvwFxZFZK&amp;_nc_oc=AdnNu-axlUUeZoP8qbSalr6SlZpEUvIOwBErFZVpQ1rs3SIdYkgZE7kp2Geq7OIef7np_I41jalculFApXJ_WD48&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfbmLxpkfWIkF8tb0bgVwhkODCxuvHlSHpvdBf4pSDaXdA&amp;oe=68DF1169', 'profileId': 'pfbid02tisiyGdbPb1EE36mgKVGGDhmoHHKKKcDdCRnx3fe4qJBmWsV2YqEwxuaQx252xckl', 'profileName': 'Victoria Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwEoPkfz&amp;_nc_oc=AdlfrCmCUJNuegrVygz7CQPvUzTbnVWZk4k3w4HZPPXmrCV9fDFF1bkZgba5USWa8zs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_AfY9BKWTaG-v4wWnNLzHb5BmrAXx1HouT-xKouLwFi2qrA&amp;oe=68DDCCF2', 'profileId': 'pfbid0TUNJAFFohxaErM5pCQgH9KZvbYjoSWzxSk6waE1xQKkk7BTvwCxgLvB7NMAiBbuSl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=1290742425887051', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzEyOTA3NDI0MjU4ODcwNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF8xMjkwNzQyNDI1ODg3MDUx', 'date': '2025-09-08T17:56:18.000Z', 'text': 'Un poco más de leche alpina jjj eso tan seco no aguanta', 'profileUrl': 'https://www.facebook.com/yorlay.vasquez.9', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/470196176_1230064721413093_7807375614787382678_n.jpg?stp=c0.0.750.750a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DZt7R2BFuGcQ7kNvwERsUw1&amp;_nc_oc=Adn84ssofENbZccswgtmmw3_NNuJRCcCzUFIMgP422ZUt1G5ZQUCHYTUgy6zO2VPjVzwRlf--Zri34CnJkPWLKvp&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfZS9DRZtWPZxCQVB6MpoOQxi0MIXE8Fis_BX14ZQLrYCg&amp;oe=68DF1E72', 'profileId': 'pfbid02WqrUnGcRjZy8ZCjWvtcGafZHZBiM22qCZpQrXWAHb5MoV2u5X2SfPDC5nhJDoBMNl', 'profileName': 'Yorlay Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwGJN5nw&amp;_nc_oc=AdlAcH_H-yah3BNaYeD25RIpH_psBjfyoANPHGv6h4x1mhXNmnCNjAvwY1dWhzmp0x8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ohL4LU086mwezsjBARQxNQ&amp;oh=00_Afa7IEiwpR8bfyV7C_Vm3tMnNz_pZrAiGqlea9cDQqhChA&amp;oe=68DDCCC5', 'profileId': 'pfbid0Dwarm7NSHKDvjYiDkW7UJzLPccD3F733WvF5erzDMJw21WeVd7wZrmATHFkT9fE9l', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215', 'commentUrl': 'https://www.facebook.com/reel/2145723119245215/?comment_id=818622947187650', 'id': 'Y29tbWVudDoxMjExMDIwMzU3NzM2ODY4XzgxODYyMjk0NzE4NzY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM1NzczNjg2OF84MTg2MjI5NDcxODc2NTA=', 'date': '2025-09-09T01:43:36.000Z', 'text': 'Nikoll Rueda', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/429753899_7196602297100552_2209306182266486857_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rTTNnWPmex0Q7kNvwGXoOss&amp;_nc_oc=AdnvohWcB6OBvVriqV4OvwLoG7N8xgFn3pQahURUZspM-eVBK9qw6GbxbdCdjF-oklb-8KISxwKiSDCsCAzIuylk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=DkaqDH_2z6gmPZP3R5h4pQ&amp;oh=00_AfbWrtY3AoaZ0ZtxR2YW0LhUlLsi8CqCvPdNy-fP-qjrgQ&amp;oe=68DF1E45', 'profileId': 'pfbid02HK53P8j4K4u69HLsnqDg3qcKyUFpsRhhHfCaRDKSSKfmnKwYiesvzoLkTgqNS4pFl', 'profileName': 'PS Marcela', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020357736868', 'postTitle': '¡Disfruta de cada bocado de este delicioso arroz con leche con Arequipe Alpina!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2145723119245215'}</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwF2SY65&amp;_nc_oc=AdmZcDXmcm3nW-Aj8Tjw-sbCqfvMFwZ_9gLRHJsoLy8M6u1zhOQ1suW5630rpGt_HSw&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_Afbj6O0O2-_2B9gyoXSE7yXoSYTPkeczKLc-aX-ltJs_8Q&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1299792048461004', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyOTk3OTIwNDg0NjEwMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjk5NzkyMDQ4NDYxMDA0', 'date': '2025-09-07T04:25:28.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6hvnG8u7QeYQ7kNvwHPbctW&amp;_nc_oc=AdnzYFdMo_IdJs_ijJT9p7LZJhUbEBCq8BKQozYoXjldLGs6-3hTYyXawhSv8KGqm-E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfbZlNtHupt7FZFFl4N7MtRYEZWatBW1_Q2DmSwinx3PdA&amp;oe=68DEF89B', 'profileId': 'pfbid0TW1MmkrdK9ScV1stD4VZBUYb178DkArWZ2ezQGQhJzNDMniUYhTswgA9jXDhogpkl', 'profileName': 'Blanca Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MjvEjm8GtBIQ7kNvwG2xOYU&amp;_nc_oc=AdlGuVlf3NOqT7ybPWeY-d-3twOHsZ829vrNOD4QHdPEClcKvdr4GtL1ghBZ3VlccHg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfblA-Tuuf767B5obZashJpkac16gXLaUP3xJbfAqxd5ew&amp;oe=68DDC41B', 'profileId': 'pfbid02ugMTzzQ1AMEyzB1RUNohW9J7CpSk69mC78PcvkwdxVWZCpD61wTt5iU1fYE6hWyGl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1268941067785428', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyNjg5NDEwNjc3ODU0Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjY4OTQxMDY3Nzg1NDI4', 'date': '2025-09-04T23:23:39.000Z', 'text': 'Muy deliciosas la arepa boyacense', 'profileUrl': 'https://www.facebook.com/marina.pinzonbsrbosa', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/535195551_4124849577753120_863277468086967714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LP5llbu7TEEQ7kNvwESxqm4&amp;_nc_oc=AdnIc-M1a-YNRJOOyRZOaobXdMv42Ld-7DgrrCUod3FxTNmj5gzBhSMjWiVC0ay39AI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfZIRS0ME2zJzLmNkGYour88BBx1KQDIvbWBERKfZbY2Dw&amp;oe=68DF159B', 'profileId': 'pfbid0r8iH5pmeKFbVRkPFWrY8v49htEgUYQ2itvb879WbUbjGnyApt4xd7P5n2R7Jdj6cl', 'profileName': 'Marina Pinzon Barbosa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bHLx4prG_lUQ7kNvwGt6vIW&amp;_nc_oc=AdnnBWJR_xfXHwajTGnDk0PSC9xcjRBfH4vHpYWo7q-HvBgpDMD6sjPJHFvzMkfPakQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYGxpqGqRDg3m-8zCjpbH3ilVP9IfIr4LYB_i7rVVGzYw&amp;oe=68DDA94A', 'profileId': 'pfbid0c3PBJb48iTcMd4niKG7oCKxa7358nEdZQMnpWKRLM1Gox5uMst8SJSqHT2iwkzHul', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=786983467600399', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc4Njk4MzQ2NzYwMDM5OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83ODY5ODM0Njc2MDAzOTk=', 'date': '2025-09-04T23:53:49.000Z', 'text': 'Todas son deliciosas 😋', 'profileUrl': 'https://www.facebook.com/martha.arizafandino', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/484108774_9807865749238164_5095746645441079386_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MiuP9g8SVtAQ7kNvwGfVVSI&amp;_nc_oc=AdlPiv2dZsNbMJ0aKajrA1JOy9dEHXMUedjBZzr1X1nuiFvjp9R0s16WydCIBCVXH60&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfZ4H7QHEXfnB7y63WEySQP3nFQCfn4t_L7QFO2W-U9FWA&amp;oe=68DEFACA', 'profileId': 'pfbid02fQsMvcQkkCcGp5siFdzq3SqgQMcVLLhWnpeUDs48MWC9tG1NjA7ateJkJv1pnQ4ol', 'profileName': 'Martha Ariza Fandiño', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwGBLM5_&amp;_nc_oc=Adl_2WO3a8yXGPgWkZ0ajmEONx3q2qgslqL7QGeoOgpq1vsDpT5K0Fr5oPvaSecWXFU&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYh3JcDZQh_-DI3OHPgL1nm2SWwatUVI8HPGlZ2Qhf1pQ&amp;oe=68DDB63C', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1322237975960520', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEzMjIyMzc5NzU5NjA1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMzIyMjM3OTc1OTYwNTIw', 'date': '2025-09-07T17:45:54.000Z', 'text': 'Huy delicioso 😋 😋', 'profileUrl': 'https://www.facebook.com/yeyita.carvajal', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/494745049_3997277317150488_5475247964622447587_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ivjmvtr5r-cQ7kNvwHmN9yg&amp;_nc_oc=AdnOjhQ_Q38HosDXQeTI3BT9amia4tEg3e-orc6rYiq0EZYkOhnTX6pp_32uwuYBj9s&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfZjMM260g6NpFpwkFHamaWNDSm7tcUT-6G5SSmP2QlWDQ&amp;oe=68DF07BC', 'profileId': '100006047777021', 'profileName': 'Yeyita Carvajal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwHy2fKl&amp;_nc_oc=Admd0KbSMAYJSPQICp-_U-WGHdJKbDD9qiHnUeBdkSMlJ6w9df9m9prYc7iS4O2nLXs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfY729MhwiL5a2rBFnUINOQJB7F5DSUSlPjRQTn1RhGmgA&amp;oe=68DDD71B', 'profileId': 'pfbid0HLVPxXA68fYT2jY9WPzdU7snjH2fEhaGpdWvLFzVBicpfVPjYiSmsVNv51qtbwUfl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=4105672379691184', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzQxMDU2NzIzNzk2OTExODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF80MTA1NjcyMzc5NjkxMTg0', 'date': '2025-09-05T17:23:41.000Z', 'text': 'Que rico', 'profileUrl': 'https://www.facebook.com/espinelvargas', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/448922029_7897198437007817_6675569853786782112_n.jpg?stp=c50.0.500.500a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EbSR3Kt2Hh0Q7kNvwEIayf3&amp;_nc_oc=AdnKiKRUt3TCOwrevkLrDBRxZlusvuxbR9ufZlrBp1AAOXV1GR7Kj-XgjAtidxJpvFM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_Afb6FuOgbz3dWqoQW954vHdgfJxrqtgXZpuLUueej3pbnQ&amp;oe=68DF289B', 'profileId': 'pfbid02LhyaaYWiAPfUyyaXjquNERXf51C9AfEMgvXi6Yy23k4ZU7zEuKbsjFS68ERiidRJl', 'profileName': 'Martha Cecilia Espinel Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwHhSxQH&amp;_nc_oc=AdmRjF9S8c1nr7Ag93H6dpoEdPl-woDgQxuk7sKVEARj-PvJHreSsKDVq9Aw4GpfAAg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZnwXFNkSuoX869ZRioCWhny_NJGn-T6ohsma3T4OTijg&amp;oe=68DDCC5F', 'profileId': 'pfbid0285q9PPVQhDbkSZyEqa8LcoZv3wFEVqbrNQU7yNw23EW9rZHBy5RosQ3Nd91MpDr4l', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=755958647219239', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1NTk1ODY0NzIxOTIzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTU5NTg2NDcyMTkyMzk=', 'date': '2025-09-05T13:12:24.000Z', 'text': 'Arepa Boyacense y si ese queso es el perfecto, las mas deliciosas y las de trigo ummm Boyacenses también', 'profileUrl': 'https://www.facebook.com/yury.j.nieto', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/242199144_10226713390489325_1945869783869122640_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8OyOxMZx2HgQ7kNvwHeKezC&amp;_nc_oc=AdkS-SOAh55gmZkE1HZNnHMI4xnKCDWo_FW5Tf4QonhDW-X3weFrzqmbQy6BvRF13Cw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfagIg5-e5V7ZHYJzTaY5LtUyT5OVTtRJ_SKiSdDYuFC6g&amp;oe=68DF1DDF', 'profileId': 'pfbid04YBxUDs3qzoG8y5AmT11YF6GuPnFnrvBrGFpXsa6ugsUY19cjMeaQ41LAQsMTQDol', 'profileName': 'Johana Nieto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwF_EGtI&amp;_nc_oc=Adl0OmmaeXwmyu0iS-SGxCIida32dl2aUkv1bteZsk4udZqKj7gdIx8gCGGWqP1XQn8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_Afb5bRLqCW5GllTIUVvIKPmIyVFNf-jhCgAsuBAfWEcTdA&amp;oe=68DDAC8B', 'profileId': 'pfbid02PpAuuEuYTD9GrzHdKTswovETijDh5nu6TSeyJ9fQhdga8Nv3ju5HkEaH3f1bPQK6l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1104892531781935', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMDQ4OTI1MzE3ODE5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTA0ODkyNTMxNzgxOTM1', 'date': '2025-09-07T04:04:25.000Z', 'text': 'Le falta masa a tu queso jajaja 🤣😋😋 muy rica', 'profileUrl': 'https://www.facebook.com/cristiancamilo.ramirezgarcia', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/528409560_10240319883434219_9117094753713007818_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1vbo0eWi4b4Q7kNvwGFOLDy&amp;_nc_oc=Admp2qJFmSfSd88LgqDBVwyPKpuNLaLqA1Pf8UrfRqj6p0BGxuD9q9NWn69EEVERKyA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfZoxEJ6oeYUAgSM68fgoVUebBJLueSnIdBOgT_oM6wrTA&amp;oe=68DEFE0B', 'profileId': 'pfbid0LGXiz5HBc65NVRxB4WbnZXj6n6wCDWvLMa1P9zMT2TpP8kcjLfgYYmasraTBk8t2l', 'profileName': 'Cristian C Ramirez G', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwFhn_5q&amp;_nc_oc=AdnxjCe2PGR4Wql6KkGofL9K6qTQfLRThgkil0OFpBuDBJte12LRFsjgKabNMo7SWGE&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZEIrLqLZuPuAbkTpPf3YHW2oo3mawyn3obE6NVN5J9ZA&amp;oe=68FF6B07', 'profileId': 'pfbid02S6HdAnpFJSoA2VScfNwyYTXP14SMecqRbkujDKZ9fvZBZc4JaSeoxQ4T9fVuxftl', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1430106141378783', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzE0MzAxMDYxNDEzNzg3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xNDMwMTA2MTQxMzc4Nzgz', 'date': '2025-09-05T00:53:39.000Z', 'text': 'Todas', 'profileUrl': 'https://www.facebook.com/fasnoery.moncada', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/95337877_2968183066606162_6089531123350634496_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4y_xCfIHBL0Q7kNvwG3R9tr&amp;_nc_oc=Adla_f27cz95Q6YfzyZX9DmHUlKpj-edJrRBvlVwbGJizXCQ_6Dd7ir8lHi9Fpoo23o&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfbrZCzxjd3_g1JNex9zoeFzBnS_5egh_9qTvfg5_NDp6A&amp;oe=6900BC87', 'profileId': 'pfbid025oaUFC9SH1q4NL33St1yqKDKSqqhzKAjfpZU4CrVBF7oH5YP3ZLgAiSbBq8bG1E7l', 'profileName': 'Katherin Moncada', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tgAKXOj9SRsQ7kNvwFSIvF8&amp;_nc_oc=AdkEem1t6dusPS9ZU7oTc1_EjVpxmqnNTFPLxyFhFwxgn6WFXewxfYeNF54Ed9TDKos&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfYENoAg_H8IMRLSdo9K_o6LRcPXLoHiHsFQ7QcnE_71qA&amp;oe=68DDC237', 'profileId': 'pfbid0NwPboTVc2t6yWV1ioUUWyhmPmuo6tA1wrsNmEhkcWeSdspvqfZGMACKTky5s4r9Jl', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1289259118854890', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEyODkyNTkxMTg4NTQ4OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMjg5MjU5MTE4ODU0ODkw', 'date': '2025-09-05T05:02:10.000Z', 'text': 'La arepa boyacense  (de Caldas, vereda La Playa)  la más deliciosa, acompañada de una taza de chucula el más rico desayuno.!!', 'profileUrl': 'https://www.facebook.com/rocio.castillodaza.5', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/494198015_1359887815222599_2777915867987030647_n.jpg?stp=c0.0.718.718a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9F-dc0l9zQUQ7kNvwGgCI2v&amp;_nc_oc=AdlFEaJxXpWatjEusIlEw4qnnUHAfAuP3LvMTWrwpwRvj50ncdAQg0GFFcUE28GPXBI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfbBbNVwzKluztHTlKVbCbsjqiaQBe1E7jW6GfDeX7o8jw&amp;oe=68DF13B7', 'profileId': 'pfbid02SnqJz8RRtJDKzcYd2aKZDn8cc4Beoq6ptsMHUxzSSAKnQPKXPjPTzCakkWi3yA6Ml', 'profileName': 'Rocio Castillo Daza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwE4wejh&amp;_nc_oc=AdkO_7-0o0S5kHTQZiqjCGEjj76rOqpV1gQd_xl98zOolsKsJOyq20-lYEGK62TE0iQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=BHUzys0nXKPsZ6OhryzHJw&amp;oh=00_AfZ9RU_VnYzC1USwVcAFN6fMiq6mrLoQvwdV5RLh02xcrw&amp;oe=68FF6470', 'profileId': 'pfbid0A3dQJZBdeUnt25AGP4nMFz6PyEZNEjVJymu5gGeA4WmQq6n8qDTo5m1goPujaHPul', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=751978321093741', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzc1MTk3ODMyMTA5Mzc0MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF83NTE5NzgzMjEwOTM3NDE=', 'date': '2025-09-04T17:39:07.000Z', 'text': 'Parami la arepa quesuda', 'profileUrl': 'https://www.facebook.com/edelmira.donato.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/151785025_115768693882347_6500257537263255990_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CAelF3-y_a4Q7kNvwG7bgip&amp;_nc_oc=AdkAO9Uo_pxJzKEBQ0zBwiE8R6Ie8E6gZeDv0VWnaFlA8d3VLbxL-aYcCtzItkdik2A&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=89b9hoCoJ6KKmRjIBHxOyQ&amp;oh=00_AfbjPcaZrfF8L2oRiehQptzD8-jqKHcuHXt3tB5ex1Sktw&amp;oe=6900B5F0', 'profileId': 'pfbid02DR7avaYFg6L24p8bf6TXVt7AF1XbgydupJ5ZwYauF4bLCYdScMuqXKKb28WkHExVl', 'profileName': 'Edelmira Donato', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwHFxLXA&amp;_nc_oc=Adl_RQooodvGabYL2Bz7fMQKndrLc6quFWODzsSytHrh3ohPhv0HVDlvVOpWvHL8ezw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=F2dpdAc-YwNyCPzhZcLQCA&amp;oh=00_AfbsuoFEJpR9q2PcEjcnAUcses8DWFScYmQGwfzIMxMqUQ&amp;oe=68FF544A', 'profileId': 'pfbid02wKND3K1vqwZdSAvzecw8RSWH5EUUDt8Z3Wb34AnwZhUMV1giPdyh4XEndgqbwVKXl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1113690983503199', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzExMTM2OTA5ODM1MDMxOTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMTEzNjkwOTgzNTAzMTk5', 'date': '2025-09-04T23:17:37.000Z', 'text': 'Arepa de maiz choclo', 'profileUrl': 'https://www.facebook.com/claudia.romeroposada.5', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.6435-1/49714014_591927454579503_2345138992149692416_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zM9k2T_bhAcQ7kNvwGFYlFV&amp;_nc_oc=AdlA05-Qn0eQ2w3sqKhQnNwGIot-5V2ao8PNA3-VSznw9mNyXS74PBEqxxfOoCmb7ao&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=3mEUUt9oiKKJgMe3eOHzGw&amp;oh=00_AfaT-P5fOQ72U4VHWVRTIiYo70vyGwwKuiSyZ9iaUat8OA&amp;oe=6900A5CA', 'profileId': 'pfbid0smj289PZzmPaPJsWFHjXC9krjCmnURMxfhGJUfUYXUmFQ1nYSXKRMLN8dH6n67gRl', 'profileName': 'Yayis Romero', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwEdQ466&amp;_nc_oc=AdkbpHu6uiLeajfbGu2iiUOW7uDxhSSu0ktmv2jarc2ZMo8N24aoizfY_wAAItdGkdU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=F2dpdAc-YwNyCPzhZcLQCA&amp;oh=00_AfYkrqj1qOhQoHOfry9Uj-PD7Fw4MPrPpooH6oT2oXkWBA&amp;oe=68DDCFAC', 'profileId': 'pfbid0FLwoWs1S5WTAyBVL2gbxL2H4Zz6szJPfvEDPxK12hmmaeACeioX91QRN2VPWt8Uyl', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089', 'commentUrl': 'https://www.facebook.com/reel/1167536955203089/?comment_id=1083420123973110', 'id': 'Y29tbWVudDoxMjExMjg5OTA0Mzc2NTgwXzEwODM0MjAxMjM5NzMxMTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTkwNDM3NjU4MF8xMDgzNDIwMTIzOTczMTEw', 'date': '2025-09-06T03:04:50.000Z', 'text': 'Melissa Dussan  para q hagamos', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/465064408_8694800307278796_4477516694084901325_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mqtthgS3V_IQ7kNvwEqgdVR&amp;_nc_oc=AdmKkxU2vdHvT8mY0tSyBxjBabFslBHkF-Cj9tNLZCzSyf_vH0_YIqdl6v55V9QSglg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=3mEUUt9oiKKJgMe3eOHzGw&amp;oh=00_AfYG6k1b-wc111as90UPyX08PqCQtqdfhiSak899LVy0tg&amp;oe=68DF212C', 'profileId': 'pfbid02JiRz8tN477VMazsBWvtokckEpPoPeHKgz7bVahB1fy92HJdKki3i3FCibUCjqpA6l', 'profileName': 'Dileth Dussan Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289904376580', 'postTitle': 'El Quesito @Alpina lleva la arepa boyacense a otro nivel. Y con Alpin caliente ¡una delicia!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1167536955203089'}</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=axvWypj9384Q7kNvwEGKgOK&amp;_nc_oc=Adkwbecwh3NxaOD2sMUaP_tqP8ZsDhPVcu8EtNYK7QeLmlGnePX3q5QTvvk02uSnxKA&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=YYXtoMK5QqW5VHANSaXQzA&amp;oh=00_AfZ2vjvB6z1E4gWt6r4SAqX-ClWfRoQXxwc7G9bp_utFpw&amp;oe=68DDD17C', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=656639514132703', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzY1NjYzOTUxNDEzMjcwMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF82NTY2Mzk1MTQxMzI3MDM=', 'date': '2025-09-05T00:19:31.000Z', 'text': 'Excelente', 'profileUrl': 'https://www.facebook.com/jaquelin.salgado.894257', 'profilePicture': 'https://scontent.fshd1-1.fna.fbcdn.net/v/t39.30808-1/443735179_433251982683781_3563017746394085440_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=FR6c4llU4ewQ7kNvwEJXr14&amp;_nc_oc=Adn6uYu2A_gIMP_K8VHxB8ton6Qnm42170uoVzbsCMlXUFBD3SONRnvC9f6pB5Wz00k&amp;_nc_zt=24&amp;_nc_ht=scontent.fshd1-1.fna&amp;_nc_gid=fy_SkxfZZ-ph17FPWv3n_w&amp;oh=00_Afa-VY9e9x4G7v_wJaFexYyASgxEmi3O5Sqw0iwNJWXZGg&amp;oe=68DF22FC', 'profileId': '100079969493086', 'profileName': 'Jaquelin Salgado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D_fFm2h4g5gQ7kNvwGksZxw&amp;_nc_oc=AdkaHurYizdkXZDZAFibzPb3aTTdwi5cU-rVxfp2Zh-sjYYAEiuKPqFVIY1ctYcc1h0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=YYXtoMK5QqW5VHANSaXQzA&amp;oh=00_AfYsnO4lB_qxWrOyq-fFK0UF-EzpM6XApIGDJJo7ea84UQ&amp;oe=68DDB9BD', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679', 'commentUrl': 'https://www.facebook.com/reel/628841873355679/?comment_id=1429513944977855', 'id': 'Y29tbWVudDoxMjExMjg5NzM3NzA5OTMwXzE0Mjk1MTM5NDQ5Nzc4NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTczNzcwOTkzMF8xNDI5NTEzOTQ0OTc3ODU1', 'date': '2025-09-05T00:59:28.000Z', 'text': 'Yo le cambió la cebolla por ajo y carne picada', 'profileUrl': 'https://www.facebook.com/tatiana.n.hortua', 'profilePicture': 'https://scontent.fshd1-1.fna.fbcdn.net/v/t39.30808-1/301447721_10159984974309038_1180697395908917695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D_fFm2h4g5gQ7kNvwGp6IcR&amp;_nc_oc=AdkEe7mwJEePr_2Bpk3WJxvnkPm1S7s2JN_uosrKLYN1LWjGUapK8wGiWRNvWF3NRT0&amp;_nc_zt=24&amp;_nc_ht=scontent.fshd1-1.fna&amp;_nc_gid=fy_SkxfZZ-ph17FPWv3n_w&amp;oh=00_AfZm0WhNIUxSfXjEVz_WgvxTiRK2Th7IrAfS-fcWOY0o-Q&amp;oe=68DF0B3D', 'profileId': '648599037', 'profileName': 'Tatiana Nuit Bechara Hortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289737709930', 'postTitle': 'Revive esta receta clásica italiana con queso Argovia de Alpina. ¡Para chuparse los dedos!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/628841873355679'}</t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FO3KYPfyD0wQ7kNvwGHLoA-&amp;_nc_oc=Adl3PUB8An_xyiFkrukL8TcUkiNjnvNIPm1FAE-SAQIkznuFRH15WUdCF6CnuEHq8GQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfY3rFQnjozYELU82AdG4WObUMuhuefB8wL_6_f9P3z7Pw&amp;oe=68DDB1A0', 'profileId': 'pfbid0npwRShpJFrxosMy4DBHwcg1C483SGSJ4ym4mTb1hm3y1Y9PxxMSWx48USC43Aqckl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1351475719916418', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzEzNTE0NzU3MTk5MTY0MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMzUxNDc1NzE5OTE2NDE4', 'date': '2025-09-04T22:55:05.000Z', 'text': 'QUE RICO  😋', 'profileUrl': 'https://www.facebook.com/martacecilia.guerragonzalez', 'profilePicture': 'https://scontent.fosu2-1.fna.fbcdn.net/v/t39.30808-1/339318952_2998648743612650_6409432432318026219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QrJqXEA1CCEQ7kNvwHISKcf&amp;_nc_oc=AdkwJ8gyMNIrgU2q88svbF7Ita6jKLBOl27cuCNRTPAKTGqGDTJ7dsNiOt2BkXcezitM9b1_GXHJPd1QNcKDGvg2&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-1.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfbLslkpmjwpDGF4XfUVUM-Gns98PJTmCjj30WaId7ucsg&amp;oe=68DF0320', 'profileId': 'pfbid02rgP8dNk87MYxPUjie6zxnUXBFv6khWv5sWcGaronwLBzi3JJb4FtDzwgD2btr7Acl', 'profileName': 'Marta Cecilia Guerra González', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwG3zvff&amp;_nc_oc=Adkm0cL_T4A44Kzt1OrHrKwaYegNmMmKVuyek_teDAuPzP6eJHU0IJy_vKOo0soEaRA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_Afb4xXcuaJLLvxSfsFqVE_Izvmqm6N-CaTFGcPk1coIQZA&amp;oe=68DDC611', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1132980902063467', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzExMzI5ODA5MDIwNjM0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xMTMyOTgwOTAyMDYzNDY3', 'date': '2025-09-05T02:51:40.000Z', 'text': 'Para mi sin soplar el huevo! Gracias 😜', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/545295762_10239478695242307_5272251432656277289_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Tk8VxhJoP7kQ7kNvwHEsZ_V&amp;_nc_oc=Adl8wUNsqvx8F0YprUdlJkYAi9l9iCn7ec7WGLqSZhIKnazhl7DWnm28HNRNjcoZhGuz676EwkIJEsSXT8m1ejMZ&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfYaQG5aMdEIu-PUL1mdc1ztk5EOVfgvAYPVXE-KVaARew&amp;oe=68DF1791', 'profileId': '1136198977', 'profileName': 'Beatriz Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PQFf9pM0OQ4Q7kNvwFC1Mba&amp;_nc_oc=AdmTuBf_nZc48z3-iGGTAYv-wQX1Q3Tu8T6tNFE-ZjHagdBE0SM9h6fRTzxBZY_AQxY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfaSw_QGDglkS4sOJDblZ5mtnejbkvHEGdgR2AoA7hBJLA&amp;oe=68DDC9E0', 'profileId': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwEWmZgr&amp;_nc_oc=AdlI91E9NxrF2x2ZCdDz3X8sgsLcD9zoKBYM5T2In9j2d_uxF9bwqGlrKbnDDut2G5s&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfYMnrNFSZY1R-tuYAhxOS9oXiZ-HMjPUEODPVMWaVDSPw&amp;oe=68FF5755', 'profileId': 'pfbid0Lgmuy4q9hp3m9DmMiYphFD2SrSwkb6h7Z2tUSgKgbUFrPAeE94upa8hpdDWZXcTCl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid023aVSLQQj79MpMBujbLxyk4Sx6ixH5rxrm3EQ9javEx2N56KFpPKSaXEZr238JajQl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8xNTE3Mzc0MzQ2MzcxMjc4', 'date': '2025-09-04T12:51:14.000Z', 'text': 'La receta puede ser deliciosa pero el truco de soplar los huevos ...juuuummm poco aseptico no sabes cuanta bacterias hay en la boca y se pueden ir en la saliva', 'profileUrl': 'https://www.facebook.com/adriana.sanchez.307190', 'profilePicture': 'https://scontent.fosu2-2.fna.fbcdn.net/v/t39.30808-1/417746433_1765655137179614_2925045375554640529_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4SWvvFo3uwIQ7kNvwF87XPh&amp;_nc_oc=AdlqxetBnFLhOE5QDnY9Prwh_qz1FTZ507QXn5UABnw6QxFE171nqSnFJps3dE1ZhZirEejOoI5wnZlAoUsl4qhQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-2.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfYCptGONBOtcLzezU1QmQ0LDlcLmnChyhZTgJH1QxmV2g&amp;oe=68DF1B60', 'profileId': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl', 'profileName': 'Adriana Sanchez', 'likesCount': '2', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=1517374346371278&amp;reply_comment_id=746701411462228', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5Xzc0NjcwMTQxMTQ2MjIyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV83NDY3MDE0MTE0NjIyMjg=', 'date': '2025-09-04T17:59:17.000Z', 'text': 'Adriana Sanchez La receta es para ellos .no es  para venta.😌', 'profilePicture': 'https://scontent.fosu2-1.fna.fbcdn.net/v/t1.6435-1/179244900_10222822969316569_6925289971998503713_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vn8jtPCMKjYQ7kNvwFAA7P4&amp;_nc_oc=AdkngwdJuQz6vtsgbji-YKfkEUELRWQOlWqRlE_GIBz-ygk4WKFZDv5Jtgx4DhbFYGl0_HqUJRdxcMHpkO5GaHTu&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-1.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfYuljg7FDWJS6105H1y-MaB5ROza7mSwLjqsmryuFttzg&amp;oe=6900A8D5', 'profileId': 'pfbid02Q4G6b6BmjKh2VMkmihF9j354Wevzws3V21zFv71VYm4PhAYnRG9jD1rn1HxdXbmgl', 'profileName': 'Yadira Guzman', 'likesCount': '1', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'short_name': 'Adriana', 'id': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Adriana Sanchez', 'gender': 'FEMALE', 'id': 'pfbid037Rw9X5LYxP4Sm6CWdAVuDD7QRz3PHnYUoayyHHzxGUkbdVq33uBR2XtUn6iqJ9ycl'}, 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzE1MTczNzQzNDYzNzEyNzg='}}], 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vD_z2667BO4Q7kNvwFoUKbm&amp;_nc_oc=Admt2RKcCEqWzED_NJ-y2yoXW30j9QFu5GD9HB2y16KyAmox9iI6_CTvlxs3NVNgob8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfYLgZ89gsBn8xvrY7BYBZwAgskpfhdzZjikDFr2qlgbcA&amp;oe=68DDD8E7', 'profileId': 'pfbid0kvRE3c2NkHwsaVSpqr92fdbzPNxz8zxJarigyzrwHJ9WzVVazSDeorM3cG9iyH5el', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=669899845517331', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzY2OTg5OTg0NTUxNzMzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV82Njk4OTk4NDU1MTczMzE=', 'date': '2025-09-04T12:28:32.000Z', 'text': 'Le falta calle', 'profileUrl': 'https://www.facebook.com/people/Albanelida-Sanchez-Martinez/pfbid02pmrwEGxCbjWS5nWngYFiWvX3EsA8ha94mw1MiLvxvsWfuAJfywcu3sC5zdkFNHRcl/', 'profilePicture': 'https://scontent.fosu2-1.fna.fbcdn.net/v/t39.30808-1/546623707_4133653160296604_137733078901087331_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xlNTtupL5hkQ7kNvwGH2Gp5&amp;_nc_oc=AdkByT6AnEKrOb3WyJvW-NBglyVdFQPCClnqs6Y7l0U5JOaEnmXfmDVVJG_x6BpsCYyVHhgfr3JeeFZf12ti1hXf&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-1.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfaTaOKzD-0JZpxNePY2D236vvI3kfie6IslnYY76PSuNQ&amp;oe=68DF2A67', 'profileId': 'pfbid02pmrwEGxCbjWS5nWngYFiWvX3EsA8ha94mw1MiLvxvsWfuAJfywcu3sC5zdkFNHRcl', 'profileName': 'Albanelida Sanchez Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwHP4Y5C&amp;_nc_oc=AdkMfkj6aSgRJQMtI-UW30ygy5Wn9s8iw1mQ4ZAnynib5v-HfZ6CRPTWbV8gPwHZKnY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=nfiqveFWv9k1zIMEGpbmmA&amp;oh=00_AfY2yR5DWJyA3vWHyaAF6xE4d9bIgldIiq80lf3BXWvYtw&amp;oe=68DDB66D', 'profileId': 'pfbid0fuhbasHDazgnbm1s8tCXg3fwG5a5n7PdXnnfhnLi5YsLDiTxCVDgaCwM221zVUW9l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901', 'commentUrl': 'https://www.facebook.com/reel/796131049564901/?comment_id=3713529135616253', 'id': 'Y29tbWVudDoxMjExMjg5NjgxMDQzMjY5XzM3MTM1MjkxMzU2MTYyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTY4MTA0MzI2OV8zNzEzNTI5MTM1NjE2MjUz', 'date': '2025-09-04T11:40:18.000Z', 'text': 'Su mercesito no se le entiende nada de la receta gracias', 'profilePicture': 'https://scontent.fosu2-1.fna.fbcdn.net/v/t39.30808-1/352806739_10229727092791717_6388491501114077280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k6ltAroewtMQ7kNvwGSklxi&amp;_nc_oc=AdnhJWj2zHFCJaui60TXA3frd55y6U8UhTj3O5yuZnX4Wk7sQhcYMwipM0U_nT2joyx7fVMqjNGl2deulcnbuf4O&amp;_nc_zt=24&amp;_nc_ht=scontent.fosu2-1.fna&amp;_nc_gid=_vISDcvoZtDAtPbEx944Zg&amp;oh=00_AfYH3o4ySg6EPknBYDCpRn2hYUr5wAif1_QzWEhPUkmqLw&amp;oe=68DF07ED', 'profileId': 'pfbid02jHBnCtdqcoQo765DzKYYCtFBJxi72P3AhBnMCbLkKcZ57YmruFCZtFkWvwx754Z6l', 'profileName': 'Doris Mahecha Angulo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211289681043269', 'postTitle': 'Migas con Quesito @Alpina junto a mi mamá. Un desayuno delicioso y muy nuestro.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/796131049564901'}</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEuTXrU&amp;_nc_oc=AdlkIVZsb60nM-CCov9-oP0ZeE15TwEAVdcpKFiugwYKc-3tcdCIkJdSpch_3K_upao&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;oh=00_AfacsdKpE4jeA6_54xDUPmoX4zD3NCKhcr0ASi94owOmhw&amp;oe=68FF6B7A', 'profileId': 'pfbid021tXfxcQtMcJy7swsfpM9PQGfXQgeph5cyK7cxLesNArMzxGjvHFjoobmJZHxwecjl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=24507826212240427', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzI0NTA3ODI2MjEyMjQwNDI3', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8yNDUwNzgyNjIxMjI0MDQyNw==', 'date': '2025-09-04T14:01:05.000Z', 'text': 'Super 👌', 'profileUrl': 'https://www.facebook.com/mauricio.alfredo.alvarez.londono', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwH4nael&amp;_nc_oc=Adkr8E2vpKATdBKW4WxpC_bmD9EbBdvOT_tWSuy_0DoZeU4xBSMXDZpAO7vs0RO3Q3w_qdTAgdXYc7IfMaXxZ400&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfYz51y5mS3suwlvMLJXKwl0ty4XNUlWRnnXeGFf4bivLQ&amp;oe=6900BCFA', 'profileId': 'pfbid035jyP9HLiDDbczYzXVBGpRPtgrchSZXVTsUMEUabCJYBRp9b3cNsXRYwu6Y4G7NLzl', 'profileName': 'Mauricio Alfredo Alvarez Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwFCz-uj&amp;_nc_oc=AdkcAjJWLprumwQsdONZ2Von0vHzKPzisn_d_ue-ZmNTC2QHRTuArmSN9v3jh46MFws&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfbRkahUHEclIybMGmnZRIOP56PVh6gFncNfH-qiGD-XUg&amp;oe=68DDBC47', 'profileId': 'pfbid02GRJb4bhgapZoYmU5xVs3VcXVVnD3H2LE5H95ZyRLfidrHTRTDRG9bQGMKpxVTHDol', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1063953522218458', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzEwNjM5NTM1MjIyMTg0NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xMDYzOTUzNTIyMjE4NDU4', 'date': '2025-09-04T23:11:22.000Z', 'text': 'Deli gracias por compartir me antoje', 'profileUrl': 'https://www.facebook.com/monicagarcia.pacheco.35', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/318337046_537563095052127_14837960115512788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xinK2z6ie6cQ7kNvwFAD9KG&amp;_nc_oc=Adl5_kEkVOkKUew9gO3yEjyRbG9MseuXDUS33GKbbAy3NX1hNbuCWV51omH8RDTglqFBTZ5TFtr3HejHFFkQyFWt&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=MPfP6fGQntzgMIZapfPQKw&amp;oh=00_AfZwo99wPkTe7XPS5uTroS3LDEhGe6txeFtTgCzJ0R0S1A&amp;oe=68DF0DC7', 'profileId': 'pfbid0CsfQ9S5KjjgLx8H35hQLviJQmsmKhk8B4bZoLbt3pKcgPoVSkzRFHSuEkdC2XLiml', 'profileName': 'Monica Garcia Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwG_rsOi&amp;_nc_oc=Adlf90eNxvwu671iabjS2PBKK37e9hMst2-PdvHLhGXyHmziv0vLELZcudpnDBxCtig&amp;_nc_zt=26&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_Afbme4Zfl4hJ7JK8sDd9xcX-aDNQynUWzBDoTvC_99mkvg&amp;oe=68DDBE53', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwHZIaOz&amp;_nc_oc=AdlfL6XTzqfkpxdtqzFVOl15Ih3owpTT_C0jeQrdV3g1DeYfStYz4E-f2BYF-bpDWEY&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfZwXcaAgqlACHd0IhWySVP1qPww2-Ttu_QUGeNIJDQBvg&amp;oe=68DDC962', 'profileId': 'pfbid0YWcbypZos2ruJHCUg7dTUsKZE5yQBKggGvd83DUXF53E3hy4WvMCGrPySMex3KzTl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=783805094058058', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4Xzc4MzgwNTA5NDA1ODA1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF83ODM4MDUwOTQwNTgwNTg=', 'date': '2025-09-04T11:27:37.000Z', 'text': 'Todo muy delicioso, pero si fuera mi esposo, yo lo jodo  por meterle cuchara metálica al sarten', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is leaning back with their arm across their stomach, their eyes are closed and they are laughing with their mouth open and their head tilted back.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.1997-6/518211936_24516522981278001_8348141740219951910_n.webp?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1-rKQBL3ZwMQ7kNvwFV-Vs5&amp;_nc_oc=AdlCE0I8TQLudN2D32Avxg6m-1kNB3SM7iXv53m2I1m7Hz-mgsGalJmB-z5LslbE58sBd2_YvyJJfTAx8NrdYoj1&amp;_nc_zt=26&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=MPfP6fGQntzgMIZapfPQKw&amp;oh=00_AfYhEdO-TWPk6kdLFNU5TQD_dcnxiKtY4IjqVbtui87dpA&amp;oe=68DF0FD3', 'width': 120, 'height': 120}, 'id': '771295242500132'}], 'profileUrl': 'https://www.facebook.com/monica.reyesbayona', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/431262292_7682107928468462_9055622178163831249_n.jpg?stp=c0.0.670.670a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=20M-yKUphlgQ7kNvwEaNaLe&amp;_nc_oc=AdnjpbdCAL8-qON60ARq353mjkOgZDMbxwQWohbuLPV8sKGjaUtj_zU26q7IclC4D6cldc10hg8jeo1tApRbi2Ry&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=MPfP6fGQntzgMIZapfPQKw&amp;oh=00_Afb3wG8few8vCYjvzVsRbD1I5iWffuuNi4o0rSz6C51TtA&amp;oe=68DF1AE2', 'profileId': 'pfbid02cN4KAVVdiQ7wQAumVQReMgwSrvmkvmQav9oBoYg138hkyV4eMBspHrHBvoefwXdXl', 'profileName': 'Monica Reyes Bayona', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwF2q-vd&amp;_nc_oc=AdmpFmYHwmxmmcLTuyyYgln7wc0c-4YXxlnAfG9mCn8UMVMgREnp5rR07VsRrSGVruU&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=F1SFVPYMX6dcnSq8GHSfuw&amp;oh=00_AfYaQxSJelJ6ymvaDl4fJNftcdV5jMv4Ogu7DjvZ4JxDoQ&amp;oe=68DDAF59', 'profileId': 'pfbid02Zmg7cBasWWZan1zCxNUX1c3d9NzFaSJwEVaSgsW1w65Tjr9PE7Q6HeckRSrtECVFl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589', 'commentUrl': 'https://www.facebook.com/reel/2341765776277589/?comment_id=1479205850067959', 'id': 'Y29tbWVudDoxMjExMjg5NzI0Mzc2NTk4XzE0NzkyMDU4NTAwNjc5NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTcyNDM3NjU5OF8xNDc5MjA1ODUwMDY3OTU5', 'date': '2025-09-04T22:24:35.000Z', 'text': 'No dicen que nunca se agregan los ingredientes del hogo antes de calentar aceite???', 'profileUrl': 'https://www.facebook.com/amarcano2', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/514266328_10237851862183796_5038999562725566103_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eypszKb9qEkQ7kNvwF7-lV8&amp;_nc_oc=AdlvRbRwVbeAQu6s_p-ssH9kDpkCkamKbYSY5WfmpwbYant7pgoGUlCbecKpwCPI9k1v4rqa9el1bEHR4PC44AdR&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=MPfP6fGQntzgMIZapfPQKw&amp;oh=00_AfaEQww_I-cTAEh7dbF9Z6gOWiRbPYwT0gep9SOxIAYOgw&amp;oe=68DF00D9', 'profileId': 'pfbid0WE2vh1xWfKgj7XBJUpvqQHp31LdwxNYo8vEcwSiLYyjKPZihzvwspzV3eHvXgmjnl', 'profileName': 'Adriana Esperanza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289724376598', 'postTitle': 'Huevos en hogao melosito con Parmesano Alpina ¿Quién se resiste?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/2341765776277589'}</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEyXAB2&amp;_nc_oc=AdkI9GtyQTZMlzlGp8CGyXWPWfjxT80ijNd-mBr3YAB-JZQ-YkebKyW9xGmuFrzWiAw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_Afb_tvElSJFd_iKqguj8eMw7-Z67iIGdRt54y-9ipnnsGw&amp;oe=68FF6B7A', 'profileId': 'pfbid02G7HSuAAsQLKb43RhBvTeumJvE14TR3EM44bL4dwPoZ3mVVN1qrNpwTngCF9cPv2el', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924', 'commentUrl': 'https://www.facebook.com/reel/801738662198924/?comment_id=1474890873700314', 'id': 'Y29tbWVudDoxMjExMjg5NzY0Mzc2NTk0XzE0NzQ4OTA4NzM3MDAzMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc2NDM3NjU5NF8xNDc0ODkwODczNzAwMzE0', 'date': '2025-09-18T17:05:55.000Z', 'text': 'wow', 'profileUrl': 'https://www.facebook.com/people/Gustavo-Gonzalez/pfbid0CZeFyzYWZFf1Ew3bYM5KXfrYw5AQyAxLnrESXsGBrMMD5DEfkMLhFSFgcXPnpnHel/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEWwu_D&amp;_nc_oc=AdkXvnYUrANTwFtbfRzVYWmkfTOHvTQwC2ReD-ur1OD1jNM2sZG2SZHEhnsbhORCcs4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfbMsWx4-OX_-Wyg4bq1vIDfv9TE8m-vMJRlg1M6jErwWg&amp;oe=6900BCFA', 'profileId': 'pfbid0CZeFyzYWZFf1Ew3bYM5KXfrYw5AQyAxLnrESXsGBrMMD5DEfkMLhFSFgcXPnpnHel', 'profileName': 'Gustavo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289764376594', 'postTitle': 'Arroz con atún gratinado con Mozzarella y Parmesano Alpina. Fácil, rápido y lleno de sabor. ', 'inputUrl': 'https://www.facebook.com/100064867445065/videos/801738662198924'}</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g96Sz2ZuFgkQ7kNvwERWkTy&amp;_nc_oc=Adls8WkBCVEteNWIPhPKHnK10nCC1N7cdpN8Y-HMKjPvC8s_c3Js12PC95GJIylpm0E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfYSCvcWEDLgXsCX2KX6EoJQzN5t4mRJxK9PqsSQ_vXqdQ&amp;oe=68DDA71B', 'profileId': 'pfbid02X3eYgvUzABSt7pZpXBW9Fm9zX4omPYvR9nPbZFua2nCggT3AgK75ZCxv7665Z6ZWl', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1572501114129661', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NzI1MDExMTQxMjk2NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTcyNTAxMTE0MTI5NjYx', 'date': '2025-09-10T23:41:21.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/blanca.rodriguez.580740', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/547473063_122136239834859651_8438534339891274087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6hvnG8u7QeYQ7kNvwF5Ns0x&amp;_nc_oc=AdmAAzf1VUo5hWbois53ruPNYWdvB7CXzySBhEV4DRii4Y6ho14dt1BQXC99pwSCMy-v7d4GxLdyO_d7IGNOXa6L&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfYsQ2Yp3fgJzBFSFXUEMgzLjh-BlhMNSZ1vjZ2vGQLafA&amp;oe=68DF30DB', 'profileId': 'pfbid0TW1MmkrdK9ScV1stD4VZBUYb178DkArWZ2ezQGQhJzNDMniUYhTswgA9jXDhogpkl', 'profileName': 'Blanca Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NrAhZBS5OGMQ7kNvwGpR_Tn&amp;_nc_oc=AdleQ-rr13mg8Vg16v_gJaRQ6Mll7anq1L6c33vkq9NNzpJ5K22xX9SGA50JTG_68AE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZXUJgV3zKU3KaE0OkA2KxwlgbWm6HSf2KF-fvL5_XPyQ&amp;oe=68DDC8EB', 'profileId': 'pfbid0YfZywCpE9jGRNBndYt8TaM8MyEoLEhoJzXsxRoBHhZxeGDv9BgdamapWPWDEMVSWl', 'profileName': 'Luz Artunduaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2117411405334621', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxMTc0MTE0MDUzMzQ2MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTE3NDExNDA1MzM0NjIx', 'date': '2025-09-14T22:31:16.000Z', 'text': 'Que delicia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/548267541_24138293749187001_8022129047603537479_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NrAhZBS5OGMQ7kNvwERNqzC&amp;_nc_oc=AdmAgigXmK8NPP9hf2xvJAyG98IyyVv-JlIrQ-l3TNCWK_w0AGzdKq4ahmI0QY5WzdQGQeJA1T68YTQWWxmRZwfy&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfY-WBMPScmvIAzztpvmQYI3HuVmwmEeLCG7Dt_oBxiJgA&amp;oe=68DF1A6B', 'profileId': 'pfbid02c34AZEArBKyQMrNXZBAeA5z65rLB74hMojvt9tQ6DtvKZ63YbSbFLs3WiQB9rwYFl', 'profileName': 'Luz Artunduaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid0275WgyATkwjHaFmD76aRmJPo9uezKRnkfZ1HwDjYBUbrKFgygagsDVVgn1cqt918ol/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CVD0Jr-dgkYQ7kNvwGnbq3X&amp;_nc_oc=AdklcZK-MVq5DrJwWRa6GnfzrBQD6WbL3fQ9CTBnmf6CB8CjiFLZBt10Vb4WWgtWdWM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZifeHCZYllinXcxrtp1dYfD1RQgzucbJ4LwhItwPeRtQ&amp;oe=68DDAB66', 'profileId': 'pfbid0275WgyATkwjHaFmD76aRmJPo9uezKRnkfZ1HwDjYBUbrKFgygagsDVVgn1cqt918ol', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1294505812464582', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyOTQ1MDU4MTI0NjQ1ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjk0NTA1ODEyNDY0NTgy', 'date': '2025-09-24T22:25:43.000Z', 'text': 'Bella', 'profileUrl': 'https://www.facebook.com/people/Yainer-Olmedo/pfbid033uyVMGCGmZfWGiXPe3f8a5Etg9cemcqQu6WkjhZrKA2Guu4R3YRSVrBezTiRZFUl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/454817947_122093663324478824_2100270673362783376_n.jpg?stp=c0.0.899.899a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CVD0Jr-dgkYQ7kNvwHlj3ni&amp;_nc_oc=AdmHerIBuXoH6JKu-LoTuUOrDULq3Inzo3Xlavpjnasj7w5Wqd6U12gq5SKYckwv9salaEW6PI-ylhWuoBN6Ti3N&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfYZTUiTVUd_Eoa0Ugn3geZPLALaLFyip9-tMmnFPiSr_A&amp;oe=68DEFCE6', 'profileId': 'pfbid033uyVMGCGmZfWGiXPe3f8a5Etg9cemcqQu6WkjhZrKA2Guu4R3YRSVrBezTiRZFUl', 'profileName': 'Yainer Olmedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9793,7 +9793,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=659141110565722', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzY1OTE0MTExMDU2NTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82NTkxNDExMTA1NjU3MjI=', 'date': '2025-09-26T14:47:53.000Z', 'text': 'Muy bueno', 'profileUrl': 'https://www.facebook.com/alexa.gomes.52056', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEDDeCt&amp;_nc_oc=Adm4JNr7zz0pCartGLpMoCnOPLGkZ7gKdTv1bTL4fSGbAsWmqcBBONAlGo7fLkuBHi4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afa1-l1nmE-5iy2MYvVSzSsHa6v9x1xNUFFwEKixGu3pmQ&amp;oe=68FF6B7A', 'profileId': 'pfbid0oNifqgSiQqAk8jCtaCqM5Ay3L6i5boRMWKLJCbYvBcqQsAfE71oK7MkwqgvoXEvcl', 'profileName': 'Alexa Gomes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=659141110565722', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzY1OTE0MTExMDU2NTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82NTkxNDExMTA1NjU3MjI=', 'date': '2025-09-26T14:47:53.000Z', 'text': 'Muy bueno', 'profileUrl': 'https://www.facebook.com/alexa.gomes.52056', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFy9cX5&amp;_nc_oc=AdmCbamVA-LfEhg7Fbv9_RM6GE7ozHHln-V2hccgbd4DNUwOv6I27cfwml6U-D6H5Ke5goAHY2j--sSkv47eWv3t&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_AfaE8MIy5q2Y5hH7jC-RQER4sFgR_F2WOTrxRX35t9xbPg&amp;oe=6900BCFA', 'profileId': 'pfbid02sEAP2MNYGGzTSCuvs7Jb8goPu8v2LTHoEX6YSMkNEzi2sCGsSRACwC5m9iKXGoErl', 'profileName': 'Alexa Gomes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid033zxEcaa5dHiBkjvrRjnqrPsAHwRu7hT7k5HR1vEnekVmy8jRe2PZTHhK4FGKHxj4l/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-x0nseZNdIQ7kNvwEl_zcL&amp;_nc_oc=Adn4gHmPxAK70GZg0KljSW_L--JjJIXIahuTcuBTlpm-xaU2vOhM1T_dMjrZYe4nIG4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfbyN_pGeY8NK5eWX6BYN7yyPaheeFQQb49SnQm_iZzfMw&amp;oe=68DDCBBA', 'profileId': 'pfbid033zxEcaa5dHiBkjvrRjnqrPsAHwRu7hT7k5HR1vEnekVmy8jRe2PZTHhK4FGKHxj4l', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=606021229258056', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzYwNjAyMTIyOTI1ODA1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF82MDYwMjEyMjkyNTgwNTY=', 'date': '2025-09-10T14:28:12.000Z', 'text': 'Delicioso pero con esta situación', 'profileUrl': 'https://www.facebook.com/people/Arnol-Jimenez/pfbid0yyMX8mNWxS9cjyyJDvNVPTXZXh15G39hmBi1YYXyb9eoT6pEWtS8jrVR4ZFV711Wl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/332197244_3269305206713415_1753288225487028786_n.jpg?stp=c0.18.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l0fX4jBsDTwQ7kNvwG-yAwr&amp;_nc_oc=AdkSLQ3KmgQC38SANpCfderPaIGZy-RCq9-09UfF_E2e49X-XC1GcVbC6NCR2D5sGr2ArdWVSBQBAXMGMbTIPAGA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfbM6f3NxGD93utseiH7jkf8j7AVobYyh4ZfTBSC-jriew&amp;oe=68DF1D3A', 'profileId': 'pfbid0yyMX8mNWxS9cjyyJDvNVPTXZXh15G39hmBi1YYXyb9eoT6pEWtS8jrVR4ZFV711Wl', 'profileName': 'Arnol Jimenez', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwEKLfPh&amp;_nc_oc=AdnyJGzGbclHHmS_nF_Vy6FMRN3YkV1upLyWbc39Ic_XsseCdkaU0mOqE-Xtw4jqj_8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afb5wpTpWyGX8O2vt6oVz9jpdeRPzQBptzv4GPVTZyYVaQ&amp;oe=68DDD264', 'profileId': 'pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1135238008609893', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMzUyMzgwMDg2MDk4OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTM1MjM4MDA4NjA5ODkz', 'date': '2025-09-19T18:33:12.000Z', 'text': 'Gracias por compartir sus recetas que delicia', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02LusysQ93WvaCeFddNM9xSoQLZvMZoAH7aj6c64LKueWzdEBHSVBHCaTLCdrSh7Agl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwGLT89q&amp;_nc_oc=AdlCNBYKvMG9KjS-czejeHEG7lqeoq4ywqOsfaPPc3FkESaGGAdiKdJewAIG6IyD8y13tMMZoA9bv_SMqj6BZXnc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfZByuOZVMCsOFvwVTF_HRVBMPuWquF6Pdjer2k8I5bBMA&amp;oe=68DF23E4', 'profileId': 'pfbid02LusysQ93WvaCeFddNM9xSoQLZvMZoAH7aj6c64LKueWzdEBHSVBHCaTLCdrSh7Agl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hz3wc2_dzx0Q7kNvwFgvlmu&amp;_nc_oc=AdnIm2n4vf3yVrBa4h_hQ2qJaxOIECg1flq5xEPZl8X8s1jbpaf8xkpg5pg1x_PGh7E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_AfZf2HZkk68-v98N1WNNxGuvremXyrYnEUDHCSog2HxvDQ&amp;oe=68DDD561', 'profileId': 'pfbid0RxTH16hENMUBdg8dmtpUNbPbYhNUBehwSjbShRNL4onADj8YXvkZe4whUPtfDMfNl', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2015518162528931', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMTU1MTgxNjI1Mjg5MzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDE1NTE4MTYyNTI4OTMx', 'date': '2025-09-22T15:41:31.000Z', 'text': 'super gracias', 'profileUrl': 'https://www.facebook.com/oriana.ruizalvarado', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/317819339_683325629849897_5136176369822157348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hz3wc2_dzx0Q7kNvwFbEKkx&amp;_nc_oc=AdkC1Q2loJVPRwuP7ILhYDXQUSu9Zenb312hxzJyOr8l7NpxX5Z3VV_kHMMRblYoD-_tMoU6ZFm-aWPczmTVpZeh&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_Afbmn-DyCIs6nGlN4pKzUHwaKPqfZYouhqay0B1p4r4EyA&amp;oe=68DF26E1', 'profileId': 'pfbid02VKwTd83rQ6HaFEU32yK7e2PAvWBe4ZbYWBFUQpnQ8teqwnyKrAX1F2HqUgp9qyNrl', 'profileName': 'Oriana Ruiz Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid0mT78cZ73cyThfAwPipSscFuzqEbwTdw8UwrnMtBEY7aBSfRg14DBYqyrzQVLZVWrl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cUuhIKu9gwMQ7kNvwHaxZAO&amp;_nc_oc=AdlhXPqDroDuF4_BuW_1UaFcjevmjx_LeATZWZ57A2lATN5wVCWwOoOv_s_2VL_9FQg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afb1s1VaYPUhYVPmpI3joe1cpYknOUT70dkvTG7A6rzByg&amp;oe=68DDB186', 'profileId': 'pfbid0mT78cZ73cyThfAwPipSscFuzqEbwTdw8UwrnMtBEY7aBSfRg14DBYqyrzQVLZVWrl', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1335159958334519', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzUxNTk5NTgzMzQ1MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzM1MTU5OTU4MzM0NTE5', 'date': '2025-09-24T19:04:31.000Z', 'text': 'Muybueno', 'profileUrl': 'https://www.facebook.com/people/Yanet-Mota/pfbid02qJYqoE2sUKch8oFo7hg1iEQLSXbXDyJJq6Mz1DHzQFzQzV9f7uRWLqtt2rScgBadl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/514249060_122100245858927992_2348501745124787919_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cUuhIKu9gwMQ7kNvwE3wRRM&amp;_nc_oc=AdmAA-NSamoOkEFkDpuiV65VUU3Xn6LhxQSfKZPNrKL8VytDmnaTJShkXkCGb4XHQDXxxk7PTSqzwUaj07CMYWyA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfaaXI7phWntBl5TeoeG7_ovTGragFEbsLbMrul8aNH6Tw&amp;oe=68DF0306', 'profileId': 'pfbid02qJYqoE2sUKch8oFo7hg1iEQLSXbXDyJJq6Mz1DHzQFzQzV9f7uRWLqtt2rScgBadl', 'profileName': 'Yanet Mota', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i6LOV4nXWj0Q7kNvwE4Ns3_&amp;_nc_oc=AdkEll4rXvDg6LhJAP4er04XYcH8IJaQvuk-kEA7d1D_7nC8Zri33tpxKjTNDNC1N7w&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=tsfFCbulzsL-albBLcaaHQ&amp;oh=00_Afa4sssn1TIpjCpG3uio1WbnAZ9WjtbGFCQbYX6wcQOyBg&amp;oe=68FF5D70', 'profileId': 'pfbid02kY2dfbmKALL6X4mcMGAohkxQDLAGe7py5YFUJn9AipmH592Efnch3viMiF7JryLpl', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1326310755875373', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjYzMTA3NTU4NzUzNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzI2MzEwNzU1ODc1Mzcz', 'date': '2025-09-14T04:11:16.000Z', 'text': 'Mi chef preferido tan bello saludos', 'profileUrl': 'https://www.facebook.com/petra.villalobos.739', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/160386293_488720805476178_841171261387215875_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=i6LOV4nXWj0Q7kNvwFHBtp6&amp;_nc_oc=AdmNBtYyA1mrIz4WTAjKIYvpwhKqXFVBLCV7dccbZXvbS6i8ja8RcZznb5CeDzSWNlzav1rJRdHajuss5ws4rM6K&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QfuRGhsQDd66obEWeijO5w&amp;oh=00_AfaEmGEcNs7xNuoudAsw8RFBv1nMNaF2TaJbLbXeu2P0rA&amp;oe=6900AEF0', 'profileId': 'pfbid0gzPSkS8xK4ckFVHTRDMMuV6AMzxwhPpfiEjd6zgN18Wwv6EisrVyRgM6rodoS2R8l', 'profileName': 'Petra Villalobos', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid02T3MjTrAMX6MGmffbBtH36824aQuk3r9nmEwDVHjCGX93Co6U3BCGCfA58kJHWvCul/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEDDeCt&amp;_nc_oc=Adm4JNr7zz0pCartGLpMoCnOPLGkZ7gKdTv1bTL4fSGbAsWmqcBBONAlGo7fLkuBHi4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afa1-l1nmE-5iy2MYvVSzSsHa6v9x1xNUFFwEKixGu3pmQ&amp;oe=68FF6B7A', 'profileId': 'pfbid02T3MjTrAMX6MGmffbBtH36824aQuk3r9nmEwDVHjCGX93Co6U3BCGCfA58kJHWvCul', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2001908703547116', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIwMDE5MDg3MDM1NDcxMTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMDAxOTA4NzAzNTQ3MTE2', 'date': '2025-09-18T14:43:09.000Z', 'text': 'Deliciosa me gusta', 'profileUrl': 'https://www.facebook.com/people/Lili-Ramos/pfbid0PViYYgXzfqnHxBUG2EFtLHu4nMYJV99ji71TUswup5TVmNkaB76mHiuaqVGWLHNSl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFy9cX5&amp;_nc_oc=AdmCbamVA-LfEhg7Fbv9_RM6GE7ozHHln-V2hccgbd4DNUwOv6I27cfwml6U-D6H5Ke5goAHY2j--sSkv47eWv3t&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_AfaE8MIy5q2Y5hH7jC-RQER4sFgR_F2WOTrxRX35t9xbPg&amp;oe=6900BCFA', 'profileId': 'pfbid0PViYYgXzfqnHxBUG2EFtLHu4nMYJV99ji71TUswup5TVmNkaB76mHiuaqVGWLHNSl', 'profileName': 'Lili Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid02P2xara5wwyiwvcPbZ4d2Ukghj7R3GgpKV6hVK8edf5DmphmpVZvKghiHBByKzcAql/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=amqVlVumdpsQ7kNvwGn18gL&amp;_nc_oc=AdkHWMUVReiIBifbT3rlohC6ouBn1aVgNT044LR0BvGLn8P8wsIV4BK7vh-Ox3wufgs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbOL6kqz2ikDBzT_5U3YYddP7FPMLVY5tNU1KKCTq-5uA&amp;oe=68DDC2AD', 'profileId': 'pfbid02P2xara5wwyiwvcPbZ4d2Ukghj7R3GgpKV6hVK8edf5DmphmpVZvKghiHBByKzcAql', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1370298994451251', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzNzAyOTg5OTQ0NTEyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzcwMjk4OTk0NDUxMjUx', 'date': '2025-09-23T16:44:24.000Z', 'text': 'Me fascina  sus rec', 'profileUrl': 'https://www.facebook.com/people/Lucia-Fern%C3%A1ndez/pfbid0KVKPwQTb6hfKfAfaquVmUSYu8qbCfAbGCDWfF47M1356hxXcsD5XnqZH7Krx726ml/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/435387940_122105735774263499_419075632684896851_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqgUNQji_J8Q7kNvwGQtjbz&amp;_nc_oc=Adm6q64_B3hAxXX1KpNvmC4KopvHwLtEz31goJ-nOnmgKSlYA0-bYewVFx3otg33N3M&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfYWW3mI4BODNtLO8arslXoIYvq9DPfMTgkFkOOuE9hzIw&amp;oe=68DF142D', 'profileId': 'pfbid0KVKPwQTb6hfKfAfaquVmUSYu8qbCfAbGCDWfF47M1356hxXcsD5XnqZH7Krx726ml', 'profileName': 'Lucia Fernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10225,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid02KZ2g3qafPjUEcGU4MwL3v3dBPhR8ePocdFnX2SYGTTcyrvZdBGjSPpAcDQQ3iZgJl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEtYaES&amp;_nc_oc=AdkYui9S1sc7_wUz-juubjoZcldN-6UFjFZkWic_rUw5nUC7FVCvz3z4jNaRK1xeBR4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYe8rfuB0FTJYOFwqZKIOv2o5nnQ1WrZMaq4f9tcYEqMA&amp;oe=68FF6B7A', 'profileId': 'pfbid02KZ2g3qafPjUEcGU4MwL3v3dBPhR8ePocdFnX2SYGTTcyrvZdBGjSPpAcDQQ3iZgJl', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1322905452676461', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMjI5MDU0NTI2NzY0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzIyOTA1NDUyNjc2NDYx', 'date': '2025-09-20T17:16:06.000Z', 'text': 'Muy delicioso', 'profileUrl': 'https://www.facebook.com/people/Maria-Corpus/pfbid0FXRxa2P6ijZ7WzaSMbQFugEBA3uoKAWCMijqGoK4LXpEChqapMzNnXRCi9iDQbGil/', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEW_are&amp;_nc_oc=Adn8qVYB08HfRS2BfUSKymSumMW8nsOP01bI_7e40wesrlHxYJYcGayVAOyGjoT-jEk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfYX1kd5qadz04qvdo5p94vjChjHGS_3HweQW6SEEh8KSA&amp;oe=6900BCFA', 'profileId': 'pfbid0FXRxa2P6ijZ7WzaSMbQFugEBA3uoKAWCMijqGoK4LXpEChqapMzNnXRCi9iDQbGil', 'profileName': 'Maria Corpus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1516380633045485', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1MTYzODA2MzMwNDU0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTE2MzgwNjMzMDQ1NDg1', 'date': '2025-09-25T23:20:36.000Z', 'text': 'Que deliciosa reseta.', 'profileUrl': 'https://www.facebook.com/liliana.porras.728521', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406886152_372916905138379_1079989097024052189_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AEk5blnsmfEQ7kNvwFcTJtn&amp;_nc_oc=AdnJqiS0-SwL96KRd7lbHgHUftXL72aFGWajO__lRLAAigzVRck5NhsP6O_r3arfPDc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbbRNNCVKYJkI-wW70LgRZmZDZUKYcmmag3-mjtPEM2Vw&amp;oe=68DDADD9', 'profileId': 'pfbid0gPzBAbPwshLpXFaeh6tuqBEKUj8r3cS5XQk3dZj8kBVQicgz9jdPGqu1jZnsHonQl', 'profileName': 'Liliana Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1516380633045485', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1MTYzODA2MzMwNDU0ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTE2MzgwNjMzMDQ1NDg1', 'date': '2025-09-25T23:20:36.000Z', 'text': 'Que deliciosa reseta.', 'profileUrl': 'https://www.facebook.com/liliana.porras.728521', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/406886152_372916905138379_1079989097024052189_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VVoPQ67IJMAQ7kNvwEXCuLH&amp;_nc_oc=Adm6PWhcbzJihzfxxGIdZJfXvV8IIWcdadU99vYw1eaTa2jVRaMWOHq7r4mPUu9_fi4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfYwX-xW-x2n_pCr5yO1DesmCK-xXKjnLbv8xqRKtyqx5g&amp;oe=68DEFF59', 'profileId': 'pfbid02jmUMnckZuWzg76PyUD4X8cuAHaD2Qhnyy6TNKYc6bHp2BvF7ge9TdZkAybCZxojUl', 'profileName': 'Liliana Porras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Re8bYDXiJRcQ7kNvwGG_8AG&amp;_nc_oc=Adn3_cjEijRyXCRi_mu6EG8tKeI-VhMrWn4wCykhCfRY3QdO4dPWg2SmTigMIdkwmEY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfYhMocREGlscq2abhA-9dQZ5Ufbp-s6GW-JWT9pVtj3DA&amp;oe=68DDB37A', 'profileId': 'pfbid0JnUMu8ugDE5Gf3E8YxBpdHP3G5NprrDMCJKfdxnZV8YFaCdvbMr7zkiN51kF46Lml', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4073254739609144', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwNzMyNTQ3Mzk2MDkxNDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDczMjU0NzM5NjA5MTQ0', 'date': '2025-09-25T00:11:27.000Z', 'text': 'Q delicia gracias x compartir', 'profileUrl': 'https://www.facebook.com/doramaria.posadarendon', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/410472312_1022513705651663_8101975628663232311_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Re8bYDXiJRcQ7kNvwFIP8eF&amp;_nc_oc=Adks1FXOd6hiotbETCTWmWQjCZkoANgIItILzLtDQdJ8bZcD0PLx4UGrQDg_b3yT50w&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfYetk0Vdl0qYk57w96CO3AvRHye_PwmWECjVjTGEj_TbA&amp;oe=68DF04FA', 'profileId': 'pfbid02N9xYXAGJEndDrcutrYuugoDzZ468Ze7LvA49ynVddisyisuypzxb5YLwJWNVL7HCl', 'profileName': 'Dora Maria Posada Rendon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10387,7 +10387,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RJ-F5y_BIcAQ7kNvwHMZPkD&amp;_nc_oc=AdkjPF48Amyuxb2U7txFJcbWrLoNT1fnfywq3CJR2HfV-ptwE4EeqAMjpuES6SftFH8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbiPp1EVfYILAeP04idYPcOuoZXTUJhrvGaWoQ2xkxvEA&amp;oe=68FF707C', 'profileId': 'pfbid0359nktcU9nodbPgMUmCX7qPp48XBnwowubWJoGU4q1pXdVcb3kDmtiTCVNoRmD3q6l', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1679267353049259', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE2NzkyNjczNTMwNDkyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNjc5MjY3MzUzMDQ5MjU5', 'date': '2025-09-12T20:09:12.000Z', 'text': 'Delicioso gracias por compartir tu conocimiento 😘🙏😘', 'profileUrl': 'https://www.facebook.com/mabel.medina.694231', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/73497862_107794943979106_7693764711929610240_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RJ-F5y_BIcAQ7kNvwHbR49k&amp;_nc_oc=Adl2iMUGSDRNWTPZpbhlofqt7ND_x65E-gICDXinFJxMJVIo0i5V33hqmqiEZl-7ETw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfZxCqFBMYhMnX_Zx6z4Xzm8dYslF4jTUYYYF3WQ9WCeSA&amp;oe=6900C1FC', 'profileId': 'pfbid021c9ZySqnwfgQ8pCNRDiEsjPZjrdtr28qrFrzoDdiCkuYDqnwF4AJtaPpDmrXsxctl', 'profileName': 'Mabel Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10413,18 +10413,18 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Delicioso</t>
+          <t>Me encanta verte comer aunque te quemes jajaja ¡ que delicia!</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45906.13795138889</v>
+        <v>45928.13958333333</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>45906</v>
+        <v>45928</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>03:18:39</t>
+          <t>03:21:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10441,7 +10441,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwHImn1u&amp;_nc_oc=AdmUM3Z_tB8UaKYnxKUc1To3lyZOSagcuMeM0EWNnEMQy4MLEE48TJLO5ydWoaPkEcU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbiDOwnX2aAlYlcUN7_PXWD2NV4jzLok9_WffDjWLivxg&amp;oe=68DDDC8D', 'profileId': 'pfbid02p2qEyBwtyvAmokJx14S13EgvaJ9KPyFFQ4LPdiwTcsY8JZjMST1E7CjAqzxvjbvPl', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1821006618490196', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MjEwMDY2MTg0OTAxOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODIxMDA2NjE4NDkwMTk2', 'date': '2025-09-28T03:21:00.000Z', 'text': 'Me encanta verte comer aunque te quemes jajaja ¡ que delicia!', 'profileUrl': 'https://www.facebook.com/ruth.narvaez.127', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/295682208_2350110005140572_8850125354528740992_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qX5MgHGp62AQ7kNvwGFhMMZ&amp;_nc_oc=Adk5v0AfabHZgfraTpB4JSxVPHjlhLBycICfYx7G85FvaGJQVe2Ms1zZFiMgnGY7D7E&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfZbYZ5yy4V2QX0JO3p9Mjs2m0rRxFZ0QcK3f3N3tRfmNA&amp;oe=68DF180A', 'profileId': 'pfbid0zvccqKGUiGAhxBSn61YtkmAAksrcKpUkiikKpANxnraeSfQ3Jeav7vyhradu9Jjpl', 'profileName': 'Ruth Narvaez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10467,18 +10467,18 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Gracias por compartir.</t>
+          <t>Delicioso</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45904.96579861111</v>
+        <v>45906.13795138889</v>
       </c>
       <c r="H195" s="3" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>23:10:45</t>
+          <t>03:18:39</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10495,7 +10495,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Xmr1ltupWX0Q7kNvwGdKtGj&amp;_nc_oc=Adk6soBSvh9C-0p4Ufwjuwngol8_ModmmjuJNEbNR5RF4vWAKT19JKDAsIfMgNoz95k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfbVhv7s8kRZIVqz1o89mcpCpnGBtSrZAMiFeUJ20CWxiQ&amp;oe=68FF6026', 'profileId': 'pfbid0wUeg3m4wBozKvaiijiWoBksvo7dmng7PfWrdt1zhugcUMmLvCKEacLvcJoxyqqkGl', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1115809679988327', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTU4MDk2Nzk5ODgzMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE1ODA5Njc5OTg4MzI3', 'date': '2025-09-06T03:18:39.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/amandamoreno.mateus.9', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/421499556_1472717983459255_8508853936599469848_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bqWV7ckHXTgQ7kNvwEm1Z3S&amp;_nc_oc=AdlRULIkGDjBDgDN4RhB5caP64OV7M2ZABI4PMfUgC0DRWryEat2Grplu17-vYXNJug&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_Afbp6iYX2CT3f6jSwAeeknsbVsaVx7yZj-bYKGOxpTZkLw&amp;oe=68DF2E0D', 'profileId': 'pfbid0k1EXVNkLJuWtVbBfWdUJhoB25pXeojZitc59zvMZAnJkNV18JjbjRUFGDQd2RNkZl', 'profileName': 'Amanda Moreno Mateus', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10521,18 +10521,18 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Deli deli 😋</t>
+          <t>Gracias por compartir.</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45917.71725694444</v>
+        <v>45904.96579861111</v>
       </c>
       <c r="H196" s="3" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>17:12:51</t>
+          <t>23:10:45</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10549,7 +10549,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwwKdYU-gEEQ7kNvwGZMp33&amp;_nc_oc=AdnYkgbvfzuCFeQBR93DzbKoA4GGhP9jnvz_uZV0OkkFyR3oZcRFxKXaXtYP33q5HfM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_Afa5MqvNzYqG2d42BR37Dx6rnkICrUkm5DV2SK4NoVw_1g&amp;oe=68DDD7DC', 'profileId': 'pfbid02btD3gLkuJQXddDV395yJPpqQRCHZm8xGGxdNeY76yRaQFrutgXhphjVPen2csQX5l', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1330771982095875', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEzMzA3NzE5ODIwOTU4NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMzMwNzcxOTgyMDk1ODc1', 'date': '2025-09-04T23:10:45.000Z', 'text': 'Gracias por compartir.', 'profileUrl': 'https://www.facebook.com/albesa.londono', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/96413840_2508018885965447_4716011624450752512_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Xmr1ltupWX0Q7kNvwFFIuyT&amp;_nc_oc=AdmSQzQcIYTKLhqMUEQ4m_h-LG3y3vwCmeUIyv0Mmx2uLha-3aBOWLMlqUP6OK4ISog&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfYXHG6a5Pru2HxcIc_4qhBNhIL-v7HXMIFow5W9vBF5Xg&amp;oe=6900B1A6', 'profileId': 'pfbid031L6PERzm3EPhdjKe6ANNwqbJWPKzc7VkeA69yemDezECoLtD8mnbNAyope7VRhTul', 'profileName': 'Albesa Londoño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10575,18 +10575,18 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
+          <t>Qué delicia.gracias por compartir sus recetas 👍</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45912.0812037037</v>
+        <v>45927.87905092593</v>
       </c>
       <c r="H197" s="3" t="n">
-        <v>45912</v>
+        <v>45927</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>01:56:56</t>
+          <t>21:05:50</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10603,7 +10603,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwGFMRua&amp;_nc_oc=AdkHKbPzu1ZluW_SdPhvWqEJV_m_eiNHh5y-U-mXv5_2DPHFdgXd8HvyN5whdaWqi4w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfZrctA793nbPSSnHInUmdCTQBQFfryLxsH51U1c-ISpdA&amp;oe=68DDD264', 'profileId': 'pfbid0H4SGgjDDfVsGJVQh9Hyudjkr2WLg4ab776D5NmAeVy8gzcknuEAqbLygcCEi8jgnl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1472850187304664', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE0NzI4NTAxODczMDQ2NjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNDcyODUwMTg3MzA0NjY0', 'date': '2025-09-27T21:05:50.000Z', 'text': 'Qué delicia.gracias por compartir sus recetas 👍', 'profileUrl': 'https://www.facebook.com/mariamercedes.yepesalvarez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/480705779_1697423727508979_689591891031469489_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VuZpFkcaZlMQ7kNvwEjiRDD&amp;_nc_oc=AdmuNCFUEnkwX5FxsDc_ZIXCW9_7ePlhfmoXYovoeW9kRj8U9dWI2aSLLyI43-kgHmA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfbpJM2k3uoMjkWwe7R9izMHYC-xwTpwfuSdKIMVQX7Pvw&amp;oe=68DF2D90', 'profileId': 'pfbid02yodhAGfK4Pn3C3HJkGMhYBKhTYerDmQZLWR4X2tVzJxWxKry4ANWmuGTCMDNerpul', 'profileName': 'Maria Mercedes Yepes Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10629,18 +10629,18 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Se ve Deli 👌</t>
+          <t>Deli deli 😋</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45926.01299768518</v>
+        <v>45917.71725694444</v>
       </c>
       <c r="H198" s="3" t="n">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>00:18:43</t>
+          <t>17:12:51</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10657,7 +10657,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2210500276094450', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyMTA1MDAyNzYwOTQ0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjEwNTAwMjc2MDk0NDUw', 'date': '2025-09-26T00:18:43.000Z', 'text': 'Se ve Deli 👌', 'profileUrl': 'https://www.facebook.com/gloriapatricia.torresmejia.7', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/32741996_1156586584482993_6833877341186293760_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SrviBe1kNegQ7kNvwHMkZ_h&amp;_nc_oc=Adk7dZGhp0AaS2vCH3Bj9BNLxklEbRmlQ_QKrrUL8oBsZLLAUvN6FSeadXO-nN0eQjc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=r3qRp2wOI4MxXDV7-ayKWA&amp;oh=00_AfZJDVt6ceCytHf-lH5fSg8hrr9PlqwQQZcPVumK4qw0cg&amp;oe=68FF726E', 'profileId': 'pfbid02t6BQuwQDcwwFrqSmrMmGdJdhpz1JkqFRRV7E1ep7kN84ZLmUS1gNFy8m1k8F16Etl', 'profileName': 'Gloria Patricia Torres Mejia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1117623100337883', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzExMTc2MjMxMDAzMzc4ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMTE3NjIzMTAwMzM3ODgz', 'date': '2025-09-17T17:12:51.000Z', 'text': 'Deli deli 😋', 'profileUrl': 'https://www.facebook.com/nrodriguezlozano', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/328154076_926310678366320_5691643513494680242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QwwKdYU-gEEQ7kNvwG8B0DG&amp;_nc_oc=AdkwbPgFq4d1F2m8PdEzY41JGff2rNFlsXtSloxcXzHE_ZX4u_ztZNa5-0PHySbpWpA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=HqQMyafZu5BJFYZBdu3Izw&amp;oh=00_AfYiYX8wTR3CtQT7FKWvSQv9q_sgGeJQYB_ezisKho5x3g&amp;oe=68DF295C', 'profileId': 'pfbid0XrcLCXZLdfJoa1FpbXLc8xeDJuwKoceeF3QhGTxEo6yjjh9CASaGBLLJCiyTos1Rl', 'profileName': 'Nora Alicia Rodriguez Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10683,18 +10683,18 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Queso, queso, queso, y más queso....gracias...yo paso</t>
+          <t>Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45925.89454861111</v>
+        <v>45912.0812037037</v>
       </c>
       <c r="H199" s="3" t="n">
-        <v>45925</v>
+        <v>45912</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>21:28:09</t>
+          <t>01:56:56</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10711,7 +10711,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24883620281246745', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0ODgzNjIwMjgxMjQ2NzQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDg4MzYyMDI4MTI0Njc0NQ==', 'date': '2025-09-25T21:28:09.000Z', 'text': 'Queso, queso, queso, y más queso....gracias...yo paso', 'profileUrl': 'https://www.facebook.com/adrian.herrera.3402', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEMTZbT&amp;_nc_oc=AdnRkx7fsin-rcbsYvnmQwQW_twwitRpoB4LmbqrLyFL2xhq89cKf5P0SR0GO0opiMQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfZhVbVqMH5KLX6IjHfB6xZ4JjNoZiBa-PonxvCSd_PMJg&amp;oe=68FF6B7A', 'profileId': 'pfbid0oMWzdT9CCaKYSXuNuZkMfai7Rcx7CBnyXkcKQmSSBWvrwaFPKswRGnX4dZmyBV33l', 'profileName': 'Adrián Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=799108222808229', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5OTEwODIyMjgwODIyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTkxMDgyMjI4MDgyMjk=', 'date': '2025-09-12T01:56:56.000Z', 'text': 'Que delicia 😋😋 gracias por compartir que Dios te bendiga grandemente', 'profileUrl': 'https://www.facebook.com/people/Diana-Salcedo-Medina/pfbid02LusysQ93WvaCeFddNM9xSoQLZvMZoAH7aj6c64LKueWzdEBHSVBHCaTLCdrSh7Agl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492373191_2721585598231942_2221511824939695860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=K7hil8ivXwkQ7kNvwGEqCm0&amp;_nc_oc=Adl7uY10awUyFdzjD3WVENyVmGmGhZWMsgqXIVLZTryqTQrihEuhXQGBIOwB_nUY378&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfbOlLOyiNl_1sb4sdMTTYl-91TiyBKhtZhxvwp_ZRlxDA&amp;oe=68DF23E4', 'profileId': 'pfbid02LusysQ93WvaCeFddNM9xSoQLZvMZoAH7aj6c64LKueWzdEBHSVBHCaTLCdrSh7Agl', 'profileName': 'Diana Salcedo Medina', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10737,18 +10737,18 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Que ricura</t>
+          <t>Se ve Deli 👌</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45917.82965277778</v>
+        <v>45926.01299768518</v>
       </c>
       <c r="H200" s="3" t="n">
-        <v>45917</v>
+        <v>45926</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>19:54:42</t>
+          <t>00:18:43</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10765,7 +10765,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=I50IlRtyosMQ7kNvwEkekUC&amp;_nc_oc=AdlPTYWDe66pK-KdyDptP77YSHEfGH842W0nwByrJ4ipHPOjPL5j6A4RxKOO5KtlJzM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZvmAP9g_vzLAbdJzx05TpJ6kOoBex__GpbKdYGKVu4uQ&amp;oe=68DDB501', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2210500276094450', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyMTA1MDAyNzYwOTQ0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjEwNTAwMjc2MDk0NDUw', 'date': '2025-09-26T00:18:43.000Z', 'text': 'Se ve Deli 👌', 'profileUrl': 'https://www.facebook.com/gloriapatricia.torresmejia.7', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/32741996_1156586584482993_6833877341186293760_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SrviBe1kNegQ7kNvwEOb6pu&amp;_nc_oc=Adm33tC4N7YJiZ8c2vQTv6VZuB9_CTtZjrkHfG2qGR7Mdvdx3MIUIC7ZOV1yrQfLFNY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfYiebh3V0S13SZyA2tMasR0fchpDE0BCCZnu4KMq3fi1A&amp;oe=6900C3EE', 'profileId': 'pfbid0pYYDzmmrmajfpszMmezsFafKXnYB8LdrugVC7C5cFPxdky12Krae6JVueoyUTY2Ml', 'profileName': 'Gloria Patricia Torres Mejia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10791,18 +10791,18 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Ese cucho cocina bueno</t>
+          <t>Queso, queso, queso, y más queso....gracias...yo paso</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45923.72631944445</v>
+        <v>45925.89454861111</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>17:25:54</t>
+          <t>21:28:09</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10819,7 +10819,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EuMrNbPBt2AQ7kNvwFaWTKg&amp;_nc_oc=AdmwzPu-cqvF8MZqUsD_w0jIDs8fdQ_bUoZJdgmTD-54pAPwP3VQ1eagNkPrHF7AThI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZMrS2aj2uA6honc54sh0_KbP7W9TFp-lx0QTW0DTLymA&amp;oe=68DDD605', 'profileId': 'pfbid034bTqad4rzdNLzqB1NiYUbJ22Dum51rHA3sAVZqRa3LuCJ6UUx5KRRzuJDSb9hKL6l', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24883620281246745', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0ODgzNjIwMjgxMjQ2NzQ1', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDg4MzYyMDI4MTI0Njc0NQ==', 'date': '2025-09-25T21:28:09.000Z', 'text': 'Queso, queso, queso, y más queso....gracias...yo paso', 'profileUrl': 'https://www.facebook.com/adrian.herrera.3402', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHfTu4z&amp;_nc_oc=Adl-tZCcbdkWUsxyxKyzMgM7q7H8FjgXvjiKTglzXyTZWUQ_-lEcuUcbRj_igMcb6oo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfZZ5kpx7GHCvP8QLA1CmgzdfF42e6_xXqz_9p2SdSq41g&amp;oe=6900BCFA', 'profileId': 'pfbid02sCxhp85248hcZTMGfX5jHn1EwiXFZeuDMF9PR1xNoj3GrMD2WGRnskUC4MxkJKBql', 'profileName': 'Adrián Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10845,18 +10845,18 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Hummm con queso 🧀 hasta un pan tieso!!!</t>
+          <t>Que ricura</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45926.72167824074</v>
+        <v>45917.82965277778</v>
       </c>
       <c r="H202" s="3" t="n">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>17:19:13</t>
+          <t>19:54:42</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10873,7 +10873,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1866667430892057', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4NjY2Njc0MzA4OTIwNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODY2NjY3NDMwODkyMDU3', 'date': '2025-09-26T17:19:13.000Z', 'text': 'Hummm con queso 🧀 hasta un pan tieso!!!', 'profileUrl': 'https://www.facebook.com/enelia.marlesparodi', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/485524911_9404635272935698_2624890956971738038_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MeETcqc_iFsQ7kNvwHLKnVV&amp;_nc_oc=AdnemNNlYNwruGW2cP_QF5vyISmzhHvjajr14zCub0a2YUqGXP_ENFhbLpqXy3Ex0mY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfalG4gJcwQh7PU3snRaj_sZt7jDO9MUN61WlxMJ27hc3Q&amp;oe=68DDCD80', 'profileId': '100001679553754', 'profileName': 'Enelia Marles Parodi', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=776639118317009', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3NjYzOTExODMxNzAwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzY2MzkxMTgzMTcwMDk=', 'date': '2025-09-17T19:54:42.000Z', 'text': 'Que ricura', 'profileUrl': 'https://www.facebook.com/maria.idalia.ceballos.valencia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/273214214_1390613261359196_5413201194237688258_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=I50IlRtyosMQ7kNvwGzDfDT&amp;_nc_oc=Adm-1ioj85-In7C6RkJicJv1R5-tx1ULkIUqDWAdsDg3QNtbU5rZA0C7ZDStheaqNqo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfbkqbQhywMF_aVy6dJAKDV4Jo6_dZRHC0PoIhdVe5HAzg&amp;oe=68DF0681', 'profileId': '100012316057158', 'profileName': 'Maria Idalia Ceballos Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10899,18 +10899,18 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
+          <t>Ese cucho cocina bueno</t>
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45915.93363425926</v>
+        <v>45923.72631944445</v>
       </c>
       <c r="H203" s="3" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>22:24:26</t>
+          <t>17:25:54</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10927,7 +10927,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SE-hJZnDB5IQ7kNvwEsEJbL&amp;_nc_oc=AdmufXY4wyiVixeaaoGdFq4muvpkINHGzGn_ZSZnNkTbhZ7qMkVWXAhA_ar6gbIUBww&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfaX-pDYy0EimR_rgHJhf7wSbRYiJK1capIGdXz6518Qyw&amp;oe=68DDC1AD', 'profileId': 'pfbid02YaYaHtqXrRD9TPE2cL3VLPCyRBYZeBftdAyXezLCH173verfSvmG7MWgs5NNoSnvl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=789154277093723', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc4OTE1NDI3NzA5MzcyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83ODkxNTQyNzcwOTM3MjM=', 'date': '2025-09-23T17:25:54.000Z', 'text': 'Ese cucho cocina bueno', 'profileUrl': 'https://www.facebook.com/ricardo.bonilla.5209000', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/544974941_2646455292367093_1473121338788742085_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EuMrNbPBt2AQ7kNvwH4y-FZ&amp;_nc_oc=AdmKqYxjxDdLikREjpTNWjIQilEamHyc6FexOG1aGI1jYp1gIJN_i_3LHVWJDwVJcLI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfYT-p8DlKe7LcDBnRloi1fKqFXFITAfL0h6mhaHuDkmvA&amp;oe=68DF2785', 'profileId': 'pfbid0213pefTSW9G5oZZQ3Lw4GWxvHbyKPJPfk2RvEHnCF1NF8CVZ4EDtLkndLTrSjkofvl', 'profileName': 'Ricardo Bonilla Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -10953,18 +10953,18 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Mucho queso</t>
+          <t>Hummm con queso 🧀 hasta un pan tieso!!!</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45916.98717592593</v>
+        <v>45926.72167824074</v>
       </c>
       <c r="H204" s="3" t="n">
-        <v>45916</v>
+        <v>45926</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>23:41:32</t>
+          <t>17:19:13</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10981,7 +10981,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=l_hycE0C_BcQ7kNvwGaZylz&amp;_nc_oc=Adn-vHzH98t_T-4CooYeJv0-oxH81KRFZDChRyHKwLgFwT2u5ESyE5OGNK9RjwtNH70&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZnO2EBcUBh7JEU_rbOPFUPWt78swSjitpjRW5tPeY8uA&amp;oe=68DDDEC6', 'profileId': 'pfbid024ZPXLkzCwvCLuq6tFBsYAHFrW2hwgfyh4csuPYkMWH4oRjNb7pYnbfGDPjGGwUkxl', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1866667430892057', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4NjY2Njc0MzA4OTIwNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODY2NjY3NDMwODkyMDU3', 'date': '2025-09-26T17:19:13.000Z', 'text': 'Hummm con queso 🧀 hasta un pan tieso!!!', 'profileUrl': 'https://www.facebook.com/enelia.marlesparodi', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/485524911_9404635272935698_2624890956971738038_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6FSQdCH0fMsQ7kNvwF8vBD0&amp;_nc_oc=AdmS6idXzf92sgrXJVvW8jwMnEr4Gqc1kCDm1jXy4XmAPjvUe928tBaRHKxB7dk-sI4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfawlGGGDsN_oHXIYZXW0AyY2cVqxLwT3cv_MRM6hJGT8A&amp;oe=68DF1F00', 'profileId': '100001679553754', 'profileName': 'Enelia Marles Parodi', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11007,18 +11007,18 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Que deli</t>
+          <t>Toca con el queso doble crema 😃🤪😃 y ya</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45923.67105324074</v>
+        <v>45915.93363425926</v>
       </c>
       <c r="H205" s="3" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>16:06:19</t>
+          <t>22:24:26</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11035,7 +11035,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MQCVpMikDlMQ7kNvwHJJJ8u&amp;_nc_oc=AdkB-UltoDlNUcnXQVorjx9AiT2ag5Ruuvq5Vq3iAIcALXU3YObTOZilRtp7ZfLY0_c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfbZyrbjtdjFR_Aqlo0PnKpSHGSyzc0IKrDhua1ONXvolg&amp;oe=68DDADF9', 'profileId': 'pfbid0H6HxCB3PSqA76PFQD3UPb4PL3ZvTLbEoKzQBSnPbnTEV4LnRiBzs3wJeXTUxk8RPl', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=4019778188273231', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzQwMTk3NzgxODgyNzMyMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF80MDE5Nzc4MTg4MjczMjMx', 'date': '2025-09-15T22:24:26.000Z', 'text': 'Toca con el queso doble crema 😃🤪😃 y ya', 'profileUrl': 'https://www.facebook.com/luisenrique.quinteropascuas.9', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/366720120_1681119255695761_8859679687019927741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SE-hJZnDB5IQ7kNvwEgZ7aj&amp;_nc_oc=AdltmiVoaHLFTvJTSc_bLcAopT47mlfb8zBKHm5cN-kufAC7YSpq8IFHdfblkaDZdGE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfaBy40h2Gu14va9YJ-l1Ib_mTx_pX53gFAqvb1XOwgkAQ&amp;oe=68DF132D', 'profileId': 'pfbid0UYwrp5dyBRSpFNuVBkg4RLSUJD2EBrFyfFok1U92y9MJgnWHSK7wFNhMaxTVPUwGl', 'profileName': 'Luis Enrique Quintero Pascuas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11061,18 +11061,18 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Q rico</t>
+          <t>Mucho queso</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45917.98428240741</v>
+        <v>45916.98717592593</v>
       </c>
       <c r="H206" s="3" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>23:37:22</t>
+          <t>23:41:32</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11089,7 +11089,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ds2eU7UugpYQ7kNvwH9kU0h&amp;_nc_oc=AdmaaJlzZo9ggKpOs5NHWh5TPjqWzkG8Atxx6ZgWHJLySrOpR4HiBfWb045yCNcnzS4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfYYZUIcSwiF3ybmH-AEFWgHB6p7ReQDuliP1H8erDDM_g&amp;oe=68DDC140', 'profileId': 'pfbid021ibEgw6J39aazJSNSWb7ubJFeHyf7U29pejMCscc5ztvJcSzS1HNh6GXMxNwpTp4l', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2561556700847985', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1NjE1NTY3MDA4NDc5ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTYxNTU2NzAwODQ3OTg1', 'date': '2025-09-16T23:41:32.000Z', 'text': 'Mucho queso', 'profileUrl': 'https://www.facebook.com/sebastian.noriega.parra', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/444769835_122116674512289772_5235969321955325455_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=P-NPn4onkNYQ7kNvwEtFpdu&amp;_nc_oc=AdnfjkzPdGm_8B6oBvSnrPThzsCfsnNh57ENgZ6K-hQt_h0iUTRRL8NHPMugz0QdRsc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfbXkD9XtcFNYXuTelq5BrVvuddyl56TPfG1Q3HNDhFqLw&amp;oe=68DF3046', 'profileId': 'pfbid037vshxnLpyRNG5yWMRCLKFSWXQRsw1EYfeqQqo9LnNdjPbfFwtbzYeUA9esV7Vygil', 'profileName': 'Sebastián Noriega Parra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11115,18 +11115,18 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
+          <t>Que deli</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45914.97866898148</v>
+        <v>45923.67105324074</v>
       </c>
       <c r="H207" s="3" t="n">
-        <v>45914</v>
+        <v>45923</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>23:29:17</t>
+          <t>16:06:19</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11143,7 +11143,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6f8MaJtipLYQ7kNvwF8O07H&amp;_nc_oc=AdnOGLrQemHrDquGQlRhQ656tCzBv0oWqaFUZcv0ZtIRZSNeBuJ4RWywhT3-NmHinSM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_AfZYckjgTr6Vjp_PzJgUglBaGjZROwCCME1UkwAS44JnlQ&amp;oe=68DDBE36', 'profileId': 'pfbid0oEJwN5L4vutRQbeTgSueP6XUNEnCJiQ7TKR7wMw5krxupjswynyfAt38Dfhhoe54l', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2155799204907454', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNTU3OTkyMDQ5MDc0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTU1Nzk5MjA0OTA3NDU0', 'date': '2025-09-23T16:06:19.000Z', 'text': 'Que deli', 'profileUrl': 'https://www.facebook.com/nhoraluz.cruzriano', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/374514049_1597017670704100_505697020428401880_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=H5Em3c14AMsQ7kNvwHlKWDa&amp;_nc_oc=AdkepekJLn7QTTNHlYsIC5AHE9WmVsAC5ZRHixtA4r666DZ3gvMtb6o7iNnpqYQ7fHg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_AfbryTSodFE1sqmHdUJhDIFlXfGYtKvIBorbMqvCC3QEHA&amp;oe=68DEFF79', 'profileId': 'pfbid02LwjfNqyDJGu9kknZPwhbY2n4bzwmH3tqLtCWDkyFZdp2RacoExqepa2Mbp5zJ4fNl', 'profileName': 'Nhora Luz Cruz Riaño', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11169,18 +11169,18 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Que receta tan costosa</t>
+          <t>Q rico</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45922.76958333333</v>
+        <v>45917.98428240741</v>
       </c>
       <c r="H208" s="3" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>18:28:12</t>
+          <t>23:37:22</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -11197,7 +11197,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FeBlcYoQP3EQ7kNvwHjsDvz&amp;_nc_oc=AdlIEpvut5cK3ZmlKDVGQgx-8fA7iGHzNhdCBCUfkLZFcz6TsaAGc5Tk4WcbgsBdIeU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=7A7kV9SVxJ8PcZIF63vEUw&amp;oh=00_Afb8DE1YtThHAttccjCtIu12F0ebm3Xib9u0ueiwqHrI-Q&amp;oe=68FF607C', 'profileId': 'pfbid0tq6opououDN2npX1Ej9j9rK437C9dDsZ6JupDPKfHQqWY3r7c3asU9LNkMzc9mzXl', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=796199216106821', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc5NjE5OTIxNjEwNjgyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83OTYxOTkyMTYxMDY4MjE=', 'date': '2025-09-17T23:37:22.000Z', 'text': 'Q rico', 'profileUrl': 'https://www.facebook.com/olga.lopez.242949', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/348244269_1430897767683411_8099019798309380280_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ds2eU7UugpYQ7kNvwEc5yfi&amp;_nc_oc=AdlwdgET6IbdfVPwoneKpDwiS305Aq_anKfQVce-aFKcyaNLHjqJKB4zi7UHnoeqyos&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=aVia8dDTrJwwjfPP8vBmzA&amp;oh=00_Afajeig9--eyqROCJ4KXWU_b3sYj2jTbyFE_I6zvvOaEmA&amp;oe=68DF12C0', 'profileId': 'pfbid03565RJxSv4iaZgs18r1ruSY2FWhgi2sKUbutjF9SSCTMRsC4b1f5rhyUnWqravMWPl', 'profileName': 'Olga Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11223,23 +11223,23 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Otilia Gamboa Cristancho</t>
+          <t>Que sería una buena mazorcada sin queso? Es el que da el toque final.</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45912.71965277778</v>
+        <v>45914.97866898148</v>
       </c>
       <c r="H209" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>17:16:18</t>
+          <t>23:29:17</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K209" t="n">
@@ -11251,7 +11251,7 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzawOjNzeqsQ7kNvwHxE9u4&amp;_nc_oc=Adl3GIHhDni_0cUTyiO9KtPYwAYRQO3rZqKGlU6wvssSnJt_1LXiPH1VXnBRQUsv7WJvW-AMs_h3gVZONtxvXGFG&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afb1SxYscR0-4lcUICnMfQmYJG03Ixzdl6XPzLYGbtWtTQ&amp;oe=68DDD21A', 'profileId': 'pfbid02KutWAYjci7A6Lapom3aPjrTt9EQNdt7MbPoY7LRdZyvv3VYqHudaZgSaV4UH4cukl', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=772262805508844', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzc3MjI2MjgwNTUwODg0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83NzIyNjI4MDU1MDg4NDQ=', 'date': '2025-09-14T23:29:17.000Z', 'text': 'Que sería una buena mazorcada sin queso? Es el que da el toque final.', 'profileUrl': 'https://www.facebook.com/luzmariela.betancourt', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/402916820_1601109407088355_6976816297865543400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6f8MaJtipLYQ7kNvwGXxXmY&amp;_nc_oc=AdlfSldeuo4moqP6Wg0Mp2YVZ7tXdBwgCUCjCfBxWoO1WPWKXhDHmauYlJBijsJ5l4jfijpXtZ7J6SPuxmQguFv1&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfZYbrDJGz_vFxo5q94Oa6fldbRjpHH6rfjV2WFiBeP_qw&amp;oe=68DF0FB6', 'profileId': 'pfbid02rbo7z6ggxcfAShNdquRUjPzJ8moxydsXg1aecG5fBdbEnNWhK6CoSmL7DHrV3PQyl', 'profileName': 'Luz Mariela Betancourt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11277,18 +11277,18 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
+          <t>Que receta tan costosa</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45924.06525462963</v>
+        <v>45922.76958333333</v>
       </c>
       <c r="H210" s="3" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>01:33:58</t>
+          <t>18:28:12</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11305,7 +11305,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ow93DvipsccQ7kNvwGZuzy_&amp;_nc_oc=AdkRNoku5CMidsMLwVYKA4lhkDmotiDf24g8XpjpjF2afdfRSKgJa3GEAFaAE1d6cz6cJ6LuzDI6x9Zu24FAcTm8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfYPEq6ldDQWZlx9Vq4dNSk9Y1rZNal0wEoPrzkn5aHvvA&amp;oe=68DDAAFB', 'profileId': 'pfbid0xGjgA3vj81UNTS1SwwKdd5RbphPZqbJUpHhHDzLq9R5NNkXrZxyh5yfin3QQEfJfl', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2188254748328914', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxODgyNTQ3NDgzMjg5MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTg4MjU0NzQ4MzI4OTE0', 'date': '2025-09-22T18:28:12.000Z', 'text': 'Que receta tan costosa', 'profileUrl': 'https://www.facebook.com/lucia.gomezarteaga', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/69160424_2993761020699246_6214589081972637696_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FeBlcYoQP3EQ7kNvwE0GZI1&amp;_nc_oc=AdkfehscAR-rbglxDAILsOTajYcOcJQQscV3SdQi6S4ReU7m-CNQYQ-rmR3cpgEnsX8izhGPdIl5ZSKM-pmP_Eef&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfaKej2hRHsEneHhhQqp3ienGRfVQp8Ipm6K7pioSUCrtQ&amp;oe=6900B1FC', 'profileId': 'pfbid02xgYX1UqdkaR4xDFiN7hLRKmtRQrpN3Xy7UGqCqjbyZbysPonduuGxkn4oyaPCJhgl', 'profileName': 'Lucia Gomez Arteaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11331,23 +11331,23 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>El maíz es crudo?</t>
+          <t>Otilia Gamboa Cristancho</t>
         </is>
       </c>
       <c r="G211" s="2" t="n">
-        <v>45916.72425925926</v>
+        <v>45912.71965277778</v>
       </c>
       <c r="H211" s="3" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>17:22:56</t>
+          <t>17:16:18</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K211" t="n">
@@ -11359,7 +11359,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A8-TxuQWIEAQ7kNvwGXlZPx&amp;_nc_oc=AdkE_3KoFBVCFtEShpPzbNHQAa-3a_SUlSfotYLsS0aRx7SpKe4Z1PY__844q-iIkjfMKvbyiAs52DMptZsjIf4t&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZjhg6HAV6Pc6C9_b42ubDPY3L3gjzESlR1tghJ67GzPw&amp;oe=68DDD0EF', 'profileId': 'pfbid0UrXb91EP8U4su1VWEraZZSiDNYtijQrHyjLX3RCYaZgse8fadvP2viYaKYqGJBHZl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2195613504249219', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxOTU2MTM1MDQyNDkyMTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTk1NjEzNTA0MjQ5MjE5', 'date': '2025-09-12T17:16:18.000Z', 'text': 'Otilia Gamboa Cristancho', 'profileUrl': 'https://www.facebook.com/mariaalejandra.romerogamboa', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/240522076_10222931324503649_6524253230221657604_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kflYsvH_2vwQ7kNvwGalZCc&amp;_nc_oc=Adn4Uj9B-7h3gX4T3zQ3Cbwb2dvG_TM3OkB-bomb1TEn6mzHhgDjxYE-usgVm6p4PtiMwMUelAJ1gVBQkn-7QIVW&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfZ6VIagGeb9N2NOxOol2yPfH-C6iOcVa_zxeHYZ_F30DQ&amp;oe=68DF239A', 'profileId': 'pfbid0GNFKFP7FrwMi7Fa3TN7XLrgmhgVp14dZuhTMuh1jVV8XsB4uFWwYT78yTZiWrdEYl', 'profileName': 'Mariale Romero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11385,23 +11385,23 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Puro queso y disque mazorcada</t>
+          <t>Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
-        <v>45909.09671296296</v>
+        <v>45924.06525462963</v>
       </c>
       <c r="H212" s="3" t="n">
-        <v>45909</v>
+        <v>45924</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>02:19:16</t>
+          <t>01:33:58</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K212" t="n">
@@ -11413,7 +11413,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dDEVShl-K4AQ7kNvwEO9ehm&amp;_nc_oc=AdnTEche8_Ll1Co7v62NYbffRC1Kq_jckrfYbT0OHujZZ-_c6MyXEE2PEW8ruRQOjxcRYJDAGUVdhLzjSu-iRxpS&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afaa337f2JroN0ftF5FeJ6vCelYK_o5oX6RM7LSavNhjsw&amp;oe=68DDB8AB', 'profileId': 'pfbid0REJJg71KriUDi1kjMdp6ic5WTrW5U9UoWYqk7XYXidwjPXYNEC9q9qc9XHorRi8fl', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2160583284433482', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIxNjA1ODMyODQ0MzM0ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMTYwNTgzMjg0NDMzNDgy', 'date': '2025-09-24T01:33:58.000Z', 'text': 'Hola señores de Alpina soy Magda Idali Lozano Callejas de Bogotá quisiera saber si está receta es fácil de preparar', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/453074511_7506316762805724_5358444735854175537_n.jpg?stp=c113.33.414.414a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ow93DvipsccQ7kNvwGqjAXp&amp;_nc_oc=Adn23ntLxSJ2nRf8t3b3YPqShlN-l0fhMpp9BAWgucSMN0dv-k5iIAX7lbzCJmTTn7YLrpFLx8jLR7YaQKe50Xec&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfZipxfvASgF0mIk4e5IOZn-7S5aKCluuFpXsjShRPbOUg&amp;oe=68DEFC7B', 'profileId': 'pfbid0328BPLirYyFUuK1yXmTMeCBSi2m8S2JKjA3MpLG2dAjG1941SXSTawRZmRhYDddwbl', 'profileName': 'Magda Idali Lozano Callejas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11439,18 +11439,18 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>No había otro queso por ahi para agregar?</t>
+          <t>El maíz es crudo?</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
-        <v>45919.65423611111</v>
+        <v>45916.72425925926</v>
       </c>
       <c r="H213" s="3" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>15:42:06</t>
+          <t>17:22:56</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11467,7 +11467,7 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEH3VPp&amp;_nc_oc=AdndV5_P9N-55E-Jm5EW367wK4NzAhVfB-HtoTLzLf6lX9Qg4OvUtWT76oqZbsnIxBMm_uEMsVHMZicBxtOSXt_R&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_Afa5c7BoYFBIP-2CK6X397eSEXEWGztlXQp_o9jXqnnYLA&amp;oe=68FF6B7A', 'profileId': 'pfbid0jM1VCjfurygoFiqfTfpqaXL3A83AJF8aMAgtPBeb6UhfN3PC28RC15SxdyZbVpwQl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1836329753948174', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE4MzYzMjk3NTM5NDgxNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xODM2MzI5NzUzOTQ4MTc0', 'date': '2025-09-16T17:22:56.000Z', 'text': 'El maíz es crudo?', 'profileUrl': 'https://www.facebook.com/marisol.vasquezg', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/480749976_9209965319081668_1552728786031011985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SQEwDIVWg0EQ7kNvwG1lJPL&amp;_nc_oc=AdkwQ9X2OuwUCMUwvUTu92LUg2sutH-qnbglSefy2t6JJ2kP_LrbkVQhpcyhBGIYmwv66ztSK08OsxxA7OO1k_dZ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfZPNPPqdPFkmDs18b8pCX8NSTAf9Z0dQjGPCsOXiVzqlQ&amp;oe=68DF226F', 'profileId': 'pfbid02YE1mm2b1ADCZzCewwyxG1EZ2qrMo6QgeWrC3JvWdyKoPe2okwymxXVgw3BvoZxHpl', 'profileName': 'Marisol Vasquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11493,23 +11493,23 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>No me gustó</t>
+          <t>Puro queso y disque mazorcada</t>
         </is>
       </c>
       <c r="G214" s="2" t="n">
-        <v>45923.95258101852</v>
+        <v>45909.09671296296</v>
       </c>
       <c r="H214" s="3" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>22:51:43</t>
+          <t>02:19:16</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K214" t="n">
@@ -11521,7 +11521,7 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUcEsWc2Si4Q7kNvwFiv1oq&amp;_nc_oc=AdlmQ7BLJJpswo0KuEVgmz8MPuc4--mRSuFyrlF5qQr-j4xg6noufQr7s-uMwh3biYcm1NzasqkL4Nd7w-tVP5oi&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfYGohmC6-nhr8Iw0JBKyFtqEaOj3w5tkqnceSX-I_M7zQ&amp;oe=68DDAFF7', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=24301176679563152', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI0MzAxMTc2Njc5NTYzMTUy', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNDMwMTE3NjY3OTU2MzE1Mg==', 'date': '2025-09-09T02:19:16.000Z', 'text': 'Puro queso y disque mazorcada', 'profileUrl': 'https://www.facebook.com/jorge.m.usuga', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/355693118_10159894930879285_9043403385632824074_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dDEVShl-K4AQ7kNvwHiTnyA&amp;_nc_oc=Adm5VXPr3Q78DiiwCg39wWk_shM4i7fiM0isVaY6UVUKdZenCLN5s4XzmRI92QeR65JjgJFD9MhexTDTsJmrdeJJ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfZ4AJNUm3HGZZF0zv7q-kvzSipB3hU0bD59hYlMMl281w&amp;oe=68DF0A2B', 'profileId': 'pfbid02V5k1rmw9i5s26KFtcn7Mti22UdML5vY6TKiXYsYFZpxo9m4eF8R23ezYTBTQZcQal', 'profileName': 'Jorge Mario Usuga', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11547,18 +11547,18 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+          <t>No había otro queso por ahi para agregar?</t>
         </is>
       </c>
       <c r="G215" s="2" t="n">
-        <v>45914.56732638889</v>
+        <v>45919.65423611111</v>
       </c>
       <c r="H215" s="3" t="n">
-        <v>45914</v>
+        <v>45919</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>13:36:57</t>
+          <t>15:42:06</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11575,7 +11575,7 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tiWtr0JTTsQ7kNvwFDFcQB&amp;_nc_oc=Adn6D_Jvf69JpAWbZhv33RHnuY_5C9R_CPy6nVG-BH7gZ2k2vcI91EIRPKqZpMrfaP_JLBNZF6TyVtkDKgTrLVl8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afa0E3H0DDu6ICVbylJlDLXJ8DG97wU8m-_oF6_pRW4fmg&amp;oe=68DDC2C0', 'profileId': 'pfbid02NsZqw9BL7CQLBTwDsDKqfp4TjhDWsthUQFoM8UZrSKJRibvXAwWc5c62v8E9eg5Xl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1275699144334364', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzEyNzU2OTkxNDQzMzQzNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xMjc1Njk5MTQ0MzM0MzY0', 'date': '2025-09-19T15:42:06.000Z', 'text': 'No había otro queso por ahi para agregar?', 'profileUrl': 'https://www.facebook.com/janette.santanaleon', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwEUGB36&amp;_nc_oc=Adk5Idu6gScAKwPkhDM54xZQBFJn4kopD9Gs0YKQ7apWdbc8Dl4UabdmHJdmYgzPO7_9gAVv0OZw76kY75cjdnGm&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_AfatWkKFYLquXJGrCgq10ensN5dEjAJ4vqCqPtbsWVwTqw&amp;oe=6900BCFA', 'profileId': 'pfbid02niVfpm2Xte1vcjWEe8dZiJVDM7F2Fhjf5ZEZd5uE8Ks5f5goC8T66ofLQ7P2VWwvl', 'profileName': 'Janette Santana León', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11599,16 +11599,20 @@
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>No me gustó</t>
+        </is>
+      </c>
       <c r="G216" s="2" t="n">
-        <v>45918.07300925926</v>
+        <v>45923.95258101852</v>
       </c>
       <c r="H216" s="3" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>01:45:08</t>
+          <t>22:51:43</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11625,7 +11629,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pS-K45ZiXr0Q7kNvwG_aZnp&amp;_nc_oc=Adkgp3WumOZr_gdRZ2QVk1vHu6x8NhHYmvRw5du00p_Jo97TmHkgAICzryhHxXJz0DxvoWSqSK2pJbcjzb3ROL7N&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afbj_6u4Q5Dz7haWMhJ_4IhfvFAjzchIG7uk5jOjmiSOnA&amp;oe=68DDB3C0', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Dj72F0m7c3gQ7kNvwF8n9_7&amp;_nc_oc=AdmEtJF3H4CODUTDqdJ-kWmA-dX-E9jGrKVAezcCg-BPv-JL1Y0kxGFXG4vdFIIGzaGGvImDANFb7vQ5V27Xr1K5&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZIkP3RXfHxG2OkinGlbF04NtTO6-RvJZ1KHB1ltcFXZQ&amp;oe=68DDD99F', 'profileId': 'pfbid02rs5qGmRqQnadfM6FKqH2WLB76rCdyPSz8BNnwwMm8qpWDYE1yxrJNe6nk8VJ4Z1zl', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2283884598723211', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzIyODM4ODQ1OTg3MjMyMTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yMjgzODg0NTk4NzIzMjEx', 'date': '2025-09-23T22:51:43.000Z', 'text': 'No me gustó', 'profileUrl': 'https://www.facebook.com/mina.montes.3979', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/518107326_1752944422282738_5636717394998305482_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUcEsWc2Si4Q7kNvwHNWSsq&amp;_nc_oc=Adlx6D8u9CrDuUhmlyjlIwDqmAngZOfnbcmIwadiQ7hCzCj6PJ76FkTcE8uFUhvyJWlMH7MoRn9bTwd_TPmAGzT7&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfbXl-CNH5TTXtpcc_PvKw1VCm816sAi880LrrY3jujJzQ&amp;oe=68DF0177', 'profileId': '100027015908110', 'profileName': 'Mina Montes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11649,16 +11653,20 @@
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Eso no es mazorcada, es una quesonada. Puro queso</t>
+        </is>
+      </c>
       <c r="G217" s="2" t="n">
-        <v>45915.08302083334</v>
+        <v>45914.56732638889</v>
       </c>
       <c r="H217" s="3" t="n">
-        <v>45915</v>
+        <v>45914</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>01:59:33</t>
+          <t>13:36:57</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11675,7 +11683,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=g5lB0QLm1oAQ7kNvwEJ4qMH&amp;_nc_oc=Adk1yDHqwrJpsyTBLfrAJ_Wpe9PEA7WvlIo210Cw7Y1DfqMXqIzU7owQE-wTozwGBhGdjOgW3t6nWktgBBXeU6OG&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_Afamy54uRZyNlet2DPF1ngCm_w-hyTDs8ApSf1s0_Z8sDg&amp;oe=68DDB269', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFV3HF1&amp;_nc_oc=Adk6m3_32zQpINwRh2v3huP6v3zIpEtu_kAAGeVPFi3RF6dbxX5ECMvaDO-hKDFfp_rC46OUQajOqqraA-LTjJlZ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfaUlHHIyFNxl3p81uewftcK5BHNCTaCyZC4M-ux1MXE3A&amp;oe=68DDC726', 'profileId': 'pfbid02BTKLcATzUUiAAP3o5EsGzXutjst9wuK7jjMkpNRKp9LBfsmpmJXk7xcwsn5ugX8ql', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=735013882834235', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzczNTAxMzg4MjgzNDIzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF83MzUwMTM4ODI4MzQyMzU=', 'date': '2025-09-14T13:36:57.000Z', 'text': 'Eso no es mazorcada, es una quesonada. Puro queso', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/465372849_9306570612703526_3774956885285653833_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tiWtr0JTTsQ7kNvwFiysmg&amp;_nc_oc=Adk_iw-ZelVwKZjqp3u6_8AP7T-sw2-xEaCzCttldR6BR7t-753RxORSir-t8K5D3iPjocALkE3QUSFbezpcBIXV&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfbJQWrkEGLrNGHWueWL68S3FXe1riZVdMV20SENGJMO9A&amp;oe=68DF1440', 'profileId': 'pfbid0Jqy8TKymSF92nukZFFjCFTwfTqXkAodNzq6Ve2rPae6cwhZoWmi7H1Mzv2S8TcHgl', 'profileName': 'Reguina Revdokia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11701,14 +11709,14 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" s="2" t="n">
-        <v>45915.08300925926</v>
+        <v>45918.07300925926</v>
       </c>
       <c r="H218" s="3" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>01:59:32</t>
+          <t>01:45:08</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11725,13 +11733,13 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=fTWVIT6Mqb4Q7kNvwEP3tK0&amp;_nc_oc=AdnG4-jfQIadl12rJFuzoZ4nCX3tVxCptNAgzJunlNvDL09CiTQbtuq_zxtv3eqabl5yZJdnleFguDbfDMm-xkLT&amp;_nc_zt=26&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfZ_tWWNnWZnhTkPBguf7YxDpFcGe96DH-ZCExV6VIhh6w&amp;oe=68DDACB3', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFV3HF1&amp;_nc_oc=Adk6m3_32zQpINwRh2v3huP6v3zIpEtu_kAAGeVPFi3RF6dbxX5ECMvaDO-hKDFfp_rC46OUQajOqqraA-LTjJlZ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XiaSJ53vMpMdeJjwgXfPCw&amp;oh=00_AfaUlHHIyFNxl3p81uewftcK5BHNCTaCyZC4M-ux1MXE3A&amp;oe=68DDC726', 'profileId': 'pfbid02BTKLcATzUUiAAP3o5EsGzXutjst9wuK7jjMkpNRKp9LBfsmpmJXk7xcwsn5ugX8ql', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=950760947247955', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzk1MDc2MDk0NzI0Nzk1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF85NTA3NjA5NDcyNDc5NTU=', 'date': '2025-09-18T01:45:08.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling and looking straight ahead, they are holding one hand in front of them giving a thumbs up, and their other hand is giving a thumbs up over their shoulder.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.1997-6/525508718_30557030720610426_5695574323016318095_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=pS-K45ZiXr0Q7kNvwHd4Kln&amp;_nc_oc=AdmF65-iHedZKtIFnsqjYbvOqxe2reMXzPlyIDzUgjjf1D_sBlAnd5Q1lLLf8GJ9G4sseKS6Rks388uCPKr6UXDo&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfYcpnAG7x6cVTK3R_YRJvO90BfpqfC32MW3jKkQeU605g&amp;oe=68DF0540', 'width': 120, 'height': 120}, 'id': '1332284635117887'}], 'profileUrl': 'https://www.facebook.com/myriam.cruz.232129', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/422423634_3613964008879366_612953107149310151_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ewz7vD-RnM4Q7kNvwHMhTgA&amp;_nc_oc=AdmAFOPVdI2aJ6qhDvJptAvHgtOdxGXOsKspjh8Wl8vnJ4_Gq7YKhFwwWB3b-hzgMkTvQZuGbnubzlhoppSVZhn_&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=zfdcAuyij4Fu0fESAdbzsQ&amp;oh=00_AfY0hr8QHT9bsY0u1jORe0PiylCqX6thh_iEt-8h7K8u_Q&amp;oe=68DF2B1F', 'profileId': 'pfbid0nqV7nxEGjvNqmmUreppU9aDxk53z4bN3EphVkFEVh2uTR8L3XfjmhLgTZMEMqMW6l', 'profileName': 'Myriam Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -11745,29 +11753,25 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Super rica Muchas gracias</t>
-        </is>
-      </c>
+      <c r="F219" t="inlineStr"/>
       <c r="G219" s="2" t="n">
-        <v>45905.11831018519</v>
+        <v>45915.08302083334</v>
       </c>
       <c r="H219" s="3" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>02:50:22</t>
+          <t>01:59:33</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K219" t="n">
@@ -11779,13 +11783,13 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwHcTiFm&amp;_nc_oc=Admw-vLCYc0ZzF6U56ScFKo9FRJIZEoeP49SxsZcR-_VBxUerF1LHIbvJwWlypkN1qc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfbEad8dBNliUlLNpm4r4aByNvX01CcSjcLlFiqlEbpY2A&amp;oe=68FF6B7A', 'profileId': 'pfbid032NhqFgEaSsFzg2zpKnbA7vocTE9cWJBbazuLWASqFHhimcMhGXrXaXivAF4QBELyl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=1547977793237234', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzE1NDc5Nzc3OTMyMzcyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8xNTQ3OTc3NzkzMjM3MjM0', 'date': '2025-09-15T01:59:33.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'thumbs up; supportive; thumbs up emoji; thumbs up gif; giving thumbs up; supportive gesture; you got this; way to go; nice job; well done; great job; keep it up; props; kudos; thumbs up reaction; supportive emoji; supportive gif; showing support; thumbs u', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.1997-6/526981652_1826513451236964_8191914004724490107_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=1tG5RO1kC60Q7kNvwGY-MyW&amp;_nc_oc=AdlAihAOJ_pO6ppfCnaxVrMX04_gv3WjrGs0lrriA8cLj9weuQ54KIC-rdTkjYsMVZU&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lQ2OxlWuaGork7VVHBq9DA&amp;oh=00_AfafF4vVjnFGrl7IzGKE_2bySZEFKwpP9Qx8giA-oaNkdA&amp;oe=68DF03E9', 'width': 120, 'height': 120}, 'id': '1277708286929025'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFfmTR9&amp;_nc_oc=Adla3a1OufRAkSda8SQW3iO21MXFWJFzRqyBcXXRvwpTzIasjNYO7LIl98AzWisD2-g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lQ2OxlWuaGork7VVHBq9DA&amp;oh=00_AfY0IWvGIv9AMIVfT2yi37Lf1WrQq7GxussC0OkMU2DYhA&amp;oe=68DF18A6', 'profileId': 'pfbid07ug9gzqddGiPpCDtu2AnHGuaW517kS5EdZ39QhChVK7gPvN8DFvLaf346B32gEZ2l', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11799,29 +11803,25 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1341628570637720</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Súper se ve exelente gracias por explicar</t>
-        </is>
-      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" s="2" t="n">
-        <v>45904.72891203704</v>
+        <v>45915.08300925926</v>
       </c>
       <c r="H220" s="3" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>17:29:38</t>
+          <t>01:59:32</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K220" t="n">
@@ -11833,7 +11833,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9QTVxfq8KSUQ7kNvwG8l070&amp;_nc_oc=Adli8qtjTWxFp6oOUysAYp6MD7rQACyo67ZA98tEZAGdkfdN0OLCLY7KBDYo4NIHirU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=tll9u2v197WyiE-nUxLwzA&amp;oh=00_AfY9PFIsuDq9Zhf1KXPKcBwdvY4QUYJkds6FspcN85m99g&amp;oe=68FF5541', 'profileId': 'pfbid02vBx1JgHpuqvANpgS9uGYBRD53WPcsfm5ZZcuKKG7FAK7iCcncpoCzm1SCGm3FUhVl', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720', 'commentUrl': 'https://www.facebook.com/reel/1341628570637720/?comment_id=2534895520210579', 'id': 'Y29tbWVudDoxMjExMDIwNDA0NDAzNTMwXzI1MzQ4OTU1MjAyMTA1Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNDQwMzUzMF8yNTM0ODk1NTIwMjEwNTc5', 'date': '2025-09-15T01:59:32.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smirking over their shoulder and holding their hands up, clapping in front of them.', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.1997-6/528354709_31695438436722353_9163324870303374462_n.webp?stp=dst-webp_tf0-1&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=fTWVIT6Mqb4Q7kNvwEj96PE&amp;_nc_oc=AdmxSz4rqZwJSnqrKbnqnvknMsSpciMB03wRtSidhWIvZStJZpdu0zWLnfuqtkhWCR0&amp;_nc_zt=26&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lQ2OxlWuaGork7VVHBq9DA&amp;oh=00_AfafkjnVsgRX_Qwmsz8btXKSb0azF0MbZMAp1WpoYn8lew&amp;oe=68DEFE33', 'width': 120, 'height': 120}, 'id': '1533151168045522'}], 'profileUrl': 'https://www.facebook.com/matilde.gomez.5891004', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/538410587_1689972931688744_8647822070526982738_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aWZzRLwHXdEQ7kNvwFfmTR9&amp;_nc_oc=Adla3a1OufRAkSda8SQW3iO21MXFWJFzRqyBcXXRvwpTzIasjNYO7LIl98AzWisD2-g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lQ2OxlWuaGork7VVHBq9DA&amp;oh=00_AfY0IWvGIv9AMIVfT2yi37Lf1WrQq7GxussC0OkMU2DYhA&amp;oe=68DF18A6', 'profileId': 'pfbid07ug9gzqddGiPpCDtu2AnHGuaW517kS5EdZ39QhChVK7gPvN8DFvLaf346B32gEZ2l', 'profileName': 'Matilde Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020404403530', 'postTitle': 'Plan de finde: Mazorcada cremosa con Queso Parmesano Alpina ¡Comenta con quién la compartirías?. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1341628570637720'}</t>
         </is>
       </c>
     </row>
@@ -11859,23 +11859,23 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
+          <t>Super rica Muchas gracias</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
-        <v>45906.03012731481</v>
+        <v>45905.11831018519</v>
       </c>
       <c r="H221" s="3" t="n">
-        <v>45906</v>
+        <v>45905</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>00:43:23</t>
+          <t>02:50:22</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K221" t="n">
@@ -11887,13 +11887,13 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RNBUJB4Aeu0Q7kNvwEtM4zT&amp;_nc_oc=Admv-2anUuVLHLkxB1ugJ367vvfHj34qu_-0JgK8xYukBYPpMnFgZAUUpFlyXvk0Dkc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=tll9u2v197WyiE-nUxLwzA&amp;oh=00_AfaFzc95H4VTKwFEQZj2zW2K9Tta5imkC_xvSacQaeFkhg&amp;oe=68DDBCE0', 'profileId': 'pfbid02hh1hgbzxEYXhAYuXFQRD13jkAKZ6c5ERuWVoRXeY4joLsiSn8bZ3GXd71WAvQ2zGl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=756376563827255', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4Xzc1NjM3NjU2MzgyNzI1NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF83NTYzNzY1NjM4MjcyNTU=', 'date': '2025-09-05T02:50:22.000Z', 'text': 'Super rica Muchas gracias', 'profileUrl': 'https://www.facebook.com/gloria.ocampo.10048379', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=2CKwNU0IXg0Q7kNvwFg03Xu&amp;_nc_oc=AdknQfUkS7cYNp08fxTY7l7gO6Z2ymhnAibBK2x9YnEB-l4ATSUcUQKUOv9dmee9rh0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afa0M_b-ZhkMcRcW0BRD6ki2e_bcOk6OPry9F64ay-JVQQ&amp;oe=6900BCFA', 'profileId': 'pfbid0xq4eLWcDbXttV2jh89F6fZDFTfvQUv1QTMFJtDMQ1JVoHUcESMkCMXSUtLRTqYTDl', 'profileName': 'Gloria Delgado', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -11907,29 +11907,29 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Se ve deliciosa</t>
+          <t>Súper se ve exelente gracias por explicar</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45904.76834490741</v>
+        <v>45904.72891203704</v>
       </c>
       <c r="H222" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>18:26:25</t>
+          <t>17:29:38</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K222" t="n">
@@ -11941,13 +11941,13 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BYWMw7Zp7f4Q7kNvwH-X8Bi&amp;_nc_oc=AdlVoHqxrLfa6kieunIho_2B3izka7AB2e7fzJ58_7oqbXYwSzpmieHFu0JpX2esH0s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=O4jDOkGsHuPjPcrxuKUOJg&amp;oh=00_AfboXpXg45TG11mabsnQtTmprpGRc4scCij2WKSwi4lgjw&amp;oe=68FF5A80', 'profileId': 'pfbid0N9rFAwmauEx8xHQASLT6KXAKL2PthhNksPebQ9PewXYNhkFA1txP4KnSLUd3NV1hl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=1045192237518561', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzEwNDUxOTIyMzc1MTg1NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8xMDQ1MTkyMjM3NTE4NTYx', 'date': '2025-09-04T17:29:38.000Z', 'text': 'Súper se ve exelente gracias por explicar', 'profileUrl': 'https://www.facebook.com/shirlyyohana.diazotero', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/119785468_326736805220549_7933912889252520893_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9QTVxfq8KSUQ7kNvwGjVBty&amp;_nc_oc=AdluyGux9pogkz63PZyP944vXI47HZtIDjG9DsEpPgbt9ZwDXB3WSKny7e9G_-FE1cM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=nkgc2sBXcqmcFdWYua882g&amp;oh=00_AfaPHAr7m4Bbnpiq2Gl_SrkoEgsuLD34keGvqhbNR1mkDg&amp;oe=6900A6C1', 'profileId': 'pfbid0reJpPWfU4X3s4koeUqnPPZFmQyoRCfZYZ5Le32VCgprY9cZN5mjMhUMV38GLWL6Zl', 'profileName': 'Shirly Yohana Diaz Otero', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -11961,24 +11961,24 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/789273280272516</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Q delicia 😋</t>
+          <t>La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
-        <v>45919.22232638889</v>
+        <v>45906.03012731481</v>
       </c>
       <c r="H223" s="3" t="n">
-        <v>45919</v>
+        <v>45906</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>05:20:09</t>
+          <t>00:43:23</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11995,13 +11995,13 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tSrn5TJkn_UQ7kNvwFH3zG9&amp;_nc_oc=AdnzHUYhF7OG5dfIvY1GKCA4WSxv81fWyJnU0nRTDVjjHWm_AsA9faqUAGiEXOW9dM0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_Afad5Hid66FGEQC0r72MyIRnyuDRMEhUzspn7kbHUu0pig&amp;oe=68FF6411', 'profileId': 'pfbid02tVSbT7ADMywbdFVQ8qBpDNhUfwdk3Yf5wGqH8Dsps4e8T1K1EZpyxt5JknEKbQQpl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516', 'commentUrl': 'https://www.facebook.com/reel/789273280272516/?comment_id=31920962860824092', 'id': 'Y29tbWVudDoxMjExMjg5NzU3NzA5OTI4XzMxOTIwOTYyODYwODI0MDky', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTc1NzcwOTkyOF8zMTkyMDk2Mjg2MDgyNDA5Mg==', 'date': '2025-09-06T00:43:23.000Z', 'text': 'La crema de leche de alpina no tiene suficiente tenor graso para hacer una Chantilly resistente que nos permita  decorar. . queda muy suelta', 'profileUrl': 'https://www.facebook.com/eddy.diaz.10485546', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/519626544_2536884526666373_3886150930907500695_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5CqPYIUJ5CcQ7kNvwHTzEBL&amp;_nc_oc=AdkHlvlfZfaroQDFrKMSzUI3Bwar_OsZal6oxdWMMQxwGaU3VmYvUXRNuA1QMe13J6g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=nkgc2sBXcqmcFdWYua882g&amp;oh=00_AfalWhG8w1UO3p4vdY-hmDX3sLn9UmW-lkWONOiljTW_rA&amp;oe=68DF0E60', 'profileId': 'pfbid0dfQzCnoPZYsHwrEcs8veX8Rvkdv9jDFBupDzVRisDw594QLUPUaZ6MdypiWNeCNBl', 'profileName': 'Eddy Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289757709928', 'postTitle': 'Torta Genovésa con Crema de Leche @Alpina. Suave, húmeda… un clásico que siempre encanta. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/789273280272516'}</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -12015,24 +12015,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
+          <t>https://www.facebook.com/100064867445065/videos/814244691266244</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Gracias</t>
+          <t>Se ve deliciosa</t>
         </is>
       </c>
       <c r="G224" s="2" t="n">
-        <v>45908.03875</v>
+        <v>45904.76834490741</v>
       </c>
       <c r="H224" s="3" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>00:55:48</t>
+          <t>18:26:25</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12049,7 +12049,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MskbYWd7ErsQ7kNvwHTOjrB&amp;_nc_oc=AdkRkjaSsI56kSjeNjCGcwEfYd77jOBqoGs3bdHgG5BKfYypJSUK1yDZkNsE8bW7cUw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_Afb-gk9E0Xmd9u50jiYtEjHer4Wm6BkJlJvyKldP1EtBzQ&amp;oe=68FF7C00', 'profileId': 'pfbid0tV1KPX3H5e5ahv5hjsanafx66oiEhsXJQvDzME5tSGSYpBuh3NxjYYXvRVWdq24Jl', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244', 'commentUrl': 'https://www.facebook.com/reel/814244691266244/?comment_id=827291233009825', 'id': 'Y29tbWVudDoxMjExMjg5ODgxMDQzMjQ5XzgyNzI5MTIzMzAwOTgyNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTI4OTg4MTA0MzI0OV84MjcyOTEyMzMwMDk4MjU=', 'date': '2025-09-04T18:26:25.000Z', 'text': 'Se ve deliciosa', 'profileUrl': 'https://www.facebook.com/eliana.solano.39', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/103602333_568744934052512_4269331566736118265_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BYWMw7Zp7f4Q7kNvwG-3mnC&amp;_nc_oc=Adk14JrE3QtfknElnv6xvFL0hGLpi9o5pR1S5kiU_-ptindk_Q_5GRIfZ5iaEN2uHgM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=dWPVax8131Yo0xk69AiBPw&amp;oh=00_AfZbVJYN3YsVabUsCzHqUciCTMrDNae8JzQosrxXnsz8qA&amp;oe=6900AC00', 'profileId': 'pfbid02RXLRny8Cw5yDXC2Gu4uBqe1gvqQwuCcSZx6Gw8My3YdzUWqeRYUbEsJNUxC1J6MDl', 'profileName': 'Eliana Solano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211289881043249', 'postTitle': 'Ensalada de zucchini con aderezo de Yogurt Griego y crocante de Parmesano Alpina.. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/814244691266244'}</t>
         </is>
       </c>
     </row>
@@ -12075,18 +12075,18 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Grac8as por su receta,quedan deliciosas</t>
+          <t>Q delicia 😋</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
-        <v>45904.89225694445</v>
+        <v>45919.22232638889</v>
       </c>
       <c r="H225" s="3" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>21:24:51</t>
+          <t>05:20:09</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12103,7 +12103,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=py6ngu7yDtoQ7kNvwEt8nt0&amp;_nc_oc=AdlLQXrpUgGPB7Vl7RsdSs8CJdRUNJtd0s55fI1NLkFH_M2-DfGLJQVoHRbIs-azh4w&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfZD2mp_OjOEqNIuB0QgVWdbaCARZe2hGPOsXgko1JABig&amp;oe=68DDB043', 'profileId': 'pfbid02w8mmURAgxBF14FsqwhgJTGqMQgSHAWEHwScNd8kDtrsXSPX7qhVzVWyAaqxhYYd4l', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=24892484373703034', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzI0ODkyNDg0MzczNzAzMDM0', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8yNDg5MjQ4NDM3MzcwMzAzNA==', 'date': '2025-09-19T05:20:09.000Z', 'text': 'Q delicia 😋', 'profileUrl': 'https://www.facebook.com/beatrizlucia.restrepomontoya', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/90395823_2835851329840685_8656560224934559744_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tSrn5TJkn_UQ7kNvwG-bV7j&amp;_nc_oc=Adl9-GcomICf2YMCUnTpFTXCu9MJfYBrEuhv6uwbIGd1-m3_xslde-xHyNJZGCAzbGE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_Afap7nzIac_glDDeWbej7JMqI-hwfQCwXu0XhxY8wbXuJA&amp;oe=6900B591', 'profileId': 'pfbid0pwoQXwXrWoUKsCdumZqYvk29sn7cSRc2t1d6MALfbcYS5xDuD1zkYYS8rW8BZDDcl', 'profileName': 'Beatriz Lucia Restrepo Montoya', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12129,18 +12129,18 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Excelente preparación.  Muchas gracias</t>
+          <t>Gracias</t>
         </is>
       </c>
       <c r="G226" s="2" t="n">
-        <v>45908.82081018519</v>
+        <v>45908.03875</v>
       </c>
       <c r="H226" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>19:41:58</t>
+          <t>00:55:48</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12157,7 +12157,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ipaWqJoYDPEQ7kNvwEhfxL7&amp;_nc_oc=AdkCQlti0ODFMfrdcgz3Y7u2lUI635sxhGknCcYoDJEiUR--8x28lthwq1krQuDPaWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfYlGABvLzF8nupa6cf5-ELmI46FCoTRqz2X2dkjN0qLmQ&amp;oe=68DDB899', 'profileId': 'pfbid021f6ZsgacAnwhGqJ7riGjjgvoMiBygqEaeTSN1sbqdj2w52PgCiMiKZjHFxcWKVTVl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=767649756180597', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzc2NzY0OTc1NjE4MDU5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml83Njc2NDk3NTYxODA1OTc=', 'date': '2025-09-08T00:55:48.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/priscilaisabel.andradecastaneda', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/44519355_256700208533771_6371579911987003392_n.jpg?stp=c0.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7BysFHUTCEYQ7kNvwG76ap7&amp;_nc_oc=AdkmvmblD7dd_r8bR_QMeW2d3We20IbAOkQXSuMZOTuv0SXPbTynrnwKUppSbk3M2AA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_AfbpsOC5gB9Db46_sBgDv1PpFKaTSKjRwHruAy5u1wCw7Q&amp;oe=6900CD80', 'profileId': 'pfbid02wrVW1YPu7Anaic9nZv2gfuR5LLiM66xr9WwbYkcsjGoD479DT1hhZSZ1rcxkZd4bl', 'profileName': 'Priscila Isabel Andrade Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12183,18 +12183,18 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Q delicia Gracias 🙏😘</t>
+          <t>Grac8as por su receta,quedan deliciosas</t>
         </is>
       </c>
       <c r="G227" s="2" t="n">
-        <v>45906.83768518519</v>
+        <v>45904.89225694445</v>
       </c>
       <c r="H227" s="3" t="n">
-        <v>45906</v>
+        <v>45904</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>20:06:16</t>
+          <t>21:24:51</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12211,7 +12211,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dy_mj1UV4lwQ7kNvwGS7JMv&amp;_nc_oc=Adm0YCM1VzVdgUrhjCK5m7PGKJvZttFIdvXJ8GuPOLx9X5gq6v5yUNtr3nlXo3xgBIc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfY9zM4KAKEH4BFTxRX9bB9xK7yfw-gudf6ydW91K0HZ5g&amp;oe=68DDCB3E', 'profileId': 'pfbid0WrjASeGavAd2NebUxgnbH1gtdkXi4yMz6AiSgbWLT1vMq84kVPLC83x2z6nUzgEGl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1327449049011465', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzEzMjc0NDkwNDkwMTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMzI3NDQ5MDQ5MDExNDY1', 'date': '2025-09-04T21:24:51.000Z', 'text': 'Grac8as por su receta,quedan deliciosas', 'profileUrl': 'https://www.facebook.com/anaedilma.valencia', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/352562421_1425615834940382_241940154119925508_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=py6ngu7yDtoQ7kNvwFWkGvL&amp;_nc_oc=AdlIpN7KAWJuR8GkqYUZ_5TSoe8g38rTgJjd8B8yOiKb0t6L0rtZLIQx_jeb543oVdo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_Afas2zGrwM9OoI3s6v6U065ivpanNOCW8HbcHr4FSTiO5g&amp;oe=68DF01C3', 'profileId': 'pfbid0sb8aZFYL72XqezG1CNV38r6ji6qNe2j5adPHXJbwEX5iZ3umZTf2GeRVLpsPtrcVl', 'profileName': 'Ana Edilma Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
@@ -12237,18 +12237,18 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Uff q rico</t>
+          <t>Excelente preparación.  Muchas gracias</t>
         </is>
       </c>
       <c r="G228" s="2" t="n">
-        <v>45908.07615740741</v>
+        <v>45908.82081018519</v>
       </c>
       <c r="H228" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>01:49:40</t>
+          <t>19:41:58</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12265,13 +12265,13 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nBJu0L-67DYQ7kNvwFq4uNu&amp;_nc_oc=AdnqPnicKqQRIxpf44zzvpIEF00-oiwsq8LceZdkkpSCxhk7CeAAbQtdMF1eNAoGxdA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=l3zEarlgpwFcPWNXUAzR5A&amp;oh=00_AfZMICeaoMzq1hhtZpZgnese3papE5yunAVXYwF5JnQqeQ&amp;oe=68DDCEB9', 'profileId': 'pfbid02vgtZkPJ6vm2nsRuheNuEXjaGJ4XeCPmW4QJF6w7nEpKfBNqJBtfvb5jUg7BDHBpNl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=661077306548813', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzY2MTA3NzMwNjU0ODgxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml82NjEwNzczMDY1NDg4MTM=', 'date': '2025-09-08T19:41:58.000Z', 'text': 'Excelente preparación.  Muchas gracias', 'profileUrl': 'https://www.facebook.com/luzadiela.nunezsanclemente', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/410511307_6890796994373069_6142846391974176828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ipaWqJoYDPEQ7kNvwEPzEMD&amp;_nc_oc=AdnBmo_9O09gvwKrwWVEsEAU0VAtS7pXdpz9MdTiOPLsQ3Q3bAz6Z-ThpZp2eQ2VSiM&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_AfanqLSGMG1ZXQTK0R4IibrIq9yz3wEGtIaBtWVlomTB2A&amp;oe=68DF0A19', 'profileId': 'pfbid0352akVhwECPEzdRG5htbLx74jiaaXwqEWDL32tiNX91dvwT3cbV5u8B2ahTHA8Fatl', 'profileName': 'Luz Adiela Nunez Sanclemente', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -12285,16 +12285,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>0</v>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Q delicia Gracias 🙏😘</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>45906.83768518519</v>
+      </c>
+      <c r="H229" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>20:06:16</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -12305,13 +12319,13 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=1103700328027520', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzExMDM3MDAzMjgwMjc1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml8xMTAzNzAwMzI4MDI3NTIw', 'date': '2025-09-06T20:06:16.000Z', 'text': 'Q delicia Gracias 🙏😘', 'profileUrl': 'https://www.facebook.com/luz.altamiranda.14', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/546404265_24362705973421355_1901247381905108628_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dy_mj1UV4lwQ7kNvwGnaCIU&amp;_nc_oc=AdlP3dB3v-mo3H1vzhJz59egtMNZjAvIhp2LhqSGStgJzZ8reD34-uXIZ7aUVMkgLrQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_AfblEmTMXOJPWVz8FaYyezpumVjQIIeWbQ6HzU96ck3cGQ&amp;oe=68DF1CBE', 'profileId': 'pfbid02aEDM4fdCwqdyYLxhVPCxXr3z4yaLELNY2tNWDeMyMsJfy1xrg7MiyEXbBUAnDWiVl', 'profileName': 'Luz Altamiranda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12325,16 +12339,30 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
+          <t>https://www.facebook.com/100064867445065/videos/786596180415875</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>0</v>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Uff q rico</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>45908.07615740741</v>
+      </c>
+      <c r="H230" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>01:49:40</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -12345,13 +12373,13 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875', 'commentUrl': 'https://www.facebook.com/reel/786596180415875/?comment_id=483997394808929', 'id': 'Y29tbWVudDoxMjExMDIwNDE3NzM2ODYyXzQ4Mzk5NzM5NDgwODkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQxNzczNjg2Ml80ODM5OTczOTQ4MDg5Mjk=', 'date': '2025-09-08T01:49:40.000Z', 'text': 'Uff q rico', 'profileUrl': 'https://www.facebook.com/carmen.petroescobar', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/536282726_1979659609466068_7301018487191707878_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nBJu0L-67DYQ7kNvwHo66jH&amp;_nc_oc=Admu6bybtRZrP5e8DLwRqEa-Oy-9c9d_wFs8jT4xi5Kdn5XKy6Wl5_KFy4tpg4-J3iI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=eMawhrYlV_FiY6DsCM1i8g&amp;oh=00_AfZyxXgsmxHA-bEUMzYilAjbjQf-OnpeMkfrQWhpOqafZg&amp;oe=68DF2039', 'profileId': 'pfbid0rfHrGa6YG12hMEs9Zme5xgzzvQCFAJCTdhYD5Db9T2buMPhfNuWBUL3kskFkJSQfl', 'profileName': 'Carmen Petro Escobar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020417736862', 'postTitle': 'Fresas con Crema de Leche Alpina y chocolate. ¡Una combinación incomparable!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/786596180415875'}</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12365,7 +12393,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
+          <t>https://www.facebook.com/100064867445065/videos/2234667103680178</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -12385,13 +12413,13 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2234667103680178', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12405,7 +12433,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
+          <t>https://www.facebook.com/100064867445065/videos/771357842442287</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -12425,13 +12453,13 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/771357842442287', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12445,7 +12473,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
+          <t>https://www.facebook.com/100064867445065/videos/717835787956854</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -12465,13 +12493,13 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/717835787956854', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -12485,30 +12513,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
+          <t>https://www.facebook.com/100064867445065/videos/1263741155491594</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="n">
-        <v>45904.49738425926</v>
-      </c>
-      <c r="H234" s="3" t="n">
-        <v>45904</v>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>11:56:14</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -12519,13 +12533,13 @@
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent-fml1-1.xx.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=97YniGpISUgQ7kNvwGVNsKH&amp;_nc_oc=AdmLGGCLLe6iLndY7FCF6JK9FBzFinzUxKOQmeE8wwJr2ODuEs2evhwP-uorJZ4uq_c&amp;_nc_zt=24&amp;_nc_ht=scontent-fml1-1.xx&amp;_nc_gid=XGIOadIlTDcyj-wXZcGbDg&amp;oh=00_AfasD8ar254X4fsqiHnEw_Qb4m9Vv6AXlgQ1bQxUSKfgFw&amp;oe=68FF7588', 'profileId': 'pfbid0fSQ3tCbZViMGW4c4FNEMWrN1Z7rG75RG7cd8RwHGCu2hZNbVd5WZAsk4MRN2Txtol', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1263741155491594', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -12539,7 +12553,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
+          <t>https://www.facebook.com/100064867445065/videos/4052016791717647</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -12559,13 +12573,13 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/4052016791717647', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -12579,24 +12593,24 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/1939230727004201</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Umm que delicia.... BENDICIONES</t>
+          <t>Mmmmmmmm 😋🤤😋🤤😋🤤</t>
         </is>
       </c>
       <c r="G236" s="2" t="n">
-        <v>45905.03835648148</v>
+        <v>45904.49738425926</v>
       </c>
       <c r="H236" s="3" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>00:55:14</t>
+          <t>11:56:14</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12613,13 +12627,13 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S-Z8sYgdZUUQ7kNvwEA6ZQ0&amp;_nc_oc=AdmXHTyjJ-12uM1Y_EEz3Q7JqJ0ysIwGwHdCyBOdXrN976xfNBLJR-w2uuIQ1AeJhAk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=rL1VvlsqX1Ozp31_LiCAjQ&amp;oh=00_AfYxWGE1yjYk1Z5IwPXysajxoTRap28T6GfWg1AAiAfAKQ&amp;oe=68DDC9A8', 'profileId': 'pfbid02hyHVioTNZahD38WjhczQV3HDL5zja6NfAGaADHdxB57Z9DApMuzfxBhXezU4ktyel', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201', 'commentUrl': 'https://www.facebook.com/reel/1939230727004201/?comment_id=1112422527029567', 'id': 'Y29tbWVudDoxMjExMDIwNDA3NzM2ODYzXzExMTI0MjI1MjcwMjk1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDQwNzczNjg2M18xMTEyNDIyNTI3MDI5NTY3', 'date': '2025-09-04T11:56:14.000Z', 'text': 'Mmmmmmmm 😋🤤😋🤤😋🤤', 'profileUrl': 'https://www.facebook.com/lisbeth.delahoz.1232', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t1.6435-1/47306375_595892170844099_7140076404510556160_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fnPKAgXMlZcQ7kNvwFfp_R6&amp;_nc_oc=Adkpz-NsTXnBprCebqdYjo_xsiz-2YOtfB3bDOfUSRWWnyAywzc-toeZa--hGj1hg_0IfC_D-nEmvTecJl4YZciw&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=yvVujMJvOOVsFRPteccKdw&amp;oh=00_AfbeJGsHI7zF9kV_xffWT-ABi3ndc5ksIsXQh72Yn2aa9g&amp;oe=6900C708', 'profileId': 'pfbid02iotEWDxBXVumqEtPHD8k6oN39vxB4ghjvgmkZRu7u4nfjPtZ7HysE6hNUfu6fjHql', 'profileName': 'Lisbeth De la Hoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020407736863', 'postTitle': 'Receta que nunca falla: pollo relleno con mi toque especial… Quesito Alpina y Cremosino, el queso crema de Alpina Planta Sopo. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1939230727004201'}</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -12633,30 +12647,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
+          <t>https://www.facebook.com/100064867445065/videos/561032720370911</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Con agua 😲</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="n">
-        <v>45904.83614583333</v>
-      </c>
-      <c r="H237" s="3" t="n">
-        <v>45904</v>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>20:04:03</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -12667,13 +12667,13 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/555551924_2184678995351009_6627119744596247003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x5uNKIC1edoQ7kNvwH-VIIi&amp;_nc_oc=AdlOGXQ0XZGv0HEUnQU5CsSTkxivZxS4Z9XkMgDqX5fdKc_U702sXRk0BqWEFQ7d86g&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=rL1VvlsqX1Ozp31_LiCAjQ&amp;oh=00_AfZOxuCpArjhLdxU8IMzd7gG7qzW2KLkWvUfx0WeGhunVg&amp;oe=68DDC223', 'profileId': 'pfbid0daPZizoZBFra6zEukwxgyqJ247aELJ7ZbzKx2K139QELDhZWuBnQ1A2XWnhiRu1zl', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/561032720370911', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -12687,16 +12687,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>0</v>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Umm que delicia.... BENDICIONES</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>45905.03835648148</v>
+      </c>
+      <c r="H238" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>00:55:14</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -12707,13 +12721,13 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=783403277533666', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzc4MzQwMzI3NzUzMzY2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M183ODM0MDMyNzc1MzM2NjY=', 'date': '2025-09-05T00:55:14.000Z', 'text': 'Umm que delicia.... BENDICIONES', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/274720884_970443590577216_7371937067639653951_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=j_TL6cN4ZHQQ7kNvwFkzMQK&amp;_nc_oc=Adl7Eu1EXUJJfutuzqf8m1rerWgpzlCfCYNkDBA5So5hVhGXX2TEZzdY4Jcjtg0bmmI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TH2a8lVnDpvdyGNBRqr3Pw&amp;oh=00_AfbJ5Z_8u1vcLtaVFlryp0sdivgkUWj1uLebSohjnV4bhA&amp;oe=68DF1B28', 'profileId': 'pfbid0eReJodq1iL4Lp9cNGPGt9NxDJLi1eNfNxEBscZg5HUQzMcnf1HoQLbhafjjZQoz4l', 'profileName': 'Ruth Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -12727,16 +12741,30 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
+          <t>https://www.facebook.com/100064867445065/videos/1306123300908239</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>0</v>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Con agua 😲</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>45904.83614583333</v>
+      </c>
+      <c r="H239" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>20:04:03</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -12747,13 +12775,13 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239', 'commentUrl': 'https://www.facebook.com/reel/1306123300908239/?comment_id=1826909791593733', 'id': 'Y29tbWVudDoxMjEwOTMxMTc0NDEyNDUzXzE4MjY5MDk3OTE1OTM3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxMDkzMTE3NDQxMjQ1M18xODI2OTA5NzkxNTkzNzMz', 'date': '2025-09-04T20:04:03.000Z', 'text': 'Con agua 😲', 'profileUrl': 'https://www.facebook.com/yudis.montealegre', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/555551924_2184678995351009_6627119744596247003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dNm7sflncUwQ7kNvwHA_Mp4&amp;_nc_oc=AdlSaizcWHQ5h6PJQ1Jxd8tdNgVCNLVb87ORrLOvWCPbavImu6G9NDDv-Bg9x5Q_3uc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=TH2a8lVnDpvdyGNBRqr3Pw&amp;oh=00_AfYU7tVxW7yfNfrRzy_VgkXDa391D_dEm6uJpAdLiyDNJg&amp;oe=68DF13A3', 'profileId': 'pfbid02gwskM2ABD2n7ZAxW7yaFHUnHCEVVpscB2U2MbP4P7Pda54UEapnoVqyAeDFKQRbSl', 'profileName': 'Rudis Montealegre', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1210931174412453', 'postTitle': 'Tarta de queso con Cremosino @Alpina: 4 ingredientes y cremosidad total. ¡Hazla en casa y disfrútala!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1306123300908239'}</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -12767,7 +12795,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
+          <t>https://www.facebook.com/100064867445065/videos/650898810937630</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -12787,13 +12815,13 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/650898810937630', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -12807,7 +12835,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
+          <t>https://www.facebook.com/100064867445065/videos/25142626068674397</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -12827,13 +12855,13 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/25142626068674397', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -12847,7 +12875,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
+          <t>https://www.facebook.com/100064867445065/videos/781719031113522</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -12867,13 +12895,13 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/781719031113522', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -12887,7 +12915,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
+          <t>https://www.facebook.com/100064867445065/videos/1377632307302350</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -12907,13 +12935,13 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1377632307302350', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -12927,7 +12955,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
+          <t>https://www.facebook.com/100064867445065/videos/1450312649554599</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -12947,13 +12975,13 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1450312649554599', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -12967,7 +12995,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
+          <t>https://www.facebook.com/100064867445065/videos/1112926276913003</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -12987,13 +13015,13 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1112926276913003', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -13007,30 +13035,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
+          <t>https://www.facebook.com/100064867445065/videos/1197451092404401</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Gracias</t>
-        </is>
-      </c>
-      <c r="G246" s="2" t="n">
-        <v>45916.97883101852</v>
-      </c>
-      <c r="H246" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>23:29:31</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -13041,13 +13055,13 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=M1g2wiVFeRMQ7kNvwE_KjB8&amp;_nc_oc=Adl7fVE1gzaYAhmekVGAMlVenhBSeKqLeGrbFF1rRS93MI5E6wcv-KDADJgxvTpRtrk&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=XmeoBS8qqvYFkqVnm4e2QQ&amp;oh=00_AfafgBR-joSJz8SpOEdhCsgy24xGhJHtme0ufRJvD27Nqw&amp;oe=68DDBA1C', 'profileId': 'pfbid02cucsMpyQB3TpGJYQEnfFyMqGavcYMdqmh8uzwxYv7JPbZZHDkgXKhMFycdzuBPhKl', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1197451092404401', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -13061,7 +13075,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
+          <t>https://www.facebook.com/100064867445065/videos/785935173895742</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -13081,13 +13095,13 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/785935173895742', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -13101,16 +13115,30 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
+          <t>https://www.facebook.com/100064867445065/videos/1272941960983516</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>0</v>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Gracias</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>45916.97883101852</v>
+      </c>
+      <c r="H248" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>23:29:31</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -13121,13 +13149,13 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516', 'commentUrl': 'https://www.facebook.com/reel/1272941960983516/?comment_id=772506898726817', 'id': 'Y29tbWVudDoxMjExMDIwMzc3NzM2ODY2Xzc3MjUwNjg5ODcyNjgxNw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxMTAyMDM3NzczNjg2Nl83NzI1MDY4OTg3MjY4MTc=', 'date': '2025-09-16T23:29:31.000Z', 'text': 'Gracias', 'profileUrl': 'https://www.facebook.com/monica.jaimes.968107', 'profilePicture': 'https://scontent-phx1-1.xx.fbcdn.net/v/t39.30808-1/430057952_122098817804238991_735500358423421083_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=M1g2wiVFeRMQ7kNvwHqP5fE&amp;_nc_oc=Adk7Ktsl90DvxG5dkFZ2JPVByie1kl65WfK-bsypiKX_K7jPj_vChzdYMmSOkCKdkpE&amp;_nc_zt=24&amp;_nc_ht=scontent-phx1-1.xx&amp;_nc_gid=p6wO8uK8_kh0HLzL1hBLkg&amp;oh=00_AfbKQMpxsEPkEpxjL5Vm0EDiQ-v4qMmL7iRIxWB3pon9mg&amp;oe=68DF0B9C', 'profileId': 'pfbid0Yt29t1mqW9jEgExvNdVWWK6kRVoQrU67J7siefXqzMN1FgLPammCsPcXucavN26Zl', 'profileName': 'Mónica Jaimes', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1211020377736866', 'postTitle': 'Marquesa de 3 leches con Crema de Leche Alpina. ¡Dignas de un rey!. ', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/100064867445065/videos/1272941960983516'}</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -13141,7 +13169,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
+          <t>https://www.facebook.com/100064867445065/videos/1088181969962745</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -13161,13 +13189,13 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1088181969962745', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -13181,7 +13209,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
+          <t>https://www.facebook.com/100064867445065/videos/1478389826688793</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -13201,13 +13229,13 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1478389826688793', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -13221,7 +13249,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
+          <t>https://www.facebook.com/100064867445065/videos/769549319319000</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -13241,13 +13269,13 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/769549319319000', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -13261,7 +13289,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
+          <t>https://www.facebook.com/100064867445065/videos/1856535798542600</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -13281,13 +13309,13 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1856535798542600', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -13301,7 +13329,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
+          <t>https://www.facebook.com/100064867445065/videos/780194147747053</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -13321,13 +13349,13 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/780194147747053', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -13341,7 +13369,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
+          <t>https://www.facebook.com/100064867445065/videos/762541969866656</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -13361,13 +13389,13 @@
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/762541969866656', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -13381,7 +13409,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
+          <t>https://www.facebook.com/100064867445065/videos/2536452253381951</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -13401,13 +13429,13 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/2536452253381951', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -13421,7 +13449,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
+          <t>https://www.facebook.com/100064867445065/videos/798142679303135</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -13441,13 +13469,13 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/798142679303135', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -13461,7 +13489,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
+          <t>https://www.facebook.com/100064867445065/videos/764814619498990</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -13481,13 +13509,13 @@
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/764814619498990', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -13501,7 +13529,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
+          <t>https://www.facebook.com/100064867445065/videos/1504052630621665</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -13521,13 +13549,13 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1504052630621665', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -13541,7 +13569,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
+          <t>https://www.facebook.com/100064867445065/videos/812103241156564</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -13561,13 +13589,13 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/812103241156564', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -13581,7 +13609,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
+          <t>https://www.facebook.com/100064867445065/videos/667415203051455</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -13601,17 +13629,17 @@
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/667415203051455', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -13621,7 +13649,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
+          <t>https://www.facebook.com/100064867445065/videos/1071246621839050</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -13638,24 +13666,20 @@
       <c r="L261" t="b">
         <v>0</v>
       </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/1071246621839050', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -13665,7 +13689,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
+          <t>https://www.facebook.com/100064867445065/videos/792626393453208</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -13682,20 +13706,16 @@
       <c r="L262" t="b">
         <v>0</v>
       </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/videos/792626393453208', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -13709,7 +13729,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59teFAGER/</t>
+          <t>https://www.instagram.com/p/DN57pB1jERi/</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -13733,13 +13753,13 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN57pB1jERi/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -13753,7 +13773,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
+          <t>https://www.instagram.com/p/DN5_P5ZjLG3/</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -13777,13 +13797,13 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN5_P5ZjLG3/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -13797,7 +13817,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN59wfOjMs2/</t>
+          <t>https://www.instagram.com/p/DN59teFAGER/</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -13821,13 +13841,13 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN59wfOjMs2/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59teFAGER/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -13841,7 +13861,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DN57o8vjFGo/</t>
+          <t>https://www.instagram.com/p/DN59tauAKm2/</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -13865,13 +13885,13 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DN57o8vjFGo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DN59tauAKm2/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -13885,7 +13905,7 @@
       </c>
       <c r="D267" t="inlineStr">
     